--- a/Bigram_Language_Model/probabilities.xlsx
+++ b/Bigram_Language_Model/probabilities.xlsx
@@ -451,12 +451,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lw: 16</t>
+          <t>l
+: 1314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[8.158603247124092e-05]</t>
+          <t>['l\n: 0.006700252916700661']</t>
         </is>
       </c>
     </row>
@@ -466,12 +467,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hq: 1</t>
+          <t>zz: 45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['zz: 0.0002294607163253651']</t>
         </is>
       </c>
     </row>
@@ -481,12 +482,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ro: 869</t>
+          <t>ms: 35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.004431141388594273]</t>
+          <t>['ms: 0.00017846944603083952']</t>
         </is>
       </c>
     </row>
@@ -496,12 +497,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lm: 60</t>
+          <t>dj: 9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.0003059476217671535]</t>
+          <t>['dj: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -511,12 +512,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>iz: 277</t>
+          <t>y
+: 2007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.0014124581871583586]</t>
+          <t>['y\n: 0.010233947948111284']</t>
         </is>
       </c>
     </row>
@@ -526,13 +528,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>h
-: 2409</t>
+          <t>jo: 479</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.01228379701395121]</t>
+          <t>['jo: 0.0024424818471077752']</t>
         </is>
       </c>
     </row>
@@ -542,12 +543,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>yk: 86</t>
+          <t>ld: 138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0.00043852492453292]</t>
+          <t>['ld: 0.000703679530064453']</t>
         </is>
       </c>
     </row>
@@ -557,12 +558,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>lu: 324</t>
+          <t>vo: 153</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.0016521171575426287]</t>
+          <t>['vo: 0.0007801664355062413']</t>
         </is>
       </c>
     </row>
@@ -572,12 +573,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>wz: 1</t>
+          <t>iv: 269</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['iv: 0.001371665170922738']</t>
         </is>
       </c>
     </row>
@@ -587,12 +588,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dk: 3</t>
+          <t>p
+: 33</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['p\n: 0.00016827119197193442']</t>
         </is>
       </c>
     </row>
@@ -602,12 +604,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>oa: 149</t>
+          <t>ut: 82</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[0.0007597699273884311]</t>
+          <t>['ut: 0.00041812841641510973']</t>
         </is>
       </c>
     </row>
@@ -617,12 +619,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sm: 90</t>
+          <t>wk: 6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[0.0004589214326507302]</t>
+          <t>['wk: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -632,12 +634,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>aw: 161</t>
+          <t>xm: 1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[0.0008209594517418618]</t>
+          <t>['xm: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -647,12 +649,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pi: 61</t>
+          <t>wg: 1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[0.00031104674879660604]</t>
+          <t>['wg: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -662,12 +664,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ix: 89</t>
+          <t>fi: 160</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[0.0004538223056212776]</t>
+          <t>['fi: 0.0008158603247124093']</t>
         </is>
       </c>
     </row>
@@ -677,12 +679,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>xu: 5</t>
+          <t>cu: 35</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[2.549563514726279e-05]</t>
+          <t>['cu: 0.00017846944603083952']</t>
         </is>
       </c>
     </row>
@@ -692,12 +694,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>eb: 121</t>
+          <t>lo: 692</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[0.0006169943705637595]</t>
+          <t>['lo: 0.00352859590438117']</t>
         </is>
       </c>
     </row>
@@ -707,12 +709,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mw: 2</t>
+          <t>ct: 35</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['ct: 0.00017846944603083952']</t>
         </is>
       </c>
     </row>
@@ -722,12 +724,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ef: 82</t>
+          <t>ba: 321</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[0.00041812841641510973]</t>
+          <t>['ba: 0.001636819776454271']</t>
         </is>
       </c>
     </row>
@@ -737,13 +739,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>u
-: 155</t>
+          <t>qw: 3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[0.0007903646895651464]</t>
+          <t>['qw: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -753,13 +754,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>s
-: 1169</t>
+          <t>en: 2675</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[0.00596087949743004]</t>
+          <t>['en: 0.013640164803785592']</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>we: 149</t>
+          <t>ib: 110</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[0.0007597699273884311]</t>
+          <t>['ib: 0.0005609039732397814']</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mz: 11</t>
+          <t>ns: 278</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[5.6090397323978135e-05]</t>
+          <t>['ns: 0.001417557314187811']</t>
         </is>
       </c>
     </row>
@@ -799,12 +799,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sa: 1201</t>
+          <t>wt: 8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[0.006124051562372522]</t>
+          <t>['wt: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -814,12 +814,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mo: 452</t>
+          <t>go: 83</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[0.002304805417312556]</t>
+          <t>['go: 0.0004232275434445623']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>zy: 147</t>
+          <t>os: 504</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[0.000749571673329526]</t>
+          <t>['os: 0.002569960022844089']</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>wh: 23</t>
+          <t>th: 647</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[0.00011727992167740883]</t>
+          <t>['th: 0.003299135188055805']</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>oc: 114</t>
+          <t>ig: 428</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[0.0005813004813575916]</t>
+          <t>['ig: 0.002182426368605695']</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pj: 1</t>
+          <t>df: 5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['df: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ic: 509</t>
+          <t>ok: 68</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[0.002595455657991352]</t>
+          <t>['ok: 0.00034674063800277393']</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ad: 1042</t>
+          <t>nw: 11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[0.005313290364689565]</t>
+          <t>['nw: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -919,12 +919,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>yz: 78</t>
+          <t>kl: 139</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[0.0003977319082972995]</t>
+          <t>['kl: 0.0007087786570939055']</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>lh: 19</t>
+          <t>lu: 324</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[9.68834135595986e-05]</t>
+          <t>['lu: 0.0016521171575426287']</t>
         </is>
       </c>
     </row>
@@ -949,12 +949,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ch: 664</t>
+          <t>hd: 24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[0.0033858203475564982]</t>
+          <t>['hd: 0.0001223790487068614']</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gs: 30</t>
+          <t>n
+: 6763</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[0.00015297381088357674]</t>
+          <t>['n\n: 0.03448539610018765']</t>
         </is>
       </c>
     </row>
@@ -979,12 +980,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>az: 435</t>
+          <t>aj: 175</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[0.0022181202578118626]</t>
+          <t>['aj: 0.0008923472301541976']</t>
         </is>
       </c>
     </row>
@@ -994,12 +995,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bt: 2</t>
+          <t>jk: 2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['jk: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1010,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>gb: 3</t>
+          <t>ag: 168</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['ag: 0.0008566533409480297']</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1025,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wk: 6</t>
+          <t>cy: 104</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[3.059476217671535e-05]</t>
+          <t>['cy: 0.000530309211063066']</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1040,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>zp: 2</t>
+          <t>a
+: 6640</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['a\n: 0.03385820347556499']</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1056,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>je: 440</t>
+          <t>sc: 60</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[0.0022436158929591255]</t>
+          <t>['sc: 0.0003059476217671535']</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1071,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ob: 140</t>
+          <t>rs: 190</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[0.0007138777841233581]</t>
+          <t>['rs: 0.000968834135595986']</t>
         </is>
       </c>
     </row>
@@ -1084,12 +1086,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>uq: 10</t>
+          <t>kr: 109</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[5.099127029452558e-05]</t>
+          <t>['kr: 0.0005558048462103288']</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1101,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>kc: 2</t>
+          <t>fk: 2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['fk: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1116,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>om: 261</t>
+          <t>hg: 2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[0.0013308721546871176]</t>
+          <t>['hg: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -1129,12 +1131,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ok: 68</t>
+          <t>ir: 849</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[0.00034674063800277393]</t>
+          <t>['ir: 0.004329158848005221']</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1146,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ah: 2332</t>
+          <t>sh: 1285</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[0.011891164232683365]</t>
+          <t>['sh: 0.0065523782328465365']</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1161,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>qu: 206</t>
+          <t>zo: 110</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[0.0010504201680672268]</t>
+          <t>['zo: 0.0005609039732397814']</t>
         </is>
       </c>
     </row>
@@ -1174,12 +1176,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>so: 531</t>
+          <t>nh: 26</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[0.0027076364526393082]</t>
+          <t>['nh: 0.0001325773027657665']</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1191,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ac: 470</t>
+          <t>ve: 568</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[0.002396589703842702]</t>
+          <t>['ve: 0.0028963041527290526']</t>
         </is>
       </c>
     </row>
@@ -1204,12 +1206,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>gh: 360</t>
+          <t>gz: 1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[0.0018356857306029207]</t>
+          <t>['gz: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1221,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>qa: 13</t>
+          <t>gd: 19</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[6.628865138288325e-05]</t>
+          <t>['gd: 9.68834135595986e-05']</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1236,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ge: 334</t>
+          <t>bs: 8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[0.0017031084278371542]</t>
+          <t>['bs: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -1249,12 +1251,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>og: 44</t>
+          <t>mm: 168</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[0.00022436158929591254]</t>
+          <t>['mm: 0.0008566533409480297']</t>
         </is>
       </c>
     </row>
@@ -1264,12 +1266,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>yd: 272</t>
+          <t>lp: 15</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[0.0013869625520110957]</t>
+          <t>['lp: 7.648690544178837e-05']</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1281,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>lc: 25</t>
+          <t>yc: 115</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[0.00012747817573631394]</t>
+          <t>['yc: 0.0005863996083870441']</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1296,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ib: 110</t>
+          <t>xf: 3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[0.0005609039732397814]</t>
+          <t>['xf: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1311,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>xs: 31</t>
+          <t>ab: 541</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[0.0001580729379130293]</t>
+          <t>['ab: 0.002758627722933834']</t>
         </is>
       </c>
     </row>
@@ -1324,12 +1326,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>aa: 556</t>
+          <t>in: 2126</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[0.002835114628375622]</t>
+          <t>['in: 0.010840744064616138']</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1341,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>th: 647</t>
+          <t>wz: 1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[0.003299135188055805]</t>
+          <t>['wz: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -1354,13 +1356,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>g
-: 108</t>
+          <t>tz: 105</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[0.0005507057191808763]</t>
+          <t>['tz: 0.0005354083380925185']</t>
         </is>
       </c>
     </row>
@@ -1370,12 +1371,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>qo: 2</t>
+          <t>va: 642</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['va: 0.003273639552908542']</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1386,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>qs: 2</t>
+          <t>as: 1118</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['as: 0.005700824018927959']</t>
         </is>
       </c>
     </row>
@@ -1400,12 +1401,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ni: 1725</t>
+          <t>sf: 2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[0.008795994125805662]</t>
+          <t>['sf: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1416,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ux: 34</t>
+          <t>md: 24</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[0.00017337031900138697]</t>
+          <t>['md: 0.0001223790487068614']</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1431,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ny: 465</t>
+          <t>hh: 1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[0.0023710940686954393]</t>
+          <t>['hh: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>yq: 6</t>
+          <t>wn: 58</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[3.059476217671535e-05]</t>
+          <t>['wn: 0.00029574936770824833']</t>
         </is>
       </c>
     </row>
@@ -1460,12 +1461,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ua: 163</t>
+          <t>hs: 31</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[0.0008311577058007669]</t>
+          <t>['hs: 0.0001580729379130293']</t>
         </is>
       </c>
     </row>
@@ -1475,12 +1476,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ne: 1359</t>
+          <t>f
+: 80</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[0.006929713633026026]</t>
+          <t>['f\n: 0.00040793016235620463']</t>
         </is>
       </c>
     </row>
@@ -1490,12 +1492,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ev: 463</t>
+          <t>fr: 114</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[0.002360895814636534]</t>
+          <t>['fr: 0.0005813004813575916']</t>
         </is>
       </c>
     </row>
@@ -1505,12 +1507,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>zz: 45</t>
+          <t>tc: 17</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[0.0002294607163253651]</t>
+          <t>['tc: 8.668515950069348e-05']</t>
         </is>
       </c>
     </row>
@@ -1520,13 +1522,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>e
-: 3983</t>
+          <t>gu: 85</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[0.020309822958309538]</t>
+          <t>['gu: 0.00043342579750346743']</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1537,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>yr: 291</t>
+          <t>nx: 6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[0.0014838459655706943]</t>
+          <t>['nx: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1552,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>lr: 18</t>
+          <t>mh: 5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[9.178428653014603e-05]</t>
+          <t>['mh: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1567,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>df: 5</t>
+          <t>ci: 271</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[2.549563514726279e-05]</t>
+          <t>['ci: 0.001381863424981643']</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1582,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>kk: 20</t>
+          <t>hq: 1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[0.00010198254058905116]</t>
+          <t>['hq: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -1596,12 +1597,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ds: 29</t>
+          <t>yk: 86</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[0.00014787468385412417]</t>
+          <t>['yk: 0.00043852492453292']</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1612,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>fh: 1</t>
+          <t>nf: 11</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['nf: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1627,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ca: 815</t>
+          <t>ac: 470</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[0.004155788529003834]</t>
+          <t>['ac: 0.002396589703842702']</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1642,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>eq: 14</t>
+          <t>di: 674</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[7.138777841233581e-05]</t>
+          <t>['di: 0.003436811617851024']</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1657,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cc: 42</t>
+          <t>mi: 1256</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[0.00021416333523700741]</t>
+          <t>['mi: 0.006404503548992413']</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1672,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>xi: 102</t>
+          <t>ce: 551</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[0.0005201109570041609]</t>
+          <t>['ce: 0.002809618993228359']</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1687,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>pl: 16</t>
+          <t>rm: 162</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[8.158603247124092e-05]</t>
+          <t>['rm: 0.0008260585787713144']</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1702,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>nw: 11</t>
+          <t>zn: 4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[5.6090397323978135e-05]</t>
+          <t>['zn: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1717,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ki: 509</t>
+          <t>sb: 21</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[0.002595455657991352]</t>
+          <t>['sb: 0.00010708166761850371']</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1732,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tf: 2</t>
+          <t>wa: 280</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['wa: 0.0014277555682467161']</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1747,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>hg: 2</t>
+          <t>sz: 10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['sz: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1762,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>zk: 2</t>
+          <t>bd: 65</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['bd: 0.00033144325691441623']</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ze: 373</t>
+          <t>cp: 1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[0.001901974381985804]</t>
+          <t>['cp: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -1791,13 +1792,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>k
-: 363</t>
+          <t>is: 1316</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[0.0018509831116912785]</t>
+          <t>['is: 0.006710451170759566']</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1807,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ha: 2244</t>
+          <t>eq: 14</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[0.01144244105409154]</t>
+          <t>['eq: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -1822,12 +1822,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>xw: 3</t>
+          <t>pe: 197</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['pe: 0.0010045280248021538']</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>qm: 2</t>
+          <t>tm: 4</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['tm: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -1852,13 +1852,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>i
-: 2489</t>
+          <t>ws: 20</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[0.012691727176307416]</t>
+          <t>['ws: 0.00010198254058905116']</t>
         </is>
       </c>
     </row>
@@ -1868,12 +1867,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>gu: 85</t>
+          <t>kf: 1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[0.00043342579750346743]</t>
+          <t>['kf: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -1883,12 +1882,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>gi: 190</t>
+          <t>kt: 17</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[0.000968834135595986]</t>
+          <t>['kt: 8.668515950069348e-05']</t>
         </is>
       </c>
     </row>
@@ -1898,12 +1897,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>pe: 197</t>
+          <t>ka: 1731</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[0.0010045280248021538]</t>
+          <t>['ka: 0.008826588887982377']</t>
         </is>
       </c>
     </row>
@@ -1913,12 +1912,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>zo: 110</t>
+          <t>zh: 43</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[0.0005609039732397814]</t>
+          <t>['zh: 0.00021926246226646']</t>
         </is>
       </c>
     </row>
@@ -1928,12 +1927,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>qe: 1</t>
+          <t>dq: 1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['dq: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1942,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>rg: 76</t>
+          <t>lm: 60</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[0.0003875336542383944]</t>
+          <t>['lm: 0.0003059476217671535']</t>
         </is>
       </c>
     </row>
@@ -1958,12 +1957,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>sh: 1285</t>
+          <t>gt: 31</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[0.0065523782328465365]</t>
+          <t>['gt: 0.0001580729379130293']</t>
         </is>
       </c>
     </row>
@@ -1973,12 +1972,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>xa: 103</t>
+          <t>ti: 532</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[0.0005252100840336134]</t>
+          <t>['ti: 0.002712735579668761']</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1987,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>af: 134</t>
+          <t>db: 1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[0.0006832830219466428]</t>
+          <t>['db: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2002,13 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>zs: 4</t>
+          <t>t
+: 483</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['t\n: 0.0024628783552255854']</t>
         </is>
       </c>
     </row>
@@ -2018,12 +2018,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>cd: 1</t>
+          <t>ae: 692</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ae: 0.00352859590438117']</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>np: 5</t>
+          <t>ql: 1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[2.549563514726279e-05]</t>
+          <t>['ql: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2048,12 +2048,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>hh: 1</t>
+          <t>mt: 4</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['mt: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -2063,12 +2063,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>te: 716</t>
+          <t>id: 440</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[0.003650974953088031]</t>
+          <t>['id: 0.0022436158929591255']</t>
         </is>
       </c>
     </row>
@@ -2078,12 +2078,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>bc: 1</t>
+          <t>sr: 55</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['sr: 0.0002804519866198907']</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2093,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>me: 818</t>
+          <t>jt: 2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[0.004171085910092192]</t>
+          <t>['jt: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2108,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>st: 765</t>
+          <t>fa: 242</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[0.0039008321775312067]</t>
+          <t>['fa: 0.001233988741127519']</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[0.012890593130456067]</t>
+          <t>['al: 0.012890593130456067']</t>
         </is>
       </c>
     </row>
@@ -2138,12 +2138,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vu: 7</t>
+          <t>el: 3248</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[3.5693889206167905e-05]</t>
+          <t>['el: 0.01656196459166191']</t>
         </is>
       </c>
     </row>
@@ -2153,12 +2153,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>wd: 8</t>
+          <t>ew: 50</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[4.079301623562046e-05]</t>
+          <t>['ew: 0.0002549563514726279']</t>
         </is>
       </c>
     </row>
@@ -2168,12 +2168,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>an: 5438</t>
+          <t>pp: 39</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[0.02772905278616301]</t>
+          <t>['pp: 0.00019886595414864974']</t>
         </is>
       </c>
     </row>
@@ -2183,13 +2183,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>f
-: 80</t>
+          <t>nt: 443</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[0.00040793016235620463]</t>
+          <t>['nt: 0.002258913274047483']</t>
         </is>
       </c>
     </row>
@@ -2199,12 +2198,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>mc: 51</t>
+          <t>uz: 45</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[0.00026005547850208044]</t>
+          <t>['uz: 0.0002294607163253651']</t>
         </is>
       </c>
     </row>
@@ -2214,12 +2213,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>dd: 149</t>
+          <t>wh: 23</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[0.0007597699273884311]</t>
+          <t>['wh: 0.00011727992167740883']</t>
         </is>
       </c>
     </row>
@@ -2229,12 +2228,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>po: 59</t>
+          <t>nc: 213</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[0.0003008484947377009]</t>
+          <t>['nc: 0.0010861140572733948']</t>
         </is>
       </c>
     </row>
@@ -2244,12 +2243,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>rj: 25</t>
+          <t>lz: 10</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[0.00012747817573631394]</t>
+          <t>['lz: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2258,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>eo: 269</t>
+          <t>oy: 103</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[0.001371665170922738]</t>
+          <t>['oy: 0.0005252100840336134']</t>
         </is>
       </c>
     </row>
@@ -2274,12 +2273,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>xf: 3</t>
+          <t>nk: 58</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['nk: 0.00029574936770824833']</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2288,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>hv: 39</t>
+          <t>gb: 3</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[0.00019886595414864974]</t>
+          <t>['gb: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -2304,12 +2303,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>is: 1316</t>
+          <t>ym: 148</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[0.006710451170759566]</t>
+          <t>['ym: 0.0007546708003589786']</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2318,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ag: 168</t>
+          <t>ge: 334</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[0.0008566533409480297]</t>
+          <t>['ge: 0.0017031084278371542']</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2333,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>vy: 121</t>
+          <t>bo: 105</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[0.0006169943705637595]</t>
+          <t>['bo: 0.0005354083380925185']</t>
         </is>
       </c>
     </row>
@@ -2349,13 +2348,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>o
-: 855</t>
+          <t>cj: 3</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[0.004359753610181937]</t>
+          <t>['cj: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2363,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>lq: 3</t>
+          <t>wu: 25</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['wu: 0.00012747817573631394']</t>
         </is>
       </c>
     </row>
@@ -2380,12 +2378,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>fa: 242</t>
+          <t>ec: 153</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[0.001233988741127519]</t>
+          <t>['ec: 0.0007801664355062413']</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2393,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>gy: 31</t>
+          <t>ih: 95</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[0.0001580729379130293]</t>
+          <t>['ih: 0.000484417067797993']</t>
         </is>
       </c>
     </row>
@@ -2410,12 +2408,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jb: 1</t>
+          <t>gi: 190</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['gi: 0.000968834135595986']</t>
         </is>
       </c>
     </row>
@@ -2425,12 +2423,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>hs: 31</t>
+          <t>mb: 112</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[0.0001580729379130293]</t>
+          <t>['mb: 0.0005711022272986865']</t>
         </is>
       </c>
     </row>
@@ -2440,12 +2438,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ps: 16</t>
+          <t>bt: 2</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[8.158603247124092e-05]</t>
+          <t>['bt: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -2455,12 +2453,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>oq: 3</t>
+          <t>js: 7</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['js: 3.5693889206167905e-05']</t>
         </is>
       </c>
     </row>
@@ -2470,12 +2468,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>aj: 175</t>
+          <t>pl: 16</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[0.0008923472301541976]</t>
+          <t>['pl: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -2485,12 +2483,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>xx: 38</t>
+          <t>ou: 275</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[0.0001937668271191972]</t>
+          <t>['ou: 0.0014022599330994533']</t>
         </is>
       </c>
     </row>
@@ -2500,12 +2498,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>od: 190</t>
+          <t>ar: 3264</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[0.000968834135595986]</t>
+          <t>['ar: 0.016643550624133148']</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2513,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>mr: 97</t>
+          <t>fe: 123</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[0.0004946153218568981]</t>
+          <t>['fe: 0.0006271926246226646']</t>
         </is>
       </c>
     </row>
@@ -2530,12 +2528,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ju: 202</t>
+          <t>ra: 2356</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[0.0010300236599494166]</t>
+          <t>['ra: 0.012013543281390225']</t>
         </is>
       </c>
     </row>
@@ -2545,12 +2543,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ek: 178</t>
+          <t>ma: 2590</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[0.0009076446112425553]</t>
+          <t>['ma: 0.013206739006282124']</t>
         </is>
       </c>
     </row>
@@ -2560,12 +2558,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>yp: 15</t>
+          <t>zl: 123</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[7.648690544178837e-05]</t>
+          <t>['zl: 0.0006271926246226646']</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2573,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>cr: 76</t>
+          <t>ue: 169</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[0.0003875336542383944]</t>
+          <t>['ue: 0.0008617524679774822']</t>
         </is>
       </c>
     </row>
@@ -2590,12 +2588,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>la: 2623</t>
+          <t>rv: 80</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[0.013375010198254059]</t>
+          <t>['rv: 0.00040793016235620463']</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2603,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>yf: 12</t>
+          <t>li: 2480</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[6.11895243534307e-05]</t>
+          <t>['li: 0.012645835033042343']</t>
         </is>
       </c>
     </row>
@@ -2620,12 +2618,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>yv: 106</t>
+          <t>xl: 39</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[0.0005405074651219711]</t>
+          <t>['xl: 0.00019886595414864974']</t>
         </is>
       </c>
     </row>
@@ -2635,12 +2633,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>cx: 3</t>
+          <t>xc: 4</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['xc: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -2650,12 +2648,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>dq: 1</t>
+          <t>eh: 152</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['eh: 0.0007750673084767888']</t>
         </is>
       </c>
     </row>
@@ -2665,12 +2663,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>qw: 3</t>
+          <t>ow: 114</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['ow: 0.0005813004813575916']</t>
         </is>
       </c>
     </row>
@@ -2680,12 +2678,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>sn: 24</t>
+          <t>uf: 19</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[0.0001223790487068614]</t>
+          <t>['uf: 9.68834135595986e-05']</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2693,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>uz: 45</t>
+          <t>kb: 2</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[0.0002294607163253651]</t>
+          <t>['kb: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -2710,13 +2708,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>q
-: 28</t>
+          <t>ur: 414</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[0.00014277555682467162]</t>
+          <t>['ur: 0.002111038590193359']</t>
         </is>
       </c>
     </row>
@@ -2726,12 +2723,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>jh: 45</t>
+          <t>tb: 1</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[0.0002294607163253651]</t>
+          <t>['tb: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2738,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>rb: 41</t>
+          <t>mj: 7</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[0.00020906420820755486]</t>
+          <t>['mj: 3.5693889206167905e-05']</t>
         </is>
       </c>
     </row>
@@ -2756,12 +2753,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>rh: 121</t>
+          <t>og: 44</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[0.0006169943705637595]</t>
+          <t>['og: 0.00022436158929591254']</t>
         </is>
       </c>
     </row>
@@ -2771,12 +2768,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>dn: 31</t>
+          <t>up: 16</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[0.0001580729379130293]</t>
+          <t>['up: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -2786,12 +2783,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>xz: 19</t>
+          <t>ph: 204</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[9.68834135595986e-05]</t>
+          <t>['ph: 0.0010402219140083217']</t>
         </is>
       </c>
     </row>
@@ -2801,12 +2798,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>wb: 1</t>
+          <t>aa: 556</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['aa: 0.002835114628375622']</t>
         </is>
       </c>
     </row>
@@ -2816,12 +2813,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>bs: 8</t>
+          <t>aq: 60</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[4.079301623562046e-05]</t>
+          <t>['aq: 0.0003059476217671535']</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2828,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ln: 14</t>
+          <t>xx: 38</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[7.138777841233581e-05]</t>
+          <t>['xx: 0.0001937668271191972']</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2843,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ud: 136</t>
+          <t>gn: 27</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[0.0006934812760055479]</t>
+          <t>['gn: 0.00013767642979521907']</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2858,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>hr: 204</t>
+          <t>qm: 2</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[0.0010402219140083217]</t>
+          <t>['qm: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -2876,12 +2873,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>wm: 2</t>
+          <t>ao: 63</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['ao: 0.00032124500285551113']</t>
         </is>
       </c>
     </row>
@@ -2891,12 +2888,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ld: 138</t>
+          <t>im: 427</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[0.000703679530064453]</t>
+          <t>['im: 0.0021773272415762423']</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2903,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>xl: 39</t>
+          <t>lb: 52</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[0.00019886595414864974]</t>
+          <t>['lb: 0.000265154605531533']</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2918,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>zw: 3</t>
+          <t>se: 884</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['se: 0.004507628294036061']</t>
         </is>
       </c>
     </row>
@@ -2936,12 +2933,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ja: 1473</t>
+          <t>vb: 1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[0.007511014114383618]</t>
+          <t>['vb: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2951,12 +2948,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ss: 461</t>
+          <t>qi: 13</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[0.002350697560577629]</t>
+          <t>['qi: 6.628865138288325e-05']</t>
         </is>
       </c>
     </row>
@@ -2966,12 +2963,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>pu: 4</t>
+          <t>dz: 1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['dz: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2978,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>kv: 2</t>
+          <t>jw: 6</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['jw: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -2996,12 +2993,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>jd: 4</t>
+          <t>cd: 1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['cd: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3008,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>bd: 65</t>
+          <t>rl: 413</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[0.00033144325691441623]</t>
+          <t>['rl: 0.0021059394631639063']</t>
         </is>
       </c>
     </row>
@@ -3026,12 +3023,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>pm: 1</t>
+          <t>ix: 89</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ix: 0.0004538223056212776']</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3038,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>cy: 104</t>
+          <t>wf: 2</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[0.000530309211063066]</t>
+          <t>['wf: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -3056,12 +3053,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>hm: 117</t>
+          <t>qe: 1</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[0.0005965978624459492]</t>
+          <t>['qe: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3071,12 +3068,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>be: 655</t>
+          <t>rt: 208</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[0.003339928204291425]</t>
+          <t>['rt: 0.001060618422126132']</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3083,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ll: 1345</t>
+          <t>bl: 103</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[0.00685832585461369]</t>
+          <t>['bl: 0.0005252100840336134']</t>
         </is>
       </c>
     </row>
@@ -3101,12 +3098,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>yn: 1826</t>
+          <t>xb: 1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[0.00931100595578037]</t>
+          <t>['xb: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3116,12 +3113,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>of: 34</t>
+          <t>tt: 374</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[0.00017337031900138697]</t>
+          <t>['tt: 0.0019070735090152566']</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3128,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ir: 849</t>
+          <t>do: 378</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[0.004329158848005221]</t>
+          <t>['do: 0.0019274700171330668']</t>
         </is>
       </c>
     </row>
@@ -3146,12 +3143,13 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>tu: 78</t>
+          <t>g
+: 108</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[0.0003977319082972995]</t>
+          <t>['g\n: 0.0005507057191808763']</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3159,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>sg: 2</t>
+          <t>kw: 34</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['kw: 0.00017337031900138697']</t>
         </is>
       </c>
     </row>
@@ -3176,12 +3174,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ji: 119</t>
+          <t>ua: 163</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[0.0006067961165048543]</t>
+          <t>['ua: 0.0008311577058007669']</t>
         </is>
       </c>
     </row>
@@ -3191,12 +3189,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>nb: 8</t>
+          <t>em: 769</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[4.079301623562046e-05]</t>
+          <t>['em: 0.003921228685649017']</t>
         </is>
       </c>
     </row>
@@ -3206,12 +3204,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>uk: 93</t>
+          <t>cl: 116</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[0.0004742188137390879]</t>
+          <t>['cl: 0.0005914987354164967']</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3219,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>yw: 4</t>
+          <t>pu: 4</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['pu: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3234,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ba: 321</t>
+          <t>oc: 114</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[0.001636819776454271]</t>
+          <t>['oc: 0.0005813004813575916']</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3249,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>or: 1059</t>
+          <t>lk: 24</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[0.0053999755241902585]</t>
+          <t>['lk: 0.0001223790487068614']</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3264,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>hz: 20</t>
+          <t>yy: 23</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[0.00010198254058905116]</t>
+          <t>['yy: 0.00011727992167740883']</t>
         </is>
       </c>
     </row>
@@ -3281,12 +3279,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>jc: 4</t>
+          <t>hn: 138</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['hn: 0.000703679530064453']</t>
         </is>
       </c>
     </row>
@@ -3296,12 +3294,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>uh: 58</t>
+          <t>gv: 1</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[0.00029574936770824833]</t>
+          <t>['gv: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3309,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>zb: 4</t>
+          <t>kh: 307</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['kh: 0.0015654319980419353']</t>
         </is>
       </c>
     </row>
@@ -3326,12 +3324,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>on: 2411</t>
+          <t>iu: 109</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[0.012293995268010116]</t>
+          <t>['iu: 0.0005558048462103288']</t>
         </is>
       </c>
     </row>
@@ -3341,13 +3339,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>z
-: 160</t>
+          <t>uh: 58</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[0.0008158603247124093]</t>
+          <t>['uh: 0.00029574936770824833']</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3354,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>db: 1</t>
+          <t>ov: 176</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ov: 0.0008974463571836502']</t>
         </is>
       </c>
     </row>
@@ -3372,12 +3369,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>lp: 15</t>
+          <t>ng: 273</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[7.648690544178837e-05]</t>
+          <t>['ng: 0.0013920616790405482']</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3384,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>za: 860</t>
+          <t>iq: 52</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[0.0043852492453292]</t>
+          <t>['iq: 0.000265154605531533']</t>
         </is>
       </c>
     </row>
@@ -3402,12 +3399,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>vv: 7</t>
+          <t>ds: 29</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[3.5693889206167905e-05]</t>
+          <t>['ds: 0.00014787468385412417']</t>
         </is>
       </c>
     </row>
@@ -3417,12 +3414,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>fw: 4</t>
+          <t>he: 674</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['he: 0.003436811617851024']</t>
         </is>
       </c>
     </row>
@@ -3432,12 +3429,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>tr: 352</t>
+          <t>dn: 31</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[0.0017948927143673003]</t>
+          <t>['dn: 0.0001580729379130293']</t>
         </is>
       </c>
     </row>
@@ -3447,12 +3444,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>sp: 51</t>
+          <t>sq: 1</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[0.00026005547850208044]</t>
+          <t>['sq: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3462,12 +3459,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>jm: 5</t>
+          <t>ml: 5</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[2.549563514726279e-05]</t>
+          <t>['ml: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -3477,12 +3474,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>mi: 1256</t>
+          <t>mv: 3</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[0.006404503548992413]</t>
+          <t>['mv: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -3492,12 +3489,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>rr: 425</t>
+          <t>oi: 69</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[0.002167128987517337]</t>
+          <t>['oi: 0.0003518397650322265']</t>
         </is>
       </c>
     </row>
@@ -3507,13 +3504,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>w
-: 51</t>
+          <t>yt: 104</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[0.00026005547850208044]</t>
+          <t>['yt: 0.000530309211063066']</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3519,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>sl: 279</t>
+          <t>xu: 5</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[0.0014226564412172637]</t>
+          <t>['xu: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -3538,12 +3534,13 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>lv: 72</t>
+          <t>u
+: 155</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[0.00036713714612058413]</t>
+          <t>['u\n: 0.0007903646895651464']</t>
         </is>
       </c>
     </row>
@@ -3553,12 +3550,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>pn: 1</t>
+          <t>ej: 55</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ej: 0.0002804519866198907']</t>
         </is>
       </c>
     </row>
@@ -3568,12 +3565,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>lo: 692</t>
+          <t>ki: 509</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[0.00352859590438117]</t>
+          <t>['ki: 0.002595455657991352']</t>
         </is>
       </c>
     </row>
@@ -3583,12 +3580,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>bb: 38</t>
+          <t>ot: 118</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[0.0001937668271191972]</t>
+          <t>['ot: 0.0006016969894754018']</t>
         </is>
       </c>
     </row>
@@ -3598,12 +3595,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>fz: 2</t>
+          <t>ty: 341</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['ty: 0.0017388023170433222']</t>
         </is>
       </c>
     </row>
@@ -3613,12 +3610,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>kn: 26</t>
+          <t>oa: 149</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[0.0001325773027657665]</t>
+          <t>['oa: 0.0007597699273884311']</t>
         </is>
       </c>
     </row>
@@ -3628,12 +3625,13 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>wg: 1</t>
+          <t>b
+: 114</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['b\n: 0.0005813004813575916']</t>
         </is>
       </c>
     </row>
@@ -3643,12 +3641,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>tc: 17</t>
+          <t>at: 687</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[8.668515950069348e-05]</t>
+          <t>['at: 0.003503100269233907']</t>
         </is>
       </c>
     </row>
@@ -3658,12 +3656,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>tb: 1</t>
+          <t>ju: 202</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ju: 0.0010300236599494166']</t>
         </is>
       </c>
     </row>
@@ -3673,12 +3671,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ru: 252</t>
+          <t>ob: 140</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[0.0012849800114220445]</t>
+          <t>['ob: 0.0007138777841233581']</t>
         </is>
       </c>
     </row>
@@ -3688,12 +3686,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>rz: 23</t>
+          <t>re: 1697</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[0.00011727992167740883]</t>
+          <t>['re: 0.00865321856898099']</t>
         </is>
       </c>
     </row>
@@ -3703,12 +3701,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>jw: 6</t>
+          <t>gf: 1</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[3.059476217671535e-05]</t>
+          <t>['gf: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3718,12 +3716,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ct: 35</t>
+          <t>rr: 425</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[0.00017846944603083952]</t>
+          <t>['rr: 0.002167128987517337']</t>
         </is>
       </c>
     </row>
@@ -3733,12 +3731,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>rc: 99</t>
+          <t>rq: 16</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[0.0005048135759158032]</t>
+          <t>['rq: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -3748,12 +3746,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>io: 588</t>
+          <t>ad: 1042</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[0.002998286693318104]</t>
+          <t>['ad: 0.005313290364689565']</t>
         </is>
       </c>
     </row>
@@ -3763,12 +3761,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ii: 82</t>
+          <t>wd: 8</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[0.00041812841641510973]</t>
+          <t>['wd: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -3778,12 +3776,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ov: 176</t>
+          <t>zs: 4</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[0.0008974463571836502]</t>
+          <t>['zs: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -3793,12 +3791,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>zx: 1</t>
+          <t>mf: 1</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['mf: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3808,12 +3806,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>vo: 153</t>
+          <t>rh: 121</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[0.0007801664355062413]</t>
+          <t>['rh: 0.0006169943705637595']</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3821,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ug: 47</t>
+          <t>tn: 22</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[0.0002396589703842702]</t>
+          <t>['tn: 0.00011218079464795627']</t>
         </is>
       </c>
     </row>
@@ -3838,12 +3836,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>co: 380</t>
+          <t>ip: 53</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[0.001937668271191972]</t>
+          <t>['ip: 0.00027025373256098553']</t>
         </is>
       </c>
     </row>
@@ -3853,13 +3851,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>r
-: 1377</t>
+          <t>pk: 1</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[0.007021497919556172]</t>
+          <t>['pk: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3869,13 +3866,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>c
-: 97</t>
+          <t>nr: 44</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[0.0004946153218568981]</t>
+          <t>['nr: 0.00022436158929591254']</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3881,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>hk: 29</t>
+          <t>ye: 301</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[0.00014787468385412417]</t>
+          <t>['ye: 0.0015348372358652198']</t>
         </is>
       </c>
     </row>
@@ -3900,12 +3896,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>yc: 115</t>
+          <t>rj: 25</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[0.0005863996083870441]</t>
+          <t>['rj: 0.00012747817573631394']</t>
         </is>
       </c>
     </row>
@@ -3915,12 +3911,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>nd: 704</t>
+          <t>fn: 4</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[0.0035897854287346006]</t>
+          <t>['fn: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -3930,12 +3926,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ga: 330</t>
+          <t>ze: 373</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[0.001682711919719344]</t>
+          <t>['ze: 0.001901974381985804']</t>
         </is>
       </c>
     </row>
@@ -3945,12 +3941,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ee: 1271</t>
+          <t>uv: 37</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[0.006480990454434201]</t>
+          <t>['uv: 0.00018866770008974464']</t>
         </is>
       </c>
     </row>
@@ -3960,12 +3956,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ur: 414</t>
+          <t>ep: 83</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[0.002111038590193359]</t>
+          <t>['ep: 0.0004232275434445623']</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3971,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>id: 440</t>
+          <t>da: 1303</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[0.0022436158929591255]</t>
+          <t>['da: 0.006644162519376683']</t>
         </is>
       </c>
     </row>
@@ -3990,12 +3986,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>zt: 4</t>
+          <t>cz: 4</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['cz: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -4005,12 +4001,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>rt: 208</t>
+          <t>vd: 1</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[0.001060618422126132]</t>
+          <t>['vd: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -4020,12 +4016,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>lj: 6</t>
+          <t>kn: 26</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[3.059476217671535e-05]</t>
+          <t>['kn: 0.0001325773027657665']</t>
         </is>
       </c>
     </row>
@@ -4035,12 +4031,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>jv: 5</t>
+          <t>ug: 47</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[2.549563514726279e-05]</t>
+          <t>['ug: 0.0002396589703842702']</t>
         </is>
       </c>
     </row>
@@ -4050,12 +4046,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>nv: 55</t>
+          <t>ga: 330</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[0.0002804519866198907]</t>
+          <t>['ga: 0.001682711919719344']</t>
         </is>
       </c>
     </row>
@@ -4065,12 +4061,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>tv: 15</t>
+          <t>ol: 619</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[7.648690544178837e-05]</t>
+          <t>['ol: 0.0031563596312311334']</t>
         </is>
       </c>
     </row>
@@ -4080,12 +4076,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>os: 504</t>
+          <t>ul: 301</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[0.002569960022844089]</t>
+          <t>['ul: 0.0015348372358652198']</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4091,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>vd: 1</t>
+          <t>yh: 22</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['yh: 0.00011218079464795627']</t>
         </is>
       </c>
     </row>
@@ -4110,12 +4106,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>oi: 69</t>
+          <t>uw: 86</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[0.0003518397650322265]</t>
+          <t>['uw: 0.00043852492453292']</t>
         </is>
       </c>
     </row>
@@ -4125,12 +4121,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>mm: 168</t>
+          <t>ic: 509</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[0.0008566533409480297]</t>
+          <t>['ic: 0.002595455657991352']</t>
         </is>
       </c>
     </row>
@@ -4140,12 +4136,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>lg: 6</t>
+          <t>nb: 8</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[3.059476217671535e-05]</t>
+          <t>['nb: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -4155,12 +4151,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ns: 278</t>
+          <t>of: 34</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[0.001417557314187811]</t>
+          <t>['of: 0.00017337031900138697']</t>
         </is>
       </c>
     </row>
@@ -4170,12 +4166,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>cu: 35</t>
+          <t>xt: 70</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[0.00017846944603083952]</t>
+          <t>['xt: 0.00035693889206167903']</t>
         </is>
       </c>
     </row>
@@ -4185,12 +4181,13 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>kb: 2</t>
+          <t>j
+: 71</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['j\n: 0.0003620380190911316']</t>
         </is>
       </c>
     </row>
@@ -4200,12 +4197,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>cz: 4</t>
+          <t>xh: 1</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['xh: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4212,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ks: 95</t>
+          <t>rp: 14</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[0.000484417067797993]</t>
+          <t>['rp: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -4230,12 +4227,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ty: 341</t>
+          <t>nl: 195</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[0.0017388023170433222]</t>
+          <t>['nl: 0.0009943297707432487']</t>
         </is>
       </c>
     </row>
@@ -4245,12 +4242,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>fr: 114</t>
+          <t>yb: 27</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[0.0005813004813575916]</t>
+          <t>['yb: 0.00013767642979521907']</t>
         </is>
       </c>
     </row>
@@ -4260,12 +4257,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>bn: 4</t>
+          <t>fz: 2</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['fz: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4272,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>cp: 1</t>
+          <t>kv: 2</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['kv: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -4290,12 +4287,13 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>xt: 70</t>
+          <t>o
+: 855</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[0.00035693889206167903]</t>
+          <t>['o\n: 0.004359753610181937']</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4303,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>vh: 1</t>
+          <t>bu: 45</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['bu: 0.0002294607163253651']</t>
         </is>
       </c>
     </row>
@@ -4320,12 +4318,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>tm: 4</t>
+          <t>ri: 3033</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['ri: 0.015465652280329608']</t>
         </is>
       </c>
     </row>
@@ -4335,13 +4333,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>n
-: 6763</t>
+          <t>pa: 209</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[0.03448539610018765]</t>
+          <t>['pa: 0.0010657175491555846']</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4348,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>rp: 14</t>
+          <t>ee: 1271</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[7.138777841233581e-05]</t>
+          <t>['ee: 0.006480990454434201']</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4363,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>nz: 145</t>
+          <t>fl: 20</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[0.0007393734192706209]</t>
+          <t>['fl: 0.00010198254058905116']</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4378,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>tx: 2</t>
+          <t>dm: 30</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['dm: 0.00015297381088357674']</t>
         </is>
       </c>
     </row>
@@ -4396,12 +4393,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>en: 2675</t>
+          <t>qu: 206</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[0.013640164803785592]</t>
+          <t>['qu: 0.0010504201680672268']</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4408,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>sq: 1</t>
+          <t>oe: 132</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['oe: 0.0006730847678877377']</t>
         </is>
       </c>
     </row>
@@ -4426,12 +4423,13 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>gr: 201</t>
+          <t>s
+: 1169</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[0.0010249245329199642]</t>
+          <t>['s\n: 0.00596087949743004']</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4439,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>km: 9</t>
+          <t>dy: 317</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[4.5892143265073016e-05]</t>
+          <t>['dy: 0.0016164232683364608']</t>
         </is>
       </c>
     </row>
@@ -4456,12 +4454,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>et: 580</t>
+          <t>xs: 31</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>[0.0029574936770824837]</t>
+          <t>['xs: 0.0001580729379130293']</t>
         </is>
       </c>
     </row>
@@ -4471,12 +4469,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ej: 55</t>
+          <t>rd: 187</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[0.0002804519866198907]</t>
+          <t>['rd: 0.0009535367545076283']</t>
         </is>
       </c>
     </row>
@@ -4486,12 +4484,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>fe: 123</t>
+          <t>gh: 360</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[0.0006271926246226646]</t>
+          <t>['gh: 0.0018356857306029207']</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4499,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>jl: 9</t>
+          <t>ef: 82</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>[4.5892143265073016e-05]</t>
+          <t>['ef: 0.00041812841641510973']</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4514,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>uy: 13</t>
+          <t>aw: 161</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[6.628865138288325e-05]</t>
+          <t>['aw: 0.0008209594517418618']</t>
         </is>
       </c>
     </row>
@@ -4531,12 +4529,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>rm: 162</t>
+          <t>lq: 3</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[0.0008260585787713144]</t>
+          <t>['lq: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -4546,12 +4544,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>zr: 32</t>
+          <t>le: 2921</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[0.00016317206494248184]</t>
+          <t>['le: 0.014894550053030921']</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4559,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>he: 674</t>
+          <t>ss: 461</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[0.003436811617851024]</t>
+          <t>['ss: 0.002350697560577629']</t>
         </is>
       </c>
     </row>
@@ -4576,12 +4574,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ap: 82</t>
+          <t>lc: 25</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>[0.00041812841641510973]</t>
+          <t>['lc: 0.00012747817573631394']</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4589,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>mn: 20</t>
+          <t>ky: 379</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>[0.00010198254058905116]</t>
+          <t>['ky: 0.0019325691441625195']</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4604,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>pp: 39</t>
+          <t>bn: 4</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>[0.00019886595414864974]</t>
+          <t>['bn: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4619,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>nt: 443</t>
+          <t>ry: 773</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[0.002258913274047483]</t>
+          <t>['ry: 0.003941625193766827']</t>
         </is>
       </c>
     </row>
@@ -4636,12 +4634,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>bo: 105</t>
+          <t>yo: 271</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[0.0005354083380925185]</t>
+          <t>['yo: 0.001381863424981643']</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4649,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>do: 378</t>
+          <t>hj: 9</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[0.0019274700171330668]</t>
+          <t>['hj: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -4666,12 +4664,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>gn: 27</t>
+          <t>cs: 5</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[0.00013767642979521907]</t>
+          <t>['cs: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -4681,12 +4679,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>el: 3248</t>
+          <t>uu: 3</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[0.01656196459166191]</t>
+          <t>['uu: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -4696,12 +4694,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>er: 1958</t>
+          <t>iy: 779</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[0.009984090723668107]</t>
+          <t>['iy: 0.003972219955943542']</t>
         </is>
       </c>
     </row>
@@ -4711,12 +4709,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>yx: 28</t>
+          <t>tw: 11</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>[0.00014277555682467162]</t>
+          <t>['tw: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -4726,12 +4724,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ta: 1027</t>
+          <t>if: 101</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[0.005236803459247777]</t>
+          <t>['if: 0.0005150118299747083']</t>
         </is>
       </c>
     </row>
@@ -4741,12 +4739,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>mp: 38</t>
+          <t>nv: 55</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>[0.0001937668271191972]</t>
+          <t>['nv: 0.0002804519866198907']</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4754,13 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>rs: 190</t>
+          <t>i
+: 2489</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[0.000968834135595986]</t>
+          <t>['i\n: 0.012691727176307416']</t>
         </is>
       </c>
     </row>
@@ -4771,12 +4770,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>em: 769</t>
+          <t>zb: 4</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>[0.003921228685649017]</t>
+          <t>['zb: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -4786,12 +4785,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>zd: 2</t>
+          <t>vr: 48</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['vr: 0.0002447580974137228']</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4800,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>qi: 13</t>
+          <t>tj: 3</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>[6.628865138288325e-05]</t>
+          <t>['tj: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -4816,12 +4815,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>kd: 2</t>
+          <t>pm: 1</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['pm: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4830,13 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>mk: 1</t>
+          <t>k
+: 363</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['k\n: 0.0018509831116912785']</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>nr: 44</t>
+          <t>zp: 2</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>[0.00022436158929591254]</t>
+          <t>['zp: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>sc: 60</t>
+          <t>yw: 4</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>[0.0003059476217671535]</t>
+          <t>['yw: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -4876,12 +4876,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>wr: 22</t>
+          <t>ts: 35</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>[0.00011218079464795627]</t>
+          <t>['ts: 0.00017846944603083952']</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4891,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>zg: 1</t>
+          <t>uk: 93</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['uk: 0.0004742188137390879']</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>if: 101</t>
+          <t>yd: 272</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>[0.0005150118299747083]</t>
+          <t>['yd: 0.0013869625520110957']</t>
         </is>
       </c>
     </row>
@@ -4921,12 +4921,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>cj: 3</t>
+          <t>eo: 269</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['eo: 0.001371665170922738']</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ht: 71</t>
+          <t>oq: 3</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>[0.0003620380190911316]</t>
+          <t>['oq: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4951,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>uf: 19</t>
+          <t>od: 190</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>[9.68834135595986e-05]</t>
+          <t>['od: 0.000968834135595986']</t>
         </is>
       </c>
     </row>
@@ -4966,12 +4966,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>hp: 1</t>
+          <t>ik: 445</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ik: 0.0022691115281063884']</t>
         </is>
       </c>
     </row>
@@ -4981,12 +4981,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>my: 287</t>
+          <t>nq: 2</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[0.001463449457452884]</t>
+          <t>['nq: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -4996,12 +4996,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>xm: 1</t>
+          <t>qa: 13</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['qa: 6.628865138288325e-05']</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>lb: 52</t>
+          <t>de: 1283</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>[0.000265154605531533]</t>
+          <t>['de: 0.006542179978787631']</t>
         </is>
       </c>
     </row>
@@ -5026,12 +5026,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ws: 20</t>
+          <t>zi: 364</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[0.00010198254058905116]</t>
+          <t>['zi: 0.0018560822387207311']</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>it: 541</t>
+          <t>lg: 6</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>[0.002758627722933834]</t>
+          <t>['lg: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>kt: 17</t>
+          <t>uc: 103</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>[8.668515950069348e-05]</t>
+          <t>['uc: 0.0005252100840336134']</t>
         </is>
       </c>
     </row>
@@ -5071,12 +5071,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ul: 301</t>
+          <t>tl: 134</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>[0.0015348372358652198]</t>
+          <t>['tl: 0.0006832830219466428']</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5086,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>kf: 1</t>
+          <t>mu: 139</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['mu: 0.0007087786570939055']</t>
         </is>
       </c>
     </row>
@@ -5101,12 +5101,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>kh: 307</t>
+          <t>uj: 14</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[0.0015654319980419353]</t>
+          <t>['uj: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>tz: 105</t>
+          <t>mz: 11</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[0.0005354083380925185]</t>
+          <t>['mz: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -5131,12 +5131,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ml: 5</t>
+          <t>za: 860</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>[2.549563514726279e-05]</t>
+          <t>['za: 0.0043852492453292']</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5146,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>am: 1634</t>
+          <t>qs: 2</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>[0.00833197356612548]</t>
+          <t>['qs: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -5161,12 +5161,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>yu: 141</t>
+          <t>jc: 4</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>[0.0007189769111528106]</t>
+          <t>['jc: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -5176,13 +5176,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>m
-: 516</t>
+          <t>zx: 1</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>[0.0026311495471975197]</t>
+          <t>['zx: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -5192,12 +5191,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>zh: 43</t>
+          <t>no: 496</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>[0.00021926246226646]</t>
+          <t>['no: 0.0025291670066084687']</t>
         </is>
       </c>
     </row>
@@ -5207,12 +5206,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>uo: 10</t>
+          <t>ed: 384</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>[5.099127029452558e-05]</t>
+          <t>['ed: 0.0019580647793097823']</t>
         </is>
       </c>
     </row>
@@ -5222,12 +5221,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>yy: 23</t>
+          <t>jv: 5</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>[0.00011727992167740883]</t>
+          <t>['jv: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -5237,12 +5236,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ae: 692</t>
+          <t>np: 5</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>[0.00352859590438117]</t>
+          <t>['np: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5251,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>hd: 24</t>
+          <t>mr: 97</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>[0.0001223790487068614]</t>
+          <t>['mr: 0.0004946153218568981']</t>
         </is>
       </c>
     </row>
@@ -5267,12 +5266,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ex: 132</t>
+          <t>lv: 72</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>[0.0006730847678877377]</t>
+          <t>['lv: 0.00036713714612058413']</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5281,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ci: 271</t>
+          <t>ia: 2445</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[0.001381863424981643]</t>
+          <t>['ia: 0.012467365587011503']</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5296,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>gw: 26</t>
+          <t>cx: 3</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[0.0001325773027657665]</t>
+          <t>['cx: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -5312,12 +5311,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>eu: 69</t>
+          <t>zk: 2</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>[0.0003518397650322265]</t>
+          <t>['zk: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -5327,12 +5326,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>kz: 2</t>
+          <t>iz: 277</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['iz: 0.0014124581871583586']</t>
         </is>
       </c>
     </row>
@@ -5342,12 +5341,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>br: 842</t>
+          <t>mo: 452</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>[0.0042934649587990535]</t>
+          <t>['mo: 0.002304805417312556']</t>
         </is>
       </c>
     </row>
@@ -5357,12 +5356,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>bl: 103</t>
+          <t>ux: 34</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>[0.0005252100840336134]</t>
+          <t>['ux: 0.00017337031900138697']</t>
         </is>
       </c>
     </row>
@@ -5372,12 +5371,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ol: 619</t>
+          <t>gl: 32</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>[0.0031563596312311334]</t>
+          <t>['gl: 0.00016317206494248184']</t>
         </is>
       </c>
     </row>
@@ -5387,12 +5386,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>pt: 17</t>
+          <t>na: 2977</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>[8.668515950069348e-05]</t>
+          <t>['na: 0.015180101166680265']</t>
         </is>
       </c>
     </row>
@@ -5402,12 +5401,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ik: 445</t>
+          <t>or: 1059</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[0.0022691115281063884]</t>
+          <t>['or: 0.0053999755241902585']</t>
         </is>
       </c>
     </row>
@@ -5417,12 +5416,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>wo: 36</t>
+          <t>wr: 22</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>[0.00018356857306029207]</t>
+          <t>['wr: 0.00011218079464795627']</t>
         </is>
       </c>
     </row>
@@ -5432,12 +5431,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>zc: 2</t>
+          <t>af: 134</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['af: 0.0006832830219466428']</t>
         </is>
       </c>
     </row>
@@ -5447,12 +5446,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>re: 1697</t>
+          <t>zc: 2</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>[0.00865321856898099]</t>
+          <t>['zc: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -5462,12 +5461,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>fg: 1</t>
+          <t>ei: 818</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ei: 0.004171085910092192']</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5476,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>iu: 109</t>
+          <t>ii: 82</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>[0.0005558048462103288]</t>
+          <t>['ii: 0.00041812841641510973']</t>
         </is>
       </c>
     </row>
@@ -5492,12 +5491,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>yb: 27</t>
+          <t>sn: 24</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>[0.00013767642979521907]</t>
+          <t>['sn: 0.0001223790487068614']</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5506,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>um: 154</t>
+          <t>am: 1634</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[0.0007852655625356939]</t>
+          <t>['am: 0.00833197356612548']</t>
         </is>
       </c>
     </row>
@@ -5522,12 +5521,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>wu: 25</t>
+          <t>zv: 2</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>[0.00012747817573631394]</t>
+          <t>['zv: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -5537,12 +5536,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>un: 275</t>
+          <t>zw: 3</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>[0.0014022599330994533]</t>
+          <t>['zw: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -5552,12 +5551,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>oz: 54</t>
+          <t>wb: 1</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>[0.00027535285959043814]</t>
+          <t>['wb: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -5567,12 +5566,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>lf: 22</t>
+          <t>nd: 704</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>[0.00011218079464795627]</t>
+          <t>['nd: 0.0035897854287346006']</t>
         </is>
       </c>
     </row>
@@ -5582,12 +5581,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ti: 532</t>
+          <t>ya: 2143</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>[0.002712735579668761]</t>
+          <t>['ya: 0.010927429224116832']</t>
         </is>
       </c>
     </row>
@@ -5597,12 +5596,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>wt: 8</t>
+          <t>te: 716</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>[4.079301623562046e-05]</t>
+          <t>['te: 0.003650974953088031']</t>
         </is>
       </c>
     </row>
@@ -5612,12 +5611,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>hy: 213</t>
+          <t>ap: 82</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>[0.0010861140572733948]</t>
+          <t>['ap: 0.00041812841641510973']</t>
         </is>
       </c>
     </row>
@@ -5627,12 +5626,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>mf: 1</t>
+          <t>dg: 25</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['dg: 0.00012747817573631394']</t>
         </is>
       </c>
     </row>
@@ -5642,12 +5641,13 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>zi: 364</t>
+          <t>q
+: 28</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>[0.0018560822387207311]</t>
+          <t>['q\n: 0.00014277555682467162']</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>pr: 151</t>
+          <t>wm: 2</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>[0.0007699681814473362]</t>
+          <t>['wm: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -5672,12 +5672,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>ys: 401</t>
+          <t>ru: 252</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>[0.0020447499388104758]</t>
+          <t>['ru: 0.0012849800114220445']</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>ww: 2</t>
+          <t>oo: 115</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['oo: 0.0005863996083870441']</t>
         </is>
       </c>
     </row>
@@ -5702,13 +5702,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>l
-: 1314</t>
+          <t>pn: 1</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>[0.006700252916700661]</t>
+          <t>['pn: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -5718,12 +5717,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>fk: 2</t>
+          <t>sy: 215</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['sy: 0.0010963123113323']</t>
         </is>
       </c>
     </row>
@@ -5733,12 +5732,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>ox: 45</t>
+          <t>er: 1958</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>[0.0002294607163253651]</t>
+          <t>['er: 0.009984090723668107']</t>
         </is>
       </c>
     </row>
@@ -5748,12 +5747,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>op: 95</t>
+          <t>ff: 44</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>[0.000484417067797993]</t>
+          <t>['ff: 0.00022436158929591254']</t>
         </is>
       </c>
     </row>
@@ -5763,12 +5762,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>ih: 95</t>
+          <t>om: 261</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>[0.000484417067797993]</t>
+          <t>['om: 0.0013308721546871176']</t>
         </is>
       </c>
     </row>
@@ -5778,12 +5777,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>tt: 374</t>
+          <t>hi: 729</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>[0.0019070735090152566]</t>
+          <t>['hi: 0.0037172636044709145']</t>
         </is>
       </c>
     </row>
@@ -5793,12 +5792,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>mh: 5</t>
+          <t>hr: 204</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>[2.549563514726279e-05]</t>
+          <t>['hr: 0.0010402219140083217']</t>
         </is>
       </c>
     </row>
@@ -5808,12 +5807,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>qr: 1</t>
+          <t>nu: 96</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['nu: 0.0004895161948274456']</t>
         </is>
       </c>
     </row>
@@ -5823,12 +5822,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>ut: 82</t>
+          <t>xz: 19</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>[0.00041812841641510973]</t>
+          <t>['xz: 9.68834135595986e-05']</t>
         </is>
       </c>
     </row>
@@ -5838,12 +5837,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>jr: 11</t>
+          <t>jn: 2</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[5.6090397323978135e-05]</t>
+          <t>['jn: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -5853,12 +5852,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>ab: 541</t>
+          <t>du: 92</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>[0.002758627722933834]</t>
+          <t>['du: 0.00046911968670963533']</t>
         </is>
       </c>
     </row>
@@ -5868,12 +5867,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>uc: 103</t>
+          <t>be: 655</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>[0.0005252100840336134]</t>
+          <t>['be: 0.003339928204291425']</t>
         </is>
       </c>
     </row>
@@ -5883,12 +5882,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>ui: 121</t>
+          <t>jh: 45</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>[0.0006169943705637595]</t>
+          <t>['jh: 0.0002294607163253651']</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5897,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>fl: 20</t>
+          <t>op: 95</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>[0.00010198254058905116]</t>
+          <t>['op: 0.000484417067797993']</t>
         </is>
       </c>
     </row>
@@ -5913,12 +5912,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>su: 185</t>
+          <t>ev: 463</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>[0.0009433385004487232]</t>
+          <t>['ev: 0.002360895814636534']</t>
         </is>
       </c>
     </row>
@@ -5928,12 +5927,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>bj: 1</t>
+          <t>py: 12</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['py: 6.11895243534307e-05']</t>
         </is>
       </c>
     </row>
@@ -5943,12 +5942,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>jt: 2</t>
+          <t>yu: 141</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['yu: 0.0007189769111528106']</t>
         </is>
       </c>
     </row>
@@ -5958,12 +5957,13 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>dh: 118</t>
+          <t>x
+: 163</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>[0.0006016969894754018]</t>
+          <t>['x\n: 0.0008311577058007669']</t>
         </is>
       </c>
     </row>
@@ -5973,12 +5973,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>im: 427</t>
+          <t>sm: 90</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>[0.0021773272415762423]</t>
+          <t>['sm: 0.0004589214326507302']</t>
         </is>
       </c>
     </row>
@@ -5988,12 +5988,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ye: 301</t>
+          <t>fh: 1</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[0.0015348372358652198]</t>
+          <t>['fh: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -6003,12 +6003,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>tj: 3</t>
+          <t>hz: 20</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['hz: 0.00010198254058905116']</t>
         </is>
       </c>
     </row>
@@ -6018,12 +6018,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>dm: 30</t>
+          <t>we: 149</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[0.00015297381088357674]</t>
+          <t>['we: 0.0007597699273884311']</t>
         </is>
       </c>
     </row>
@@ -6033,12 +6033,13 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>mv: 3</t>
+          <t>m
+: 516</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['m\n: 0.0026311495471975197']</t>
         </is>
       </c>
     </row>
@@ -6048,12 +6049,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>hc: 2</t>
+          <t>ai: 1650</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['ai: 0.00841355959859672']</t>
         </is>
       </c>
     </row>
@@ -6063,12 +6064,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>pk: 1</t>
+          <t>ja: 1473</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ja: 0.007511014114383618']</t>
         </is>
       </c>
     </row>
@@ -6078,12 +6079,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ts: 35</t>
+          <t>ko: 344</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>[0.00017846944603083952]</t>
+          <t>['ko: 0.00175409969813168']</t>
         </is>
       </c>
     </row>
@@ -6093,13 +6094,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>t
-: 483</t>
+          <t>yx: 28</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>[0.0024628783552255854]</t>
+          <t>['yx: 0.00014277555682467162']</t>
         </is>
       </c>
     </row>
@@ -6109,12 +6109,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>wa: 280</t>
+          <t>dk: 3</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>[0.0014277555682467161]</t>
+          <t>['dk: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -6124,12 +6124,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>gg: 25</t>
+          <t>rk: 90</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>[0.00012747817573631394]</t>
+          <t>['rk: 0.0004589214326507302']</t>
         </is>
       </c>
     </row>
@@ -6139,12 +6139,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>by: 83</t>
+          <t>bb: 38</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>[0.0004232275434445623]</t>
+          <t>['bb: 0.0001937668271191972']</t>
         </is>
       </c>
     </row>
@@ -6154,13 +6154,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>x
-: 163</t>
+          <t>oz: 54</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>[0.0008311577058007669]</t>
+          <t>['oz: 0.00027535285959043814']</t>
         </is>
       </c>
     </row>
@@ -6170,12 +6169,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>hi: 729</t>
+          <t>kk: 20</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>[0.0037172636044709145]</t>
+          <t>['kk: 0.00010198254058905116']</t>
         </is>
       </c>
     </row>
@@ -6185,12 +6184,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>nh: 26</t>
+          <t>mn: 20</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>[0.0001325773027657665]</t>
+          <t>['mn: 0.00010198254058905116']</t>
         </is>
       </c>
     </row>
@@ -6200,12 +6199,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>sw: 24</t>
+          <t>ln: 14</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>[0.0001223790487068614]</t>
+          <t>['ln: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -6215,12 +6214,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>wy: 73</t>
+          <t>fs: 6</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>[0.00037223627315003673]</t>
+          <t>['fs: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -6230,12 +6229,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>cg: 2</t>
+          <t>ho: 287</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['ho: 0.001463449457452884']</t>
         </is>
       </c>
     </row>
@@ -6245,12 +6244,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>py: 12</t>
+          <t>su: 185</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>[6.11895243534307e-05]</t>
+          <t>['su: 0.0009433385004487232']</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6259,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>ue: 169</t>
+          <t>xa: 103</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>[0.0008617524679774822]</t>
+          <t>['xa: 0.0005252100840336134']</t>
         </is>
       </c>
     </row>
@@ -6275,12 +6274,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>sd: 9</t>
+          <t>xi: 102</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>[4.5892143265073016e-05]</t>
+          <t>['xi: 0.0005201109570041609']</t>
         </is>
       </c>
     </row>
@@ -6290,12 +6289,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>hb: 8</t>
+          <t>oh: 171</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>[4.079301623562046e-05]</t>
+          <t>['oh: 0.0008719507220363874']</t>
         </is>
       </c>
     </row>
@@ -6305,12 +6304,13 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>vn: 8</t>
+          <t>z
+: 160</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>[4.079301623562046e-05]</t>
+          <t>['z\n: 0.0008158603247124093']</t>
         </is>
       </c>
     </row>
@@ -6320,12 +6320,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ax: 182</t>
+          <t>av: 834</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>[0.0009280411193603656]</t>
+          <t>['av: 0.004252671942563433']</t>
         </is>
       </c>
     </row>
@@ -6335,12 +6335,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>uw: 86</t>
+          <t>jb: 1</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>[0.00043852492453292]</t>
+          <t>['jb: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -6350,12 +6350,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>yt: 104</t>
+          <t>ps: 16</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>[0.000530309211063066]</t>
+          <t>['ps: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -6365,12 +6365,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>ak: 568</t>
+          <t>uo: 10</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>[0.0028963041527290526]</t>
+          <t>['uo: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -6380,12 +6380,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>rx: 3</t>
+          <t>kj: 2</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['kj: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6395,12 +6395,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>pf: 1</t>
+          <t>jp: 1</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['jp: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -6410,12 +6410,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>xo: 41</t>
+          <t>rn: 140</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>[0.00020906420820755486]</t>
+          <t>['rn: 0.0007138777841233581']</t>
         </is>
       </c>
     </row>
@@ -6425,12 +6425,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>vi: 911</t>
+          <t>rb: 41</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>[0.00464530472383128]</t>
+          <t>['rb: 0.00020906420820755486']</t>
         </is>
       </c>
     </row>
@@ -6440,12 +6440,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ve: 568</t>
+          <t>zg: 1</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>[0.0028963041527290526]</t>
+          <t>['zg: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>zu: 73</t>
+          <t>xy: 30</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>[0.00037223627315003673]</t>
+          <t>['xy: 0.00015297381088357674']</t>
         </is>
       </c>
     </row>
@@ -6470,12 +6470,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>gj: 3</t>
+          <t>ny: 465</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['ny: 0.0023710940686954393']</t>
         </is>
       </c>
     </row>
@@ -6485,12 +6485,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>zv: 2</t>
+          <t>zj: 2</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['zj: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>wi: 148</t>
+          <t>ww: 2</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>[0.0007546708003589786]</t>
+          <t>['ww: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6515,12 +6515,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ls: 94</t>
+          <t>me: 818</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>[0.0004793179407685404]</t>
+          <t>['me: 0.004171085910092192']</t>
         </is>
       </c>
     </row>
@@ -6530,12 +6530,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>se: 884</t>
+          <t>qr: 1</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>[0.004507628294036061]</t>
+          <t>['qr: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -6545,12 +6545,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ow: 114</t>
+          <t>ud: 136</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>[0.0005813004813575916]</t>
+          <t>['ud: 0.0006934812760055479']</t>
         </is>
       </c>
     </row>
@@ -6560,12 +6560,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ym: 148</t>
+          <t>co: 380</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>[0.0007546708003589786]</t>
+          <t>['co: 0.001937668271191972']</t>
         </is>
       </c>
     </row>
@@ -6575,12 +6575,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>rv: 80</t>
+          <t>hm: 117</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>[0.00040793016235620463]</t>
+          <t>['hm: 0.0005965978624459492']</t>
         </is>
       </c>
     </row>
@@ -6590,12 +6590,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>jn: 2</t>
+          <t>ha: 2244</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['ha: 0.01144244105409154']</t>
         </is>
       </c>
     </row>
@@ -6605,12 +6605,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>iv: 269</t>
+          <t>ro: 869</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>[0.001371665170922738]</t>
+          <t>['ro: 0.004431141388594273']</t>
         </is>
       </c>
     </row>
@@ -6620,12 +6620,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>xd: 5</t>
+          <t>ay: 2050</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>[2.549563514726279e-05]</t>
+          <t>['ay: 0.010453210410377743']</t>
         </is>
       </c>
     </row>
@@ -6635,12 +6635,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ew: 50</t>
+          <t>gw: 26</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>[0.0002549563514726279]</t>
+          <t>['gw: 0.0001325773027657665']</t>
         </is>
       </c>
     </row>
@@ -6650,12 +6650,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ia: 2445</t>
+          <t>ak: 568</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>[0.012467365587011503]</t>
+          <t>['ak: 0.0028963041527290526']</t>
         </is>
       </c>
     </row>
@@ -6665,12 +6665,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>ho: 287</t>
+          <t>sp: 51</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>[0.001463449457452884]</t>
+          <t>['sp: 0.00026005547850208044']</t>
         </is>
       </c>
     </row>
@@ -6680,12 +6680,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>nm: 19</t>
+          <t>dv: 17</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>[9.68834135595986e-05]</t>
+          <t>['dv: 8.668515950069348e-05']</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6695,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>fi: 160</t>
+          <t>tv: 15</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>[0.0008158603247124093]</t>
+          <t>['tv: 7.648690544178837e-05']</t>
         </is>
       </c>
     </row>
@@ -6710,12 +6710,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>rf: 9</t>
+          <t>my: 287</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>[4.5892143265073016e-05]</t>
+          <t>['my: 0.001463449457452884']</t>
         </is>
       </c>
     </row>
@@ -6725,12 +6725,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ie: 1653</t>
+          <t>dw: 23</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>[0.008428856979685078]</t>
+          <t>['dw: 0.00011727992167740883']</t>
         </is>
       </c>
     </row>
@@ -6740,12 +6740,13 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>nq: 2</t>
+          <t>d
+: 516</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['d\n: 0.0026311495471975197']</t>
         </is>
       </c>
     </row>
@@ -6755,12 +6756,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>yh: 22</t>
+          <t>wo: 36</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>[0.00011218079464795627]</t>
+          <t>['wo: 0.00018356857306029207']</t>
         </is>
       </c>
     </row>
@@ -6770,12 +6771,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>mj: 7</t>
+          <t>lt: 77</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>[3.5693889206167905e-05]</t>
+          <t>['lt: 0.00039263278126784693']</t>
         </is>
       </c>
     </row>
@@ -6785,12 +6786,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>nf: 11</t>
+          <t>ca: 815</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>[5.6090397323978135e-05]</t>
+          <t>['ca: 0.004155788529003834']</t>
         </is>
       </c>
     </row>
@@ -6800,12 +6801,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>vl: 14</t>
+          <t>yq: 6</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>[7.138777841233581e-05]</t>
+          <t>['yq: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -6815,12 +6816,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>ar: 3264</t>
+          <t>qo: 2</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>[0.016643550624133148]</t>
+          <t>['qo: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6830,12 +6831,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>js: 7</t>
+          <t>nm: 19</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>[3.5693889206167905e-05]</t>
+          <t>['nm: 9.68834135595986e-05']</t>
         </is>
       </c>
     </row>
@@ -6845,12 +6846,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>cl: 116</t>
+          <t>xw: 3</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>[0.0005914987354164967]</t>
+          <t>['xw: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -6860,12 +6861,13 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>gf: 1</t>
+          <t>w
+: 51</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['w\n: 0.00026005547850208044']</t>
         </is>
       </c>
     </row>
@@ -6875,12 +6877,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>sv: 14</t>
+          <t>so: 531</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>[7.138777841233581e-05]</t>
+          <t>['so: 0.0027076364526393082']</t>
         </is>
       </c>
     </row>
@@ -6890,12 +6892,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>wl: 13</t>
+          <t>sv: 14</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>[6.628865138288325e-05]</t>
+          <t>['sv: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -6905,12 +6907,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>mt: 4</t>
+          <t>uq: 10</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['uq: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -6920,12 +6922,13 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>kj: 2</t>
+          <t>c
+: 97</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['c\n: 0.0004946153218568981']</t>
         </is>
       </c>
     </row>
@@ -6935,12 +6938,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>xb: 1</t>
+          <t>nj: 44</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['nj: 0.00022436158929591254']</t>
         </is>
       </c>
     </row>
@@ -6950,12 +6953,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>le: 2921</t>
+          <t>tx: 2</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>[0.014894550053030921]</t>
+          <t>['tx: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6965,12 +6968,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>kr: 109</t>
+          <t>oj: 16</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>[0.0005558048462103288]</t>
+          <t>['oj: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -6980,12 +6983,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ka: 1731</t>
+          <t>fw: 4</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>[0.008826588887982377]</t>
+          <t>['fw: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -6995,12 +6998,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>jy: 10</t>
+          <t>ku: 50</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>[5.099127029452558e-05]</t>
+          <t>['ku: 0.0002549563514726279']</t>
         </is>
       </c>
     </row>
@@ -7010,12 +7013,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>pa: 209</t>
+          <t>ch: 664</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>[0.0010657175491555846]</t>
+          <t>['ch: 0.0033858203475564982']</t>
         </is>
       </c>
     </row>
@@ -7025,12 +7028,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>hw: 10</t>
+          <t>jj: 2</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>[5.099127029452558e-05]</t>
+          <t>['jj: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7040,12 +7043,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>ra: 2356</t>
+          <t>sj: 2</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>[0.012013543281390225]</t>
+          <t>['sj: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7055,12 +7058,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>si: 684</t>
+          <t>tu: 78</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>[0.0034878028881455496]</t>
+          <t>['tu: 0.0003977319082972995']</t>
         </is>
       </c>
     </row>
@@ -7070,12 +7073,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ng: 273</t>
+          <t>vv: 7</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>[0.0013920616790405482]</t>
+          <t>['vv: 3.5693889206167905e-05']</t>
         </is>
       </c>
     </row>
@@ -7085,12 +7088,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>gv: 1</t>
+          <t>ji: 119</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ji: 0.0006067961165048543']</t>
         </is>
       </c>
     </row>
@@ -7100,12 +7103,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>sj: 2</t>
+          <t>wy: 73</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['wy: 0.00037223627315003673']</t>
         </is>
       </c>
     </row>
@@ -7115,12 +7118,13 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>dr: 424</t>
+          <t>v
+: 88</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>[0.0021620298604878843]</t>
+          <t>['v\n: 0.0004487231785918251']</t>
         </is>
       </c>
     </row>
@@ -7130,12 +7134,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>rn: 140</t>
+          <t>vu: 7</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>[0.0007138777841233581]</t>
+          <t>['vu: 3.5693889206167905e-05']</t>
         </is>
       </c>
     </row>
@@ -7145,12 +7149,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>ig: 428</t>
+          <t>ax: 182</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>[0.002182426368605695]</t>
+          <t>['ax: 0.0009280411193603656']</t>
         </is>
       </c>
     </row>
@@ -7160,12 +7164,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>uv: 37</t>
+          <t>sk: 82</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>[0.00018866770008974464]</t>
+          <t>['sk: 0.00041812841641510973']</t>
         </is>
       </c>
     </row>
@@ -7175,12 +7179,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>ko: 344</t>
+          <t>mp: 38</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>[0.00175409969813168]</t>
+          <t>['mp: 0.0001937668271191972']</t>
         </is>
       </c>
     </row>
@@ -7190,12 +7194,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>ry: 773</t>
+          <t>ex: 132</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>[0.003941625193766827]</t>
+          <t>['ex: 0.0006730847678877377']</t>
         </is>
       </c>
     </row>
@@ -7205,12 +7209,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>dz: 1</t>
+          <t>lj: 6</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['lj: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -7220,12 +7224,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>dg: 25</t>
+          <t>dr: 424</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>[0.00012747817573631394]</t>
+          <t>['dr: 0.0021620298604878843']</t>
         </is>
       </c>
     </row>
@@ -7235,12 +7239,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>tg: 2</t>
+          <t>nz: 145</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['nz: 0.0007393734192706209']</t>
         </is>
       </c>
     </row>
@@ -7250,12 +7254,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>ft: 18</t>
+          <t>gj: 3</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>[9.178428653014603e-05]</t>
+          <t>['gj: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -7265,12 +7269,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>wf: 2</t>
+          <t>ek: 178</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['ek: 0.0009076446112425553']</t>
         </is>
       </c>
     </row>
@@ -7280,12 +7284,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>cs: 5</t>
+          <t>zy: 147</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>[2.549563514726279e-05]</t>
+          <t>['zy: 0.000749571673329526']</t>
         </is>
       </c>
     </row>
@@ -7295,12 +7299,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ao: 63</t>
+          <t>zm: 35</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>[0.00032124500285551113]</t>
+          <t>['zm: 0.00017846944603083952']</t>
         </is>
       </c>
     </row>
@@ -7310,12 +7314,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>ot: 118</t>
+          <t>pc: 1</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>[0.0006016969894754018]</t>
+          <t>['pc: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7325,12 +7329,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>nn: 1906</t>
+          <t>yn: 1826</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>[0.009718936118136574]</t>
+          <t>['yn: 0.00931100595578037']</t>
         </is>
       </c>
     </row>
@@ -7340,12 +7344,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>va: 642</t>
+          <t>vk: 3</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>[0.003273639552908542]</t>
+          <t>['vk: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7359,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>zn: 4</t>
+          <t>cr: 76</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['cr: 0.0003875336542383944']</t>
         </is>
       </c>
     </row>
@@ -7370,12 +7374,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>wn: 58</t>
+          <t>gr: 201</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>[0.00029574936770824833]</t>
+          <t>['gr: 0.0010249245329199642']</t>
         </is>
       </c>
     </row>
@@ -7385,12 +7389,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>mu: 139</t>
+          <t>dl: 60</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>[0.0007087786570939055]</t>
+          <t>['dl: 0.0003059476217671535']</t>
         </is>
       </c>
     </row>
@@ -7400,12 +7404,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>av: 834</t>
+          <t>km: 9</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>[0.004252671942563433]</t>
+          <t>['km: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -7415,12 +7419,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>dw: 23</t>
+          <t>br: 842</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>[0.00011727992167740883]</t>
+          <t>['br: 0.0042934649587990535']</t>
         </is>
       </c>
     </row>
@@ -7430,12 +7434,13 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>rw: 21</t>
+          <t>r
+: 1377</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>[0.00010708166761850371]</t>
+          <t>['r\n: 0.007021497919556172']</t>
         </is>
       </c>
     </row>
@@ -7445,12 +7450,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>oj: 16</t>
+          <t>yz: 78</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>[8.158603247124092e-05]</t>
+          <t>['yz: 0.0003977319082972995']</t>
         </is>
       </c>
     </row>
@@ -7460,12 +7465,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>bh: 41</t>
+          <t>pt: 17</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>[0.00020906420820755486]</t>
+          <t>['pt: 8.668515950069348e-05']</t>
         </is>
       </c>
     </row>
@@ -7475,12 +7480,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>xh: 1</t>
+          <t>kc: 2</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['kc: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7490,12 +7495,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>vk: 3</t>
+          <t>cg: 2</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['cg: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7505,12 +7510,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>nx: 6</t>
+          <t>ls: 94</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>[3.059476217671535e-05]</t>
+          <t>['ls: 0.0004793179407685404']</t>
         </is>
       </c>
     </row>
@@ -7520,13 +7525,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>a
-: 6640</t>
+          <t>la: 2623</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>[0.03385820347556499]</t>
+          <t>['la: 0.013375010198254059']</t>
         </is>
       </c>
     </row>
@@ -7536,12 +7540,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>ff: 44</t>
+          <t>kd: 2</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>[0.00022436158929591254]</t>
+          <t>['kd: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7551,12 +7555,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>lt: 77</t>
+          <t>az: 435</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>[0.00039263278126784693]</t>
+          <t>['az: 0.0022181202578118626']</t>
         </is>
       </c>
     </row>
@@ -7566,12 +7570,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>tl: 134</t>
+          <t>zu: 73</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>[0.0006832830219466428]</t>
+          <t>['zu: 0.00037223627315003673']</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7585,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>ou: 275</t>
+          <t>rw: 21</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>[0.0014022599330994533]</t>
+          <t>['rw: 0.00010708166761850371']</t>
         </is>
       </c>
     </row>
@@ -7596,12 +7600,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>ea: 679</t>
+          <t>st: 765</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>[0.003462307252998287]</t>
+          <t>['st: 0.0039008321775312067']</t>
         </is>
       </c>
     </row>
@@ -7611,12 +7615,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>sz: 10</t>
+          <t>bj: 1</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>[5.099127029452558e-05]</t>
+          <t>['bj: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7626,12 +7630,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ed: 384</t>
+          <t>ij: 76</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>[0.0019580647793097823]</t>
+          <t>['ij: 0.0003875336542383944']</t>
         </is>
       </c>
     </row>
@@ -7641,12 +7645,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>xe: 36</t>
+          <t>gg: 25</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>[0.00018356857306029207]</t>
+          <t>['gg: 0.00012747817573631394']</t>
         </is>
       </c>
     </row>
@@ -7656,12 +7660,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>fs: 6</t>
+          <t>mw: 2</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>[3.059476217671535e-05]</t>
+          <t>['mw: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7671,12 +7675,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>au: 381</t>
+          <t>vn: 8</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>[0.0019427673982214246]</t>
+          <t>['vn: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -7686,12 +7690,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>ma: 2590</t>
+          <t>yg: 30</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>[0.013206739006282124]</t>
+          <t>['yg: 0.00015297381088357674']</t>
         </is>
       </c>
     </row>
@@ -7701,12 +7705,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>oe: 132</t>
+          <t>zd: 2</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>[0.0006730847678877377]</t>
+          <t>['zd: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7716,12 +7720,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>tn: 22</t>
+          <t>bc: 1</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>[0.00011218079464795627]</t>
+          <t>['bc: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7731,12 +7735,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>iw: 8</t>
+          <t>pf: 1</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>[4.079301623562046e-05]</t>
+          <t>['pf: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7746,12 +7750,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>gl: 32</t>
+          <t>et: 580</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>[0.00016317206494248184]</t>
+          <t>['et: 0.0029574936770824837']</t>
         </is>
       </c>
     </row>
@@ -7761,12 +7765,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>nu: 96</t>
+          <t>ox: 45</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>[0.0004895161948274456]</t>
+          <t>['ox: 0.0002294607163253651']</t>
         </is>
       </c>
     </row>
@@ -7776,12 +7780,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>ip: 53</t>
+          <t>fu: 10</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>[0.00027025373256098553]</t>
+          <t>['fu: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -7791,12 +7795,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>kl: 139</t>
+          <t>eg: 125</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>[0.0007087786570939055]</t>
+          <t>['eg: 0.0006373908786815697']</t>
         </is>
       </c>
     </row>
@@ -7806,12 +7810,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>yg: 30</t>
+          <t>je: 440</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>[0.00015297381088357674]</t>
+          <t>['je: 0.0022436158929591255']</t>
         </is>
       </c>
     </row>
@@ -7821,12 +7825,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>dj: 9</t>
+          <t>sg: 2</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>[4.5892143265073016e-05]</t>
+          <t>['sg: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7836,12 +7840,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>dt: 4</t>
+          <t>kz: 2</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['kz: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7851,12 +7855,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>sk: 82</t>
+          <t>ll: 1345</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>[0.00041812841641510973]</t>
+          <t>['ll: 0.00685832585461369']</t>
         </is>
       </c>
     </row>
@@ -7866,12 +7870,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>da: 1303</t>
+          <t>xe: 36</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>[0.006644162519376683]</t>
+          <t>['xe: 0.00018356857306029207']</t>
         </is>
       </c>
     </row>
@@ -7881,12 +7885,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>sr: 55</t>
+          <t>yi: 192</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>[0.0002804519866198907]</t>
+          <t>['yi: 0.0009790323896548912']</t>
         </is>
       </c>
     </row>
@@ -7896,12 +7900,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>nj: 44</t>
+          <t>nn: 1906</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>[0.00022436158929591254]</t>
+          <t>['nn: 0.009718936118136574']</t>
         </is>
       </c>
     </row>
@@ -7911,12 +7915,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>zm: 35</t>
+          <t>dc: 3</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>[0.00017846944603083952]</t>
+          <t>['dc: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -7926,12 +7930,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>yi: 192</t>
+          <t>dh: 118</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>[0.0009790323896548912]</t>
+          <t>['dh: 0.0006016969894754018']</t>
         </is>
       </c>
     </row>
@@ -7941,12 +7945,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>jk: 2</t>
+          <t>fg: 1</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['fg: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7956,12 +7960,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>lk: 24</t>
+          <t>pj: 1</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>[0.0001223790487068614]</t>
+          <t>['pj: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7971,12 +7975,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>nk: 58</t>
+          <t>ub: 103</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>[0.00029574936770824833]</t>
+          <t>['ub: 0.0005252100840336134']</t>
         </is>
       </c>
     </row>
@@ -7986,12 +7990,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>go: 83</t>
+          <t>ui: 121</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>[0.0004232275434445623]</t>
+          <t>['ui: 0.0006169943705637595']</t>
         </is>
       </c>
     </row>
@@ -8001,12 +8005,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>iy: 779</t>
+          <t>to: 667</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>[0.003972219955943542]</t>
+          <t>['to: 0.003401117728644856']</t>
         </is>
       </c>
     </row>
@@ -8016,12 +8020,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>ez: 181</t>
+          <t>xd: 5</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>[0.0009229419923309129]</t>
+          <t>['xd: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -8031,12 +8035,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>kw: 34</t>
+          <t>uy: 13</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>[0.00017337031900138697]</t>
+          <t>['uy: 6.628865138288325e-05']</t>
         </is>
       </c>
     </row>
@@ -8046,12 +8050,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>vb: 1</t>
+          <t>ah: 2332</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ah: 0.011891164232683365']</t>
         </is>
       </c>
     </row>
@@ -8061,12 +8065,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>oy: 103</t>
+          <t>tr: 352</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>[0.0005252100840336134]</t>
+          <t>['tr: 0.0017948927143673003']</t>
         </is>
       </c>
     </row>
@@ -8076,12 +8080,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>pb: 2</t>
+          <t>tg: 2</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['tg: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -8091,12 +8095,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>up: 16</t>
+          <t>on: 2411</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>[8.158603247124092e-05]</t>
+          <t>['on: 0.012293995268010116']</t>
         </is>
       </c>
     </row>
@@ -8106,12 +8110,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>ql: 1</t>
+          <t>vy: 121</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['vy: 0.0006169943705637595']</t>
         </is>
       </c>
     </row>
@@ -8121,12 +8125,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>nl: 195</t>
+          <t>it: 541</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>[0.0009943297707432487]</t>
+          <t>['it: 0.002758627722933834']</t>
         </is>
       </c>
     </row>
@@ -8136,12 +8140,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>fo: 60</t>
+          <t>hv: 39</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>[0.0003059476217671535]</t>
+          <t>['hv: 0.00019886595414864974']</t>
         </is>
       </c>
     </row>
@@ -8151,12 +8155,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>sy: 215</t>
+          <t>ys: 401</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>[0.0010963123113323]</t>
+          <t>['ys: 0.0020447499388104758']</t>
         </is>
       </c>
     </row>
@@ -8166,12 +8170,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>hn: 138</t>
+          <t>jy: 10</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>[0.000703679530064453]</t>
+          <t>['jy: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -8181,12 +8185,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>bu: 45</t>
+          <t>sa: 1201</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>[0.0002294607163253651]</t>
+          <t>['sa: 0.006124051562372522']</t>
         </is>
       </c>
     </row>
@@ -8196,13 +8200,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>d
-: 516</t>
+          <t>yr: 291</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>[0.0026311495471975197]</t>
+          <t>['yr: 0.0014838459655706943']</t>
         </is>
       </c>
     </row>
@@ -8212,12 +8215,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>li: 2480</t>
+          <t>ez: 181</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>[0.012645835033042343]</t>
+          <t>['ez: 0.0009229419923309129']</t>
         </is>
       </c>
     </row>
@@ -8227,12 +8230,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>dv: 17</t>
+          <t>ke: 895</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>[8.668515950069348e-05]</t>
+          <t>['ke: 0.004563718691360039']</t>
         </is>
       </c>
     </row>
@@ -8242,12 +8245,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>jj: 2</t>
+          <t>yl: 1104</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['yl: 0.005629436240515624']</t>
         </is>
       </c>
     </row>
@@ -8257,12 +8260,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>ce: 551</t>
+          <t>hu: 166</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>[0.002809618993228359]</t>
+          <t>['hu: 0.0008464550868891246']</t>
         </is>
       </c>
     </row>
@@ -8272,12 +8275,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ms: 35</t>
+          <t>jr: 11</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>[0.00017846944603083952]</t>
+          <t>['jr: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -8287,12 +8290,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>hl: 185</t>
+          <t>fy: 14</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>[0.0009433385004487232]</t>
+          <t>['fy: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -8302,13 +8305,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>y
-: 2007</t>
+          <t>fo: 60</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>[0.010233947948111284]</t>
+          <t>['fo: 0.0003059476217671535']</t>
         </is>
       </c>
     </row>
@@ -8318,12 +8320,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>xy: 30</t>
+          <t>yp: 15</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>[0.00015297381088357674]</t>
+          <t>['yp: 7.648690544178837e-05']</t>
         </is>
       </c>
     </row>
@@ -8333,12 +8335,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>hf: 2</t>
+          <t>jd: 4</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['jd: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -8348,12 +8350,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>ri: 3033</t>
+          <t>by: 83</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>[0.015465652280329608]</t>
+          <t>['by: 0.0004232275434445623']</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8365,13 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>uu: 3</t>
+          <t>h
+: 2409</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['h\n: 0.01228379701395121']</t>
         </is>
       </c>
     </row>
@@ -8378,12 +8381,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>pc: 1</t>
+          <t>ey: 1070</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['ey: 0.005456065921514237']</t>
         </is>
       </c>
     </row>
@@ -8393,12 +8396,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>in: 2126</t>
+          <t>jm: 5</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>[0.010840744064616138]</t>
+          <t>['jm: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -8408,12 +8411,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>il: 1345</t>
+          <t>es: 861</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>[0.00685832585461369]</t>
+          <t>['es: 0.004390348372358652']</t>
         </is>
       </c>
     </row>
@@ -8423,12 +8426,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>zj: 2</t>
+          <t>hw: 10</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['hw: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -8438,12 +8441,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>ec: 153</t>
+          <t>um: 154</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>[0.0007801664355062413]</t>
+          <t>['um: 0.0007852655625356939']</t>
         </is>
       </c>
     </row>
@@ -8453,12 +8456,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>sf: 2</t>
+          <t>dt: 4</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>[1.0198254058905115e-05]</t>
+          <t>['dt: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -8468,12 +8471,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>gt: 31</t>
+          <t>ly: 1588</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>[0.0001580729379130293]</t>
+          <t>['ly: 0.008097413722770662']</t>
         </is>
       </c>
     </row>
@@ -8483,12 +8486,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>mb: 112</t>
+          <t>wl: 13</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>[0.0005711022272986865]</t>
+          <t>['wl: 6.628865138288325e-05']</t>
         </is>
       </c>
     </row>
@@ -8498,12 +8501,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>gd: 19</t>
+          <t>xn: 1</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>[9.68834135595986e-05]</t>
+          <t>['xn: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -8513,12 +8516,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>ey: 1070</t>
+          <t>gs: 30</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>[0.005456065921514237]</t>
+          <t>['gs: 0.00015297381088357674']</t>
         </is>
       </c>
     </row>
@@ -8528,12 +8531,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>aq: 60</t>
+          <t>xo: 41</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>[0.0003059476217671535]</t>
+          <t>['xo: 0.00020906420820755486']</t>
         </is>
       </c>
     </row>
@@ -8543,12 +8546,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>md: 24</t>
+          <t>rg: 76</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>[0.0001223790487068614]</t>
+          <t>['rg: 0.0003875336542383944']</t>
         </is>
       </c>
     </row>
@@ -8558,12 +8561,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>sb: 21</t>
+          <t>gy: 31</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>[0.00010708166761850371]</t>
+          <t>['gy: 0.0001580729379130293']</t>
         </is>
       </c>
     </row>
@@ -8573,12 +8576,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>rd: 187</t>
+          <t>lw: 16</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>[0.0009535367545076283]</t>
+          <t>['lw: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -8588,12 +8591,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>fy: 14</t>
+          <t>rc: 99</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>[7.138777841233581e-05]</t>
+          <t>['rc: 0.0005048135759158032']</t>
         </is>
       </c>
     </row>
@@ -8603,12 +8606,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>hj: 9</t>
+          <t>sd: 9</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>[4.5892143265073016e-05]</t>
+          <t>['sd: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -8618,12 +8621,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>gm: 6</t>
+          <t>ht: 71</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>[3.059476217671535e-05]</t>
+          <t>['ht: 0.0003620380190911316']</t>
         </is>
       </c>
     </row>
@@ -8633,12 +8636,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>fu: 10</t>
+          <t>iw: 8</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>[5.099127029452558e-05]</t>
+          <t>['iw: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -8648,12 +8651,12 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>as: 1118</t>
+          <t>rx: 3</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>[0.005700824018927959]</t>
+          <t>['rx: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -8663,12 +8666,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>cq: 11</t>
+          <t>tf: 2</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>[5.6090397323978135e-05]</t>
+          <t>['tf: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -8678,12 +8681,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>ky: 379</t>
+          <t>po: 59</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>[0.0019325691441625195]</t>
+          <t>['po: 0.0003008484947377009']</t>
         </is>
       </c>
     </row>
@@ -8693,12 +8696,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>ep: 83</t>
+          <t>eu: 69</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>[0.0004232275434445623]</t>
+          <t>['eu: 0.0003518397650322265']</t>
         </is>
       </c>
     </row>
@@ -8708,12 +8711,12 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>du: 92</t>
+          <t>cc: 42</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>[0.00046911968670963533]</t>
+          <t>['cc: 0.00021416333523700741']</t>
         </is>
       </c>
     </row>
@@ -8723,12 +8726,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>yl: 1104</t>
+          <t>mc: 51</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>[0.005629436240515624]</t>
+          <t>['mc: 0.00026005547850208044']</t>
         </is>
       </c>
     </row>
@@ -8738,12 +8741,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>us: 474</t>
+          <t>rz: 23</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>[0.0024169862119605124]</t>
+          <t>['rz: 0.00011727992167740883']</t>
         </is>
       </c>
     </row>
@@ -8753,12 +8756,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>na: 2977</t>
+          <t>ie: 1653</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>[0.015180101166680265]</t>
+          <t>['ie: 0.008428856979685078']</t>
         </is>
       </c>
     </row>
@@ -8768,12 +8771,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>di: 674</t>
+          <t>hb: 8</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>[0.003436811617851024]</t>
+          <t>['hb: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8786,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>rl: 413</t>
+          <t>hl: 185</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>[0.0021059394631639063]</t>
+          <t>['hl: 0.0009433385004487232']</t>
         </is>
       </c>
     </row>
@@ -8798,12 +8801,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>rk: 90</t>
+          <t>pr: 151</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>[0.0004589214326507302]</t>
+          <t>['pr: 0.0007699681814473362']</t>
         </is>
       </c>
     </row>
@@ -8813,12 +8816,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>eg: 125</t>
+          <t>wi: 148</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>[0.0006373908786815697]</t>
+          <t>['wi: 0.0007546708003589786']</t>
         </is>
       </c>
     </row>
@@ -8828,12 +8831,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>nc: 213</t>
+          <t>vh: 1</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>[0.0010861140572733948]</t>
+          <t>['vh: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -8843,13 +8846,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>j
-: 71</t>
+          <t>yv: 106</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>[0.0003620380190911316]</t>
+          <t>['yv: 0.0005405074651219711']</t>
         </is>
       </c>
     </row>
@@ -8859,13 +8861,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>v
-: 88</t>
+          <t>us: 474</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>[0.0004487231785918251]</t>
+          <t>['us: 0.0024169862119605124']</t>
         </is>
       </c>
     </row>
@@ -8875,12 +8876,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>rq: 16</t>
+          <t>lr: 18</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>[8.158603247124092e-05]</t>
+          <t>['lr: 9.178428653014603e-05']</t>
         </is>
       </c>
     </row>
@@ -8890,12 +8891,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>dc: 3</t>
+          <t>hf: 2</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>[1.5297381088357674e-05]</t>
+          <t>['hf: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8906,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>dl: 60</t>
+          <t>lf: 22</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>[0.0003059476217671535]</t>
+          <t>['lf: 0.00011218079464795627']</t>
         </is>
       </c>
     </row>
@@ -8920,12 +8921,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>de: 1283</t>
+          <t>gm: 6</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>[0.006542179978787631]</t>
+          <t>['gm: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -8935,12 +8936,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>eh: 152</t>
+          <t>sw: 24</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>[0.0007750673084767888]</t>
+          <t>['sw: 0.0001223790487068614']</t>
         </is>
       </c>
     </row>
@@ -8950,13 +8951,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>b
-: 114</t>
+          <t>bh: 41</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>[0.0005813004813575916]</t>
+          <t>['bh: 0.00020906420820755486']</t>
         </is>
       </c>
     </row>
@@ -8966,12 +8966,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>ub: 103</t>
+          <t>yf: 12</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>[0.0005252100840336134]</t>
+          <t>['yf: 6.11895243534307e-05']</t>
         </is>
       </c>
     </row>
@@ -8981,12 +8981,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>xn: 1</t>
+          <t>hp: 1</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['hp: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -8996,13 +8996,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>p
-: 33</t>
+          <t>hy: 213</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>[0.00016827119197193442]</t>
+          <t>['hy: 0.0010861140572733948']</t>
         </is>
       </c>
     </row>
@@ -9012,12 +9011,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ly: 1588</t>
+          <t>mk: 1</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>[0.008097413722770662]</t>
+          <t>['mk: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -9027,12 +9026,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>bi: 217</t>
+          <t>zr: 32</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>[0.001106510565391205]</t>
+          <t>['zr: 0.00016317206494248184']</t>
         </is>
       </c>
     </row>
@@ -9042,12 +9041,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>ku: 50</t>
+          <t>rf: 9</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>[0.0002549563514726279]</t>
+          <t>['rf: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -9057,12 +9056,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>vr: 48</t>
+          <t>ea: 679</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>[0.0002447580974137228]</t>
+          <t>['ea: 0.003462307252998287']</t>
         </is>
       </c>
     </row>
@@ -9072,12 +9071,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>ya: 2143</t>
+          <t>vi: 911</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>[0.010927429224116832]</t>
+          <t>['vi: 0.00464530472383128']</t>
         </is>
       </c>
     </row>
@@ -9087,12 +9086,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>uj: 14</t>
+          <t>ta: 1027</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>[7.138777841233581e-05]</t>
+          <t>['ta: 0.005236803459247777']</t>
         </is>
       </c>
     </row>
@@ -9102,12 +9101,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>lz: 10</t>
+          <t>zt: 4</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>[5.099127029452558e-05]</t>
+          <t>['zt: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -9117,12 +9116,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>ke: 895</t>
+          <t>ni: 1725</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>[0.004563718691360039]</t>
+          <t>['ni: 0.008795994125805662']</t>
         </is>
       </c>
     </row>
@@ -9132,12 +9131,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>ei: 818</t>
+          <t>an: 5438</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>[0.004171085910092192]</t>
+          <t>['an: 0.02772905278616301']</t>
         </is>
       </c>
     </row>
@@ -9147,12 +9146,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>no: 496</t>
+          <t>ck: 316</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>[0.0025291670066084687]</t>
+          <t>['ck: 0.0016113241413070083']</t>
         </is>
       </c>
     </row>
@@ -9162,12 +9161,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>oh: 171</t>
+          <t>bi: 217</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>[0.0008719507220363874]</t>
+          <t>['bi: 0.001106510565391205']</t>
         </is>
       </c>
     </row>
@@ -9177,12 +9176,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>at: 687</t>
+          <t>ne: 1359</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>[0.003503100269233907]</t>
+          <t>['ne: 0.006929713633026026']</t>
         </is>
       </c>
     </row>
@@ -9192,12 +9191,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>jo: 479</t>
+          <t>ft: 18</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>[0.0024424818471077752]</t>
+          <t>['ft: 9.178428653014603e-05']</t>
         </is>
       </c>
     </row>
@@ -9207,12 +9206,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>iq: 52</t>
+          <t>au: 381</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>[0.000265154605531533]</t>
+          <t>['au: 0.0019427673982214246']</t>
         </is>
       </c>
     </row>
@@ -9222,12 +9221,12 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>yj: 23</t>
+          <t>pb: 2</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>[0.00011727992167740883]</t>
+          <t>['pb: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -9237,12 +9236,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>tw: 11</t>
+          <t>vl: 14</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>[5.6090397323978135e-05]</t>
+          <t>['vl: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -9252,12 +9251,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>oo: 115</t>
+          <t>sl: 279</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>[0.0005863996083870441]</t>
+          <t>['sl: 0.0014226564412172637']</t>
         </is>
       </c>
     </row>
@@ -9267,12 +9266,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>ck: 316</t>
+          <t>dd: 149</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>[0.0016113241413070083]</t>
+          <t>['dd: 0.0007597699273884311']</t>
         </is>
       </c>
     </row>
@@ -9282,12 +9281,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>jp: 1</t>
+          <t>si: 684</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['si: 0.0034878028881455496']</t>
         </is>
       </c>
     </row>
@@ -9297,12 +9296,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>xc: 4</t>
+          <t>ks: 95</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['ks: 0.000484417067797993']</t>
         </is>
       </c>
     </row>
@@ -9312,12 +9311,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>zl: 123</t>
+          <t>yj: 23</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>[0.0006271926246226646]</t>
+          <t>['yj: 0.00011727992167740883']</t>
         </is>
       </c>
     </row>
@@ -9327,12 +9326,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>gz: 1</t>
+          <t>jl: 9</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>[5.0991270294525576e-06]</t>
+          <t>['jl: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -9342,12 +9341,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>hu: 166</t>
+          <t>un: 275</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>[0.0008464550868891246]</t>
+          <t>['un: 0.0014022599330994533']</t>
         </is>
       </c>
     </row>
@@ -9357,12 +9356,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>dy: 317</t>
+          <t>lh: 19</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>[0.0016164232683364608]</t>
+          <t>['lh: 9.68834135595986e-05']</t>
         </is>
       </c>
     </row>
@@ -9372,12 +9371,13 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>es: 861</t>
+          <t>e
+: 3983</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>[0.004390348372358652]</t>
+          <t>['e\n: 0.020309822958309538']</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9387,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>ij: 76</t>
+          <t>hk: 29</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>[0.0003875336542383944]</t>
+          <t>['hk: 0.00014787468385412417']</t>
         </is>
       </c>
     </row>
@@ -9402,12 +9402,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>ai: 1650</t>
+          <t>cq: 11</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>[0.00841355959859672]</t>
+          <t>['cq: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>ph: 204</t>
+          <t>io: 588</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>[0.0010402219140083217]</t>
+          <t>['io: 0.002998286693318104']</t>
         </is>
       </c>
     </row>
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>fn: 4</t>
+          <t>eb: 121</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>[2.039650811781023e-05]</t>
+          <t>['eb: 0.0006169943705637595']</t>
         </is>
       </c>
     </row>
@@ -9447,12 +9447,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>ay: 2050</t>
+          <t>hc: 2</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>[0.010453210410377743]</t>
+          <t>['hc: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9462,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>yo: 271</t>
+          <t>il: 1345</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>[0.001381863424981643]</t>
+          <t>['il: 0.00685832585461369']</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>to: 667</t>
+          <t>pi: 61</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>[0.003401117728644856]</t>
+          <t>['pi: 0.00031104674879660604']</t>
         </is>
       </c>
     </row>

--- a/Bigram_Language_Model/probabilities.xlsx
+++ b/Bigram_Language_Model/probabilities.xlsx
@@ -451,13 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>l
-: 1314</t>
+          <t>ei: 818</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['l\n: 0.006700252916700661']</t>
+          <t>['ei: 0.004171085910092192']</t>
         </is>
       </c>
     </row>
@@ -467,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zz: 45</t>
+          <t>lh: 19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['zz: 0.0002294607163253651']</t>
+          <t>['lh: 9.68834135595986e-05']</t>
         </is>
       </c>
     </row>
@@ -482,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ms: 35</t>
+          <t>xw: 3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['ms: 0.00017846944603083952']</t>
+          <t>['xw: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -497,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dj: 9</t>
+          <t>uo: 10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['dj: 4.5892143265073016e-05']</t>
+          <t>['uo: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -512,13 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>y
-: 2007</t>
+          <t>lp: 15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['y\n: 0.010233947948111284']</t>
+          <t>['lp: 7.648690544178837e-05']</t>
         </is>
       </c>
     </row>
@@ -528,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jo: 479</t>
+          <t>hl: 185</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['jo: 0.0024424818471077752']</t>
+          <t>['hl: 0.0009433385004487232']</t>
         </is>
       </c>
     </row>
@@ -543,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ld: 138</t>
+          <t>mt: 4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['ld: 0.000703679530064453']</t>
+          <t>['mt: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -558,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>vo: 153</t>
+          <t>ua: 163</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['vo: 0.0007801664355062413']</t>
+          <t>['ua: 0.0008311577058007669']</t>
         </is>
       </c>
     </row>
@@ -573,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>iv: 269</t>
+          <t>cd: 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['iv: 0.001371665170922738']</t>
+          <t>['cd: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -588,13 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>p
-: 33</t>
+          <t>fo: 60</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['p\n: 0.00016827119197193442']</t>
+          <t>['fo: 0.0003059476217671535']</t>
         </is>
       </c>
     </row>
@@ -604,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ut: 82</t>
+          <t>yn: 1826</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['ut: 0.00041812841641510973']</t>
+          <t>['yn: 0.00931100595578037']</t>
         </is>
       </c>
     </row>
@@ -619,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>wk: 6</t>
+          <t>um: 154</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['wk: 3.059476217671535e-05']</t>
+          <t>['um: 0.0007852655625356939']</t>
         </is>
       </c>
     </row>
@@ -634,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>xm: 1</t>
+          <t>hj: 9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['xm: 5.0991270294525576e-06']</t>
+          <t>['hj: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -649,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>wg: 1</t>
+          <t>da: 1303</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['wg: 5.0991270294525576e-06']</t>
+          <t>['da: 0.006644162519376683']</t>
         </is>
       </c>
     </row>
@@ -664,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>fi: 160</t>
+          <t>lv: 72</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['fi: 0.0008158603247124093']</t>
+          <t>['lv: 0.00036713714612058413']</t>
         </is>
       </c>
     </row>
@@ -679,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cu: 35</t>
+          <t>yo: 271</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['cu: 0.00017846944603083952']</t>
+          <t>['yo: 0.001381863424981643']</t>
         </is>
       </c>
     </row>
@@ -694,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lo: 692</t>
+          <t>ke: 895</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['lo: 0.00352859590438117']</t>
+          <t>['ke: 0.004563718691360039']</t>
         </is>
       </c>
     </row>
@@ -709,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ct: 35</t>
+          <t>ot: 118</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['ct: 0.00017846944603083952']</t>
+          <t>['ot: 0.0006016969894754018']</t>
         </is>
       </c>
     </row>
@@ -724,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ba: 321</t>
+          <t>wa: 280</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['ba: 0.001636819776454271']</t>
+          <t>['wa: 0.0014277555682467161']</t>
         </is>
       </c>
     </row>
@@ -739,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>qw: 3</t>
+          <t>hp: 1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['qw: 1.5297381088357674e-05']</t>
+          <t>['hp: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -754,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>en: 2675</t>
+          <t>nt: 443</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['en: 0.013640164803785592']</t>
+          <t>['nt: 0.002258913274047483']</t>
         </is>
       </c>
     </row>
@@ -769,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ib: 110</t>
+          <t>tt: 374</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['ib: 0.0005609039732397814']</t>
+          <t>['tt: 0.0019070735090152566']</t>
         </is>
       </c>
     </row>
@@ -784,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ns: 278</t>
+          <t>gn: 27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['ns: 0.001417557314187811']</t>
+          <t>['gn: 0.00013767642979521907']</t>
         </is>
       </c>
     </row>
@@ -799,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>wt: 8</t>
+          <t>uj: 14</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['wt: 4.079301623562046e-05']</t>
+          <t>['uj: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -814,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>go: 83</t>
+          <t>oz: 54</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['go: 0.0004232275434445623']</t>
+          <t>['oz: 0.00027535285959043814']</t>
         </is>
       </c>
     </row>
@@ -829,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>os: 504</t>
+          <t>yk: 86</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['os: 0.002569960022844089']</t>
+          <t>['yk: 0.00043852492453292']</t>
         </is>
       </c>
     </row>
@@ -844,12 +841,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>th: 647</t>
+          <t>tj: 3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['th: 0.003299135188055805']</t>
+          <t>['tj: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -859,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ig: 428</t>
+          <t>qu: 206</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['ig: 0.002182426368605695']</t>
+          <t>['qu: 0.0010504201680672268']</t>
         </is>
       </c>
     </row>
@@ -874,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>df: 5</t>
+          <t>db: 1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['df: 2.549563514726279e-05']</t>
+          <t>['db: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -889,12 +886,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ok: 68</t>
+          <t>pt: 17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['ok: 0.00034674063800277393']</t>
+          <t>['pt: 8.668515950069348e-05']</t>
         </is>
       </c>
     </row>
@@ -904,12 +901,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>nw: 11</t>
+          <t>k
+: 363</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['nw: 5.6090397323978135e-05']</t>
+          <t>['k\n: 0.0018509831116912785']</t>
         </is>
       </c>
     </row>
@@ -919,12 +917,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>kl: 139</t>
+          <t>pm: 1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['kl: 0.0007087786570939055']</t>
+          <t>['pm: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -934,12 +932,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>lu: 324</t>
+          <t>tl: 134</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['lu: 0.0016521171575426287']</t>
+          <t>['tl: 0.0006832830219466428']</t>
         </is>
       </c>
     </row>
@@ -949,12 +947,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>hd: 24</t>
+          <t>of: 34</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['hd: 0.0001223790487068614']</t>
+          <t>['of: 0.00017337031900138697']</t>
         </is>
       </c>
     </row>
@@ -964,13 +962,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n
-: 6763</t>
+          <t>gm: 6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['n\n: 0.03448539610018765']</t>
+          <t>['gm: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -980,12 +977,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>aj: 175</t>
+          <t>ia: 2445</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['aj: 0.0008923472301541976']</t>
+          <t>['ia: 0.012467365587011503']</t>
         </is>
       </c>
     </row>
@@ -995,12 +992,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jk: 2</t>
+          <t>xo: 41</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['jk: 1.0198254058905115e-05']</t>
+          <t>['xo: 0.00020906420820755486']</t>
         </is>
       </c>
     </row>
@@ -1010,12 +1007,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ag: 168</t>
+          <t>rh: 121</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['ag: 0.0008566533409480297']</t>
+          <t>['rh: 0.0006169943705637595']</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1022,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cy: 104</t>
+          <t>xs: 31</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['cy: 0.000530309211063066']</t>
+          <t>['xs: 0.0001580729379130293']</t>
         </is>
       </c>
     </row>
@@ -1040,13 +1037,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>a
-: 6640</t>
+          <t>km: 9</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['a\n: 0.03385820347556499']</t>
+          <t>['km: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1052,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sc: 60</t>
+          <t>oc: 114</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['sc: 0.0003059476217671535']</t>
+          <t>['oc: 0.0005813004813575916']</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1067,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>rs: 190</t>
+          <t>qo: 2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['rs: 0.000968834135595986']</t>
+          <t>['qo: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1082,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>kr: 109</t>
+          <t>nl: 195</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['kr: 0.0005558048462103288']</t>
+          <t>['nl: 0.0009943297707432487']</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1097,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fk: 2</t>
+          <t>hs: 31</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['fk: 1.0198254058905115e-05']</t>
+          <t>['hs: 0.0001580729379130293']</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1112,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>hg: 2</t>
+          <t>lz: 10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['hg: 1.0198254058905115e-05']</t>
+          <t>['lz: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1127,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ir: 849</t>
+          <t>lg: 6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['ir: 0.004329158848005221']</t>
+          <t>['lg: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1142,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sh: 1285</t>
+          <t>jk: 2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['sh: 0.0065523782328465365']</t>
+          <t>['jk: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1157,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>zo: 110</t>
+          <t>sd: 9</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['zo: 0.0005609039732397814']</t>
+          <t>['sd: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1172,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nh: 26</t>
+          <t>ar: 3264</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['nh: 0.0001325773027657665']</t>
+          <t>['ar: 0.016643550624133148']</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1187,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ve: 568</t>
+          <t>oy: 103</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['ve: 0.0028963041527290526']</t>
+          <t>['oy: 0.0005252100840336134']</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1202,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>gz: 1</t>
+          <t>dc: 3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['gz: 5.0991270294525576e-06']</t>
+          <t>['dc: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1217,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>gd: 19</t>
+          <t>go: 83</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['gd: 9.68834135595986e-05']</t>
+          <t>['go: 0.0004232275434445623']</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1232,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bs: 8</t>
+          <t>wi: 148</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['bs: 4.079301623562046e-05']</t>
+          <t>['wi: 0.0007546708003589786']</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1247,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mm: 168</t>
+          <t>cy: 104</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['mm: 0.0008566533409480297']</t>
+          <t>['cy: 0.000530309211063066']</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1262,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>lp: 15</t>
+          <t>wf: 2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['lp: 7.648690544178837e-05']</t>
+          <t>['wf: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1277,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>yc: 115</t>
+          <t>yg: 30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['yc: 0.0005863996083870441']</t>
+          <t>['yg: 0.00015297381088357674']</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1292,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>xf: 3</t>
+          <t>dt: 4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['xf: 1.5297381088357674e-05']</t>
+          <t>['dt: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1307,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ab: 541</t>
+          <t>bh: 41</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['ab: 0.002758627722933834']</t>
+          <t>['bh: 0.00020906420820755486']</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1322,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>in: 2126</t>
+          <t>ts: 35</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['in: 0.010840744064616138']</t>
+          <t>['ts: 0.00017846944603083952']</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1337,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>wz: 1</t>
+          <t>au: 381</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['wz: 5.0991270294525576e-06']</t>
+          <t>['au: 0.0019427673982214246']</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1352,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>tz: 105</t>
+          <t>vr: 48</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['tz: 0.0005354083380925185']</t>
+          <t>['vr: 0.0002447580974137228']</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1367,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>va: 642</t>
+          <t>mo: 452</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['va: 0.003273639552908542']</t>
+          <t>['mo: 0.002304805417312556']</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1382,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>as: 1118</t>
+          <t>aw: 161</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['as: 0.005700824018927959']</t>
+          <t>['aw: 0.0008209594517418618']</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1397,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sf: 2</t>
+          <t>bl: 103</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['sf: 1.0198254058905115e-05']</t>
+          <t>['bl: 0.0005252100840336134']</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1412,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>md: 24</t>
+          <t>bj: 1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['md: 0.0001223790487068614']</t>
+          <t>['bj: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1427,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>hh: 1</t>
+          <t>ow: 114</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['hh: 5.0991270294525576e-06']</t>
+          <t>['ow: 0.0005813004813575916']</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1442,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>wn: 58</t>
+          <t>xc: 4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['wn: 0.00029574936770824833']</t>
+          <t>['xc: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1457,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>hs: 31</t>
+          <t>zn: 4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['hs: 0.0001580729379130293']</t>
+          <t>['zn: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -1476,13 +1472,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>f
-: 80</t>
+          <t>jo: 479</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['f\n: 0.00040793016235620463']</t>
+          <t>['jo: 0.0024424818471077752']</t>
         </is>
       </c>
     </row>
@@ -1492,12 +1487,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>fr: 114</t>
+          <t>sb: 21</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['fr: 0.0005813004813575916']</t>
+          <t>['sb: 0.00010708166761850371']</t>
         </is>
       </c>
     </row>
@@ -1507,12 +1502,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>tc: 17</t>
+          <t>ho: 287</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['tc: 8.668515950069348e-05']</t>
+          <t>['ho: 0.001463449457452884']</t>
         </is>
       </c>
     </row>
@@ -1522,12 +1517,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>gu: 85</t>
+          <t>sm: 90</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['gu: 0.00043342579750346743']</t>
+          <t>['sm: 0.0004589214326507302']</t>
         </is>
       </c>
     </row>
@@ -1537,12 +1532,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>nx: 6</t>
+          <t>cp: 1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['nx: 3.059476217671535e-05']</t>
+          <t>['cp: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -1552,12 +1547,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mh: 5</t>
+          <t>lf: 22</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['mh: 2.549563514726279e-05']</t>
+          <t>['lf: 0.00011218079464795627']</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1562,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ci: 271</t>
+          <t>aj: 175</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['ci: 0.001381863424981643']</t>
+          <t>['aj: 0.0008923472301541976']</t>
         </is>
       </c>
     </row>
@@ -1582,12 +1577,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>hq: 1</t>
+          <t>al: 2528</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['hq: 5.0991270294525576e-06']</t>
+          <t>['al: 0.012890593130456067']</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1592,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>yk: 86</t>
+          <t>sf: 2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['yk: 0.00043852492453292']</t>
+          <t>['sf: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -1612,12 +1607,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>nf: 11</t>
+          <t>uu: 3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['nf: 5.6090397323978135e-05']</t>
+          <t>['uu: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -1627,12 +1622,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ac: 470</t>
+          <t>hy: 213</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['ac: 0.002396589703842702']</t>
+          <t>['hy: 0.0010861140572733948']</t>
         </is>
       </c>
     </row>
@@ -1642,12 +1637,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>di: 674</t>
+          <t>rm: 162</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['di: 0.003436811617851024']</t>
+          <t>['rm: 0.0008260585787713144']</t>
         </is>
       </c>
     </row>
@@ -1657,12 +1652,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>mi: 1256</t>
+          <t>ne: 1359</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['mi: 0.006404503548992413']</t>
+          <t>['ne: 0.006929713633026026']</t>
         </is>
       </c>
     </row>
@@ -1672,12 +1667,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ce: 551</t>
+          <t>tr: 352</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['ce: 0.002809618993228359']</t>
+          <t>['tr: 0.0017948927143673003']</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1682,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>rm: 162</t>
+          <t>rl: 413</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['rm: 0.0008260585787713144']</t>
+          <t>['rl: 0.0021059394631639063']</t>
         </is>
       </c>
     </row>
@@ -1702,12 +1697,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>zn: 4</t>
+          <t>ok: 68</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['zn: 2.039650811781023e-05']</t>
+          <t>['ok: 0.00034674063800277393']</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1712,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sb: 21</t>
+          <t>sh: 1285</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['sb: 0.00010708166761850371']</t>
+          <t>['sh: 0.0065523782328465365']</t>
         </is>
       </c>
     </row>
@@ -1732,12 +1727,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>wa: 280</t>
+          <t>if: 101</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['wa: 0.0014277555682467161']</t>
+          <t>['if: 0.0005150118299747083']</t>
         </is>
       </c>
     </row>
@@ -1747,12 +1742,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sz: 10</t>
+          <t>ku: 50</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['sz: 5.099127029452558e-05']</t>
+          <t>['ku: 0.0002549563514726279']</t>
         </is>
       </c>
     </row>
@@ -1762,12 +1757,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bd: 65</t>
+          <t>rc: 99</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['bd: 0.00033144325691441623']</t>
+          <t>['rc: 0.0005048135759158032']</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1772,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cp: 1</t>
+          <t>nm: 19</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['cp: 5.0991270294525576e-06']</t>
+          <t>['nm: 9.68834135595986e-05']</t>
         </is>
       </c>
     </row>
@@ -1792,12 +1787,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>is: 1316</t>
+          <t>so: 531</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['is: 0.006710451170759566']</t>
+          <t>['so: 0.0027076364526393082']</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1802,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>eq: 14</t>
+          <t>ty: 341</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['eq: 7.138777841233581e-05']</t>
+          <t>['ty: 0.0017388023170433222']</t>
         </is>
       </c>
     </row>
@@ -1822,12 +1817,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>pe: 197</t>
+          <t>sr: 55</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['pe: 0.0010045280248021538']</t>
+          <t>['sr: 0.0002804519866198907']</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1832,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>tm: 4</t>
+          <t>fr: 114</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['tm: 2.039650811781023e-05']</t>
+          <t>['fr: 0.0005813004813575916']</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1847,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ws: 20</t>
+          <t>hv: 39</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['ws: 0.00010198254058905116']</t>
+          <t>['hv: 0.00019886595414864974']</t>
         </is>
       </c>
     </row>
@@ -1867,12 +1862,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>kf: 1</t>
+          <t>ij: 76</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['kf: 5.0991270294525576e-06']</t>
+          <t>['ij: 0.0003875336542383944']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1877,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>kt: 17</t>
+          <t>kv: 2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['kt: 8.668515950069348e-05']</t>
+          <t>['kv: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -1897,12 +1892,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ka: 1731</t>
+          <t>rv: 80</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['ka: 0.008826588887982377']</t>
+          <t>['rv: 0.00040793016235620463']</t>
         </is>
       </c>
     </row>
@@ -1912,12 +1907,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>zh: 43</t>
+          <t>wy: 73</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['zh: 0.00021926246226646']</t>
+          <t>['wy: 0.00037223627315003673']</t>
         </is>
       </c>
     </row>
@@ -1927,12 +1922,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>dq: 1</t>
+          <t>ft: 18</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['dq: 5.0991270294525576e-06']</t>
+          <t>['ft: 9.178428653014603e-05']</t>
         </is>
       </c>
     </row>
@@ -1942,12 +1937,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>lm: 60</t>
+          <t>jp: 1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['lm: 0.0003059476217671535']</t>
+          <t>['jp: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1952,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>gt: 31</t>
+          <t>vu: 7</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['gt: 0.0001580729379130293']</t>
+          <t>['vu: 3.5693889206167905e-05']</t>
         </is>
       </c>
     </row>
@@ -1972,12 +1967,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ti: 532</t>
+          <t>gt: 31</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['ti: 0.002712735579668761']</t>
+          <t>['gt: 0.0001580729379130293']</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1982,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>db: 1</t>
+          <t>ry: 773</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>['db: 5.0991270294525576e-06']</t>
+          <t>['ry: 0.003941625193766827']</t>
         </is>
       </c>
     </row>
@@ -2002,13 +1997,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>t
-: 483</t>
+          <t>wd: 8</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>['t\n: 0.0024628783552255854']</t>
+          <t>['wd: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -2018,12 +2012,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ae: 692</t>
+          <t>hu: 166</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>['ae: 0.00352859590438117']</t>
+          <t>['hu: 0.0008464550868891246']</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2027,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ql: 1</t>
+          <t>tx: 2</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>['ql: 5.0991270294525576e-06']</t>
+          <t>['tx: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -2048,12 +2042,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>mt: 4</t>
+          <t>in: 2126</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>['mt: 2.039650811781023e-05']</t>
+          <t>['in: 0.010840744064616138']</t>
         </is>
       </c>
     </row>
@@ -2063,12 +2057,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>id: 440</t>
+          <t>vb: 1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>['id: 0.0022436158929591255']</t>
+          <t>['vb: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2078,12 +2072,13 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>sr: 55</t>
+          <t>t
+: 483</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>['sr: 0.0002804519866198907']</t>
+          <t>['t\n: 0.0024628783552255854']</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2088,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jt: 2</t>
+          <t>le: 2921</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>['jt: 1.0198254058905115e-05']</t>
+          <t>['le: 0.014894550053030921']</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2103,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>fa: 242</t>
+          <t>pu: 4</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>['fa: 0.001233988741127519']</t>
+          <t>['pu: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2118,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>al: 2528</t>
+          <t>li: 2480</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>['al: 0.012890593130456067']</t>
+          <t>['li: 0.012645835033042343']</t>
         </is>
       </c>
     </row>
@@ -2138,12 +2133,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>el: 3248</t>
+          <t>ad: 1042</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['el: 0.01656196459166191']</t>
+          <t>['ad: 0.005313290364689565']</t>
         </is>
       </c>
     </row>
@@ -2153,12 +2148,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ew: 50</t>
+          <t>ge: 334</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>['ew: 0.0002549563514726279']</t>
+          <t>['ge: 0.0017031084278371542']</t>
         </is>
       </c>
     </row>
@@ -2168,12 +2163,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>pp: 39</t>
+          <t>gb: 3</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>['pp: 0.00019886595414864974']</t>
+          <t>['gb: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -2183,12 +2178,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>nt: 443</t>
+          <t>pk: 1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>['nt: 0.002258913274047483']</t>
+          <t>['pk: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2193,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>uz: 45</t>
+          <t>ff: 44</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>['uz: 0.0002294607163253651']</t>
+          <t>['ff: 0.00022436158929591254']</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2208,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>wh: 23</t>
+          <t>zy: 147</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>['wh: 0.00011727992167740883']</t>
+          <t>['zy: 0.000749571673329526']</t>
         </is>
       </c>
     </row>
@@ -2228,12 +2223,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>nc: 213</t>
+          <t>st: 765</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>['nc: 0.0010861140572733948']</t>
+          <t>['st: 0.0039008321775312067']</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2238,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>lz: 10</t>
+          <t>iy: 779</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>['lz: 5.099127029452558e-05']</t>
+          <t>['iy: 0.003972219955943542']</t>
         </is>
       </c>
     </row>
@@ -2258,12 +2253,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>oy: 103</t>
+          <t>af: 134</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>['oy: 0.0005252100840336134']</t>
+          <t>['af: 0.0006832830219466428']</t>
         </is>
       </c>
     </row>
@@ -2273,12 +2268,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>nk: 58</t>
+          <t>hb: 8</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>['nk: 0.00029574936770824833']</t>
+          <t>['hb: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2283,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>gb: 3</t>
+          <t>rf: 9</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['gb: 1.5297381088357674e-05']</t>
+          <t>['rf: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2298,13 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ym: 148</t>
+          <t>e
+: 3983</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>['ym: 0.0007546708003589786']</t>
+          <t>['e\n: 0.020309822958309538']</t>
         </is>
       </c>
     </row>
@@ -2318,12 +2314,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ge: 334</t>
+          <t>ml: 5</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>['ge: 0.0017031084278371542']</t>
+          <t>['ml: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2329,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>bo: 105</t>
+          <t>ay: 2050</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>['bo: 0.0005354083380925185']</t>
+          <t>['ay: 0.010453210410377743']</t>
         </is>
       </c>
     </row>
@@ -2348,12 +2344,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>cj: 3</t>
+          <t>el: 3248</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>['cj: 1.5297381088357674e-05']</t>
+          <t>['el: 0.01656196459166191']</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2359,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>wu: 25</t>
+          <t>zt: 4</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['wu: 0.00012747817573631394']</t>
+          <t>['zt: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -2378,12 +2374,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ec: 153</t>
+          <t>vh: 1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>['ec: 0.0007801664355062413']</t>
+          <t>['vh: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2393,12 +2389,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ih: 95</t>
+          <t>ph: 204</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>['ih: 0.000484417067797993']</t>
+          <t>['ph: 0.0010402219140083217']</t>
         </is>
       </c>
     </row>
@@ -2408,12 +2404,13 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>gi: 190</t>
+          <t>d
+: 516</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>['gi: 0.000968834135595986']</t>
+          <t>['d\n: 0.0026311495471975197']</t>
         </is>
       </c>
     </row>
@@ -2423,12 +2420,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>mb: 112</t>
+          <t>kr: 109</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>['mb: 0.0005711022272986865']</t>
+          <t>['kr: 0.0005558048462103288']</t>
         </is>
       </c>
     </row>
@@ -2438,12 +2435,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>bt: 2</t>
+          <t>wh: 23</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['bt: 1.0198254058905115e-05']</t>
+          <t>['wh: 0.00011727992167740883']</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2450,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>js: 7</t>
+          <t>bd: 65</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>['js: 3.5693889206167905e-05']</t>
+          <t>['bd: 0.00033144325691441623']</t>
         </is>
       </c>
     </row>
@@ -2468,12 +2465,13 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>pl: 16</t>
+          <t>o
+: 855</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>['pl: 8.158603247124092e-05']</t>
+          <t>['o\n: 0.004359753610181937']</t>
         </is>
       </c>
     </row>
@@ -2483,12 +2481,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ou: 275</t>
+          <t>rd: 187</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>['ou: 0.0014022599330994533']</t>
+          <t>['rd: 0.0009535367545076283']</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2496,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ar: 3264</t>
+          <t>kk: 20</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>['ar: 0.016643550624133148']</t>
+          <t>['kk: 0.00010198254058905116']</t>
         </is>
       </c>
     </row>
@@ -2513,12 +2511,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>fe: 123</t>
+          <t>bu: 45</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>['fe: 0.0006271926246226646']</t>
+          <t>['bu: 0.0002294607163253651']</t>
         </is>
       </c>
     </row>
@@ -2528,12 +2526,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ra: 2356</t>
+          <t>yj: 23</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>['ra: 0.012013543281390225']</t>
+          <t>['yj: 0.00011727992167740883']</t>
         </is>
       </c>
     </row>
@@ -2543,12 +2541,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ma: 2590</t>
+          <t>dq: 1</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>['ma: 0.013206739006282124']</t>
+          <t>['dq: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2558,12 +2556,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>zl: 123</t>
+          <t>wk: 6</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>['zl: 0.0006271926246226646']</t>
+          <t>['wk: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -2573,12 +2571,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ue: 169</t>
+          <t>md: 24</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>['ue: 0.0008617524679774822']</t>
+          <t>['md: 0.0001223790487068614']</t>
         </is>
       </c>
     </row>
@@ -2588,12 +2586,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>rv: 80</t>
+          <t>ky: 379</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>['rv: 0.00040793016235620463']</t>
+          <t>['ky: 0.0019325691441625195']</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2601,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>li: 2480</t>
+          <t>wz: 1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>['li: 0.012645835033042343']</t>
+          <t>['wz: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2618,12 +2616,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>xl: 39</t>
+          <t>ks: 95</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>['xl: 0.00019886595414864974']</t>
+          <t>['ks: 0.000484417067797993']</t>
         </is>
       </c>
     </row>
@@ -2633,12 +2631,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>xc: 4</t>
+          <t>xb: 1</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>['xc: 2.039650811781023e-05']</t>
+          <t>['xb: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2648,12 +2646,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>eh: 152</t>
+          <t>tn: 22</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>['eh: 0.0007750673084767888']</t>
+          <t>['tn: 0.00011218079464795627']</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2661,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ow: 114</t>
+          <t>yd: 272</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>['ow: 0.0005813004813575916']</t>
+          <t>['yd: 0.0013869625520110957']</t>
         </is>
       </c>
     </row>
@@ -2678,12 +2676,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>uf: 19</t>
+          <t>me: 818</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>['uf: 9.68834135595986e-05']</t>
+          <t>['me: 0.004171085910092192']</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2691,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>kb: 2</t>
+          <t>jc: 4</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>['kb: 1.0198254058905115e-05']</t>
+          <t>['jc: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2706,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ur: 414</t>
+          <t>la: 2623</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>['ur: 0.002111038590193359']</t>
+          <t>['la: 0.013375010198254059']</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2721,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>tb: 1</t>
+          <t>jr: 11</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>['tb: 5.0991270294525576e-06']</t>
+          <t>['jr: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -2738,12 +2736,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>mj: 7</t>
+          <t>eo: 269</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>['mj: 3.5693889206167905e-05']</t>
+          <t>['eo: 0.001371665170922738']</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2751,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>og: 44</t>
+          <t>yv: 106</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>['og: 0.00022436158929591254']</t>
+          <t>['yv: 0.0005405074651219711']</t>
         </is>
       </c>
     </row>
@@ -2768,12 +2766,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>up: 16</t>
+          <t>ey: 1070</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>['up: 8.158603247124092e-05']</t>
+          <t>['ey: 0.005456065921514237']</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2781,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ph: 204</t>
+          <t>mh: 5</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>['ph: 0.0010402219140083217']</t>
+          <t>['mh: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -2798,12 +2796,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>aa: 556</t>
+          <t>yp: 15</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>['aa: 0.002835114628375622']</t>
+          <t>['yp: 7.648690544178837e-05']</t>
         </is>
       </c>
     </row>
@@ -2813,12 +2811,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>aq: 60</t>
+          <t>cx: 3</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>['aq: 0.0003059476217671535']</t>
+          <t>['cx: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -2828,12 +2826,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>xx: 38</t>
+          <t>ps: 16</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>['xx: 0.0001937668271191972']</t>
+          <t>['ps: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2841,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>gn: 27</t>
+          <t>dg: 25</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>['gn: 0.00013767642979521907']</t>
+          <t>['dg: 0.00012747817573631394']</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2856,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>qm: 2</t>
+          <t>pc: 1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>['qm: 1.0198254058905115e-05']</t>
+          <t>['pc: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2871,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ao: 63</t>
+          <t>ss: 461</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>['ao: 0.00032124500285551113']</t>
+          <t>['ss: 0.002350697560577629']</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2886,13 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>im: 427</t>
+          <t>q
+: 28</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>['im: 0.0021773272415762423']</t>
+          <t>['q\n: 0.00014277555682467162']</t>
         </is>
       </c>
     </row>
@@ -2903,12 +2902,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>lb: 52</t>
+          <t>ui: 121</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>['lb: 0.000265154605531533']</t>
+          <t>['ui: 0.0006169943705637595']</t>
         </is>
       </c>
     </row>
@@ -2918,12 +2917,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>se: 884</t>
+          <t>am: 1634</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>['se: 0.004507628294036061']</t>
+          <t>['am: 0.00833197356612548']</t>
         </is>
       </c>
     </row>
@@ -2933,12 +2932,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>vb: 1</t>
+          <t>cr: 76</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>['vb: 5.0991270294525576e-06']</t>
+          <t>['cr: 0.0003875336542383944']</t>
         </is>
       </c>
     </row>
@@ -2948,12 +2947,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>qi: 13</t>
+          <t>mv: 3</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['qi: 6.628865138288325e-05']</t>
+          <t>['mv: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -2963,12 +2962,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>dz: 1</t>
+          <t>lu: 324</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>['dz: 5.0991270294525576e-06']</t>
+          <t>['lu: 0.0016521171575426287']</t>
         </is>
       </c>
     </row>
@@ -2978,12 +2977,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>jw: 6</t>
+          <t>sg: 2</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['jw: 3.059476217671535e-05']</t>
+          <t>['sg: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -2993,12 +2992,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>cd: 1</t>
+          <t>xu: 5</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>['cd: 5.0991270294525576e-06']</t>
+          <t>['xu: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3007,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>rl: 413</t>
+          <t>ww: 2</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>['rl: 0.0021059394631639063']</t>
+          <t>['ww: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -3023,12 +3022,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ix: 89</t>
+          <t>hc: 2</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>['ix: 0.0004538223056212776']</t>
+          <t>['hc: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3037,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>wf: 2</t>
+          <t>mu: 139</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>['wf: 1.0198254058905115e-05']</t>
+          <t>['mu: 0.0007087786570939055']</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3052,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>qe: 1</t>
+          <t>dy: 317</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>['qe: 5.0991270294525576e-06']</t>
+          <t>['dy: 0.0016164232683364608']</t>
         </is>
       </c>
     </row>
@@ -3068,12 +3067,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>rt: 208</t>
+          <t>hw: 10</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>['rt: 0.001060618422126132']</t>
+          <t>['hw: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -3083,12 +3082,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>bl: 103</t>
+          <t>zp: 2</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>['bl: 0.0005252100840336134']</t>
+          <t>['zp: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -3098,12 +3097,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>xb: 1</t>
+          <t>ex: 132</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>['xb: 5.0991270294525576e-06']</t>
+          <t>['ex: 0.0006730847678877377']</t>
         </is>
       </c>
     </row>
@@ -3113,12 +3112,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>tt: 374</t>
+          <t>fl: 20</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>['tt: 0.0019070735090152566']</t>
+          <t>['fl: 0.00010198254058905116']</t>
         </is>
       </c>
     </row>
@@ -3128,12 +3127,13 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>do: 378</t>
+          <t>y
+: 2007</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>['do: 0.0019274700171330668']</t>
+          <t>['y\n: 0.010233947948111284']</t>
         </is>
       </c>
     </row>
@@ -3143,13 +3143,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>g
-: 108</t>
+          <t>te: 716</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>['g\n: 0.0005507057191808763']</t>
+          <t>['te: 0.003650974953088031']</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3158,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>kw: 34</t>
+          <t>jy: 10</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>['kw: 0.00017337031900138697']</t>
+          <t>['jy: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3173,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ua: 163</t>
+          <t>kb: 2</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>['ua: 0.0008311577058007669']</t>
+          <t>['kb: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -3189,12 +3188,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>em: 769</t>
+          <t>kd: 2</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>['em: 0.003921228685649017']</t>
+          <t>['kd: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -3204,12 +3203,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>cl: 116</t>
+          <t>en: 2675</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>['cl: 0.0005914987354164967']</t>
+          <t>['en: 0.013640164803785592']</t>
         </is>
       </c>
     </row>
@@ -3219,12 +3218,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>pu: 4</t>
+          <t>nn: 1906</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>['pu: 2.039650811781023e-05']</t>
+          <t>['nn: 0.009718936118136574']</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3233,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>oc: 114</t>
+          <t>ir: 849</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>['oc: 0.0005813004813575916']</t>
+          <t>['ir: 0.004329158848005221']</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3248,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>lk: 24</t>
+          <t>ou: 275</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>['lk: 0.0001223790487068614']</t>
+          <t>['ou: 0.0014022599330994533']</t>
         </is>
       </c>
     </row>
@@ -3264,12 +3263,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>yy: 23</t>
+          <t>ie: 1653</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>['yy: 0.00011727992167740883']</t>
+          <t>['ie: 0.008428856979685078']</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3278,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>hn: 138</t>
+          <t>mz: 11</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>['hn: 0.000703679530064453']</t>
+          <t>['mz: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3293,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>gv: 1</t>
+          <t>fe: 123</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>['gv: 5.0991270294525576e-06']</t>
+          <t>['fe: 0.0006271926246226646']</t>
         </is>
       </c>
     </row>
@@ -3309,12 +3308,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>kh: 307</t>
+          <t>uh: 58</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>['kh: 0.0015654319980419353']</t>
+          <t>['uh: 0.00029574936770824833']</t>
         </is>
       </c>
     </row>
@@ -3324,12 +3323,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>iu: 109</t>
+          <t>ek: 178</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>['iu: 0.0005558048462103288']</t>
+          <t>['ek: 0.0009076446112425553']</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3338,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>uh: 58</t>
+          <t>sv: 14</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>['uh: 0.00029574936770824833']</t>
+          <t>['sv: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -3354,12 +3353,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ov: 176</t>
+          <t>sc: 60</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>['ov: 0.0008974463571836502']</t>
+          <t>['sc: 0.0003059476217671535']</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3368,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ng: 273</t>
+          <t>pe: 197</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>['ng: 0.0013920616790405482']</t>
+          <t>['pe: 0.0010045280248021538']</t>
         </is>
       </c>
     </row>
@@ -3384,12 +3383,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>iq: 52</t>
+          <t>ee: 1271</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>['iq: 0.000265154605531533']</t>
+          <t>['ee: 0.006480990454434201']</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3398,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ds: 29</t>
+          <t>tc: 17</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>['ds: 0.00014787468385412417']</t>
+          <t>['tc: 8.668515950069348e-05']</t>
         </is>
       </c>
     </row>
@@ -3414,12 +3413,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>he: 674</t>
+          <t>yz: 78</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>['he: 0.003436811617851024']</t>
+          <t>['yz: 0.0003977319082972995']</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3428,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>dn: 31</t>
+          <t>dj: 9</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>['dn: 0.0001580729379130293']</t>
+          <t>['dj: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -3444,12 +3443,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>sq: 1</t>
+          <t>wo: 36</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>['sq: 5.0991270294525576e-06']</t>
+          <t>['wo: 0.00018356857306029207']</t>
         </is>
       </c>
     </row>
@@ -3459,12 +3458,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ml: 5</t>
+          <t>ut: 82</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>['ml: 2.549563514726279e-05']</t>
+          <t>['ut: 0.00041812841641510973']</t>
         </is>
       </c>
     </row>
@@ -3474,12 +3473,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>mv: 3</t>
+          <t>th: 647</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>['mv: 1.5297381088357674e-05']</t>
+          <t>['th: 0.003299135188055805']</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3488,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>oi: 69</t>
+          <t>xe: 36</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>['oi: 0.0003518397650322265']</t>
+          <t>['xe: 0.00018356857306029207']</t>
         </is>
       </c>
     </row>
@@ -3504,12 +3503,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>yt: 104</t>
+          <t>rs: 190</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>['yt: 0.000530309211063066']</t>
+          <t>['rs: 0.000968834135595986']</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3518,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>xu: 5</t>
+          <t>gv: 1</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>['xu: 2.549563514726279e-05']</t>
+          <t>['gv: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3534,13 +3533,13 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>u
-: 155</t>
+          <t>h
+: 2409</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>['u\n: 0.0007903646895651464']</t>
+          <t>['h\n: 0.01228379701395121']</t>
         </is>
       </c>
     </row>
@@ -3550,12 +3549,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ej: 55</t>
+          <t>gh: 360</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>['ej: 0.0002804519866198907']</t>
+          <t>['gh: 0.0018356857306029207']</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3564,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ki: 509</t>
+          <t>zr: 32</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>['ki: 0.002595455657991352']</t>
+          <t>['zr: 0.00016317206494248184']</t>
         </is>
       </c>
     </row>
@@ -3580,12 +3579,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ot: 118</t>
+          <t>yx: 28</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>['ot: 0.0006016969894754018']</t>
+          <t>['yx: 0.00014277555682467162']</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3594,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ty: 341</t>
+          <t>mj: 7</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>['ty: 0.0017388023170433222']</t>
+          <t>['mj: 3.5693889206167905e-05']</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3609,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>oa: 149</t>
+          <t>kl: 139</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>['oa: 0.0007597699273884311']</t>
+          <t>['kl: 0.0007087786570939055']</t>
         </is>
       </c>
     </row>
@@ -3625,13 +3624,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>b
-: 114</t>
+          <t>rn: 140</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>['b\n: 0.0005813004813575916']</t>
+          <t>['rn: 0.0007138777841233581']</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3639,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>at: 687</t>
+          <t>hz: 20</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>['at: 0.003503100269233907']</t>
+          <t>['hz: 0.00010198254058905116']</t>
         </is>
       </c>
     </row>
@@ -3656,12 +3654,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ju: 202</t>
+          <t>hf: 2</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>['ju: 0.0010300236599494166']</t>
+          <t>['hf: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3669,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ob: 140</t>
+          <t>dk: 3</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>['ob: 0.0007138777841233581']</t>
+          <t>['dk: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3684,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>re: 1697</t>
+          <t>iw: 8</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>['re: 0.00865321856898099']</t>
+          <t>['iw: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3699,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>gf: 1</t>
+          <t>ve: 568</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>['gf: 5.0991270294525576e-06']</t>
+          <t>['ve: 0.0028963041527290526']</t>
         </is>
       </c>
     </row>
@@ -3716,12 +3714,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>rr: 425</t>
+          <t>nv: 55</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>['rr: 0.002167128987517337']</t>
+          <t>['nv: 0.0002804519866198907']</t>
         </is>
       </c>
     </row>
@@ -3731,12 +3729,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>rq: 16</t>
+          <t>ub: 103</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>['rq: 8.158603247124092e-05']</t>
+          <t>['ub: 0.0005252100840336134']</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3744,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ad: 1042</t>
+          <t>wu: 25</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>['ad: 0.005313290364689565']</t>
+          <t>['wu: 0.00012747817573631394']</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3759,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>wd: 8</t>
+          <t>ct: 35</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>['wd: 4.079301623562046e-05']</t>
+          <t>['ct: 0.00017846944603083952']</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3774,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>zs: 4</t>
+          <t>bo: 105</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>['zs: 2.039650811781023e-05']</t>
+          <t>['bo: 0.0005354083380925185']</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3789,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>mf: 1</t>
+          <t>kt: 17</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>['mf: 5.0991270294525576e-06']</t>
+          <t>['kt: 8.668515950069348e-05']</t>
         </is>
       </c>
     </row>
@@ -3806,12 +3804,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>rh: 121</t>
+          <t>sl: 279</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>['rh: 0.0006169943705637595']</t>
+          <t>['sl: 0.0014226564412172637']</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3819,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>tn: 22</t>
+          <t>wg: 1</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>['tn: 0.00011218079464795627']</t>
+          <t>['wg: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3836,12 +3834,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ip: 53</t>
+          <t>ja: 1473</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>['ip: 0.00027025373256098553']</t>
+          <t>['ja: 0.007511014114383618']</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3849,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>pk: 1</t>
+          <t>im: 427</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>['pk: 5.0991270294525576e-06']</t>
+          <t>['im: 0.0021773272415762423']</t>
         </is>
       </c>
     </row>
@@ -3866,12 +3864,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>nr: 44</t>
+          <t>oh: 171</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>['nr: 0.00022436158929591254']</t>
+          <t>['oh: 0.0008719507220363874']</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3879,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ye: 301</t>
+          <t>ez: 181</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>['ye: 0.0015348372358652198']</t>
+          <t>['ez: 0.0009229419923309129']</t>
         </is>
       </c>
     </row>
@@ -3896,12 +3894,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>rj: 25</t>
+          <t>mk: 1</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>['rj: 0.00012747817573631394']</t>
+          <t>['mk: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -3911,12 +3909,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>fn: 4</t>
+          <t>ue: 169</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>['fn: 2.039650811781023e-05']</t>
+          <t>['ue: 0.0008617524679774822']</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3924,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ze: 373</t>
+          <t>ti: 532</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>['ze: 0.001901974381985804']</t>
+          <t>['ti: 0.002712735579668761']</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3939,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>uv: 37</t>
+          <t>ic: 509</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>['uv: 0.00018866770008974464']</t>
+          <t>['ic: 0.002595455657991352']</t>
         </is>
       </c>
     </row>
@@ -3956,12 +3954,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ep: 83</t>
+          <t>tv: 15</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>['ep: 0.0004232275434445623']</t>
+          <t>['tv: 7.648690544178837e-05']</t>
         </is>
       </c>
     </row>
@@ -3971,12 +3969,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>da: 1303</t>
+          <t>lo: 692</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>['da: 0.006644162519376683']</t>
+          <t>['lo: 0.00352859590438117']</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3984,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>cz: 4</t>
+          <t>sj: 2</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>['cz: 2.039650811781023e-05']</t>
+          <t>['sj: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -4001,12 +3999,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>vd: 1</t>
+          <t>oj: 16</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>['vd: 5.0991270294525576e-06']</t>
+          <t>['oj: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -4016,12 +4014,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>kn: 26</t>
+          <t>nk: 58</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>['kn: 0.0001325773027657665']</t>
+          <t>['nk: 0.00029574936770824833']</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4029,13 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ug: 47</t>
+          <t>i
+: 2489</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>['ug: 0.0002396589703842702']</t>
+          <t>['i\n: 0.012691727176307416']</t>
         </is>
       </c>
     </row>
@@ -4046,12 +4045,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ga: 330</t>
+          <t>tb: 1</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>['ga: 0.001682711919719344']</t>
+          <t>['tb: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4060,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ol: 619</t>
+          <t>rz: 23</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>['ol: 0.0031563596312311334']</t>
+          <t>['rz: 0.00011727992167740883']</t>
         </is>
       </c>
     </row>
@@ -4076,12 +4075,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ul: 301</t>
+          <t>cj: 3</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>['ul: 0.0015348372358652198']</t>
+          <t>['cj: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -4091,12 +4090,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>yh: 22</t>
+          <t>ae: 692</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>['yh: 0.00011218079464795627']</t>
+          <t>['ae: 0.00352859590438117']</t>
         </is>
       </c>
     </row>
@@ -4106,12 +4105,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>uw: 86</t>
+          <t>ai: 1650</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>['uw: 0.00043852492453292']</t>
+          <t>['ai: 0.00841355959859672']</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4120,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ic: 509</t>
+          <t>bc: 1</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>['ic: 0.002595455657991352']</t>
+          <t>['bc: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4135,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>nb: 8</t>
+          <t>gg: 25</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>['nb: 4.079301623562046e-05']</t>
+          <t>['gg: 0.00012747817573631394']</t>
         </is>
       </c>
     </row>
@@ -4151,12 +4150,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>of: 34</t>
+          <t>co: 380</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>['of: 0.00017337031900138697']</t>
+          <t>['co: 0.001937668271191972']</t>
         </is>
       </c>
     </row>
@@ -4166,12 +4165,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>xt: 70</t>
+          <t>lc: 25</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>['xt: 0.00035693889206167903']</t>
+          <t>['lc: 0.00012747817573631394']</t>
         </is>
       </c>
     </row>
@@ -4181,13 +4180,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>j
-: 71</t>
+          <t>qr: 1</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>['j\n: 0.0003620380190911316']</t>
+          <t>['qr: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -4197,12 +4195,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>xh: 1</t>
+          <t>se: 884</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>['xh: 5.0991270294525576e-06']</t>
+          <t>['se: 0.004507628294036061']</t>
         </is>
       </c>
     </row>
@@ -4212,12 +4210,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>rp: 14</t>
+          <t>yc: 115</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>['rp: 7.138777841233581e-05']</t>
+          <t>['yc: 0.0005863996083870441']</t>
         </is>
       </c>
     </row>
@@ -4227,12 +4225,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>nl: 195</t>
+          <t>zu: 73</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>['nl: 0.0009943297707432487']</t>
+          <t>['zu: 0.00037223627315003673']</t>
         </is>
       </c>
     </row>
@@ -4242,12 +4240,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>yb: 27</t>
+          <t>qe: 1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>['yb: 0.00013767642979521907']</t>
+          <t>['qe: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -4257,12 +4255,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>fz: 2</t>
+          <t>dz: 1</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>['fz: 1.0198254058905115e-05']</t>
+          <t>['dz: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -4272,12 +4270,13 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>kv: 2</t>
+          <t>b
+: 114</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>['kv: 1.0198254058905115e-05']</t>
+          <t>['b\n: 0.0005813004813575916']</t>
         </is>
       </c>
     </row>
@@ -4287,13 +4286,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>o
-: 855</t>
+          <t>uw: 86</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>['o\n: 0.004359753610181937']</t>
+          <t>['uw: 0.00043852492453292']</t>
         </is>
       </c>
     </row>
@@ -4303,12 +4301,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>bu: 45</t>
+          <t>ul: 301</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>['bu: 0.0002294607163253651']</t>
+          <t>['ul: 0.0015348372358652198']</t>
         </is>
       </c>
     </row>
@@ -4318,12 +4316,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ri: 3033</t>
+          <t>fs: 6</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>['ri: 0.015465652280329608']</t>
+          <t>['fs: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -4333,12 +4331,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>pa: 209</t>
+          <t>xf: 3</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>['pa: 0.0010657175491555846']</t>
+          <t>['xf: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -4348,12 +4346,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ee: 1271</t>
+          <t>vo: 153</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>['ee: 0.006480990454434201']</t>
+          <t>['vo: 0.0007801664355062413']</t>
         </is>
       </c>
     </row>
@@ -4363,12 +4361,13 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>fl: 20</t>
+          <t>a
+: 6640</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>['fl: 0.00010198254058905116']</t>
+          <t>['a\n: 0.03385820347556499']</t>
         </is>
       </c>
     </row>
@@ -4378,12 +4377,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>dm: 30</t>
+          <t>is: 1316</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>['dm: 0.00015297381088357674']</t>
+          <t>['is: 0.006710451170759566']</t>
         </is>
       </c>
     </row>
@@ -4393,12 +4392,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>qu: 206</t>
+          <t>he: 674</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>['qu: 0.0010504201680672268']</t>
+          <t>['he: 0.003436811617851024']</t>
         </is>
       </c>
     </row>
@@ -4408,12 +4407,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>oe: 132</t>
+          <t>xi: 102</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>['oe: 0.0006730847678877377']</t>
+          <t>['xi: 0.0005201109570041609']</t>
         </is>
       </c>
     </row>
@@ -4423,13 +4422,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>s
-: 1169</t>
+          <t>pj: 1</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>['s\n: 0.00596087949743004']</t>
+          <t>['pj: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -4439,12 +4437,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>dy: 317</t>
+          <t>by: 83</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>['dy: 0.0016164232683364608']</t>
+          <t>['by: 0.0004232275434445623']</t>
         </is>
       </c>
     </row>
@@ -4454,12 +4452,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>xs: 31</t>
+          <t>pl: 16</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>['xs: 0.0001580729379130293']</t>
+          <t>['pl: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4467,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>rd: 187</t>
+          <t>ta: 1027</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>['rd: 0.0009535367545076283']</t>
+          <t>['ta: 0.005236803459247777']</t>
         </is>
       </c>
     </row>
@@ -4484,12 +4482,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>gh: 360</t>
+          <t>il: 1345</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>['gh: 0.0018356857306029207']</t>
+          <t>['il: 0.00685832585461369']</t>
         </is>
       </c>
     </row>
@@ -4499,12 +4497,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ef: 82</t>
+          <t>ik: 445</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>['ef: 0.00041812841641510973']</t>
+          <t>['ik: 0.0022691115281063884']</t>
         </is>
       </c>
     </row>
@@ -4514,12 +4512,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>aw: 161</t>
+          <t>rx: 3</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>['aw: 0.0008209594517418618']</t>
+          <t>['rx: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -4529,12 +4527,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>lq: 3</t>
+          <t>tu: 78</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>['lq: 1.5297381088357674e-05']</t>
+          <t>['tu: 0.0003977319082972995']</t>
         </is>
       </c>
     </row>
@@ -4544,12 +4542,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>le: 2921</t>
+          <t>tf: 2</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>['le: 0.014894550053030921']</t>
+          <t>['tf: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4557,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ss: 461</t>
+          <t>vi: 911</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>['ss: 0.002350697560577629']</t>
+          <t>['vi: 0.00464530472383128']</t>
         </is>
       </c>
     </row>
@@ -4574,12 +4572,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>lc: 25</t>
+          <t>fi: 160</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>['lc: 0.00012747817573631394']</t>
+          <t>['fi: 0.0008158603247124093']</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4587,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ky: 379</t>
+          <t>pb: 2</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>['ky: 0.0019325691441625195']</t>
+          <t>['pb: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -4604,12 +4602,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>bn: 4</t>
+          <t>lb: 52</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>['bn: 2.039650811781023e-05']</t>
+          <t>['lb: 0.000265154605531533']</t>
         </is>
       </c>
     </row>
@@ -4619,12 +4617,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ry: 773</t>
+          <t>dd: 149</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>['ry: 0.003941625193766827']</t>
+          <t>['dd: 0.0007597699273884311']</t>
         </is>
       </c>
     </row>
@@ -4634,12 +4632,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>yo: 271</t>
+          <t>ns: 278</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>['yo: 0.001381863424981643']</t>
+          <t>['ns: 0.001417557314187811']</t>
         </is>
       </c>
     </row>
@@ -4649,12 +4647,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>hj: 9</t>
+          <t>mi: 1256</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>['hj: 4.5892143265073016e-05']</t>
+          <t>['mi: 0.006404503548992413']</t>
         </is>
       </c>
     </row>
@@ -4664,12 +4662,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>cs: 5</t>
+          <t>nd: 704</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>['cs: 2.549563514726279e-05']</t>
+          <t>['nd: 0.0035897854287346006']</t>
         </is>
       </c>
     </row>
@@ -4679,12 +4677,13 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>uu: 3</t>
+          <t>g
+: 108</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>['uu: 1.5297381088357674e-05']</t>
+          <t>['g\n: 0.0005507057191808763']</t>
         </is>
       </c>
     </row>
@@ -4694,12 +4693,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>iy: 779</t>
+          <t>an: 5438</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>['iy: 0.003972219955943542']</t>
+          <t>['an: 0.02772905278616301']</t>
         </is>
       </c>
     </row>
@@ -4709,12 +4708,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>tw: 11</t>
+          <t>ur: 414</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>['tw: 5.6090397323978135e-05']</t>
+          <t>['ur: 0.002111038590193359']</t>
         </is>
       </c>
     </row>
@@ -4724,12 +4723,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>if: 101</t>
+          <t>ej: 55</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>['if: 0.0005150118299747083']</t>
+          <t>['ej: 0.0002804519866198907']</t>
         </is>
       </c>
     </row>
@@ -4739,12 +4738,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>nv: 55</t>
+          <t>ln: 14</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>['nv: 0.0002804519866198907']</t>
+          <t>['ln: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -4754,13 +4753,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>i
-: 2489</t>
+          <t>mm: 168</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>['i\n: 0.012691727176307416']</t>
+          <t>['mm: 0.0008566533409480297']</t>
         </is>
       </c>
     </row>
@@ -4770,12 +4768,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>zb: 4</t>
+          <t>yl: 1104</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>['zb: 2.039650811781023e-05']</t>
+          <t>['yl: 0.005629436240515624']</t>
         </is>
       </c>
     </row>
@@ -4785,12 +4783,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>vr: 48</t>
+          <t>po: 59</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>['vr: 0.0002447580974137228']</t>
+          <t>['po: 0.0003008484947377009']</t>
         </is>
       </c>
     </row>
@@ -4800,12 +4798,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>tj: 3</t>
+          <t>yq: 6</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>['tj: 1.5297381088357674e-05']</t>
+          <t>['yq: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4813,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>pm: 1</t>
+          <t>oo: 115</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>['pm: 5.0991270294525576e-06']</t>
+          <t>['oo: 0.0005863996083870441']</t>
         </is>
       </c>
     </row>
@@ -4830,13 +4828,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>k
-: 363</t>
+          <t>ox: 45</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>['k\n: 0.0018509831116912785']</t>
+          <t>['ox: 0.0002294607163253651']</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4843,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>zp: 2</t>
+          <t>uf: 19</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>['zp: 1.0198254058905115e-05']</t>
+          <t>['uf: 9.68834135595986e-05']</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4858,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>yw: 4</t>
+          <t>zj: 2</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>['yw: 2.039650811781023e-05']</t>
+          <t>['zj: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -4876,12 +4873,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ts: 35</t>
+          <t>jd: 4</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>['ts: 0.00017846944603083952']</t>
+          <t>['jd: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4888,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>uk: 93</t>
+          <t>or: 1059</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>['uk: 0.0004742188137390879']</t>
+          <t>['or: 0.0053999755241902585']</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4903,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>yd: 272</t>
+          <t>ba: 321</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>['yd: 0.0013869625520110957']</t>
+          <t>['ba: 0.001636819776454271']</t>
         </is>
       </c>
     </row>
@@ -4921,12 +4918,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>eo: 269</t>
+          <t>bn: 4</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>['eo: 0.001371665170922738']</t>
+          <t>['bn: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4933,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>oq: 3</t>
+          <t>nb: 8</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>['oq: 1.5297381088357674e-05']</t>
+          <t>['nb: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4948,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>od: 190</t>
+          <t>kj: 2</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>['od: 0.000968834135595986']</t>
+          <t>['kj: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -4966,12 +4963,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ik: 445</t>
+          <t>og: 44</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>['ik: 0.0022691115281063884']</t>
+          <t>['og: 0.00022436158929591254']</t>
         </is>
       </c>
     </row>
@@ -4981,12 +4978,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>nq: 2</t>
+          <t>ed: 384</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>['nq: 1.0198254058905115e-05']</t>
+          <t>['ed: 0.0019580647793097823']</t>
         </is>
       </c>
     </row>
@@ -4996,12 +4993,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>qa: 13</t>
+          <t>uz: 45</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>['qa: 6.628865138288325e-05']</t>
+          <t>['uz: 0.0002294607163253651']</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5008,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>de: 1283</t>
+          <t>ki: 509</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>['de: 0.006542179978787631']</t>
+          <t>['ki: 0.002595455657991352']</t>
         </is>
       </c>
     </row>
@@ -5026,12 +5023,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>zi: 364</t>
+          <t>kw: 34</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>['zi: 0.0018560822387207311']</t>
+          <t>['kw: 0.00017337031900138697']</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5038,13 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>lg: 6</t>
+          <t>j
+: 71</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>['lg: 3.059476217671535e-05']</t>
+          <t>['j\n: 0.0003620380190911316']</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5054,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>uc: 103</t>
+          <t>fh: 1</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>['uc: 0.0005252100840336134']</t>
+          <t>['fh: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -5071,12 +5069,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>tl: 134</t>
+          <t>za: 860</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>['tl: 0.0006832830219466428']</t>
+          <t>['za: 0.0043852492453292']</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5084,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>mu: 139</t>
+          <t>dh: 118</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>['mu: 0.0007087786570939055']</t>
+          <t>['dh: 0.0006016969894754018']</t>
         </is>
       </c>
     </row>
@@ -5101,12 +5099,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>uj: 14</t>
+          <t>ny: 465</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>['uj: 7.138777841233581e-05']</t>
+          <t>['ny: 0.0023710940686954393']</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5114,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>mz: 11</t>
+          <t>fg: 1</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>['mz: 5.6090397323978135e-05']</t>
+          <t>['fg: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -5131,12 +5129,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>za: 860</t>
+          <t>ax: 182</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>['za: 0.0043852492453292']</t>
+          <t>['ax: 0.0009280411193603656']</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5144,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>qs: 2</t>
+          <t>ux: 34</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>['qs: 1.0198254058905115e-05']</t>
+          <t>['ux: 0.00017337031900138697']</t>
         </is>
       </c>
     </row>
@@ -5161,12 +5159,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>jc: 4</t>
+          <t>ao: 63</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>['jc: 2.039650811781023e-05']</t>
+          <t>['ao: 0.00032124500285551113']</t>
         </is>
       </c>
     </row>
@@ -5176,12 +5174,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>zx: 1</t>
+          <t>ec: 153</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>['zx: 5.0991270294525576e-06']</t>
+          <t>['ec: 0.0007801664355062413']</t>
         </is>
       </c>
     </row>
@@ -5191,12 +5189,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>no: 496</t>
+          <t>iu: 109</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>['no: 0.0025291670066084687']</t>
+          <t>['iu: 0.0005558048462103288']</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5204,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ed: 384</t>
+          <t>fa: 242</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>['ed: 0.0019580647793097823']</t>
+          <t>['fa: 0.001233988741127519']</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5219,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>jv: 5</t>
+          <t>cq: 11</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>['jv: 2.549563514726279e-05']</t>
+          <t>['cq: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -5236,12 +5234,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>np: 5</t>
+          <t>ap: 82</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>['np: 2.549563514726279e-05']</t>
+          <t>['ap: 0.00041812841641510973']</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5249,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>mr: 97</t>
+          <t>uq: 10</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>['mr: 0.0004946153218568981']</t>
+          <t>['uq: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -5266,12 +5264,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>lv: 72</t>
+          <t>na: 2977</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>['lv: 0.00036713714612058413']</t>
+          <t>['na: 0.015180101166680265']</t>
         </is>
       </c>
     </row>
@@ -5281,12 +5279,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ia: 2445</t>
+          <t>ob: 140</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>['ia: 0.012467365587011503']</t>
+          <t>['ob: 0.0007138777841233581']</t>
         </is>
       </c>
     </row>
@@ -5296,12 +5294,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>cx: 3</t>
+          <t>rp: 14</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>['cx: 1.5297381088357674e-05']</t>
+          <t>['rp: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -5311,12 +5309,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>zk: 2</t>
+          <t>kf: 1</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>['zk: 1.0198254058905115e-05']</t>
+          <t>['kf: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5324,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>iz: 277</t>
+          <t>yw: 4</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>['iz: 0.0014124581871583586']</t>
+          <t>['yw: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -5341,12 +5339,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>mo: 452</t>
+          <t>dn: 31</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>['mo: 0.002304805417312556']</t>
+          <t>['dn: 0.0001580729379130293']</t>
         </is>
       </c>
     </row>
@@ -5356,12 +5354,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ux: 34</t>
+          <t>nw: 11</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>['ux: 0.00017337031900138697']</t>
+          <t>['nw: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -5371,12 +5369,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>gl: 32</t>
+          <t>xl: 39</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>['gl: 0.00016317206494248184']</t>
+          <t>['xl: 0.00019886595414864974']</t>
         </is>
       </c>
     </row>
@@ -5386,12 +5384,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>na: 2977</t>
+          <t>ht: 71</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>['na: 0.015180101166680265']</t>
+          <t>['ht: 0.0003620380190911316']</t>
         </is>
       </c>
     </row>
@@ -5401,12 +5399,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>or: 1059</t>
+          <t>rq: 16</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>['or: 0.0053999755241902585']</t>
+          <t>['rq: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -5416,12 +5414,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>wr: 22</t>
+          <t>ra: 2356</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>['wr: 0.00011218079464795627']</t>
+          <t>['ra: 0.012013543281390225']</t>
         </is>
       </c>
     </row>
@@ -5431,12 +5429,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>af: 134</t>
+          <t>ws: 20</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>['af: 0.0006832830219466428']</t>
+          <t>['ws: 0.00010198254058905116']</t>
         </is>
       </c>
     </row>
@@ -5446,12 +5444,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>zc: 2</t>
+          <t>nf: 11</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>['zc: 1.0198254058905115e-05']</t>
+          <t>['nf: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5459,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>ei: 818</t>
+          <t>ef: 82</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>['ei: 0.004171085910092192']</t>
+          <t>['ef: 0.00041812841641510973']</t>
         </is>
       </c>
     </row>
@@ -5476,12 +5474,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ii: 82</t>
+          <t>zz: 45</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>['ii: 0.00041812841641510973']</t>
+          <t>['zz: 0.0002294607163253651']</t>
         </is>
       </c>
     </row>
@@ -5491,12 +5489,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>sn: 24</t>
+          <t>mf: 1</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>['sn: 0.0001223790487068614']</t>
+          <t>['mf: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5504,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>am: 1634</t>
+          <t>ys: 401</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>['am: 0.00833197356612548']</t>
+          <t>['ys: 0.0020447499388104758']</t>
         </is>
       </c>
     </row>
@@ -5521,12 +5519,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>zv: 2</t>
+          <t>mb: 112</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>['zv: 1.0198254058905115e-05']</t>
+          <t>['mb: 0.0005711022272986865']</t>
         </is>
       </c>
     </row>
@@ -5536,12 +5534,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>zw: 3</t>
+          <t>hr: 204</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>['zw: 1.5297381088357674e-05']</t>
+          <t>['hr: 0.0010402219140083217']</t>
         </is>
       </c>
     </row>
@@ -5551,12 +5549,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>wb: 1</t>
+          <t>gr: 201</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>['wb: 5.0991270294525576e-06']</t>
+          <t>['gr: 0.0010249245329199642']</t>
         </is>
       </c>
     </row>
@@ -5566,12 +5564,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>nd: 704</t>
+          <t>iz: 277</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>['nd: 0.0035897854287346006']</t>
+          <t>['iz: 0.0014124581871583586']</t>
         </is>
       </c>
     </row>
@@ -5581,12 +5579,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ya: 2143</t>
+          <t>wb: 1</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>['ya: 0.010927429224116832']</t>
+          <t>['wb: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -5596,12 +5594,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>te: 716</t>
+          <t>op: 95</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>['te: 0.003650974953088031']</t>
+          <t>['op: 0.000484417067797993']</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5609,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ap: 82</t>
+          <t>vy: 121</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>['ap: 0.00041812841641510973']</t>
+          <t>['vy: 0.0006169943705637595']</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5624,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>dg: 25</t>
+          <t>ro: 869</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>['dg: 0.00012747817573631394']</t>
+          <t>['ro: 0.004431141388594273']</t>
         </is>
       </c>
     </row>
@@ -5641,13 +5639,13 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>q
-: 28</t>
+          <t>v
+: 88</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>['q\n: 0.00014277555682467162']</t>
+          <t>['v\n: 0.0004487231785918251']</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5655,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>wm: 2</t>
+          <t>aq: 60</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>['wm: 1.0198254058905115e-05']</t>
+          <t>['aq: 0.0003059476217671535']</t>
         </is>
       </c>
     </row>
@@ -5672,12 +5670,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>ru: 252</t>
+          <t>jn: 2</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>['ru: 0.0012849800114220445']</t>
+          <t>['jn: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5685,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>oo: 115</t>
+          <t>rr: 425</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>['oo: 0.0005863996083870441']</t>
+          <t>['rr: 0.002167128987517337']</t>
         </is>
       </c>
     </row>
@@ -5702,12 +5700,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>pn: 1</t>
+          <t>hn: 138</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>['pn: 5.0991270294525576e-06']</t>
+          <t>['hn: 0.000703679530064453']</t>
         </is>
       </c>
     </row>
@@ -5717,12 +5715,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>sy: 215</t>
+          <t>va: 642</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>['sy: 0.0010963123113323']</t>
+          <t>['va: 0.003273639552908542']</t>
         </is>
       </c>
     </row>
@@ -5732,12 +5730,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>er: 1958</t>
+          <t>om: 261</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>['er: 0.009984090723668107']</t>
+          <t>['om: 0.0013308721546871176']</t>
         </is>
       </c>
     </row>
@@ -5747,12 +5745,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>ff: 44</t>
+          <t>gj: 3</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>['ff: 0.00022436158929591254']</t>
+          <t>['gj: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -5762,12 +5760,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>om: 261</t>
+          <t>nj: 44</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>['om: 0.0013308721546871176']</t>
+          <t>['nj: 0.00022436158929591254']</t>
         </is>
       </c>
     </row>
@@ -5777,12 +5775,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>hi: 729</t>
+          <t>ii: 82</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>['hi: 0.0037172636044709145']</t>
+          <t>['ii: 0.00041812841641510973']</t>
         </is>
       </c>
     </row>
@@ -5792,12 +5790,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>hr: 204</t>
+          <t>aa: 556</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>['hr: 0.0010402219140083217']</t>
+          <t>['aa: 0.002835114628375622']</t>
         </is>
       </c>
     </row>
@@ -5807,12 +5805,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>nu: 96</t>
+          <t>rb: 41</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>['nu: 0.0004895161948274456']</t>
+          <t>['rb: 0.00020906420820755486']</t>
         </is>
       </c>
     </row>
@@ -5822,12 +5820,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>xz: 19</t>
+          <t>lk: 24</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>['xz: 9.68834135595986e-05']</t>
+          <t>['lk: 0.0001223790487068614']</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5835,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>jn: 2</t>
+          <t>np: 5</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>['jn: 1.0198254058905115e-05']</t>
+          <t>['np: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -5852,12 +5850,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>du: 92</t>
+          <t>xt: 70</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>['du: 0.00046911968670963533']</t>
+          <t>['xt: 0.00035693889206167903']</t>
         </is>
       </c>
     </row>
@@ -5867,12 +5865,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>be: 655</t>
+          <t>oi: 69</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>['be: 0.003339928204291425']</t>
+          <t>['oi: 0.0003518397650322265']</t>
         </is>
       </c>
     </row>
@@ -5882,12 +5880,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>jh: 45</t>
+          <t>mp: 38</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>['jh: 0.0002294607163253651']</t>
+          <t>['mp: 0.0001937668271191972']</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5895,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>op: 95</t>
+          <t>py: 12</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>['op: 0.000484417067797993']</t>
+          <t>['py: 6.11895243534307e-05']</t>
         </is>
       </c>
     </row>
@@ -5912,12 +5910,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ev: 463</t>
+          <t>qa: 13</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>['ev: 0.002360895814636534']</t>
+          <t>['qa: 6.628865138288325e-05']</t>
         </is>
       </c>
     </row>
@@ -5927,12 +5925,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>py: 12</t>
+          <t>df: 5</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>['py: 6.11895243534307e-05']</t>
+          <t>['df: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -5942,12 +5940,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>yu: 141</t>
+          <t>nr: 44</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>['yu: 0.0007189769111528106']</t>
+          <t>['nr: 0.00022436158929591254']</t>
         </is>
       </c>
     </row>
@@ -5957,13 +5955,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>x
-: 163</t>
+          <t>gl: 32</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>['x\n: 0.0008311577058007669']</t>
+          <t>['gl: 0.00016317206494248184']</t>
         </is>
       </c>
     </row>
@@ -5973,12 +5970,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>sm: 90</t>
+          <t>gy: 31</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>['sm: 0.0004589214326507302']</t>
+          <t>['gy: 0.0001580729379130293']</t>
         </is>
       </c>
     </row>
@@ -5988,12 +5985,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>fh: 1</t>
+          <t>uy: 13</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>['fh: 5.0991270294525576e-06']</t>
+          <t>['uy: 6.628865138288325e-05']</t>
         </is>
       </c>
     </row>
@@ -6003,12 +6000,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>hz: 20</t>
+          <t>eq: 14</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>['hz: 0.00010198254058905116']</t>
+          <t>['eq: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -6018,12 +6015,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>we: 149</t>
+          <t>sa: 1201</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>['we: 0.0007597699273884311']</t>
+          <t>['sa: 0.006124051562372522']</t>
         </is>
       </c>
     </row>
@@ -6033,13 +6030,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>m
-: 516</t>
+          <t>wl: 13</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>['m\n: 0.0026311495471975197']</t>
+          <t>['wl: 6.628865138288325e-05']</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6045,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>ai: 1650</t>
+          <t>xn: 1</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>['ai: 0.00841355959859672']</t>
+          <t>['xn: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -6064,12 +6060,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ja: 1473</t>
+          <t>ll: 1345</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>['ja: 0.007511014114383618']</t>
+          <t>['ll: 0.00685832585461369']</t>
         </is>
       </c>
     </row>
@@ -6079,12 +6075,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ko: 344</t>
+          <t>ld: 138</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>['ko: 0.00175409969813168']</t>
+          <t>['ld: 0.000703679530064453']</t>
         </is>
       </c>
     </row>
@@ -6094,12 +6090,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>yx: 28</t>
+          <t>cg: 2</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>['yx: 0.00014277555682467162']</t>
+          <t>['cg: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6109,12 +6105,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>dk: 3</t>
+          <t>mc: 51</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>['dk: 1.5297381088357674e-05']</t>
+          <t>['mc: 0.00026005547850208044']</t>
         </is>
       </c>
     </row>
@@ -6124,12 +6120,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>rk: 90</t>
+          <t>lq: 3</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>['rk: 0.0004589214326507302']</t>
+          <t>['lq: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -6139,12 +6135,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>bb: 38</t>
+          <t>rk: 90</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>['bb: 0.0001937668271191972']</t>
+          <t>['rk: 0.0004589214326507302']</t>
         </is>
       </c>
     </row>
@@ -6154,12 +6150,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>oz: 54</t>
+          <t>jj: 2</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>['oz: 0.00027535285959043814']</t>
+          <t>['jj: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6169,12 +6165,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>kk: 20</t>
+          <t>du: 92</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>['kk: 0.00010198254058905116']</t>
+          <t>['du: 0.00046911968670963533']</t>
         </is>
       </c>
     </row>
@@ -6184,12 +6180,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>mn: 20</t>
+          <t>su: 185</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>['mn: 0.00010198254058905116']</t>
+          <t>['su: 0.0009433385004487232']</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6195,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>ln: 14</t>
+          <t>sy: 215</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>['ln: 7.138777841233581e-05']</t>
+          <t>['sy: 0.0010963123113323']</t>
         </is>
       </c>
     </row>
@@ -6214,12 +6210,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>fs: 6</t>
+          <t>re: 1697</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>['fs: 3.059476217671535e-05']</t>
+          <t>['re: 0.00865321856898099']</t>
         </is>
       </c>
     </row>
@@ -6229,12 +6225,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>ho: 287</t>
+          <t>jb: 1</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>['ho: 0.001463449457452884']</t>
+          <t>['jb: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -6244,12 +6240,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>su: 185</t>
+          <t>kc: 2</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>['su: 0.0009433385004487232']</t>
+          <t>['kc: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6255,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>xa: 103</t>
+          <t>ab: 541</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>['xa: 0.0005252100840336134']</t>
+          <t>['ab: 0.002758627722933834']</t>
         </is>
       </c>
     </row>
@@ -6274,12 +6270,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>xi: 102</t>
+          <t>cc: 42</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>['xi: 0.0005201109570041609']</t>
+          <t>['cc: 0.00021416333523700741']</t>
         </is>
       </c>
     </row>
@@ -6289,12 +6285,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>oh: 171</t>
+          <t>ih: 95</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>['oh: 0.0008719507220363874']</t>
+          <t>['ih: 0.000484417067797993']</t>
         </is>
       </c>
     </row>
@@ -6304,13 +6300,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>z
-: 160</t>
+          <t>on: 2411</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>['z\n: 0.0008158603247124093']</t>
+          <t>['on: 0.012293995268010116']</t>
         </is>
       </c>
     </row>
@@ -6320,12 +6315,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>av: 834</t>
+          <t>zw: 3</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>['av: 0.004252671942563433']</t>
+          <t>['zw: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -6335,12 +6330,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>jb: 1</t>
+          <t>up: 16</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>['jb: 5.0991270294525576e-06']</t>
+          <t>['up: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -6350,12 +6345,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>ps: 16</t>
+          <t>qm: 2</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>['ps: 8.158603247124092e-05']</t>
+          <t>['qm: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6365,12 +6360,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>uo: 10</t>
+          <t>jl: 9</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>['uo: 5.099127029452558e-05']</t>
+          <t>['jl: 4.5892143265073016e-05']</t>
         </is>
       </c>
     </row>
@@ -6380,12 +6375,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>kj: 2</t>
+          <t>od: 190</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>['kj: 1.0198254058905115e-05']</t>
+          <t>['od: 0.000968834135595986']</t>
         </is>
       </c>
     </row>
@@ -6395,12 +6390,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>jp: 1</t>
+          <t>bt: 2</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>['jp: 5.0991270294525576e-06']</t>
+          <t>['bt: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6410,12 +6405,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>rn: 140</t>
+          <t>hd: 24</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>['rn: 0.0007138777841233581']</t>
+          <t>['hd: 0.0001223790487068614']</t>
         </is>
       </c>
     </row>
@@ -6425,12 +6420,13 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>rb: 41</t>
+          <t>n
+: 6763</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>['rb: 0.00020906420820755486']</t>
+          <t>['n\n: 0.03448539610018765']</t>
         </is>
       </c>
     </row>
@@ -6440,12 +6436,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>zg: 1</t>
+          <t>vv: 7</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>['zg: 5.0991270294525576e-06']</t>
+          <t>['vv: 3.5693889206167905e-05']</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6451,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>xy: 30</t>
+          <t>es: 861</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>['xy: 0.00015297381088357674']</t>
+          <t>['es: 0.004390348372358652']</t>
         </is>
       </c>
     </row>
@@ -6470,12 +6466,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>ny: 465</t>
+          <t>je: 440</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>['ny: 0.0023710940686954393']</t>
+          <t>['je: 0.0022436158929591255']</t>
         </is>
       </c>
     </row>
@@ -6485,12 +6481,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>zj: 2</t>
+          <t>kn: 26</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>['zj: 1.0198254058905115e-05']</t>
+          <t>['kn: 0.0001325773027657665']</t>
         </is>
       </c>
     </row>
@@ -6500,12 +6496,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>ww: 2</t>
+          <t>hh: 1</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>['ww: 1.0198254058905115e-05']</t>
+          <t>['hh: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -6515,12 +6511,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>me: 818</t>
+          <t>zd: 2</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>['me: 0.004171085910092192']</t>
+          <t>['zd: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6530,12 +6526,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>qr: 1</t>
+          <t>yt: 104</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>['qr: 5.0991270294525576e-06']</t>
+          <t>['yt: 0.000530309211063066']</t>
         </is>
       </c>
     </row>
@@ -6545,12 +6541,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ud: 136</t>
+          <t>lt: 77</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>['ud: 0.0006934812760055479']</t>
+          <t>['lt: 0.00039263278126784693']</t>
         </is>
       </c>
     </row>
@@ -6560,12 +6556,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>co: 380</t>
+          <t>ac: 470</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>['co: 0.001937668271191972']</t>
+          <t>['ac: 0.002396589703842702']</t>
         </is>
       </c>
     </row>
@@ -6575,12 +6571,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>hm: 117</t>
+          <t>yr: 291</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>['hm: 0.0005965978624459492']</t>
+          <t>['yr: 0.0014838459655706943']</t>
         </is>
       </c>
     </row>
@@ -6590,12 +6586,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>ha: 2244</t>
+          <t>fy: 14</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>['ha: 0.01144244105409154']</t>
+          <t>['fy: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -6605,12 +6601,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>ro: 869</t>
+          <t>pn: 1</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>['ro: 0.004431141388594273']</t>
+          <t>['pn: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -6620,12 +6616,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>ay: 2050</t>
+          <t>we: 149</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>['ay: 0.010453210410377743']</t>
+          <t>['we: 0.0007597699273884311']</t>
         </is>
       </c>
     </row>
@@ -6635,12 +6631,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>gw: 26</t>
+          <t>ga: 330</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>['gw: 0.0001325773027657665']</t>
+          <t>['ga: 0.001682711919719344']</t>
         </is>
       </c>
     </row>
@@ -6650,12 +6646,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ak: 568</t>
+          <t>ig: 428</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>['ak: 0.0028963041527290526']</t>
+          <t>['ig: 0.002182426368605695']</t>
         </is>
       </c>
     </row>
@@ -6665,12 +6661,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>sp: 51</t>
+          <t>bi: 217</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>['sp: 0.00026005547850208044']</t>
+          <t>['bi: 0.001106510565391205']</t>
         </is>
       </c>
     </row>
@@ -6680,12 +6676,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>dv: 17</t>
+          <t>eg: 125</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>['dv: 8.668515950069348e-05']</t>
+          <t>['eg: 0.0006373908786815697']</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6691,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>tv: 15</t>
+          <t>ah: 2332</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>['tv: 7.648690544178837e-05']</t>
+          <t>['ah: 0.011891164232683365']</t>
         </is>
       </c>
     </row>
@@ -6710,12 +6706,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>my: 287</t>
+          <t>et: 580</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>['my: 0.001463449457452884']</t>
+          <t>['et: 0.0029574936770824837']</t>
         </is>
       </c>
     </row>
@@ -6725,12 +6721,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>dw: 23</t>
+          <t>pf: 1</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>['dw: 0.00011727992167740883']</t>
+          <t>['pf: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -6740,13 +6736,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>d
-: 516</t>
+          <t>yy: 23</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>['d\n: 0.0026311495471975197']</t>
+          <t>['yy: 0.00011727992167740883']</t>
         </is>
       </c>
     </row>
@@ -6756,12 +6751,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>wo: 36</t>
+          <t>tw: 11</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>['wo: 0.00018356857306029207']</t>
+          <t>['tw: 5.6090397323978135e-05']</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6766,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>lt: 77</t>
+          <t>id: 440</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>['lt: 0.00039263278126784693']</t>
+          <t>['id: 0.0022436158929591255']</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6781,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ca: 815</t>
+          <t>xy: 30</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>['ca: 0.004155788529003834']</t>
+          <t>['xy: 0.00015297381088357674']</t>
         </is>
       </c>
     </row>
@@ -6801,12 +6796,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>yq: 6</t>
+          <t>wm: 2</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>['yq: 3.059476217671535e-05']</t>
+          <t>['wm: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -6816,12 +6811,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>qo: 2</t>
+          <t>qw: 3</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>['qo: 1.0198254058905115e-05']</t>
+          <t>['qw: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -6831,12 +6826,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>nm: 19</t>
+          <t>as: 1118</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>['nm: 9.68834135595986e-05']</t>
+          <t>['as: 0.005700824018927959']</t>
         </is>
       </c>
     </row>
@@ -6846,12 +6841,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>xw: 3</t>
+          <t>dw: 23</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>['xw: 1.5297381088357674e-05']</t>
+          <t>['dw: 0.00011727992167740883']</t>
         </is>
       </c>
     </row>
@@ -6861,13 +6856,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>w
-: 51</t>
+          <t>nz: 145</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>['w\n: 0.00026005547850208044']</t>
+          <t>['nz: 0.0007393734192706209']</t>
         </is>
       </c>
     </row>
@@ -6877,12 +6871,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>so: 531</t>
+          <t>xz: 19</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>['so: 0.0027076364526393082']</t>
+          <t>['xz: 9.68834135595986e-05']</t>
         </is>
       </c>
     </row>
@@ -6892,12 +6886,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>sv: 14</t>
+          <t>lr: 18</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>['sv: 7.138777841233581e-05']</t>
+          <t>['lr: 9.178428653014603e-05']</t>
         </is>
       </c>
     </row>
@@ -6907,12 +6901,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>uq: 10</t>
+          <t>un: 275</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>['uq: 5.099127029452558e-05']</t>
+          <t>['un: 0.0014022599330994533']</t>
         </is>
       </c>
     </row>
@@ -6922,13 +6916,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>c
-: 97</t>
+          <t>eb: 121</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>['c\n: 0.0004946153218568981']</t>
+          <t>['eb: 0.0006169943705637595']</t>
         </is>
       </c>
     </row>
@@ -6938,12 +6931,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>nj: 44</t>
+          <t>zb: 4</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>['nj: 0.00022436158929591254']</t>
+          <t>['zb: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -6953,12 +6946,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>tx: 2</t>
+          <t>tz: 105</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>['tx: 1.0198254058905115e-05']</t>
+          <t>['tz: 0.0005354083380925185']</t>
         </is>
       </c>
     </row>
@@ -6968,12 +6961,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>oj: 16</t>
+          <t>sn: 24</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>['oj: 8.158603247124092e-05']</t>
+          <t>['sn: 0.0001223790487068614']</t>
         </is>
       </c>
     </row>
@@ -6983,12 +6976,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>fw: 4</t>
+          <t>oe: 132</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>['fw: 2.039650811781023e-05']</t>
+          <t>['oe: 0.0006730847678877377']</t>
         </is>
       </c>
     </row>
@@ -6998,12 +6991,13 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ku: 50</t>
+          <t>m
+: 516</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>['ku: 0.0002549563514726279']</t>
+          <t>['m\n: 0.0026311495471975197']</t>
         </is>
       </c>
     </row>
@@ -7013,12 +7007,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>ch: 664</t>
+          <t>lj: 6</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>['ch: 0.0033858203475564982']</t>
+          <t>['lj: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -7028,12 +7022,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>jj: 2</t>
+          <t>js: 7</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>['jj: 1.0198254058905115e-05']</t>
+          <t>['js: 3.5693889206167905e-05']</t>
         </is>
       </c>
     </row>
@@ -7043,12 +7037,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>sj: 2</t>
+          <t>ma: 2590</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>['sj: 1.0198254058905115e-05']</t>
+          <t>['ma: 0.013206739006282124']</t>
         </is>
       </c>
     </row>
@@ -7058,12 +7052,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>tu: 78</t>
+          <t>nx: 6</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>['tu: 0.0003977319082972995']</t>
+          <t>['nx: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -7073,12 +7067,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>vv: 7</t>
+          <t>ly: 1588</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>['vv: 3.5693889206167905e-05']</t>
+          <t>['ly: 0.008097413722770662']</t>
         </is>
       </c>
     </row>
@@ -7088,12 +7082,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ji: 119</t>
+          <t>av: 834</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>['ji: 0.0006067961165048543']</t>
+          <t>['av: 0.004252671942563433']</t>
         </is>
       </c>
     </row>
@@ -7103,12 +7097,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>wy: 73</t>
+          <t>ka: 1731</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>['wy: 0.00037223627315003673']</t>
+          <t>['ka: 0.008826588887982377']</t>
         </is>
       </c>
     </row>
@@ -7118,13 +7112,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>v
-: 88</t>
+          <t>fk: 2</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>['v\n: 0.0004487231785918251']</t>
+          <t>['fk: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7134,12 +7127,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>vu: 7</t>
+          <t>ep: 83</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>['vu: 3.5693889206167905e-05']</t>
+          <t>['ep: 0.0004232275434445623']</t>
         </is>
       </c>
     </row>
@@ -7149,12 +7142,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>ax: 182</t>
+          <t>qi: 13</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>['ax: 0.0009280411193603656']</t>
+          <t>['qi: 6.628865138288325e-05']</t>
         </is>
       </c>
     </row>
@@ -7164,12 +7157,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>sk: 82</t>
+          <t>sz: 10</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>['sk: 0.00041812841641510973']</t>
+          <t>['sz: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -7179,12 +7172,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>mp: 38</t>
+          <t>gw: 26</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>['mp: 0.0001937668271191972']</t>
+          <t>['gw: 0.0001325773027657665']</t>
         </is>
       </c>
     </row>
@@ -7194,12 +7187,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>ex: 132</t>
+          <t>ko: 344</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>['ex: 0.0006730847678877377']</t>
+          <t>['ko: 0.00175409969813168']</t>
         </is>
       </c>
     </row>
@@ -7209,12 +7202,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>lj: 6</t>
+          <t>pp: 39</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>['lj: 3.059476217671535e-05']</t>
+          <t>['pp: 0.00019886595414864974']</t>
         </is>
       </c>
     </row>
@@ -7224,12 +7217,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>dr: 424</t>
+          <t>kh: 307</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>['dr: 0.0021620298604878843']</t>
+          <t>['kh: 0.0015654319980419353']</t>
         </is>
       </c>
     </row>
@@ -7239,12 +7232,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>nz: 145</t>
+          <t>em: 769</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>['nz: 0.0007393734192706209']</t>
+          <t>['em: 0.003921228685649017']</t>
         </is>
       </c>
     </row>
@@ -7254,12 +7247,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>gj: 3</t>
+          <t>ha: 2244</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>['gj: 1.5297381088357674e-05']</t>
+          <t>['ha: 0.01144244105409154']</t>
         </is>
       </c>
     </row>
@@ -7269,12 +7262,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>ek: 178</t>
+          <t>oa: 149</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>['ek: 0.0009076446112425553']</t>
+          <t>['oa: 0.0007597699273884311']</t>
         </is>
       </c>
     </row>
@@ -7284,12 +7277,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>zy: 147</t>
+          <t>zv: 2</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>['zy: 0.000749571673329526']</t>
+          <t>['zv: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7299,12 +7292,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>zm: 35</t>
+          <t>zh: 43</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>['zm: 0.00017846944603083952']</t>
+          <t>['zh: 0.00021926246226646']</t>
         </is>
       </c>
     </row>
@@ -7314,12 +7307,13 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>pc: 1</t>
+          <t>f
+: 80</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>['pc: 5.0991270294525576e-06']</t>
+          <t>['f\n: 0.00040793016235620463']</t>
         </is>
       </c>
     </row>
@@ -7329,12 +7323,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>yn: 1826</t>
+          <t>ye: 301</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>['yn: 0.00931100595578037']</t>
+          <t>['ye: 0.0015348372358652198']</t>
         </is>
       </c>
     </row>
@@ -7344,12 +7338,13 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>vk: 3</t>
+          <t>p
+: 33</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>['vk: 1.5297381088357674e-05']</t>
+          <t>['p\n: 0.00016827119197193442']</t>
         </is>
       </c>
     </row>
@@ -7359,12 +7354,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>cr: 76</t>
+          <t>ql: 1</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>['cr: 0.0003875336542383944']</t>
+          <t>['ql: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7374,12 +7369,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>gr: 201</t>
+          <t>rt: 208</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>['gr: 0.0010249245329199642']</t>
+          <t>['rt: 0.001060618422126132']</t>
         </is>
       </c>
     </row>
@@ -7389,12 +7384,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>dl: 60</t>
+          <t>us: 474</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>['dl: 0.0003059476217671535']</t>
+          <t>['us: 0.0024169862119605124']</t>
         </is>
       </c>
     </row>
@@ -7404,12 +7399,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>km: 9</t>
+          <t>ug: 47</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>['km: 4.5892143265073016e-05']</t>
+          <t>['ug: 0.0002396589703842702']</t>
         </is>
       </c>
     </row>
@@ -7419,12 +7414,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>br: 842</t>
+          <t>fz: 2</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>['br: 0.0042934649587990535']</t>
+          <t>['fz: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7434,13 +7429,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>r
-: 1377</t>
+          <t>kz: 2</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>['r\n: 0.007021497919556172']</t>
+          <t>['kz: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7450,12 +7444,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>yz: 78</t>
+          <t>gf: 1</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>['yz: 0.0003977319082972995']</t>
+          <t>['gf: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7465,12 +7459,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>pt: 17</t>
+          <t>ym: 148</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>['pt: 8.668515950069348e-05']</t>
+          <t>['ym: 0.0007546708003589786']</t>
         </is>
       </c>
     </row>
@@ -7480,12 +7474,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>kc: 2</t>
+          <t>hk: 29</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>['kc: 1.0198254058905115e-05']</t>
+          <t>['hk: 0.00014787468385412417']</t>
         </is>
       </c>
     </row>
@@ -7495,12 +7489,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>cg: 2</t>
+          <t>gi: 190</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>['cg: 1.0198254058905115e-05']</t>
+          <t>['gi: 0.000968834135595986']</t>
         </is>
       </c>
     </row>
@@ -7510,12 +7504,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>ls: 94</t>
+          <t>de: 1283</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>['ls: 0.0004793179407685404']</t>
+          <t>['de: 0.006542179978787631']</t>
         </is>
       </c>
     </row>
@@ -7525,12 +7519,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>la: 2623</t>
+          <t>sq: 1</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>['la: 0.013375010198254059']</t>
+          <t>['sq: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7540,12 +7534,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>kd: 2</t>
+          <t>ya: 2143</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>['kd: 1.0198254058905115e-05']</t>
+          <t>['ya: 0.010927429224116832']</t>
         </is>
       </c>
     </row>
@@ -7555,12 +7549,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>az: 435</t>
+          <t>ru: 252</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>['az: 0.0022181202578118626']</t>
+          <t>['ru: 0.0012849800114220445']</t>
         </is>
       </c>
     </row>
@@ -7570,12 +7564,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>zu: 73</t>
+          <t>wn: 58</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>['zu: 0.00037223627315003673']</t>
+          <t>['wn: 0.00029574936770824833']</t>
         </is>
       </c>
     </row>
@@ -7585,12 +7579,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>rw: 21</t>
+          <t>be: 655</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>['rw: 0.00010708166761850371']</t>
+          <t>['be: 0.003339928204291425']</t>
         </is>
       </c>
     </row>
@@ -7600,12 +7594,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>st: 765</t>
+          <t>zx: 1</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>['st: 0.0039008321775312067']</t>
+          <t>['zx: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7615,12 +7609,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>bj: 1</t>
+          <t>oq: 3</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>['bj: 5.0991270294525576e-06']</t>
+          <t>['oq: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -7630,12 +7624,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ij: 76</t>
+          <t>tg: 2</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>['ij: 0.0003875336542383944']</t>
+          <t>['tg: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7639,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>gg: 25</t>
+          <t>jh: 45</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>['gg: 0.00012747817573631394']</t>
+          <t>['jh: 0.0002294607163253651']</t>
         </is>
       </c>
     </row>
@@ -7660,12 +7654,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>mw: 2</t>
+          <t>ms: 35</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>['mw: 1.0198254058905115e-05']</t>
+          <t>['ms: 0.00017846944603083952']</t>
         </is>
       </c>
     </row>
@@ -7675,12 +7669,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>vn: 8</t>
+          <t>nc: 213</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>['vn: 4.079301623562046e-05']</t>
+          <t>['nc: 0.0010861140572733948']</t>
         </is>
       </c>
     </row>
@@ -7690,12 +7684,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>yg: 30</t>
+          <t>gd: 19</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>['yg: 0.00015297381088357674']</t>
+          <t>['gd: 9.68834135595986e-05']</t>
         </is>
       </c>
     </row>
@@ -7705,12 +7699,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>zd: 2</t>
+          <t>mr: 97</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>['zd: 1.0198254058905115e-05']</t>
+          <t>['mr: 0.0004946153218568981']</t>
         </is>
       </c>
     </row>
@@ -7720,12 +7714,13 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>bc: 1</t>
+          <t>l
+: 1314</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>['bc: 5.0991270294525576e-06']</t>
+          <t>['l\n: 0.006700252916700661']</t>
         </is>
       </c>
     </row>
@@ -7735,12 +7730,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>pf: 1</t>
+          <t>xm: 1</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>['pf: 5.0991270294525576e-06']</t>
+          <t>['xm: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7750,12 +7745,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>et: 580</t>
+          <t>ch: 664</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>['et: 0.0029574936770824837']</t>
+          <t>['ch: 0.0033858203475564982']</t>
         </is>
       </c>
     </row>
@@ -7765,12 +7760,13 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>ox: 45</t>
+          <t>x
+: 163</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>['ox: 0.0002294607163253651']</t>
+          <t>['x\n: 0.0008311577058007669']</t>
         </is>
       </c>
     </row>
@@ -7780,12 +7776,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>fu: 10</t>
+          <t>jt: 2</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>['fu: 5.099127029452558e-05']</t>
+          <t>['jt: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7795,12 +7791,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>eg: 125</t>
+          <t>ze: 373</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>['eg: 0.0006373908786815697']</t>
+          <t>['ze: 0.001901974381985804']</t>
         </is>
       </c>
     </row>
@@ -7810,12 +7806,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>je: 440</t>
+          <t>ud: 136</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>['je: 0.0022436158929591255']</t>
+          <t>['ud: 0.0006934812760055479']</t>
         </is>
       </c>
     </row>
@@ -7825,12 +7821,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>sg: 2</t>
+          <t>os: 504</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>['sg: 1.0198254058905115e-05']</t>
+          <t>['os: 0.002569960022844089']</t>
         </is>
       </c>
     </row>
@@ -7840,12 +7836,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>kz: 2</t>
+          <t>lm: 60</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>['kz: 1.0198254058905115e-05']</t>
+          <t>['lm: 0.0003059476217671535']</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7851,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>ll: 1345</t>
+          <t>vd: 1</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>['ll: 0.00685832585461369']</t>
+          <t>['vd: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -7870,12 +7866,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>xe: 36</t>
+          <t>cs: 5</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>['xe: 0.00018356857306029207']</t>
+          <t>['cs: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -7885,12 +7881,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>yi: 192</t>
+          <t>rj: 25</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>['yi: 0.0009790323896548912']</t>
+          <t>['rj: 0.00012747817573631394']</t>
         </is>
       </c>
     </row>
@@ -7900,12 +7896,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>nn: 1906</t>
+          <t>iv: 269</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>['nn: 0.009718936118136574']</t>
+          <t>['iv: 0.001371665170922738']</t>
         </is>
       </c>
     </row>
@@ -7915,12 +7911,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>dc: 3</t>
+          <t>yf: 12</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>['dc: 1.5297381088357674e-05']</t>
+          <t>['yf: 6.11895243534307e-05']</t>
         </is>
       </c>
     </row>
@@ -7930,12 +7926,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>dh: 118</t>
+          <t>ci: 271</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>['dh: 0.0006016969894754018']</t>
+          <t>['ci: 0.001381863424981643']</t>
         </is>
       </c>
     </row>
@@ -7945,12 +7941,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>fg: 1</t>
+          <t>zc: 2</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>['fg: 5.0991270294525576e-06']</t>
+          <t>['zc: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -7960,12 +7956,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>pj: 1</t>
+          <t>at: 687</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>['pj: 5.0991270294525576e-06']</t>
+          <t>['at: 0.003503100269233907']</t>
         </is>
       </c>
     </row>
@@ -7975,12 +7971,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>ub: 103</t>
+          <t>bb: 38</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>['ub: 0.0005252100840336134']</t>
+          <t>['bb: 0.0001937668271191972']</t>
         </is>
       </c>
     </row>
@@ -7990,12 +7986,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>ui: 121</t>
+          <t>ca: 815</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>['ui: 0.0006169943705637595']</t>
+          <t>['ca: 0.004155788529003834']</t>
         </is>
       </c>
     </row>
@@ -8005,12 +8001,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>to: 667</t>
+          <t>no: 496</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>['to: 0.003401117728644856']</t>
+          <t>['no: 0.0025291670066084687']</t>
         </is>
       </c>
     </row>
@@ -8020,12 +8016,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>xd: 5</t>
+          <t>ak: 568</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>['xd: 2.549563514726279e-05']</t>
+          <t>['ak: 0.0028963041527290526']</t>
         </is>
       </c>
     </row>
@@ -8035,12 +8031,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>uy: 13</t>
+          <t>ea: 679</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>['uy: 6.628865138288325e-05']</t>
+          <t>['ea: 0.003462307252998287']</t>
         </is>
       </c>
     </row>
@@ -8050,12 +8046,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ah: 2332</t>
+          <t>zo: 110</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>['ah: 0.011891164232683365']</t>
+          <t>['zo: 0.0005609039732397814']</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8061,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>tr: 352</t>
+          <t>to: 667</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>['tr: 0.0017948927143673003']</t>
+          <t>['to: 0.003401117728644856']</t>
         </is>
       </c>
     </row>
@@ -8080,12 +8076,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>tg: 2</t>
+          <t>gs: 30</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>['tg: 1.0198254058905115e-05']</t>
+          <t>['gs: 0.00015297381088357674']</t>
         </is>
       </c>
     </row>
@@ -8095,12 +8091,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>on: 2411</t>
+          <t>dl: 60</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>['on: 0.012293995268010116']</t>
+          <t>['dl: 0.0003059476217671535']</t>
         </is>
       </c>
     </row>
@@ -8110,12 +8106,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>vy: 121</t>
+          <t>br: 842</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>['vy: 0.0006169943705637595']</t>
+          <t>['br: 0.0042934649587990535']</t>
         </is>
       </c>
     </row>
@@ -8125,12 +8121,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>it: 541</t>
+          <t>rg: 76</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>['it: 0.002758627722933834']</t>
+          <t>['rg: 0.0003875336542383944']</t>
         </is>
       </c>
     </row>
@@ -8140,12 +8136,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>hv: 39</t>
+          <t>uv: 37</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>['hv: 0.00019886595414864974']</t>
+          <t>['uv: 0.00018866770008974464']</t>
         </is>
       </c>
     </row>
@@ -8155,12 +8151,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>ys: 401</t>
+          <t>hm: 117</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>['ys: 0.0020447499388104758']</t>
+          <t>['hm: 0.0005965978624459492']</t>
         </is>
       </c>
     </row>
@@ -8170,12 +8166,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>jy: 10</t>
+          <t>io: 588</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>['jy: 5.099127029452558e-05']</t>
+          <t>['io: 0.002998286693318104']</t>
         </is>
       </c>
     </row>
@@ -8185,12 +8181,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>sa: 1201</t>
+          <t>sk: 82</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>['sa: 0.006124051562372522']</t>
+          <t>['sk: 0.00041812841641510973']</t>
         </is>
       </c>
     </row>
@@ -8200,12 +8196,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>yr: 291</t>
+          <t>ji: 119</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>['yr: 0.0014838459655706943']</t>
+          <t>['ji: 0.0006067961165048543']</t>
         </is>
       </c>
     </row>
@@ -8215,12 +8211,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ez: 181</t>
+          <t>yh: 22</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>['ez: 0.0009229419923309129']</t>
+          <t>['yh: 0.00011218079464795627']</t>
         </is>
       </c>
     </row>
@@ -8230,12 +8226,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ke: 895</t>
+          <t>xx: 38</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>['ke: 0.004563718691360039']</t>
+          <t>['xx: 0.0001937668271191972']</t>
         </is>
       </c>
     </row>
@@ -8245,12 +8241,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>yl: 1104</t>
+          <t>hq: 1</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>['yl: 0.005629436240515624']</t>
+          <t>['hq: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -8260,12 +8256,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>hu: 166</t>
+          <t>cz: 4</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>['hu: 0.0008464550868891246']</t>
+          <t>['cz: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8271,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>jr: 11</t>
+          <t>ce: 551</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>['jr: 5.6090397323978135e-05']</t>
+          <t>['ce: 0.002809618993228359']</t>
         </is>
       </c>
     </row>
@@ -8290,12 +8286,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>fy: 14</t>
+          <t>pi: 61</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>['fy: 7.138777841233581e-05']</t>
+          <t>['pi: 0.00031104674879660604']</t>
         </is>
       </c>
     </row>
@@ -8305,12 +8301,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>fo: 60</t>
+          <t>dm: 30</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>['fo: 0.0003059476217671535']</t>
+          <t>['dm: 0.00015297381088357674']</t>
         </is>
       </c>
     </row>
@@ -8320,12 +8316,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>yp: 15</t>
+          <t>gu: 85</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>['yp: 7.648690544178837e-05']</t>
+          <t>['gu: 0.00043342579750346743']</t>
         </is>
       </c>
     </row>
@@ -8335,12 +8331,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>jd: 4</t>
+          <t>di: 674</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>['jd: 2.039650811781023e-05']</t>
+          <t>['di: 0.003436811617851024']</t>
         </is>
       </c>
     </row>
@@ -8350,12 +8346,13 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>by: 83</t>
+          <t>s
+: 1169</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>['by: 0.0004232275434445623']</t>
+          <t>['s\n: 0.00596087949743004']</t>
         </is>
       </c>
     </row>
@@ -8365,13 +8362,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>h
-: 2409</t>
+          <t>ls: 94</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>['h\n: 0.01228379701395121']</t>
+          <t>['ls: 0.0004793179407685404']</t>
         </is>
       </c>
     </row>
@@ -8381,12 +8377,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>ey: 1070</t>
+          <t>pr: 151</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>['ey: 0.005456065921514237']</t>
+          <t>['pr: 0.0007699681814473362']</t>
         </is>
       </c>
     </row>
@@ -8396,12 +8392,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>jm: 5</t>
+          <t>hg: 2</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>['jm: 2.549563514726279e-05']</t>
+          <t>['hg: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8407,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>es: 861</t>
+          <t>cl: 116</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>['es: 0.004390348372358652']</t>
+          <t>['cl: 0.0005914987354164967']</t>
         </is>
       </c>
     </row>
@@ -8426,12 +8422,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>hw: 10</t>
+          <t>rw: 21</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>['hw: 5.099127029452558e-05']</t>
+          <t>['rw: 0.00010708166761850371']</t>
         </is>
       </c>
     </row>
@@ -8441,12 +8437,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>um: 154</t>
+          <t>fw: 4</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>['um: 0.0007852655625356939']</t>
+          <t>['fw: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -8456,12 +8452,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>dt: 4</t>
+          <t>ov: 176</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>['dt: 2.039650811781023e-05']</t>
+          <t>['ov: 0.0008974463571836502']</t>
         </is>
       </c>
     </row>
@@ -8471,12 +8467,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>ly: 1588</t>
+          <t>vl: 14</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>['ly: 0.008097413722770662']</t>
+          <t>['vl: 7.138777841233581e-05']</t>
         </is>
       </c>
     </row>
@@ -8486,12 +8482,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>wl: 13</t>
+          <t>jw: 6</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>['wl: 6.628865138288325e-05']</t>
+          <t>['jw: 3.059476217671535e-05']</t>
         </is>
       </c>
     </row>
@@ -8501,12 +8497,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>xn: 1</t>
+          <t>az: 435</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>['xn: 5.0991270294525576e-06']</t>
+          <t>['az: 0.0022181202578118626']</t>
         </is>
       </c>
     </row>
@@ -8516,12 +8512,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>gs: 30</t>
+          <t>it: 541</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>['gs: 0.00015297381088357674']</t>
+          <t>['it: 0.002758627722933834']</t>
         </is>
       </c>
     </row>
@@ -8531,12 +8527,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>xo: 41</t>
+          <t>ip: 53</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>['xo: 0.00020906420820755486']</t>
+          <t>['ip: 0.00027025373256098553']</t>
         </is>
       </c>
     </row>
@@ -8546,12 +8542,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>rg: 76</t>
+          <t>yi: 192</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>['rg: 0.0003875336542383944']</t>
+          <t>['yi: 0.0009790323896548912']</t>
         </is>
       </c>
     </row>
@@ -8561,12 +8557,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>gy: 31</t>
+          <t>yu: 141</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>['gy: 0.0001580729379130293']</t>
+          <t>['yu: 0.0007189769111528106']</t>
         </is>
       </c>
     </row>
@@ -8576,12 +8572,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>lw: 16</t>
+          <t>ri: 3033</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>['lw: 8.158603247124092e-05']</t>
+          <t>['ri: 0.015465652280329608']</t>
         </is>
       </c>
     </row>
@@ -8591,12 +8587,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>rc: 99</t>
+          <t>ds: 29</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>['rc: 0.0005048135759158032']</t>
+          <t>['ds: 0.00014787468385412417']</t>
         </is>
       </c>
     </row>
@@ -8606,12 +8602,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>sd: 9</t>
+          <t>vn: 8</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>['sd: 4.5892143265073016e-05']</t>
+          <t>['vn: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -8621,12 +8617,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>ht: 71</t>
+          <t>jv: 5</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>['ht: 0.0003620380190911316']</t>
+          <t>['jv: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -8636,12 +8632,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>iw: 8</t>
+          <t>zk: 2</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>['iw: 4.079301623562046e-05']</t>
+          <t>['zk: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -8651,12 +8647,12 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>rx: 3</t>
+          <t>zs: 4</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>['rx: 1.5297381088357674e-05']</t>
+          <t>['zs: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -8666,12 +8662,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>tf: 2</t>
+          <t>pa: 209</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>['tf: 1.0198254058905115e-05']</t>
+          <t>['pa: 0.0010657175491555846']</t>
         </is>
       </c>
     </row>
@@ -8681,12 +8677,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>po: 59</t>
+          <t>eh: 152</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>['po: 0.0003008484947377009']</t>
+          <t>['eh: 0.0007750673084767888']</t>
         </is>
       </c>
     </row>
@@ -8696,12 +8692,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>eu: 69</t>
+          <t>nu: 96</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>['eu: 0.0003518397650322265']</t>
+          <t>['nu: 0.0004895161948274456']</t>
         </is>
       </c>
     </row>
@@ -8711,12 +8707,12 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>cc: 42</t>
+          <t>zg: 1</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>['cc: 0.00021416333523700741']</t>
+          <t>['zg: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -8726,12 +8722,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>mc: 51</t>
+          <t>ag: 168</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>['mc: 0.00026005547850208044']</t>
+          <t>['ag: 0.0008566533409480297']</t>
         </is>
       </c>
     </row>
@@ -8741,12 +8737,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>rz: 23</t>
+          <t>sp: 51</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>['rz: 0.00011727992167740883']</t>
+          <t>['sp: 0.00026005547850208044']</t>
         </is>
       </c>
     </row>
@@ -8756,12 +8752,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>ie: 1653</t>
+          <t>nh: 26</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>['ie: 0.008428856979685078']</t>
+          <t>['nh: 0.0001325773027657665']</t>
         </is>
       </c>
     </row>
@@ -8771,12 +8767,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>hb: 8</t>
+          <t>eu: 69</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>['hb: 4.079301623562046e-05']</t>
+          <t>['eu: 0.0003518397650322265']</t>
         </is>
       </c>
     </row>
@@ -8786,12 +8782,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>hl: 185</t>
+          <t>dv: 17</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>['hl: 0.0009433385004487232']</t>
+          <t>['dv: 8.668515950069348e-05']</t>
         </is>
       </c>
     </row>
@@ -8801,12 +8797,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>pr: 151</t>
+          <t>lw: 16</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>['pr: 0.0007699681814473362']</t>
+          <t>['lw: 8.158603247124092e-05']</t>
         </is>
       </c>
     </row>
@@ -8816,12 +8812,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>wi: 148</t>
+          <t>si: 684</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>['wi: 0.0007546708003589786']</t>
+          <t>['si: 0.0034878028881455496']</t>
         </is>
       </c>
     </row>
@@ -8831,12 +8827,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>vh: 1</t>
+          <t>gz: 1</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>['vh: 5.0991270294525576e-06']</t>
+          <t>['gz: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -8846,12 +8842,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>yv: 106</t>
+          <t>wr: 22</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>['yv: 0.0005405074651219711']</t>
+          <t>['wr: 0.00011218079464795627']</t>
         </is>
       </c>
     </row>
@@ -8861,12 +8857,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>us: 474</t>
+          <t>my: 287</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>['us: 0.0024169862119605124']</t>
+          <t>['my: 0.001463449457452884']</t>
         </is>
       </c>
     </row>
@@ -8876,12 +8872,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>lr: 18</t>
+          <t>ng: 273</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>['lr: 9.178428653014603e-05']</t>
+          <t>['ng: 0.0013920616790405482']</t>
         </is>
       </c>
     </row>
@@ -8891,12 +8887,13 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>hf: 2</t>
+          <t>r
+: 1377</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>['hf: 1.0198254058905115e-05']</t>
+          <t>['r\n: 0.007021497919556172']</t>
         </is>
       </c>
     </row>
@@ -8906,12 +8903,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>lf: 22</t>
+          <t>ib: 110</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>['lf: 0.00011218079464795627']</t>
+          <t>['ib: 0.0005609039732397814']</t>
         </is>
       </c>
     </row>
@@ -8921,12 +8918,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>gm: 6</t>
+          <t>ix: 89</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>['gm: 3.059476217671535e-05']</t>
+          <t>['ix: 0.0004538223056212776']</t>
         </is>
       </c>
     </row>
@@ -8936,12 +8933,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>sw: 24</t>
+          <t>fu: 10</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>['sw: 0.0001223790487068614']</t>
+          <t>['fu: 5.099127029452558e-05']</t>
         </is>
       </c>
     </row>
@@ -8951,12 +8948,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>bh: 41</t>
+          <t>uk: 93</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>['bh: 0.00020906420820755486']</t>
+          <t>['uk: 0.0004742188137390879']</t>
         </is>
       </c>
     </row>
@@ -8966,12 +8963,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>yf: 12</t>
+          <t>iq: 52</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>['yf: 6.11895243534307e-05']</t>
+          <t>['iq: 0.000265154605531533']</t>
         </is>
       </c>
     </row>
@@ -8981,12 +8978,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>hp: 1</t>
+          <t>mn: 20</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>['hp: 5.0991270294525576e-06']</t>
+          <t>['mn: 0.00010198254058905116']</t>
         </is>
       </c>
     </row>
@@ -8996,12 +8993,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>hy: 213</t>
+          <t>ev: 463</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>['hy: 0.0010861140572733948']</t>
+          <t>['ev: 0.002360895814636534']</t>
         </is>
       </c>
     </row>
@@ -9011,12 +9008,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>mk: 1</t>
+          <t>sw: 24</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>['mk: 5.0991270294525576e-06']</t>
+          <t>['sw: 0.0001223790487068614']</t>
         </is>
       </c>
     </row>
@@ -9026,12 +9023,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>zr: 32</t>
+          <t>mw: 2</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>['zr: 0.00016317206494248184']</t>
+          <t>['mw: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -9041,12 +9038,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>rf: 9</t>
+          <t>fn: 4</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>['rf: 4.5892143265073016e-05']</t>
+          <t>['fn: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -9056,12 +9053,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>ea: 679</t>
+          <t>xd: 5</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>['ea: 0.003462307252998287']</t>
+          <t>['xd: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -9071,12 +9068,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>vi: 911</t>
+          <t>jm: 5</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>['vi: 0.00464530472383128']</t>
+          <t>['jm: 2.549563514726279e-05']</t>
         </is>
       </c>
     </row>
@@ -9086,12 +9083,13 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>ta: 1027</t>
+          <t>c
+: 97</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>['ta: 0.005236803459247777']</t>
+          <t>['c\n: 0.0004946153218568981']</t>
         </is>
       </c>
     </row>
@@ -9101,12 +9099,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>zt: 4</t>
+          <t>ew: 50</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>['zt: 2.039650811781023e-05']</t>
+          <t>['ew: 0.0002549563514726279']</t>
         </is>
       </c>
     </row>
@@ -9116,12 +9114,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>ni: 1725</t>
+          <t>ju: 202</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>['ni: 0.008795994125805662']</t>
+          <t>['ju: 0.0010300236599494166']</t>
         </is>
       </c>
     </row>
@@ -9131,12 +9129,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>an: 5438</t>
+          <t>do: 378</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>['an: 0.02772905278616301']</t>
+          <t>['do: 0.0019274700171330668']</t>
         </is>
       </c>
     </row>
@@ -9146,12 +9144,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>ck: 316</t>
+          <t>dr: 424</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>['ck: 0.0016113241413070083']</t>
+          <t>['dr: 0.0021620298604878843']</t>
         </is>
       </c>
     </row>
@@ -9161,12 +9159,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>bi: 217</t>
+          <t>zl: 123</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>['bi: 0.001106510565391205']</t>
+          <t>['zl: 0.0006271926246226646']</t>
         </is>
       </c>
     </row>
@@ -9176,12 +9174,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>ne: 1359</t>
+          <t>qs: 2</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>['ne: 0.006929713633026026']</t>
+          <t>['qs: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9189,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>ft: 18</t>
+          <t>er: 1958</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>['ft: 9.178428653014603e-05']</t>
+          <t>['er: 0.009984090723668107']</t>
         </is>
       </c>
     </row>
@@ -9206,12 +9204,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>au: 381</t>
+          <t>zm: 35</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>['au: 0.0019427673982214246']</t>
+          <t>['zm: 0.00017846944603083952']</t>
         </is>
       </c>
     </row>
@@ -9221,12 +9219,13 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>pb: 2</t>
+          <t>z
+: 160</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>['pb: 1.0198254058905115e-05']</t>
+          <t>['z\n: 0.0008158603247124093']</t>
         </is>
       </c>
     </row>
@@ -9236,12 +9235,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>vl: 14</t>
+          <t>yb: 27</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>['vl: 7.138777841233581e-05']</t>
+          <t>['yb: 0.00013767642979521907']</t>
         </is>
       </c>
     </row>
@@ -9251,12 +9250,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>sl: 279</t>
+          <t>bs: 8</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>['sl: 0.0014226564412172637']</t>
+          <t>['bs: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -9266,12 +9265,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>dd: 149</t>
+          <t>cu: 35</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>['dd: 0.0007597699273884311']</t>
+          <t>['cu: 0.00017846944603083952']</t>
         </is>
       </c>
     </row>
@@ -9281,12 +9280,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>si: 684</t>
+          <t>xh: 1</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>['si: 0.0034878028881455496']</t>
+          <t>['xh: 5.0991270294525576e-06']</t>
         </is>
       </c>
     </row>
@@ -9296,12 +9295,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>ks: 95</t>
+          <t>vk: 3</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>['ks: 0.000484417067797993']</t>
+          <t>['vk: 1.5297381088357674e-05']</t>
         </is>
       </c>
     </row>
@@ -9311,12 +9310,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>yj: 23</t>
+          <t>ck: 316</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>['yj: 0.00011727992167740883']</t>
+          <t>['ck: 0.0016113241413070083']</t>
         </is>
       </c>
     </row>
@@ -9326,12 +9325,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>jl: 9</t>
+          <t>wt: 8</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>['jl: 4.5892143265073016e-05']</t>
+          <t>['wt: 4.079301623562046e-05']</t>
         </is>
       </c>
     </row>
@@ -9341,12 +9340,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>un: 275</t>
+          <t>ni: 1725</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>['un: 0.0014022599330994533']</t>
+          <t>['ni: 0.008795994125805662']</t>
         </is>
       </c>
     </row>
@@ -9356,12 +9355,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>lh: 19</t>
+          <t>nq: 2</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>['lh: 9.68834135595986e-05']</t>
+          <t>['nq: 1.0198254058905115e-05']</t>
         </is>
       </c>
     </row>
@@ -9371,13 +9370,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>e
-: 3983</t>
+          <t>hi: 729</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>['e\n: 0.020309822958309538']</t>
+          <t>['hi: 0.0037172636044709145']</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9385,13 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>hk: 29</t>
+          <t>w
+: 51</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>['hk: 0.00014787468385412417']</t>
+          <t>['w\n: 0.00026005547850208044']</t>
         </is>
       </c>
     </row>
@@ -9402,12 +9401,13 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>cq: 11</t>
+          <t>u
+: 155</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>['cq: 5.6090397323978135e-05']</t>
+          <t>['u\n: 0.0007903646895651464']</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>io: 588</t>
+          <t>ol: 619</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>['io: 0.002998286693318104']</t>
+          <t>['ol: 0.0031563596312311334']</t>
         </is>
       </c>
     </row>
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>eb: 121</t>
+          <t>uc: 103</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>['eb: 0.0006169943705637595']</t>
+          <t>['uc: 0.0005252100840336134']</t>
         </is>
       </c>
     </row>
@@ -9447,12 +9447,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>hc: 2</t>
+          <t>xa: 103</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>['hc: 1.0198254058905115e-05']</t>
+          <t>['xa: 0.0005252100840336134']</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9462,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>il: 1345</t>
+          <t>tm: 4</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>['il: 0.00685832585461369']</t>
+          <t>['tm: 2.039650811781023e-05']</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>pi: 61</t>
+          <t>zi: 364</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>['pi: 0.00031104674879660604']</t>
+          <t>['zi: 0.0018560822387207311']</t>
         </is>
       </c>
     </row>

--- a/Bigram_Language_Model/probabilities.xlsx
+++ b/Bigram_Language_Model/probabilities.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ei: 818</t>
+          <t>lr: 18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['ei: 0.004171085910092192']</t>
+          <t>['0.0000917843']</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lh: 19</t>
+          <t>jr: 11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['lh: 9.68834135595986e-05']</t>
+          <t>['0.0000560904']</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>xw: 3</t>
+          <t>rx: 3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['xw: 1.5297381088357674e-05']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>uo: 10</t>
+          <t>y
+: 2007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['uo: 5.099127029452558e-05']</t>
+          <t>['0.0102339479']</t>
         </is>
       </c>
     </row>
@@ -511,12 +512,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>lp: 15</t>
+          <t>mt: 4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['lp: 7.648690544178837e-05']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -526,12 +527,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>hl: 185</t>
+          <t>dd: 149</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['hl: 0.0009433385004487232']</t>
+          <t>['0.0007597699']</t>
         </is>
       </c>
     </row>
@@ -541,12 +542,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mt: 4</t>
+          <t>je: 440</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['mt: 2.039650811781023e-05']</t>
+          <t>['0.0022436159']</t>
         </is>
       </c>
     </row>
@@ -556,12 +557,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ua: 163</t>
+          <t>jn: 2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['ua: 0.0008311577058007669']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -571,12 +572,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cd: 1</t>
+          <t>nb: 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['cd: 5.0991270294525576e-06']</t>
+          <t>['0.0000407930']</t>
         </is>
       </c>
     </row>
@@ -586,12 +587,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fo: 60</t>
+          <t>qm: 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['fo: 0.0003059476217671535']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -601,12 +602,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>yn: 1826</t>
+          <t>nh: 26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['yn: 0.00931100595578037']</t>
+          <t>['0.0001325773']</t>
         </is>
       </c>
     </row>
@@ -616,12 +617,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>um: 154</t>
+          <t>ma: 2590</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['um: 0.0007852655625356939']</t>
+          <t>['0.0132067390']</t>
         </is>
       </c>
     </row>
@@ -631,12 +632,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hj: 9</t>
+          <t>wk: 6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['hj: 4.5892143265073016e-05']</t>
+          <t>['0.0000305948']</t>
         </is>
       </c>
     </row>
@@ -646,12 +647,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>da: 1303</t>
+          <t>np: 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['da: 0.006644162519376683']</t>
+          <t>['0.0000254956']</t>
         </is>
       </c>
     </row>
@@ -661,12 +662,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>lv: 72</t>
+          <t>hi: 729</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['lv: 0.00036713714612058413']</t>
+          <t>['0.0037172636']</t>
         </is>
       </c>
     </row>
@@ -676,12 +677,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>yo: 271</t>
+          <t>xn: 1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['yo: 0.001381863424981643']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -691,12 +692,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ke: 895</t>
+          <t>oy: 103</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['ke: 0.004563718691360039']</t>
+          <t>['0.0005252101']</t>
         </is>
       </c>
     </row>
@@ -706,12 +707,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ot: 118</t>
+          <t>vr: 48</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['ot: 0.0006016969894754018']</t>
+          <t>['0.0002447581']</t>
         </is>
       </c>
     </row>
@@ -721,12 +722,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>wa: 280</t>
+          <t>em: 769</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['wa: 0.0014277555682467161']</t>
+          <t>['0.0039212287']</t>
         </is>
       </c>
     </row>
@@ -736,12 +737,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hp: 1</t>
+          <t>zi: 364</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['hp: 5.0991270294525576e-06']</t>
+          <t>['0.0018560822']</t>
         </is>
       </c>
     </row>
@@ -751,12 +752,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nt: 443</t>
+          <t>bi: 217</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['nt: 0.002258913274047483']</t>
+          <t>['0.0011065106']</t>
         </is>
       </c>
     </row>
@@ -766,12 +767,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tt: 374</t>
+          <t>ei: 818</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['tt: 0.0019070735090152566']</t>
+          <t>['0.0041710859']</t>
         </is>
       </c>
     </row>
@@ -781,12 +782,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gn: 27</t>
+          <t>kf: 1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['gn: 0.00013767642979521907']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -796,12 +797,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>uj: 14</t>
+          <t>xi: 102</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['uj: 7.138777841233581e-05']</t>
+          <t>['0.0005201110']</t>
         </is>
       </c>
     </row>
@@ -811,12 +812,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>oz: 54</t>
+          <t>ju: 202</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['oz: 0.00027535285959043814']</t>
+          <t>['0.0010300237']</t>
         </is>
       </c>
     </row>
@@ -826,12 +827,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>yk: 86</t>
+          <t>mi: 1256</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['yk: 0.00043852492453292']</t>
+          <t>['0.0064045035']</t>
         </is>
       </c>
     </row>
@@ -841,12 +842,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tj: 3</t>
+          <t>h
+: 2409</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['tj: 1.5297381088357674e-05']</t>
+          <t>['0.0122837970']</t>
         </is>
       </c>
     </row>
@@ -856,12 +858,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>qu: 206</t>
+          <t>zd: 2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['qu: 0.0010504201680672268']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -871,12 +873,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>db: 1</t>
+          <t>tz: 105</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['db: 5.0991270294525576e-06']</t>
+          <t>['0.0005354083']</t>
         </is>
       </c>
     </row>
@@ -886,12 +888,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pt: 17</t>
+          <t>kw: 34</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['pt: 8.668515950069348e-05']</t>
+          <t>['0.0001733703']</t>
         </is>
       </c>
     </row>
@@ -901,13 +903,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>k
-: 363</t>
+          <t>es: 861</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['k\n: 0.0018509831116912785']</t>
+          <t>['0.0043903484']</t>
         </is>
       </c>
     </row>
@@ -917,12 +918,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pm: 1</t>
+          <t>ui: 121</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['pm: 5.0991270294525576e-06']</t>
+          <t>['0.0006169944']</t>
         </is>
       </c>
     </row>
@@ -932,12 +933,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tl: 134</t>
+          <t>pa: 209</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['tl: 0.0006832830219466428']</t>
+          <t>['0.0010657175']</t>
         </is>
       </c>
     </row>
@@ -947,12 +948,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>of: 34</t>
+          <t>rg: 76</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['of: 0.00017337031900138697']</t>
+          <t>['0.0003875337']</t>
         </is>
       </c>
     </row>
@@ -962,12 +963,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gm: 6</t>
+          <t>pc: 1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['gm: 3.059476217671535e-05']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -977,12 +978,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ia: 2445</t>
+          <t>gz: 1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['ia: 0.012467365587011503']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -992,12 +993,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>xo: 41</t>
+          <t>wb: 1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['xo: 0.00020906420820755486']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1008,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>rh: 121</t>
+          <t>yr: 291</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['rh: 0.0006169943705637595']</t>
+          <t>['0.0014838460']</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1023,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>xs: 31</t>
+          <t>nw: 11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['xs: 0.0001580729379130293']</t>
+          <t>['0.0000560904']</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1038,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>km: 9</t>
+          <t>lv: 72</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['km: 4.5892143265073016e-05']</t>
+          <t>['0.0003671371']</t>
         </is>
       </c>
     </row>
@@ -1052,12 +1053,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>oc: 114</t>
+          <t>eu: 69</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['oc: 0.0005813004813575916']</t>
+          <t>['0.0003518398']</t>
         </is>
       </c>
     </row>
@@ -1067,12 +1068,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>qo: 2</t>
+          <t>jh: 45</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['qo: 1.0198254058905115e-05']</t>
+          <t>['0.0002294607']</t>
         </is>
       </c>
     </row>
@@ -1082,12 +1083,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>nl: 195</t>
+          <t>dt: 4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['nl: 0.0009943297707432487']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -1097,12 +1098,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hs: 31</t>
+          <t>mw: 2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['hs: 0.0001580729379130293']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1113,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>lz: 10</t>
+          <t>l
+: 1314</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['lz: 5.099127029452558e-05']</t>
+          <t>['0.0067002529']</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1129,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>lg: 6</t>
+          <t>or: 1059</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['lg: 3.059476217671535e-05']</t>
+          <t>['0.0053999755']</t>
         </is>
       </c>
     </row>
@@ -1142,12 +1144,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jk: 2</t>
+          <t>fa: 242</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['jk: 1.0198254058905115e-05']</t>
+          <t>['0.0012339887']</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1159,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sd: 9</t>
+          <t>lp: 15</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['sd: 4.5892143265073016e-05']</t>
+          <t>['0.0000764869']</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1174,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ar: 3264</t>
+          <t>ir: 849</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['ar: 0.016643550624133148']</t>
+          <t>['0.0043291588']</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1189,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>oy: 103</t>
+          <t>zu: 73</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['oy: 0.0005252100840336134']</t>
+          <t>['0.0003722363']</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1204,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>dc: 3</t>
+          <t>cp: 1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['dc: 1.5297381088357674e-05']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -1217,12 +1219,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>go: 83</t>
+          <t>ne: 1359</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['go: 0.0004232275434445623']</t>
+          <t>['0.0069297136']</t>
         </is>
       </c>
     </row>
@@ -1232,12 +1234,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>wi: 148</t>
+          <t>go: 83</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['wi: 0.0007546708003589786']</t>
+          <t>['0.0004232275']</t>
         </is>
       </c>
     </row>
@@ -1247,12 +1249,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>cy: 104</t>
+          <t>dg: 25</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['cy: 0.000530309211063066']</t>
+          <t>['0.0001274782']</t>
         </is>
       </c>
     </row>
@@ -1262,12 +1264,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>wf: 2</t>
+          <t>ct: 35</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['wf: 1.0198254058905115e-05']</t>
+          <t>['0.0001784694']</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1279,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>yg: 30</t>
+          <t>kc: 2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['yg: 0.00015297381088357674']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -1292,12 +1294,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dt: 4</t>
+          <t>a
+: 6640</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['dt: 2.039650811781023e-05']</t>
+          <t>['0.0338582035']</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1310,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bh: 41</t>
+          <t>de: 1283</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['bh: 0.00020906420820755486']</t>
+          <t>['0.0065421800']</t>
         </is>
       </c>
     </row>
@@ -1322,12 +1325,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ts: 35</t>
+          <t>j
+: 71</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['ts: 0.00017846944603083952']</t>
+          <t>['0.0003620380']</t>
         </is>
       </c>
     </row>
@@ -1337,12 +1341,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>au: 381</t>
+          <t>hp: 1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['au: 0.0019427673982214246']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -1352,12 +1356,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>vr: 48</t>
+          <t>ah: 2332</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['vr: 0.0002447580974137228']</t>
+          <t>['0.0118911642']</t>
         </is>
       </c>
     </row>
@@ -1367,12 +1371,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mo: 452</t>
+          <t>rt: 208</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['mo: 0.002304805417312556']</t>
+          <t>['0.0010606184']</t>
         </is>
       </c>
     </row>
@@ -1382,12 +1386,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>aw: 161</t>
+          <t>yp: 15</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['aw: 0.0008209594517418618']</t>
+          <t>['0.0000764869']</t>
         </is>
       </c>
     </row>
@@ -1397,12 +1401,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bl: 103</t>
+          <t>fy: 14</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['bl: 0.0005252100840336134']</t>
+          <t>['0.0000713878']</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1416,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bj: 1</t>
+          <t>ud: 136</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['bj: 5.0991270294525576e-06']</t>
+          <t>['0.0006934813']</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1431,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ow: 114</t>
+          <t>dz: 1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['ow: 0.0005813004813575916']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -1442,12 +1446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>xc: 4</t>
+          <t>ub: 103</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['xc: 2.039650811781023e-05']</t>
+          <t>['0.0005252101']</t>
         </is>
       </c>
     </row>
@@ -1457,12 +1461,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>zn: 4</t>
+          <t>ov: 176</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['zn: 2.039650811781023e-05']</t>
+          <t>['0.0008974464']</t>
         </is>
       </c>
     </row>
@@ -1472,12 +1476,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jo: 479</t>
+          <t>dy: 317</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['jo: 0.0024424818471077752']</t>
+          <t>['0.0016164233']</t>
         </is>
       </c>
     </row>
@@ -1487,12 +1491,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sb: 21</t>
+          <t>qe: 1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['sb: 0.00010708166761850371']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -1502,12 +1506,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ho: 287</t>
+          <t>lg: 6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['ho: 0.001463449457452884']</t>
+          <t>['0.0000305948']</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1521,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sm: 90</t>
+          <t>rp: 14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['sm: 0.0004589214326507302']</t>
+          <t>['0.0000713878']</t>
         </is>
       </c>
     </row>
@@ -1532,12 +1536,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>cp: 1</t>
+          <t>to: 667</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['cp: 5.0991270294525576e-06']</t>
+          <t>['0.0034011177']</t>
         </is>
       </c>
     </row>
@@ -1547,12 +1551,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>lf: 22</t>
+          <t>ac: 470</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['lf: 0.00011218079464795627']</t>
+          <t>['0.0023965897']</t>
         </is>
       </c>
     </row>
@@ -1562,12 +1566,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>aj: 175</t>
+          <t>ix: 89</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['aj: 0.0008923472301541976']</t>
+          <t>['0.0004538223']</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1581,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>al: 2528</t>
+          <t>bo: 105</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['al: 0.012890593130456067']</t>
+          <t>['0.0005354083']</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1596,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sf: 2</t>
+          <t>rb: 41</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['sf: 1.0198254058905115e-05']</t>
+          <t>['0.0002090642']</t>
         </is>
       </c>
     </row>
@@ -1607,12 +1611,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>uu: 3</t>
+          <t>ow: 114</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['uu: 1.5297381088357674e-05']</t>
+          <t>['0.0005813005']</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1626,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>hy: 213</t>
+          <t>wg: 1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['hy: 0.0010861140572733948']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1641,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>rm: 162</t>
+          <t>jk: 2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['rm: 0.0008260585787713144']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -1652,12 +1656,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ne: 1359</t>
+          <t>uy: 13</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['ne: 0.006929713633026026']</t>
+          <t>['0.0000662887']</t>
         </is>
       </c>
     </row>
@@ -1667,12 +1671,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tr: 352</t>
+          <t>bj: 1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['tr: 0.0017948927143673003']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1686,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>rl: 413</t>
+          <t>pn: 1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['rl: 0.0021059394631639063']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1701,13 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ok: 68</t>
+          <t>e
+: 3983</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['ok: 0.00034674063800277393']</t>
+          <t>['0.0203098230']</t>
         </is>
       </c>
     </row>
@@ -1712,12 +1717,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sh: 1285</t>
+          <t>gh: 360</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['sh: 0.0065523782328465365']</t>
+          <t>['0.0018356857']</t>
         </is>
       </c>
     </row>
@@ -1727,12 +1732,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>if: 101</t>
+          <t>rk: 90</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['if: 0.0005150118299747083']</t>
+          <t>['0.0004589214']</t>
         </is>
       </c>
     </row>
@@ -1742,12 +1747,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ku: 50</t>
+          <t>fg: 1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['ku: 0.0002549563514726279']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -1757,12 +1762,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>rc: 99</t>
+          <t>bd: 65</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['rc: 0.0005048135759158032']</t>
+          <t>['0.0003314433']</t>
         </is>
       </c>
     </row>
@@ -1772,12 +1777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>nm: 19</t>
+          <t>ro: 869</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['nm: 9.68834135595986e-05']</t>
+          <t>['0.0044311414']</t>
         </is>
       </c>
     </row>
@@ -1787,12 +1792,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>so: 531</t>
+          <t>jd: 4</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['so: 0.0027076364526393082']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -1802,12 +1807,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ty: 341</t>
+          <t>os: 504</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['ty: 0.0017388023170433222']</t>
+          <t>['0.0025699600']</t>
         </is>
       </c>
     </row>
@@ -1817,12 +1822,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>sr: 55</t>
+          <t>qo: 2</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['sr: 0.0002804519866198907']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -1832,12 +1837,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>fr: 114</t>
+          <t>dn: 31</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['fr: 0.0005813004813575916']</t>
+          <t>['0.0001580729']</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1852,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>hv: 39</t>
+          <t>xe: 36</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['hv: 0.00019886595414864974']</t>
+          <t>['0.0001835686']</t>
         </is>
       </c>
     </row>
@@ -1862,12 +1867,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ij: 76</t>
+          <t>oz: 54</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['ij: 0.0003875336542383944']</t>
+          <t>['0.0002753529']</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1882,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>kv: 2</t>
+          <t>wz: 1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['kv: 1.0198254058905115e-05']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -1892,12 +1897,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rv: 80</t>
+          <t>dj: 9</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['rv: 0.00040793016235620463']</t>
+          <t>['0.0000458921']</t>
         </is>
       </c>
     </row>
@@ -1907,12 +1912,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>wy: 73</t>
+          <t>ia: 2445</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['wy: 0.00037223627315003673']</t>
+          <t>['0.0124673656']</t>
         </is>
       </c>
     </row>
@@ -1922,12 +1927,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ft: 18</t>
+          <t>yv: 106</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['ft: 9.178428653014603e-05']</t>
+          <t>['0.0005405075']</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1942,13 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jp: 1</t>
+          <t>x
+: 163</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['jp: 5.0991270294525576e-06']</t>
+          <t>['0.0008311577']</t>
         </is>
       </c>
     </row>
@@ -1952,12 +1958,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>vu: 7</t>
+          <t>ca: 815</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['vu: 3.5693889206167905e-05']</t>
+          <t>['0.0041557885']</t>
         </is>
       </c>
     </row>
@@ -1967,12 +1973,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>gt: 31</t>
+          <t>qs: 2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['gt: 0.0001580729379130293']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -1982,12 +1988,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ry: 773</t>
+          <t>mb: 112</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>['ry: 0.003941625193766827']</t>
+          <t>['0.0005711022']</t>
         </is>
       </c>
     </row>
@@ -1997,12 +2003,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>wd: 8</t>
+          <t>ak: 568</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>['wd: 4.079301623562046e-05']</t>
+          <t>['0.0028963042']</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2018,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>hu: 166</t>
+          <t>on: 2411</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>['hu: 0.0008464550868891246']</t>
+          <t>['0.0122939953']</t>
         </is>
       </c>
     </row>
@@ -2027,12 +2033,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tx: 2</t>
+          <t>ed: 384</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>['tx: 1.0198254058905115e-05']</t>
+          <t>['0.0019580648']</t>
         </is>
       </c>
     </row>
@@ -2042,12 +2048,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>in: 2126</t>
+          <t>om: 261</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>['in: 0.010840744064616138']</t>
+          <t>['0.0013308722']</t>
         </is>
       </c>
     </row>
@@ -2057,12 +2063,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vb: 1</t>
+          <t>wt: 8</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>['vb: 5.0991270294525576e-06']</t>
+          <t>['0.0000407930']</t>
         </is>
       </c>
     </row>
@@ -2072,13 +2078,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>t
-: 483</t>
+          <t>jt: 2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>['t\n: 0.0024628783552255854']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -2088,12 +2093,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>le: 2921</t>
+          <t>ds: 29</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>['le: 0.014894550053030921']</t>
+          <t>['0.0001478747']</t>
         </is>
       </c>
     </row>
@@ -2103,12 +2108,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pu: 4</t>
+          <t>ot: 118</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>['pu: 2.039650811781023e-05']</t>
+          <t>['0.0006016970']</t>
         </is>
       </c>
     </row>
@@ -2118,12 +2123,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>li: 2480</t>
+          <t>hw: 10</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>['li: 0.012645835033042343']</t>
+          <t>['0.0000509913']</t>
         </is>
       </c>
     </row>
@@ -2133,12 +2138,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ad: 1042</t>
+          <t>oh: 171</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['ad: 0.005313290364689565']</t>
+          <t>['0.0008719507']</t>
         </is>
       </c>
     </row>
@@ -2148,12 +2153,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ge: 334</t>
+          <t>ok: 68</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>['ge: 0.0017031084278371542']</t>
+          <t>['0.0003467406']</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2168,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>gb: 3</t>
+          <t>ff: 44</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>['gb: 1.5297381088357674e-05']</t>
+          <t>['0.0002243616']</t>
         </is>
       </c>
     </row>
@@ -2178,12 +2183,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>pk: 1</t>
+          <t>we: 149</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>['pk: 5.0991270294525576e-06']</t>
+          <t>['0.0007597699']</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2198,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ff: 44</t>
+          <t>yh: 22</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>['ff: 0.00022436158929591254']</t>
+          <t>['0.0001121808']</t>
         </is>
       </c>
     </row>
@@ -2208,12 +2213,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>zy: 147</t>
+          <t>dw: 23</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>['zy: 0.000749571673329526']</t>
+          <t>['0.0001172799']</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2228,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>st: 765</t>
+          <t>tt: 374</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>['st: 0.0039008321775312067']</t>
+          <t>['0.0019070735']</t>
         </is>
       </c>
     </row>
@@ -2238,12 +2243,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>iy: 779</t>
+          <t>fh: 1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>['iy: 0.003972219955943542']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -2253,12 +2258,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>af: 134</t>
+          <t>ul: 301</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>['af: 0.0006832830219466428']</t>
+          <t>['0.0015348372']</t>
         </is>
       </c>
     </row>
@@ -2268,12 +2273,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>hb: 8</t>
+          <t>uk: 93</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>['hb: 4.079301623562046e-05']</t>
+          <t>['0.0004742188']</t>
         </is>
       </c>
     </row>
@@ -2283,12 +2288,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>rf: 9</t>
+          <t>ms: 35</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['rf: 4.5892143265073016e-05']</t>
+          <t>['0.0001784694']</t>
         </is>
       </c>
     </row>
@@ -2298,13 +2303,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>e
-: 3983</t>
+          <t>qi: 13</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>['e\n: 0.020309822958309538']</t>
+          <t>['0.0000662887']</t>
         </is>
       </c>
     </row>
@@ -2314,12 +2318,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ml: 5</t>
+          <t>ga: 330</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>['ml: 2.549563514726279e-05']</t>
+          <t>['0.0016827119']</t>
         </is>
       </c>
     </row>
@@ -2329,12 +2333,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ay: 2050</t>
+          <t>un: 275</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>['ay: 0.010453210410377743']</t>
+          <t>['0.0014022599']</t>
         </is>
       </c>
     </row>
@@ -2344,12 +2348,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>el: 3248</t>
+          <t>gu: 85</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>['el: 0.01656196459166191']</t>
+          <t>['0.0004334258']</t>
         </is>
       </c>
     </row>
@@ -2359,12 +2363,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>zt: 4</t>
+          <t>wd: 8</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['zt: 2.039650811781023e-05']</t>
+          <t>['0.0000407930']</t>
         </is>
       </c>
     </row>
@@ -2374,12 +2378,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>vh: 1</t>
+          <t>zn: 4</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>['vh: 5.0991270294525576e-06']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -2389,12 +2393,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ph: 204</t>
+          <t>df: 5</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>['ph: 0.0010402219140083217']</t>
+          <t>['0.0000254956']</t>
         </is>
       </c>
     </row>
@@ -2404,13 +2408,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>d
-: 516</t>
+          <t>ph: 204</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>['d\n: 0.0026311495471975197']</t>
+          <t>['0.0010402219']</t>
         </is>
       </c>
     </row>
@@ -2420,12 +2423,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>kr: 109</t>
+          <t>zv: 2</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>['kr: 0.0005558048462103288']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2438,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>wh: 23</t>
+          <t>nr: 44</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['wh: 0.00011727992167740883']</t>
+          <t>['0.0002243616']</t>
         </is>
       </c>
     </row>
@@ -2450,12 +2453,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>bd: 65</t>
+          <t>pi: 61</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>['bd: 0.00033144325691441623']</t>
+          <t>['0.0003110467']</t>
         </is>
       </c>
     </row>
@@ -2465,13 +2468,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>o
-: 855</t>
+          <t>iw: 8</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>['o\n: 0.004359753610181937']</t>
+          <t>['0.0000407930']</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2483,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>rd: 187</t>
+          <t>ol: 619</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>['rd: 0.0009535367545076283']</t>
+          <t>['0.0031563596']</t>
         </is>
       </c>
     </row>
@@ -2496,12 +2498,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>kk: 20</t>
+          <t>tu: 78</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>['kk: 0.00010198254058905116']</t>
+          <t>['0.0003977319']</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2513,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>bu: 45</t>
+          <t>vb: 1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>['bu: 0.0002294607163253651']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -2526,12 +2528,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>yj: 23</t>
+          <t>ap: 82</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>['yj: 0.00011727992167740883']</t>
+          <t>['0.0004181284']</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2543,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>dq: 1</t>
+          <t>ax: 182</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>['dq: 5.0991270294525576e-06']</t>
+          <t>['0.0009280411']</t>
         </is>
       </c>
     </row>
@@ -2556,12 +2558,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>wk: 6</t>
+          <t>nt: 443</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>['wk: 3.059476217671535e-05']</t>
+          <t>['0.0022589133']</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2573,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>md: 24</t>
+          <t>dc: 3</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>['md: 0.0001223790487068614']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -2586,12 +2588,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ky: 379</t>
+          <t>at: 687</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>['ky: 0.0019325691441625195']</t>
+          <t>['0.0035031003']</t>
         </is>
       </c>
     </row>
@@ -2601,12 +2603,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>wz: 1</t>
+          <t>us: 474</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>['wz: 5.0991270294525576e-06']</t>
+          <t>['0.0024169862']</t>
         </is>
       </c>
     </row>
@@ -2616,12 +2618,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ks: 95</t>
+          <t>fs: 6</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>['ks: 0.000484417067797993']</t>
+          <t>['0.0000305948']</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2633,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>xb: 1</t>
+          <t>tm: 4</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>['xb: 5.0991270294525576e-06']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2648,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>tn: 22</t>
+          <t>yg: 30</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>['tn: 0.00011218079464795627']</t>
+          <t>['0.0001529738']</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2663,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>yd: 272</t>
+          <t>gv: 1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>['yd: 0.0013869625520110957']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -2676,12 +2678,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>me: 818</t>
+          <t>ai: 1650</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>['me: 0.004171085910092192']</t>
+          <t>['0.0084135596']</t>
         </is>
       </c>
     </row>
@@ -2691,12 +2693,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>jc: 4</t>
+          <t>ql: 1</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>['jc: 2.039650811781023e-05']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -2706,12 +2708,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>la: 2623</t>
+          <t>wy: 73</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>['la: 0.013375010198254059']</t>
+          <t>['0.0003722363']</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2723,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>jr: 11</t>
+          <t>sh: 1285</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>['jr: 5.6090397323978135e-05']</t>
+          <t>['0.0065523782']</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2738,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>eo: 269</t>
+          <t>ew: 50</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>['eo: 0.001371665170922738']</t>
+          <t>['0.0002549564']</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2753,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>yv: 106</t>
+          <t>js: 7</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>['yv: 0.0005405074651219711']</t>
+          <t>['0.0000356939']</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2768,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ey: 1070</t>
+          <t>wr: 22</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>['ey: 0.005456065921514237']</t>
+          <t>['0.0001121808']</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2783,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>mh: 5</t>
+          <t>rh: 121</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>['mh: 2.549563514726279e-05']</t>
+          <t>['0.0006169944']</t>
         </is>
       </c>
     </row>
@@ -2796,12 +2798,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>yp: 15</t>
+          <t>ck: 316</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>['yp: 7.648690544178837e-05']</t>
+          <t>['0.0016113241']</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2813,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>cx: 3</t>
+          <t>ku: 50</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>['cx: 1.5297381088357674e-05']</t>
+          <t>['0.0002549564']</t>
         </is>
       </c>
     </row>
@@ -2826,12 +2828,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ps: 16</t>
+          <t>jo: 479</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>['ps: 8.158603247124092e-05']</t>
+          <t>['0.0024424818']</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2843,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>dg: 25</t>
+          <t>ch: 664</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>['dg: 0.00012747817573631394']</t>
+          <t>['0.0033858203']</t>
         </is>
       </c>
     </row>
@@ -2856,12 +2858,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>pc: 1</t>
+          <t>sw: 24</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>['pc: 5.0991270294525576e-06']</t>
+          <t>['0.0001223790']</t>
         </is>
       </c>
     </row>
@@ -2871,12 +2873,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ss: 461</t>
+          <t>fn: 4</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>['ss: 0.002350697560577629']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -2886,13 +2888,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>q
-: 28</t>
+          <t>jp: 1</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>['q\n: 0.00014277555682467162']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -2902,12 +2903,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ui: 121</t>
+          <t>ag: 168</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>['ui: 0.0006169943705637595']</t>
+          <t>['0.0008566533']</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2918,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>am: 1634</t>
+          <t>rv: 80</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>['am: 0.00833197356612548']</t>
+          <t>['0.0004079302']</t>
         </is>
       </c>
     </row>
@@ -2932,12 +2933,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>cr: 76</t>
+          <t>sv: 14</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>['cr: 0.0003875336542383944']</t>
+          <t>['0.0000713878']</t>
         </is>
       </c>
     </row>
@@ -2947,12 +2948,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>mv: 3</t>
+          <t>lj: 6</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['mv: 1.5297381088357674e-05']</t>
+          <t>['0.0000305948']</t>
         </is>
       </c>
     </row>
@@ -2962,12 +2963,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>lu: 324</t>
+          <t>tf: 2</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>['lu: 0.0016521171575426287']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -2977,12 +2978,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>sg: 2</t>
+          <t>bl: 103</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['sg: 1.0198254058905115e-05']</t>
+          <t>['0.0005252101']</t>
         </is>
       </c>
     </row>
@@ -2992,12 +2993,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>xu: 5</t>
+          <t>la: 2623</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>['xu: 2.549563514726279e-05']</t>
+          <t>['0.0133750102']</t>
         </is>
       </c>
     </row>
@@ -3007,12 +3008,13 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ww: 2</t>
+          <t>k
+: 363</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>['ww: 1.0198254058905115e-05']</t>
+          <t>['0.0018509831']</t>
         </is>
       </c>
     </row>
@@ -3022,12 +3024,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>hc: 2</t>
+          <t>sn: 24</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>['hc: 1.0198254058905115e-05']</t>
+          <t>['0.0001223790']</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3039,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>mu: 139</t>
+          <t>pt: 17</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>['mu: 0.0007087786570939055']</t>
+          <t>['0.0000866852']</t>
         </is>
       </c>
     </row>
@@ -3052,12 +3054,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>dy: 317</t>
+          <t>al: 2528</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>['dy: 0.0016164232683364608']</t>
+          <t>['0.0128905931']</t>
         </is>
       </c>
     </row>
@@ -3067,12 +3069,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>hw: 10</t>
+          <t>kz: 2</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>['hw: 5.099127029452558e-05']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -3082,12 +3084,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>zp: 2</t>
+          <t>mv: 3</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>['zp: 1.0198254058905115e-05']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -3097,12 +3099,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ex: 132</t>
+          <t>eq: 14</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>['ex: 0.0006730847678877377']</t>
+          <t>['0.0000713878']</t>
         </is>
       </c>
     </row>
@@ -3112,12 +3114,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>fl: 20</t>
+          <t>vv: 7</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>['fl: 0.00010198254058905116']</t>
+          <t>['0.0000356939']</t>
         </is>
       </c>
     </row>
@@ -3127,13 +3129,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>y
-: 2007</t>
+          <t>tc: 17</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>['y\n: 0.010233947948111284']</t>
+          <t>['0.0000866852']</t>
         </is>
       </c>
     </row>
@@ -3143,12 +3144,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>te: 716</t>
+          <t>ou: 275</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>['te: 0.003650974953088031']</t>
+          <t>['0.0014022599']</t>
         </is>
       </c>
     </row>
@@ -3158,12 +3159,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>jy: 10</t>
+          <t>ek: 178</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>['jy: 5.099127029452558e-05']</t>
+          <t>['0.0009076446']</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3174,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>kb: 2</t>
+          <t>zx: 1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>['kb: 1.0198254058905115e-05']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -3188,12 +3189,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>kd: 2</t>
+          <t>ny: 465</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>['kd: 1.0198254058905115e-05']</t>
+          <t>['0.0023710941']</t>
         </is>
       </c>
     </row>
@@ -3203,12 +3204,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>en: 2675</t>
+          <t>uw: 86</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>['en: 0.013640164803785592']</t>
+          <t>['0.0004385249']</t>
         </is>
       </c>
     </row>
@@ -3218,12 +3219,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>nn: 1906</t>
+          <t>sg: 2</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>['nn: 0.009718936118136574']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -3233,12 +3234,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ir: 849</t>
+          <t>xz: 19</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>['ir: 0.004329158848005221']</t>
+          <t>['0.0000968834']</t>
         </is>
       </c>
     </row>
@@ -3248,12 +3249,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ou: 275</t>
+          <t>ns: 278</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>['ou: 0.0014022599330994533']</t>
+          <t>['0.0014175573']</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3264,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ie: 1653</t>
+          <t>cl: 116</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>['ie: 0.008428856979685078']</t>
+          <t>['0.0005914987']</t>
         </is>
       </c>
     </row>
@@ -3278,12 +3279,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>mz: 11</t>
+          <t>zc: 2</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>['mz: 5.6090397323978135e-05']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -3293,12 +3294,13 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>fe: 123</t>
+          <t>n
+: 6763</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>['fe: 0.0006271926246226646']</t>
+          <t>['0.0344853961']</t>
         </is>
       </c>
     </row>
@@ -3308,12 +3310,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>uh: 58</t>
+          <t>af: 134</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>['uh: 0.00029574936770824833']</t>
+          <t>['0.0006832830']</t>
         </is>
       </c>
     </row>
@@ -3323,12 +3325,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ek: 178</t>
+          <t>rz: 23</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>['ek: 0.0009076446112425553']</t>
+          <t>['0.0001172799']</t>
         </is>
       </c>
     </row>
@@ -3338,12 +3340,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>sv: 14</t>
+          <t>oa: 149</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>['sv: 7.138777841233581e-05']</t>
+          <t>['0.0007597699']</t>
         </is>
       </c>
     </row>
@@ -3353,12 +3355,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>sc: 60</t>
+          <t>it: 541</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>['sc: 0.0003059476217671535']</t>
+          <t>['0.0027586277']</t>
         </is>
       </c>
     </row>
@@ -3368,12 +3370,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>pe: 197</t>
+          <t>qu: 206</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>['pe: 0.0010045280248021538']</t>
+          <t>['0.0010504202']</t>
         </is>
       </c>
     </row>
@@ -3383,12 +3385,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ee: 1271</t>
+          <t>ry: 773</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>['ee: 0.006480990454434201']</t>
+          <t>['0.0039416252']</t>
         </is>
       </c>
     </row>
@@ -3398,12 +3400,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>tc: 17</t>
+          <t>kn: 26</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>['tc: 8.668515950069348e-05']</t>
+          <t>['0.0001325773']</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3415,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>yz: 78</t>
+          <t>nd: 704</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>['yz: 0.0003977319082972995']</t>
+          <t>['0.0035897854']</t>
         </is>
       </c>
     </row>
@@ -3428,12 +3430,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>dj: 9</t>
+          <t>hl: 185</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>['dj: 4.5892143265073016e-05']</t>
+          <t>['0.0009433385']</t>
         </is>
       </c>
     </row>
@@ -3443,12 +3445,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>wo: 36</t>
+          <t>xc: 4</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>['wo: 0.00018356857306029207']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -3458,12 +3460,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ut: 82</t>
+          <t>nq: 2</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>['ut: 0.00041812841641510973']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -3473,12 +3475,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>th: 647</t>
+          <t>pl: 16</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>['th: 0.003299135188055805']</t>
+          <t>['0.0000815860']</t>
         </is>
       </c>
     </row>
@@ -3488,12 +3490,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>xe: 36</t>
+          <t>wa: 280</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>['xe: 0.00018356857306029207']</t>
+          <t>['0.0014277556']</t>
         </is>
       </c>
     </row>
@@ -3503,12 +3505,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>rs: 190</t>
+          <t>nj: 44</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>['rs: 0.000968834135595986']</t>
+          <t>['0.0002243616']</t>
         </is>
       </c>
     </row>
@@ -3518,12 +3520,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>gv: 1</t>
+          <t>gm: 6</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>['gv: 5.0991270294525576e-06']</t>
+          <t>['0.0000305948']</t>
         </is>
       </c>
     </row>
@@ -3533,13 +3535,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>h
-: 2409</t>
+          <t>lw: 16</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>['h\n: 0.01228379701395121']</t>
+          <t>['0.0000815860']</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3550,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>gh: 360</t>
+          <t>lm: 60</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>['gh: 0.0018356857306029207']</t>
+          <t>['0.0003059476']</t>
         </is>
       </c>
     </row>
@@ -3564,12 +3565,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>zr: 32</t>
+          <t>rj: 25</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>['zr: 0.00016317206494248184']</t>
+          <t>['0.0001274782']</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3580,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>yx: 28</t>
+          <t>ii: 82</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>['yx: 0.00014277555682467162']</t>
+          <t>['0.0004181284']</t>
         </is>
       </c>
     </row>
@@ -3594,12 +3595,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>mj: 7</t>
+          <t>fu: 10</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>['mj: 3.5693889206167905e-05']</t>
+          <t>['0.0000509913']</t>
         </is>
       </c>
     </row>
@@ -3609,12 +3610,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>kl: 139</t>
+          <t>km: 9</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>['kl: 0.0007087786570939055']</t>
+          <t>['0.0000458921']</t>
         </is>
       </c>
     </row>
@@ -3624,12 +3625,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>rn: 140</t>
+          <t>vh: 1</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>['rn: 0.0007138777841233581']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -3639,12 +3640,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>hz: 20</t>
+          <t>db: 1</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>['hz: 0.00010198254058905116']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3655,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>hf: 2</t>
+          <t>wl: 13</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>['hf: 1.0198254058905115e-05']</t>
+          <t>['0.0000662887']</t>
         </is>
       </c>
     </row>
@@ -3669,12 +3670,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>dk: 3</t>
+          <t>zh: 43</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>['dk: 1.5297381088357674e-05']</t>
+          <t>['0.0002192625']</t>
         </is>
       </c>
     </row>
@@ -3684,12 +3685,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>iw: 8</t>
+          <t>ll: 1345</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>['iw: 4.079301623562046e-05']</t>
+          <t>['0.0068583259']</t>
         </is>
       </c>
     </row>
@@ -3699,12 +3700,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ve: 568</t>
+          <t>xm: 1</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>['ve: 0.0028963041527290526']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -3714,12 +3715,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>nv: 55</t>
+          <t>zr: 32</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>['nv: 0.0002804519866198907']</t>
+          <t>['0.0001631721']</t>
         </is>
       </c>
     </row>
@@ -3729,12 +3730,13 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ub: 103</t>
+          <t>u
+: 155</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>['ub: 0.0005252100840336134']</t>
+          <t>['0.0007903647']</t>
         </is>
       </c>
     </row>
@@ -3744,12 +3746,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>wu: 25</t>
+          <t>uc: 103</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>['wu: 0.00012747817573631394']</t>
+          <t>['0.0005252101']</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3761,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ct: 35</t>
+          <t>ae: 692</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>['ct: 0.00017846944603083952']</t>
+          <t>['0.0035285959']</t>
         </is>
       </c>
     </row>
@@ -3774,12 +3776,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>bo: 105</t>
+          <t>eh: 152</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>['bo: 0.0005354083380925185']</t>
+          <t>['0.0007750673']</t>
         </is>
       </c>
     </row>
@@ -3789,12 +3791,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>kt: 17</t>
+          <t>cx: 3</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>['kt: 8.668515950069348e-05']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -3804,12 +3806,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>sl: 279</t>
+          <t>jm: 5</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>['sl: 0.0014226564412172637']</t>
+          <t>['0.0000254956']</t>
         </is>
       </c>
     </row>
@@ -3819,12 +3821,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>wg: 1</t>
+          <t>oj: 16</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>['wg: 5.0991270294525576e-06']</t>
+          <t>['0.0000815860']</t>
         </is>
       </c>
     </row>
@@ -3834,12 +3836,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ja: 1473</t>
+          <t>hj: 9</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>['ja: 0.007511014114383618']</t>
+          <t>['0.0000458921']</t>
         </is>
       </c>
     </row>
@@ -3849,12 +3851,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>im: 427</t>
+          <t>wm: 2</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>['im: 0.0021773272415762423']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -3864,12 +3866,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>oh: 171</t>
+          <t>mc: 51</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>['oh: 0.0008719507220363874']</t>
+          <t>['0.0002600555']</t>
         </is>
       </c>
     </row>
@@ -3879,12 +3881,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ez: 181</t>
+          <t>ft: 18</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>['ez: 0.0009229419923309129']</t>
+          <t>['0.0000917843']</t>
         </is>
       </c>
     </row>
@@ -3894,12 +3896,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>mk: 1</t>
+          <t>tj: 3</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>['mk: 5.0991270294525576e-06']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3911,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ue: 169</t>
+          <t>en: 2675</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>['ue: 0.0008617524679774822']</t>
+          <t>['0.0136401648']</t>
         </is>
       </c>
     </row>
@@ -3924,12 +3926,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ti: 532</t>
+          <t>br: 842</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>['ti: 0.002712735579668761']</t>
+          <t>['0.0042934650']</t>
         </is>
       </c>
     </row>
@@ -3939,12 +3941,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ic: 509</t>
+          <t>pf: 1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>['ic: 0.002595455657991352']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -3954,12 +3956,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>tv: 15</t>
+          <t>su: 185</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>['tv: 7.648690544178837e-05']</t>
+          <t>['0.0009433385']</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3971,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>lo: 692</t>
+          <t>pp: 39</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>['lo: 0.00352859590438117']</t>
+          <t>['0.0001988660']</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3986,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>sj: 2</t>
+          <t>ld: 138</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>['sj: 1.0198254058905115e-05']</t>
+          <t>['0.0007036795']</t>
         </is>
       </c>
     </row>
@@ -3999,12 +4001,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>oj: 16</t>
+          <t>ve: 568</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>['oj: 8.158603247124092e-05']</t>
+          <t>['0.0028963042']</t>
         </is>
       </c>
     </row>
@@ -4014,12 +4016,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>nk: 58</t>
+          <t>te: 716</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>['nk: 0.00029574936770824833']</t>
+          <t>['0.0036509750']</t>
         </is>
       </c>
     </row>
@@ -4029,13 +4031,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>i
-: 2489</t>
+          <t>ar: 3264</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>['i\n: 0.012691727176307416']</t>
+          <t>['0.0166435506']</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4046,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>tb: 1</t>
+          <t>vu: 7</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>['tb: 5.0991270294525576e-06']</t>
+          <t>['0.0000356939']</t>
         </is>
       </c>
     </row>
@@ -4060,12 +4061,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>rz: 23</t>
+          <t>ce: 551</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>['rz: 0.00011727992167740883']</t>
+          <t>['0.0028096190']</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4076,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>cj: 3</t>
+          <t>fo: 60</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>['cj: 1.5297381088357674e-05']</t>
+          <t>['0.0003059476']</t>
         </is>
       </c>
     </row>
@@ -4090,12 +4091,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ae: 692</t>
+          <t>re: 1697</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>['ae: 0.00352859590438117']</t>
+          <t>['0.0086532186']</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4106,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ai: 1650</t>
+          <t>aj: 175</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>['ai: 0.00841355959859672']</t>
+          <t>['0.0008923472']</t>
         </is>
       </c>
     </row>
@@ -4120,12 +4121,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>bc: 1</t>
+          <t>ho: 287</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>['bc: 5.0991270294525576e-06']</t>
+          <t>['0.0014634495']</t>
         </is>
       </c>
     </row>
@@ -4135,12 +4136,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>gg: 25</t>
+          <t>mk: 1</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>['gg: 0.00012747817573631394']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -4150,12 +4151,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>co: 380</t>
+          <t>ik: 445</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>['co: 0.001937668271191972']</t>
+          <t>['0.0022691115']</t>
         </is>
       </c>
     </row>
@@ -4165,12 +4166,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>lc: 25</t>
+          <t>mm: 168</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>['lc: 0.00012747817573631394']</t>
+          <t>['0.0008566533']</t>
         </is>
       </c>
     </row>
@@ -4180,12 +4181,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>qr: 1</t>
+          <t>yt: 104</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>['qr: 5.0991270294525576e-06']</t>
+          <t>['0.0005303092']</t>
         </is>
       </c>
     </row>
@@ -4195,12 +4196,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>se: 884</t>
+          <t>zj: 2</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>['se: 0.004507628294036061']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -4210,12 +4211,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>yc: 115</t>
+          <t>ja: 1473</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>['yc: 0.0005863996083870441']</t>
+          <t>['0.0075110141']</t>
         </is>
       </c>
     </row>
@@ -4225,12 +4226,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>zu: 73</t>
+          <t>ru: 252</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>['zu: 0.00037223627315003673']</t>
+          <t>['0.0012849800']</t>
         </is>
       </c>
     </row>
@@ -4240,12 +4241,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>qe: 1</t>
+          <t>me: 818</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>['qe: 5.0991270294525576e-06']</t>
+          <t>['0.0041710859']</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4256,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>dz: 1</t>
+          <t>jb: 1</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>['dz: 5.0991270294525576e-06']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -4270,13 +4271,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>b
-: 114</t>
+          <t>iz: 277</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>['b\n: 0.0005813004813575916']</t>
+          <t>['0.0014124582']</t>
         </is>
       </c>
     </row>
@@ -4286,12 +4286,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>uw: 86</t>
+          <t>hb: 8</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>['uw: 0.00043852492453292']</t>
+          <t>['0.0000407930']</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4301,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ul: 301</t>
+          <t>mn: 20</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>['ul: 0.0015348372358652198']</t>
+          <t>['0.0001019825']</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>fs: 6</t>
+          <t>gb: 3</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>['fs: 3.059476217671535e-05']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -4331,12 +4331,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>xf: 3</t>
+          <t>og: 44</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>['xf: 1.5297381088357674e-05']</t>
+          <t>['0.0002243616']</t>
         </is>
       </c>
     </row>
@@ -4346,12 +4346,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>vo: 153</t>
+          <t>gt: 31</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>['vo: 0.0007801664355062413']</t>
+          <t>['0.0001580729']</t>
         </is>
       </c>
     </row>
@@ -4361,13 +4361,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>a
-: 6640</t>
+          <t>pj: 1</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>['a\n: 0.03385820347556499']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -4377,12 +4376,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>is: 1316</t>
+          <t>cg: 2</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>['is: 0.006710451170759566']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -4392,12 +4391,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>he: 674</t>
+          <t>iy: 779</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>['he: 0.003436811617851024']</t>
+          <t>['0.0039722200']</t>
         </is>
       </c>
     </row>
@@ -4407,12 +4406,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>xi: 102</t>
+          <t>kk: 20</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>['xi: 0.0005201109570041609']</t>
+          <t>['0.0001019825']</t>
         </is>
       </c>
     </row>
@@ -4422,12 +4421,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>pj: 1</t>
+          <t>yc: 115</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>['pj: 5.0991270294525576e-06']</t>
+          <t>['0.0005863996']</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4436,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>by: 83</t>
+          <t>sa: 1201</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>['by: 0.0004232275434445623']</t>
+          <t>['0.0061240516']</t>
         </is>
       </c>
     </row>
@@ -4452,12 +4451,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>pl: 16</t>
+          <t>uo: 10</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>['pl: 8.158603247124092e-05']</t>
+          <t>['0.0000509913']</t>
         </is>
       </c>
     </row>
@@ -4467,12 +4466,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ta: 1027</t>
+          <t>ox: 45</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>['ta: 0.005236803459247777']</t>
+          <t>['0.0002294607']</t>
         </is>
       </c>
     </row>
@@ -4482,12 +4481,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>il: 1345</t>
+          <t>jl: 9</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>['il: 0.00685832585461369']</t>
+          <t>['0.0000458921']</t>
         </is>
       </c>
     </row>
@@ -4497,12 +4496,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ik: 445</t>
+          <t>ha: 2244</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>['ik: 0.0022691115281063884']</t>
+          <t>['0.0114424411']</t>
         </is>
       </c>
     </row>
@@ -4512,12 +4511,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>rx: 3</t>
+          <t>aw: 161</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>['rx: 1.5297381088357674e-05']</t>
+          <t>['0.0008209595']</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4526,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>tu: 78</t>
+          <t>eb: 121</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>['tu: 0.0003977319082972995']</t>
+          <t>['0.0006169944']</t>
         </is>
       </c>
     </row>
@@ -4542,12 +4541,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>tf: 2</t>
+          <t>od: 190</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>['tf: 1.0198254058905115e-05']</t>
+          <t>['0.0009688341']</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4556,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>vi: 911</t>
+          <t>qa: 13</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>['vi: 0.00464530472383128']</t>
+          <t>['0.0000662887']</t>
         </is>
       </c>
     </row>
@@ -4572,12 +4571,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>fi: 160</t>
+          <t>oi: 69</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>['fi: 0.0008158603247124093']</t>
+          <t>['0.0003518398']</t>
         </is>
       </c>
     </row>
@@ -4587,12 +4586,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>pb: 2</t>
+          <t>bh: 41</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>['pb: 1.0198254058905115e-05']</t>
+          <t>['0.0002090642']</t>
         </is>
       </c>
     </row>
@@ -4602,12 +4601,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>lb: 52</t>
+          <t>rc: 99</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>['lb: 0.000265154605531533']</t>
+          <t>['0.0005048136']</t>
         </is>
       </c>
     </row>
@@ -4617,12 +4616,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>dd: 149</t>
+          <t>ie: 1653</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>['dd: 0.0007597699273884311']</t>
+          <t>['0.0084288570']</t>
         </is>
       </c>
     </row>
@@ -4632,12 +4631,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ns: 278</t>
+          <t>kt: 17</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>['ns: 0.001417557314187811']</t>
+          <t>['0.0000866852']</t>
         </is>
       </c>
     </row>
@@ -4647,12 +4646,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>mi: 1256</t>
+          <t>rr: 425</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>['mi: 0.006404503548992413']</t>
+          <t>['0.0021671290']</t>
         </is>
       </c>
     </row>
@@ -4662,12 +4661,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>nd: 704</t>
+          <t>tl: 134</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>['nd: 0.0035897854287346006']</t>
+          <t>['0.0006832830']</t>
         </is>
       </c>
     </row>
@@ -4677,13 +4676,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>g
-: 108</t>
+          <t>ao: 63</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>['g\n: 0.0005507057191808763']</t>
+          <t>['0.0003212450']</t>
         </is>
       </c>
     </row>
@@ -4693,12 +4691,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>an: 5438</t>
+          <t>wh: 23</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>['an: 0.02772905278616301']</t>
+          <t>['0.0001172799']</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4706,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ur: 414</t>
+          <t>yd: 272</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>['ur: 0.002111038590193359']</t>
+          <t>['0.0013869626']</t>
         </is>
       </c>
     </row>
@@ -4723,12 +4721,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ej: 55</t>
+          <t>il: 1345</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>['ej: 0.0002804519866198907']</t>
+          <t>['0.0068583259']</t>
         </is>
       </c>
     </row>
@@ -4738,12 +4736,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ln: 14</t>
+          <t>kr: 109</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>['ln: 7.138777841233581e-05']</t>
+          <t>['0.0005558048']</t>
         </is>
       </c>
     </row>
@@ -4753,12 +4751,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>mm: 168</t>
+          <t>ih: 95</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>['mm: 0.0008566533409480297']</t>
+          <t>['0.0004844171']</t>
         </is>
       </c>
     </row>
@@ -4768,12 +4766,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>yl: 1104</t>
+          <t>ks: 95</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>['yl: 0.005629436240515624']</t>
+          <t>['0.0004844171']</t>
         </is>
       </c>
     </row>
@@ -4783,12 +4781,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>po: 59</t>
+          <t>va: 642</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>['po: 0.0003008484947377009']</t>
+          <t>['0.0032736396']</t>
         </is>
       </c>
     </row>
@@ -4798,12 +4796,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>yq: 6</t>
+          <t>rf: 9</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>['yq: 3.059476217671535e-05']</t>
+          <t>['0.0000458921']</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4811,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>oo: 115</t>
+          <t>jy: 10</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>['oo: 0.0005863996083870441']</t>
+          <t>['0.0000509913']</t>
         </is>
       </c>
     </row>
@@ -4828,12 +4826,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ox: 45</t>
+          <t>sf: 2</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>['ox: 0.0002294607163253651']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -4843,12 +4841,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>uf: 19</t>
+          <t>do: 378</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>['uf: 9.68834135595986e-05']</t>
+          <t>['0.0019274700']</t>
         </is>
       </c>
     </row>
@@ -4858,12 +4856,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>zj: 2</t>
+          <t>lf: 22</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>['zj: 1.0198254058905115e-05']</t>
+          <t>['0.0001121808']</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4871,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>jd: 4</t>
+          <t>lc: 25</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>['jd: 2.039650811781023e-05']</t>
+          <t>['0.0001274782']</t>
         </is>
       </c>
     </row>
@@ -4888,12 +4886,13 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>or: 1059</t>
+          <t>g
+: 108</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>['or: 0.0053999755241902585']</t>
+          <t>['0.0005507057']</t>
         </is>
       </c>
     </row>
@@ -4903,12 +4902,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ba: 321</t>
+          <t>ke: 895</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>['ba: 0.001636819776454271']</t>
+          <t>['0.0045637187']</t>
         </is>
       </c>
     </row>
@@ -4918,12 +4917,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>bn: 4</t>
+          <t>eg: 125</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>['bn: 2.039650811781023e-05']</t>
+          <t>['0.0006373909']</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4932,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>nb: 8</t>
+          <t>zl: 123</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>['nb: 4.079301623562046e-05']</t>
+          <t>['0.0006271926']</t>
         </is>
       </c>
     </row>
@@ -4948,12 +4947,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>kj: 2</t>
+          <t>xy: 30</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>['kj: 1.0198254058905115e-05']</t>
+          <t>['0.0001529738']</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4962,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>og: 44</t>
+          <t>wi: 148</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>['og: 0.00022436158929591254']</t>
+          <t>['0.0007546708']</t>
         </is>
       </c>
     </row>
@@ -4978,12 +4977,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>ed: 384</t>
+          <t>bu: 45</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>['ed: 0.0019580647793097823']</t>
+          <t>['0.0002294607']</t>
         </is>
       </c>
     </row>
@@ -4993,12 +4992,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>uz: 45</t>
+          <t>mj: 7</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>['uz: 0.0002294607163253651']</t>
+          <t>['0.0000356939']</t>
         </is>
       </c>
     </row>
@@ -5008,12 +5007,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ki: 509</t>
+          <t>ge: 334</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>['ki: 0.002595455657991352']</t>
+          <t>['0.0017031084']</t>
         </is>
       </c>
     </row>
@@ -5023,12 +5022,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>kw: 34</t>
+          <t>vi: 911</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>['kw: 0.00017337031900138697']</t>
+          <t>['0.0046453047']</t>
         </is>
       </c>
     </row>
@@ -5038,13 +5037,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>j
-: 71</t>
+          <t>ux: 34</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>['j\n: 0.0003620380190911316']</t>
+          <t>['0.0001733703']</t>
         </is>
       </c>
     </row>
@@ -5054,12 +5052,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>fh: 1</t>
+          <t>uh: 58</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>['fh: 5.0991270294525576e-06']</t>
+          <t>['0.0002957494']</t>
         </is>
       </c>
     </row>
@@ -5069,12 +5067,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>za: 860</t>
+          <t>rw: 21</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>['za: 0.0043852492453292']</t>
+          <t>['0.0001070817']</t>
         </is>
       </c>
     </row>
@@ -5084,12 +5082,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>dh: 118</t>
+          <t>gg: 25</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>['dh: 0.0006016969894754018']</t>
+          <t>['0.0001274782']</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5097,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ny: 465</t>
+          <t>rq: 16</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>['ny: 0.0023710940686954393']</t>
+          <t>['0.0000815860']</t>
         </is>
       </c>
     </row>
@@ -5114,12 +5112,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>fg: 1</t>
+          <t>ng: 273</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>['fg: 5.0991270294525576e-06']</t>
+          <t>['0.0013920617']</t>
         </is>
       </c>
     </row>
@@ -5129,12 +5127,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ax: 182</t>
+          <t>lt: 77</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>['ax: 0.0009280411193603656']</t>
+          <t>['0.0003926328']</t>
         </is>
       </c>
     </row>
@@ -5144,12 +5142,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>ux: 34</t>
+          <t>nc: 213</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>['ux: 0.00017337031900138697']</t>
+          <t>['0.0010861141']</t>
         </is>
       </c>
     </row>
@@ -5159,12 +5157,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ao: 63</t>
+          <t>yq: 6</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>['ao: 0.00032124500285551113']</t>
+          <t>['0.0000305948']</t>
         </is>
       </c>
     </row>
@@ -5174,12 +5172,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ec: 153</t>
+          <t>yf: 12</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>['ec: 0.0007801664355062413']</t>
+          <t>['0.0000611895']</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5187,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>iu: 109</t>
+          <t>fz: 2</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>['iu: 0.0005558048462103288']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -5204,12 +5202,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>fa: 242</t>
+          <t>so: 531</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>['fa: 0.001233988741127519']</t>
+          <t>['0.0027076365']</t>
         </is>
       </c>
     </row>
@@ -5219,12 +5217,13 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>cq: 11</t>
+          <t>p
+: 33</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>['cq: 5.6090397323978135e-05']</t>
+          <t>['0.0001682712']</t>
         </is>
       </c>
     </row>
@@ -5234,12 +5233,13 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ap: 82</t>
+          <t>w
+: 51</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>['ap: 0.00041812841641510973']</t>
+          <t>['0.0002600555']</t>
         </is>
       </c>
     </row>
@@ -5249,12 +5249,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>uq: 10</t>
+          <t>kd: 2</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>['uq: 5.099127029452558e-05']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -5264,12 +5264,13 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>na: 2977</t>
+          <t>z
+: 160</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>['na: 0.015180101166680265']</t>
+          <t>['0.0008158603']</t>
         </is>
       </c>
     </row>
@@ -5279,12 +5280,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ob: 140</t>
+          <t>xf: 3</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>['ob: 0.0007138777841233581']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -5294,12 +5295,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>rp: 14</t>
+          <t>mf: 1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>['rp: 7.138777841233581e-05']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -5309,12 +5310,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>kf: 1</t>
+          <t>fw: 4</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>['kf: 5.0991270294525576e-06']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -5324,12 +5325,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>yw: 4</t>
+          <t>io: 588</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>['yw: 2.039650811781023e-05']</t>
+          <t>['0.0029982867']</t>
         </is>
       </c>
     </row>
@@ -5339,12 +5340,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>dn: 31</t>
+          <t>th: 647</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>['dn: 0.0001580729379130293']</t>
+          <t>['0.0032991352']</t>
         </is>
       </c>
     </row>
@@ -5354,12 +5355,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>nw: 11</t>
+          <t>gd: 19</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>['nw: 5.6090397323978135e-05']</t>
+          <t>['0.0000968834']</t>
         </is>
       </c>
     </row>
@@ -5369,12 +5370,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>xl: 39</t>
+          <t>ws: 20</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>['xl: 0.00019886595414864974']</t>
+          <t>['0.0001019825']</t>
         </is>
       </c>
     </row>
@@ -5384,12 +5385,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ht: 71</t>
+          <t>yu: 141</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>['ht: 0.0003620380190911316']</t>
+          <t>['0.0007189769']</t>
         </is>
       </c>
     </row>
@@ -5399,12 +5400,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>rq: 16</t>
+          <t>fr: 114</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>['rq: 8.158603247124092e-05']</t>
+          <t>['0.0005813005']</t>
         </is>
       </c>
     </row>
@@ -5414,12 +5415,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ra: 2356</t>
+          <t>nl: 195</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>['ra: 0.012013543281390225']</t>
+          <t>['0.0009943298']</t>
         </is>
       </c>
     </row>
@@ -5429,12 +5430,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ws: 20</t>
+          <t>gn: 27</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>['ws: 0.00010198254058905116']</t>
+          <t>['0.0001376764']</t>
         </is>
       </c>
     </row>
@@ -5444,12 +5445,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>nf: 11</t>
+          <t>xo: 41</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>['nf: 5.6090397323978135e-05']</t>
+          <t>['0.0002090642']</t>
         </is>
       </c>
     </row>
@@ -5459,12 +5460,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>ef: 82</t>
+          <t>cc: 42</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>['ef: 0.00041812841641510973']</t>
+          <t>['0.0002141633']</t>
         </is>
       </c>
     </row>
@@ -5474,12 +5475,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>zz: 45</t>
+          <t>an: 5438</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>['zz: 0.0002294607163253651']</t>
+          <t>['0.0277290528']</t>
         </is>
       </c>
     </row>
@@ -5489,12 +5490,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>mf: 1</t>
+          <t>ib: 110</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>['mf: 5.0991270294525576e-06']</t>
+          <t>['0.0005609040']</t>
         </is>
       </c>
     </row>
@@ -5504,12 +5505,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ys: 401</t>
+          <t>ri: 3033</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>['ys: 0.0020447499388104758']</t>
+          <t>['0.0154656523']</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5520,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>mb: 112</t>
+          <t>cd: 1</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>['mb: 0.0005711022272986865']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -5534,12 +5535,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>hr: 204</t>
+          <t>lb: 52</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>['hr: 0.0010402219140083217']</t>
+          <t>['0.0002651546']</t>
         </is>
       </c>
     </row>
@@ -5549,12 +5550,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>gr: 201</t>
+          <t>sz: 10</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>['gr: 0.0010249245329199642']</t>
+          <t>['0.0000509913']</t>
         </is>
       </c>
     </row>
@@ -5564,12 +5565,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>iz: 277</t>
+          <t>ww: 2</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>['iz: 0.0014124581871583586']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -5579,12 +5580,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>wb: 1</t>
+          <t>di: 674</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>['wb: 5.0991270294525576e-06']</t>
+          <t>['0.0034368116']</t>
         </is>
       </c>
     </row>
@@ -5594,12 +5595,13 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>op: 95</t>
+          <t>b
+: 114</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>['op: 0.000484417067797993']</t>
+          <t>['0.0005813005']</t>
         </is>
       </c>
     </row>
@@ -5609,12 +5611,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>vy: 121</t>
+          <t>vd: 1</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>['vy: 0.0006169943705637595']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -5624,12 +5626,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>ro: 869</t>
+          <t>si: 684</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>['ro: 0.004431141388594273']</t>
+          <t>['0.0034878029']</t>
         </is>
       </c>
     </row>
@@ -5639,13 +5641,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>v
-: 88</t>
+          <t>ua: 163</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>['v\n: 0.0004487231785918251']</t>
+          <t>['0.0008311577']</t>
         </is>
       </c>
     </row>
@@ -5655,12 +5656,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>aq: 60</t>
+          <t>oe: 132</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>['aq: 0.0003059476217671535']</t>
+          <t>['0.0006730848']</t>
         </is>
       </c>
     </row>
@@ -5670,12 +5671,13 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>jn: 2</t>
+          <t>r
+: 1377</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>['jn: 1.0198254058905115e-05']</t>
+          <t>['0.0070214979']</t>
         </is>
       </c>
     </row>
@@ -5685,12 +5687,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>rr: 425</t>
+          <t>rs: 190</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>['rr: 0.002167128987517337']</t>
+          <t>['0.0009688341']</t>
         </is>
       </c>
     </row>
@@ -5700,12 +5702,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>hn: 138</t>
+          <t>xa: 103</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>['hn: 0.000703679530064453']</t>
+          <t>['0.0005252101']</t>
         </is>
       </c>
     </row>
@@ -5715,12 +5717,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>va: 642</t>
+          <t>ra: 2356</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>['va: 0.003273639552908542']</t>
+          <t>['0.0120135433']</t>
         </is>
       </c>
     </row>
@@ -5730,12 +5732,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>om: 261</t>
+          <t>wf: 2</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>['om: 0.0013308721546871176']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -5745,12 +5747,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>gj: 3</t>
+          <t>ys: 401</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>['gj: 1.5297381088357674e-05']</t>
+          <t>['0.0020447499']</t>
         </is>
       </c>
     </row>
@@ -5760,12 +5762,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>nj: 44</t>
+          <t>ps: 16</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>['nj: 0.00022436158929591254']</t>
+          <t>['0.0000815860']</t>
         </is>
       </c>
     </row>
@@ -5775,12 +5777,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ii: 82</t>
+          <t>ci: 271</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>['ii: 0.00041812841641510973']</t>
+          <t>['0.0013818634']</t>
         </is>
       </c>
     </row>
@@ -5790,12 +5792,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>aa: 556</t>
+          <t>za: 860</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>['aa: 0.002835114628375622']</t>
+          <t>['0.0043852492']</t>
         </is>
       </c>
     </row>
@@ -5805,12 +5807,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>rb: 41</t>
+          <t>sk: 82</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>['rb: 0.00020906420820755486']</t>
+          <t>['0.0004181284']</t>
         </is>
       </c>
     </row>
@@ -5820,12 +5822,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>lk: 24</t>
+          <t>au: 381</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>['lk: 0.0001223790487068614']</t>
+          <t>['0.0019427674']</t>
         </is>
       </c>
     </row>
@@ -5835,12 +5837,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>np: 5</t>
+          <t>iv: 269</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>['np: 2.549563514726279e-05']</t>
+          <t>['0.0013716652']</t>
         </is>
       </c>
     </row>
@@ -5850,12 +5852,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>xt: 70</t>
+          <t>by: 83</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>['xt: 0.00035693889206167903']</t>
+          <t>['0.0004232275']</t>
         </is>
       </c>
     </row>
@@ -5865,12 +5867,13 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>oi: 69</t>
+          <t>d
+: 516</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>['oi: 0.0003518397650322265']</t>
+          <t>['0.0026311495']</t>
         </is>
       </c>
     </row>
@@ -5880,12 +5883,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>mp: 38</t>
+          <t>rm: 162</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>['mp: 0.0001937668271191972']</t>
+          <t>['0.0008260586']</t>
         </is>
       </c>
     </row>
@@ -5895,12 +5898,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>py: 12</t>
+          <t>nm: 19</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>['py: 6.11895243534307e-05']</t>
+          <t>['0.0000968834']</t>
         </is>
       </c>
     </row>
@@ -5910,12 +5913,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>qa: 13</t>
+          <t>bt: 2</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>['qa: 6.628865138288325e-05']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -5925,12 +5928,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>df: 5</t>
+          <t>tv: 15</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>['df: 2.549563514726279e-05']</t>
+          <t>['0.0000764869']</t>
         </is>
       </c>
     </row>
@@ -5940,12 +5943,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>nr: 44</t>
+          <t>rl: 413</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>['nr: 0.00022436158929591254']</t>
+          <t>['0.0021059395']</t>
         </is>
       </c>
     </row>
@@ -5955,12 +5958,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>gl: 32</t>
+          <t>xt: 70</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>['gl: 0.00016317206494248184']</t>
+          <t>['0.0003569389']</t>
         </is>
       </c>
     </row>
@@ -5970,12 +5973,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>gy: 31</t>
+          <t>hr: 204</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>['gy: 0.0001580729379130293']</t>
+          <t>['0.0010402219']</t>
         </is>
       </c>
     </row>
@@ -5985,12 +5988,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>uy: 13</t>
+          <t>sm: 90</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>['uy: 6.628865138288325e-05']</t>
+          <t>['0.0004589214']</t>
         </is>
       </c>
     </row>
@@ -6000,12 +6003,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>eq: 14</t>
+          <t>be: 655</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>['eq: 7.138777841233581e-05']</t>
+          <t>['0.0033399282']</t>
         </is>
       </c>
     </row>
@@ -6015,12 +6018,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>sa: 1201</t>
+          <t>lh: 19</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>['sa: 0.006124051562372522']</t>
+          <t>['0.0000968834']</t>
         </is>
       </c>
     </row>
@@ -6030,12 +6033,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>wl: 13</t>
+          <t>tg: 2</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>['wl: 6.628865138288325e-05']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -6045,12 +6048,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>xn: 1</t>
+          <t>xh: 1</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>['xn: 5.0991270294525576e-06']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -6060,12 +6063,13 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ll: 1345</t>
+          <t>o
+: 855</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>['ll: 0.00685832585461369']</t>
+          <t>['0.0043597536']</t>
         </is>
       </c>
     </row>
@@ -6075,12 +6079,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ld: 138</t>
+          <t>yx: 28</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>['ld: 0.000703679530064453']</t>
+          <t>['0.0001427756']</t>
         </is>
       </c>
     </row>
@@ -6090,12 +6094,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>cg: 2</t>
+          <t>zb: 4</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>['cg: 1.0198254058905115e-05']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -6105,12 +6109,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>mc: 51</t>
+          <t>av: 834</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>['mc: 0.00026005547850208044']</t>
+          <t>['0.0042526719']</t>
         </is>
       </c>
     </row>
@@ -6120,12 +6124,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>lq: 3</t>
+          <t>sj: 2</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>['lq: 1.5297381088357674e-05']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -6135,12 +6139,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>rk: 90</t>
+          <t>xb: 1</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>['rk: 0.0004589214326507302']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -6150,12 +6154,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>jj: 2</t>
+          <t>cu: 35</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>['jj: 1.0198254058905115e-05']</t>
+          <t>['0.0001784694']</t>
         </is>
       </c>
     </row>
@@ -6165,12 +6169,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>du: 92</t>
+          <t>hg: 2</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>['du: 0.00046911968670963533']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -6180,12 +6184,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>su: 185</t>
+          <t>nk: 58</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>['su: 0.0009433385004487232']</t>
+          <t>['0.0002957494']</t>
         </is>
       </c>
     </row>
@@ -6195,12 +6199,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>sy: 215</t>
+          <t>da: 1303</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>['sy: 0.0010963123113323']</t>
+          <t>['0.0066441625']</t>
         </is>
       </c>
     </row>
@@ -6210,12 +6214,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>re: 1697</t>
+          <t>wn: 58</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>['re: 0.00865321856898099']</t>
+          <t>['0.0002957494']</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6229,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>jb: 1</t>
+          <t>yz: 78</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>['jb: 5.0991270294525576e-06']</t>
+          <t>['0.0003977319']</t>
         </is>
       </c>
     </row>
@@ -6240,12 +6244,13 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>kc: 2</t>
+          <t>q
+: 28</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>['kc: 1.0198254058905115e-05']</t>
+          <t>['0.0001427756']</t>
         </is>
       </c>
     </row>
@@ -6255,12 +6260,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>ab: 541</t>
+          <t>no: 496</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>['ab: 0.002758627722933834']</t>
+          <t>['0.0025291670']</t>
         </is>
       </c>
     </row>
@@ -6270,12 +6275,13 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>cc: 42</t>
+          <t>t
+: 483</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>['cc: 0.00021416333523700741']</t>
+          <t>['0.0024628784']</t>
         </is>
       </c>
     </row>
@@ -6285,12 +6291,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>ih: 95</t>
+          <t>ug: 47</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>['ih: 0.000484417067797993']</t>
+          <t>['0.0002396590']</t>
         </is>
       </c>
     </row>
@@ -6300,12 +6306,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>on: 2411</t>
+          <t>ez: 181</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>['on: 0.012293995268010116']</t>
+          <t>['0.0009229420']</t>
         </is>
       </c>
     </row>
@@ -6315,12 +6321,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>zw: 3</t>
+          <t>el: 3248</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>['zw: 1.5297381088357674e-05']</t>
+          <t>['0.0165619646']</t>
         </is>
       </c>
     </row>
@@ -6330,12 +6336,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>up: 16</t>
+          <t>gi: 190</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>['up: 8.158603247124092e-05']</t>
+          <t>['0.0009688341']</t>
         </is>
       </c>
     </row>
@@ -6345,12 +6351,13 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>qm: 2</t>
+          <t>m
+: 516</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>['qm: 1.0198254058905115e-05']</t>
+          <t>['0.0026311495']</t>
         </is>
       </c>
     </row>
@@ -6360,12 +6367,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>jl: 9</t>
+          <t>hy: 213</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>['jl: 4.5892143265073016e-05']</t>
+          <t>['0.0010861141']</t>
         </is>
       </c>
     </row>
@@ -6375,12 +6382,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>od: 190</t>
+          <t>xx: 38</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>['od: 0.000968834135595986']</t>
+          <t>['0.0001937668']</t>
         </is>
       </c>
     </row>
@@ -6390,12 +6397,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>bt: 2</t>
+          <t>ad: 1042</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>['bt: 1.0198254058905115e-05']</t>
+          <t>['0.0053132904']</t>
         </is>
       </c>
     </row>
@@ -6405,12 +6412,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>hd: 24</t>
+          <t>ij: 76</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>['hd: 0.0001223790487068614']</t>
+          <t>['0.0003875337']</t>
         </is>
       </c>
     </row>
@@ -6420,13 +6427,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>n
-: 6763</t>
+          <t>mo: 452</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>['n\n: 0.03448539610018765']</t>
+          <t>['0.0023048054']</t>
         </is>
       </c>
     </row>
@@ -6436,12 +6442,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>vv: 7</t>
+          <t>zy: 147</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>['vv: 3.5693889206167905e-05']</t>
+          <t>['0.0007495717']</t>
         </is>
       </c>
     </row>
@@ -6451,12 +6457,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>es: 861</t>
+          <t>oc: 114</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>['es: 0.004390348372358652']</t>
+          <t>['0.0005813005']</t>
         </is>
       </c>
     </row>
@@ -6466,12 +6472,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>je: 440</t>
+          <t>wu: 25</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>['je: 0.0022436158929591255']</t>
+          <t>['0.0001274782']</t>
         </is>
       </c>
     </row>
@@ -6481,12 +6487,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>kn: 26</t>
+          <t>zp: 2</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>['kn: 0.0001325773027657665']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -6496,12 +6502,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>hh: 1</t>
+          <t>lu: 324</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>['hh: 5.0991270294525576e-06']</t>
+          <t>['0.0016521172']</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6517,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>zd: 2</t>
+          <t>nx: 6</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>['zd: 1.0198254058905115e-05']</t>
+          <t>['0.0000305948']</t>
         </is>
       </c>
     </row>
@@ -6526,12 +6532,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>yt: 104</t>
+          <t>fe: 123</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>['yt: 0.000530309211063066']</t>
+          <t>['0.0006271926']</t>
         </is>
       </c>
     </row>
@@ -6541,12 +6547,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>lt: 77</t>
+          <t>zo: 110</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>['lt: 0.00039263278126784693']</t>
+          <t>['0.0005609040']</t>
         </is>
       </c>
     </row>
@@ -6556,12 +6562,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ac: 470</t>
+          <t>az: 435</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>['ac: 0.002396589703842702']</t>
+          <t>['0.0022181203']</t>
         </is>
       </c>
     </row>
@@ -6571,12 +6577,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>yr: 291</t>
+          <t>ue: 169</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>['yr: 0.0014838459655706943']</t>
+          <t>['0.0008617525']</t>
         </is>
       </c>
     </row>
@@ -6586,12 +6592,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>fy: 14</t>
+          <t>xw: 3</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>['fy: 7.138777841233581e-05']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -6601,12 +6607,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>pn: 1</t>
+          <t>hh: 1</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>['pn: 5.0991270294525576e-06']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -6616,12 +6622,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>we: 149</t>
+          <t>ip: 53</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>['we: 0.0007597699273884311']</t>
+          <t>['0.0002702537']</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6637,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ga: 330</t>
+          <t>rd: 187</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>['ga: 0.001682711919719344']</t>
+          <t>['0.0009535368']</t>
         </is>
       </c>
     </row>
@@ -6646,12 +6652,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ig: 428</t>
+          <t>mh: 5</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>['ig: 0.002182426368605695']</t>
+          <t>['0.0000254956']</t>
         </is>
       </c>
     </row>
@@ -6661,12 +6667,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>bi: 217</t>
+          <t>hs: 31</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>['bi: 0.001106510565391205']</t>
+          <t>['0.0001580729']</t>
         </is>
       </c>
     </row>
@@ -6676,12 +6682,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>eg: 125</t>
+          <t>hd: 24</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>['eg: 0.0006373908786815697']</t>
+          <t>['0.0001223790']</t>
         </is>
       </c>
     </row>
@@ -6691,12 +6697,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ah: 2332</t>
+          <t>ob: 140</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>['ah: 0.011891164232683365']</t>
+          <t>['0.0007138778']</t>
         </is>
       </c>
     </row>
@@ -6706,12 +6712,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>et: 580</t>
+          <t>du: 92</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>['et: 0.0029574936770824837']</t>
+          <t>['0.0004691197']</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6727,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>pf: 1</t>
+          <t>am: 1634</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>['pf: 5.0991270294525576e-06']</t>
+          <t>['0.0083319736']</t>
         </is>
       </c>
     </row>
@@ -6736,12 +6742,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>yy: 23</t>
+          <t>yk: 86</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>['yy: 0.00011727992167740883']</t>
+          <t>['0.0004385249']</t>
         </is>
       </c>
     </row>
@@ -6751,12 +6757,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>tw: 11</t>
+          <t>hu: 166</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>['tw: 5.6090397323978135e-05']</t>
+          <t>['0.0008464551']</t>
         </is>
       </c>
     </row>
@@ -6766,12 +6772,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>id: 440</t>
+          <t>yl: 1104</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>['id: 0.0022436158929591255']</t>
+          <t>['0.0056294362']</t>
         </is>
       </c>
     </row>
@@ -6781,12 +6787,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>xy: 30</t>
+          <t>ly: 1588</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>['xy: 0.00015297381088357674']</t>
+          <t>['0.0080974137']</t>
         </is>
       </c>
     </row>
@@ -6796,12 +6802,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>wm: 2</t>
+          <t>hn: 138</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>['wm: 1.0198254058905115e-05']</t>
+          <t>['0.0007036795']</t>
         </is>
       </c>
     </row>
@@ -6811,12 +6817,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>qw: 3</t>
+          <t>if: 101</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>['qw: 1.5297381088357674e-05']</t>
+          <t>['0.0005150118']</t>
         </is>
       </c>
     </row>
@@ -6826,12 +6832,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>as: 1118</t>
+          <t>sq: 1</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>['as: 0.005700824018927959']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -6841,12 +6847,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>dw: 23</t>
+          <t>ya: 2143</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>['dw: 0.00011727992167740883']</t>
+          <t>['0.0109274292']</t>
         </is>
       </c>
     </row>
@@ -6856,12 +6862,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>nz: 145</t>
+          <t>aa: 556</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>['nz: 0.0007393734192706209']</t>
+          <t>['0.0028351146']</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6877,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>xz: 19</t>
+          <t>bs: 8</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>['xz: 9.68834135595986e-05']</t>
+          <t>['0.0000407930']</t>
         </is>
       </c>
     </row>
@@ -6886,12 +6892,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>lr: 18</t>
+          <t>kb: 2</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>['lr: 9.178428653014603e-05']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6907,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>un: 275</t>
+          <t>ki: 509</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>['un: 0.0014022599330994533']</t>
+          <t>['0.0025954557']</t>
         </is>
       </c>
     </row>
@@ -6916,12 +6922,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>eb: 121</t>
+          <t>is: 1316</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>['eb: 0.0006169943705637595']</t>
+          <t>['0.0067104512']</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6937,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>zb: 4</t>
+          <t>co: 380</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>['zb: 2.039650811781023e-05']</t>
+          <t>['0.0019376683']</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6952,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>tz: 105</t>
+          <t>ko: 344</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>['tz: 0.0005354083380925185']</t>
+          <t>['0.0017540997']</t>
         </is>
       </c>
     </row>
@@ -6961,12 +6967,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>sn: 24</t>
+          <t>ht: 71</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>['sn: 0.0001223790487068614']</t>
+          <t>['0.0003620380']</t>
         </is>
       </c>
     </row>
@@ -6976,12 +6982,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>oe: 132</t>
+          <t>lk: 24</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>['oe: 0.0006730847678877377']</t>
+          <t>['0.0001223790']</t>
         </is>
       </c>
     </row>
@@ -6991,13 +6997,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>m
-: 516</t>
+          <t>up: 16</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>['m\n: 0.0026311495471975197']</t>
+          <t>['0.0000815860']</t>
         </is>
       </c>
     </row>
@@ -7007,12 +7012,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>lj: 6</t>
+          <t>dq: 1</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>['lj: 3.059476217671535e-05']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -7022,12 +7027,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>js: 7</t>
+          <t>ml: 5</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>['js: 3.5693889206167905e-05']</t>
+          <t>['0.0000254956']</t>
         </is>
       </c>
     </row>
@@ -7037,12 +7042,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>ma: 2590</t>
+          <t>wo: 36</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>['ma: 0.013206739006282124']</t>
+          <t>['0.0001835686']</t>
         </is>
       </c>
     </row>
@@ -7052,12 +7057,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>nx: 6</t>
+          <t>gy: 31</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>['nx: 3.059476217671535e-05']</t>
+          <t>['0.0001580729']</t>
         </is>
       </c>
     </row>
@@ -7067,12 +7072,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ly: 1588</t>
+          <t>dr: 424</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>['ly: 0.008097413722770662']</t>
+          <t>['0.0021620299']</t>
         </is>
       </c>
     </row>
@@ -7082,12 +7087,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>av: 834</t>
+          <t>uq: 10</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>['av: 0.004252671942563433']</t>
+          <t>['0.0000509913']</t>
         </is>
       </c>
     </row>
@@ -7097,12 +7102,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ka: 1731</t>
+          <t>mz: 11</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>['ka: 0.008826588887982377']</t>
+          <t>['0.0000560904']</t>
         </is>
       </c>
     </row>
@@ -7112,12 +7117,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>fk: 2</t>
+          <t>hz: 20</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>['fk: 1.0198254058905115e-05']</t>
+          <t>['0.0001019825']</t>
         </is>
       </c>
     </row>
@@ -7127,12 +7132,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>ep: 83</t>
+          <t>bb: 38</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>['ep: 0.0004232275434445623']</t>
+          <t>['0.0001937668']</t>
         </is>
       </c>
     </row>
@@ -7142,12 +7147,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>qi: 13</t>
+          <t>ni: 1725</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>['qi: 6.628865138288325e-05']</t>
+          <t>['0.0087959941']</t>
         </is>
       </c>
     </row>
@@ -7157,12 +7162,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>sz: 10</t>
+          <t>vk: 3</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>['sz: 5.099127029452558e-05']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -7172,12 +7177,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>gw: 26</t>
+          <t>zt: 4</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>['gw: 0.0001325773027657665']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -7187,12 +7192,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>ko: 344</t>
+          <t>gl: 32</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>['ko: 0.00175409969813168']</t>
+          <t>['0.0001631721']</t>
         </is>
       </c>
     </row>
@@ -7202,12 +7207,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>pp: 39</t>
+          <t>dl: 60</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>['pp: 0.00019886595414864974']</t>
+          <t>['0.0003059476']</t>
         </is>
       </c>
     </row>
@@ -7217,12 +7222,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>kh: 307</t>
+          <t>gf: 1</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>['kh: 0.0015654319980419353']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -7232,12 +7237,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>em: 769</t>
+          <t>xl: 39</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>['em: 0.003921228685649017']</t>
+          <t>['0.0001988660']</t>
         </is>
       </c>
     </row>
@@ -7247,12 +7252,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>ha: 2244</t>
+          <t>aq: 60</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>['ha: 0.01144244105409154']</t>
+          <t>['0.0003059476']</t>
         </is>
       </c>
     </row>
@@ -7262,12 +7267,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>oa: 149</t>
+          <t>xs: 31</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>['oa: 0.0007597699273884311']</t>
+          <t>['0.0001580729']</t>
         </is>
       </c>
     </row>
@@ -7277,12 +7282,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>zv: 2</t>
+          <t>fk: 2</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>['zv: 1.0198254058905115e-05']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -7292,12 +7297,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>zh: 43</t>
+          <t>uz: 45</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>['zh: 0.00021926246226646']</t>
+          <t>['0.0002294607']</t>
         </is>
       </c>
     </row>
@@ -7307,13 +7312,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>f
-: 80</t>
+          <t>qr: 1</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>['f\n: 0.00040793016235620463']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -7323,12 +7327,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ye: 301</t>
+          <t>jc: 4</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>['ye: 0.0015348372358652198']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -7338,13 +7342,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>p
-: 33</t>
+          <t>as: 1118</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>['p\n: 0.00016827119197193442']</t>
+          <t>['0.0057008240']</t>
         </is>
       </c>
     </row>
@@ -7354,12 +7357,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>ql: 1</t>
+          <t>yb: 27</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>['ql: 5.0991270294525576e-06']</t>
+          <t>['0.0001376764']</t>
         </is>
       </c>
     </row>
@@ -7369,12 +7372,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>rt: 208</t>
+          <t>qw: 3</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>['rt: 0.001060618422126132']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -7384,12 +7387,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>us: 474</t>
+          <t>zg: 1</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>['us: 0.0024169862119605124']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -7399,12 +7402,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ug: 47</t>
+          <t>ab: 541</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>['ug: 0.0002396589703842702']</t>
+          <t>['0.0027586277']</t>
         </is>
       </c>
     </row>
@@ -7414,12 +7417,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>fz: 2</t>
+          <t>ey: 1070</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>['fz: 1.0198254058905115e-05']</t>
+          <t>['0.0054560659']</t>
         </is>
       </c>
     </row>
@@ -7429,12 +7432,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>kz: 2</t>
+          <t>uv: 37</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>['kz: 1.0198254058905115e-05']</t>
+          <t>['0.0001886677']</t>
         </is>
       </c>
     </row>
@@ -7444,12 +7447,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>gf: 1</t>
+          <t>xd: 5</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>['gf: 5.0991270294525576e-06']</t>
+          <t>['0.0000254956']</t>
         </is>
       </c>
     </row>
@@ -7459,12 +7462,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>ym: 148</t>
+          <t>sp: 51</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>['ym: 0.0007546708003589786']</t>
+          <t>['0.0002600555']</t>
         </is>
       </c>
     </row>
@@ -7474,12 +7477,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>hk: 29</t>
+          <t>cr: 76</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>['hk: 0.00014787468385412417']</t>
+          <t>['0.0003875337']</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7492,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>gi: 190</t>
+          <t>nn: 1906</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>['gi: 0.000968834135595986']</t>
+          <t>['0.0097189361']</t>
         </is>
       </c>
     </row>
@@ -7504,12 +7507,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>de: 1283</t>
+          <t>yw: 4</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>['de: 0.006542179978787631']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7522,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>sq: 1</t>
+          <t>pr: 151</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>['sq: 5.0991270294525576e-06']</t>
+          <t>['0.0007699682']</t>
         </is>
       </c>
     </row>
@@ -7534,12 +7537,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>ya: 2143</t>
+          <t>ba: 321</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>['ya: 0.010927429224116832']</t>
+          <t>['0.0016368198']</t>
         </is>
       </c>
     </row>
@@ -7549,12 +7552,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>ru: 252</t>
+          <t>et: 580</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>['ru: 0.0012849800114220445']</t>
+          <t>['0.0029574937']</t>
         </is>
       </c>
     </row>
@@ -7564,12 +7567,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>wn: 58</t>
+          <t>ti: 532</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>['wn: 0.00029574936770824833']</t>
+          <t>['0.0027127356']</t>
         </is>
       </c>
     </row>
@@ -7579,12 +7582,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>be: 655</t>
+          <t>uj: 14</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>['be: 0.003339928204291425']</t>
+          <t>['0.0000713878']</t>
         </is>
       </c>
     </row>
@@ -7594,12 +7597,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>zx: 1</t>
+          <t>kj: 2</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>['zx: 5.0991270294525576e-06']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -7609,12 +7612,13 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>oq: 3</t>
+          <t>v
+: 88</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>['oq: 1.5297381088357674e-05']</t>
+          <t>['0.0004487232']</t>
         </is>
       </c>
     </row>
@@ -7624,12 +7628,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>tg: 2</t>
+          <t>pk: 1</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>['tg: 1.0198254058905115e-05']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -7639,12 +7643,13 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>jh: 45</t>
+          <t>i
+: 2489</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>['jh: 0.0002294607163253651']</t>
+          <t>['0.0126917272']</t>
         </is>
       </c>
     </row>
@@ -7654,12 +7659,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ms: 35</t>
+          <t>kh: 307</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>['ms: 0.00017846944603083952']</t>
+          <t>['0.0015654320']</t>
         </is>
       </c>
     </row>
@@ -7669,12 +7674,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>nc: 213</t>
+          <t>yi: 192</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>['nc: 0.0010861140572733948']</t>
+          <t>['0.0009790324']</t>
         </is>
       </c>
     </row>
@@ -7684,12 +7689,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>gd: 19</t>
+          <t>ye: 301</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>['gd: 9.68834135595986e-05']</t>
+          <t>['0.0015348372']</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7704,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>mr: 97</t>
+          <t>nv: 55</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>['mr: 0.0004946153218568981']</t>
+          <t>['0.0002804520']</t>
         </is>
       </c>
     </row>
@@ -7714,13 +7719,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>l
-: 1314</t>
+          <t>ym: 148</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>['l\n: 0.006700252916700661']</t>
+          <t>['0.0007546708']</t>
         </is>
       </c>
     </row>
@@ -7730,12 +7734,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>xm: 1</t>
+          <t>cz: 4</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>['xm: 5.0991270294525576e-06']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -7745,12 +7749,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>ch: 664</t>
+          <t>ts: 35</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>['ch: 0.0033858203475564982']</t>
+          <t>['0.0001784694']</t>
         </is>
       </c>
     </row>
@@ -7760,13 +7764,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>x
-: 163</t>
+          <t>jj: 2</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>['x\n: 0.0008311577058007669']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -7776,12 +7779,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>jt: 2</t>
+          <t>lq: 3</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>['jt: 1.0198254058905115e-05']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -7791,12 +7794,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>ze: 373</t>
+          <t>le: 2921</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>['ze: 0.001901974381985804']</t>
+          <t>['0.0148945501']</t>
         </is>
       </c>
     </row>
@@ -7806,12 +7809,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>ud: 136</t>
+          <t>iu: 109</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>['ud: 0.0006934812760055479']</t>
+          <t>['0.0005558048']</t>
         </is>
       </c>
     </row>
@@ -7821,12 +7824,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>os: 504</t>
+          <t>pe: 197</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>['os: 0.002569960022844089']</t>
+          <t>['0.0010045280']</t>
         </is>
       </c>
     </row>
@@ -7836,12 +7839,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>lm: 60</t>
+          <t>hv: 39</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>['lm: 0.0003059476217671535']</t>
+          <t>['0.0001988660']</t>
         </is>
       </c>
     </row>
@@ -7851,12 +7854,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>vd: 1</t>
+          <t>ky: 379</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>['vd: 5.0991270294525576e-06']</t>
+          <t>['0.0019325691']</t>
         </is>
       </c>
     </row>
@@ -7866,12 +7869,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>cs: 5</t>
+          <t>zw: 3</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>['cs: 2.549563514726279e-05']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -7881,12 +7884,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>rj: 25</t>
+          <t>dh: 118</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>['rj: 0.00012747817573631394']</t>
+          <t>['0.0006016970']</t>
         </is>
       </c>
     </row>
@@ -7896,12 +7899,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>iv: 269</t>
+          <t>lo: 692</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>['iv: 0.001371665170922738']</t>
+          <t>['0.0035285959']</t>
         </is>
       </c>
     </row>
@@ -7911,12 +7914,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>yf: 12</t>
+          <t>tr: 352</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>['yf: 6.11895243534307e-05']</t>
+          <t>['0.0017948927']</t>
         </is>
       </c>
     </row>
@@ -7926,12 +7929,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>ci: 271</t>
+          <t>fi: 160</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>['ci: 0.001381863424981643']</t>
+          <t>['0.0008158603']</t>
         </is>
       </c>
     </row>
@@ -7941,12 +7944,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>zc: 2</t>
+          <t>yj: 23</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>['zc: 1.0198254058905115e-05']</t>
+          <t>['0.0001172799']</t>
         </is>
       </c>
     </row>
@@ -7956,12 +7959,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>at: 687</t>
+          <t>ig: 428</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>['at: 0.003503100269233907']</t>
+          <t>['0.0021824264']</t>
         </is>
       </c>
     </row>
@@ -7971,12 +7974,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>bb: 38</t>
+          <t>in: 2126</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>['bb: 0.0001937668271191972']</t>
+          <t>['0.0108407441']</t>
         </is>
       </c>
     </row>
@@ -7986,12 +7989,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>ca: 815</t>
+          <t>pb: 2</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>['ca: 0.004155788529003834']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -8001,12 +8004,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>no: 496</t>
+          <t>yo: 271</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>['no: 0.0025291670066084687']</t>
+          <t>['0.0013818634']</t>
         </is>
       </c>
     </row>
@@ -8016,12 +8019,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>ak: 568</t>
+          <t>mp: 38</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>['ak: 0.0028963041527290526']</t>
+          <t>['0.0001937668']</t>
         </is>
       </c>
     </row>
@@ -8031,12 +8034,13 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>ea: 679</t>
+          <t>f
+: 80</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>['ea: 0.003462307252998287']</t>
+          <t>['0.0004079302']</t>
         </is>
       </c>
     </row>
@@ -8046,12 +8050,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>zo: 110</t>
+          <t>ef: 82</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>['zo: 0.0005609039732397814']</t>
+          <t>['0.0004181284']</t>
         </is>
       </c>
     </row>
@@ -8061,12 +8065,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>to: 667</t>
+          <t>vn: 8</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>['to: 0.003401117728644856']</t>
+          <t>['0.0000407930']</t>
         </is>
       </c>
     </row>
@@ -8076,12 +8080,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>gs: 30</t>
+          <t>jw: 6</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>['gs: 0.00015297381088357674']</t>
+          <t>['0.0000305948']</t>
         </is>
       </c>
     </row>
@@ -8091,12 +8095,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>dl: 60</t>
+          <t>hq: 1</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>['dl: 0.0003059476217671535']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -8106,12 +8110,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>br: 842</t>
+          <t>pm: 1</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>['br: 0.0042934649587990535']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -8121,12 +8125,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>rg: 76</t>
+          <t>po: 59</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>['rg: 0.0003875336542383944']</t>
+          <t>['0.0003008485']</t>
         </is>
       </c>
     </row>
@@ -8136,12 +8140,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>uv: 37</t>
+          <t>he: 674</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>['uv: 0.00018866770008974464']</t>
+          <t>['0.0034368116']</t>
         </is>
       </c>
     </row>
@@ -8151,12 +8155,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>hm: 117</t>
+          <t>ln: 14</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>['hm: 0.0005965978624459492']</t>
+          <t>['0.0000713878']</t>
         </is>
       </c>
     </row>
@@ -8166,12 +8170,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>io: 588</t>
+          <t>gr: 201</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>['io: 0.002998286693318104']</t>
+          <t>['0.0010249245']</t>
         </is>
       </c>
     </row>
@@ -8181,12 +8185,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>sk: 82</t>
+          <t>py: 12</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>['sk: 0.00041812841641510973']</t>
+          <t>['0.0000611895']</t>
         </is>
       </c>
     </row>
@@ -8196,12 +8200,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>ji: 119</t>
+          <t>zz: 45</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>['ji: 0.0006067961165048543']</t>
+          <t>['0.0002294607']</t>
         </is>
       </c>
     </row>
@@ -8211,12 +8215,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>yh: 22</t>
+          <t>uu: 3</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>['yh: 0.00011218079464795627']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -8226,12 +8230,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>xx: 38</t>
+          <t>cj: 3</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>['xx: 0.0001937668271191972']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -8241,12 +8245,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>hq: 1</t>
+          <t>hc: 2</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>['hq: 5.0991270294525576e-06']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -8256,12 +8260,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>cz: 4</t>
+          <t>se: 884</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>['cz: 2.039650811781023e-05']</t>
+          <t>['0.0045076283']</t>
         </is>
       </c>
     </row>
@@ -8271,12 +8275,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ce: 551</t>
+          <t>ea: 679</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>['ce: 0.002809618993228359']</t>
+          <t>['0.0034623073']</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8290,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>pi: 61</t>
+          <t>oo: 115</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>['pi: 0.00031104674879660604']</t>
+          <t>['0.0005863996']</t>
         </is>
       </c>
     </row>
@@ -8301,12 +8305,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>dm: 30</t>
+          <t>tx: 2</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>['dm: 0.00015297381088357674']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -8316,12 +8320,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>gu: 85</t>
+          <t>gw: 26</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>['gu: 0.00043342579750346743']</t>
+          <t>['0.0001325773']</t>
         </is>
       </c>
     </row>
@@ -8331,12 +8335,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>di: 674</t>
+          <t>gs: 30</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>['di: 0.003436811617851024']</t>
+          <t>['0.0001529738']</t>
         </is>
       </c>
     </row>
@@ -8346,13 +8350,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>s
-: 1169</t>
+          <t>hf: 2</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>['s\n: 0.00596087949743004']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -8362,12 +8365,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>ls: 94</t>
+          <t>dk: 3</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>['ls: 0.0004793179407685404']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -8377,12 +8380,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>pr: 151</t>
+          <t>nz: 145</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>['pr: 0.0007699681814473362']</t>
+          <t>['0.0007393734']</t>
         </is>
       </c>
     </row>
@@ -8392,12 +8395,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>hg: 2</t>
+          <t>ej: 55</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>['hg: 1.0198254058905115e-05']</t>
+          <t>['0.0002804520']</t>
         </is>
       </c>
     </row>
@@ -8407,12 +8410,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>cl: 116</t>
+          <t>dm: 30</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>['cl: 0.0005914987354164967']</t>
+          <t>['0.0001529738']</t>
         </is>
       </c>
     </row>
@@ -8422,12 +8425,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>rw: 21</t>
+          <t>ty: 341</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>['rw: 0.00010708166761850371']</t>
+          <t>['0.0017388023']</t>
         </is>
       </c>
     </row>
@@ -8437,12 +8440,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>fw: 4</t>
+          <t>iq: 52</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>['fw: 2.039650811781023e-05']</t>
+          <t>['0.0002651546']</t>
         </is>
       </c>
     </row>
@@ -8452,12 +8455,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>ov: 176</t>
+          <t>of: 34</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>['ov: 0.0008974463571836502']</t>
+          <t>['0.0001733703']</t>
         </is>
       </c>
     </row>
@@ -8467,12 +8470,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>vl: 14</t>
+          <t>sy: 215</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>['vl: 7.138777841233581e-05']</t>
+          <t>['0.0010963123']</t>
         </is>
       </c>
     </row>
@@ -8482,12 +8485,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>jw: 6</t>
+          <t>nf: 11</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>['jw: 3.059476217671535e-05']</t>
+          <t>['0.0000560904']</t>
         </is>
       </c>
     </row>
@@ -8497,12 +8500,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>az: 435</t>
+          <t>yn: 1826</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>['az: 0.0022181202578118626']</t>
+          <t>['0.0093110060']</t>
         </is>
       </c>
     </row>
@@ -8512,12 +8515,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>it: 541</t>
+          <t>cy: 104</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>['it: 0.002758627722933834']</t>
+          <t>['0.0005303092']</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8530,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>ip: 53</t>
+          <t>oq: 3</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>['ip: 0.00027025373256098553']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -8542,12 +8545,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>yi: 192</t>
+          <t>ex: 132</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>['yi: 0.0009790323896548912']</t>
+          <t>['0.0006730848']</t>
         </is>
       </c>
     </row>
@@ -8557,12 +8560,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>yu: 141</t>
+          <t>dv: 17</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>['yu: 0.0007189769111528106']</t>
+          <t>['0.0000866852']</t>
         </is>
       </c>
     </row>
@@ -8572,12 +8575,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ri: 3033</t>
+          <t>ee: 1271</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>['ri: 0.015465652280329608']</t>
+          <t>['0.0064809905']</t>
         </is>
       </c>
     </row>
@@ -8587,12 +8590,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>ds: 29</t>
+          <t>nu: 96</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>['ds: 0.00014787468385412417']</t>
+          <t>['0.0004895162']</t>
         </is>
       </c>
     </row>
@@ -8602,12 +8605,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>vn: 8</t>
+          <t>bc: 1</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>['vn: 4.079301623562046e-05']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -8617,12 +8620,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>jv: 5</t>
+          <t>sc: 60</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>['jv: 2.549563514726279e-05']</t>
+          <t>['0.0003059476']</t>
         </is>
       </c>
     </row>
@@ -8632,12 +8635,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>zk: 2</t>
+          <t>cq: 11</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>['zk: 1.0198254058905115e-05']</t>
+          <t>['0.0000560904']</t>
         </is>
       </c>
     </row>
@@ -8647,12 +8650,12 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>zs: 4</t>
+          <t>jv: 5</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>['zs: 2.039650811781023e-05']</t>
+          <t>['0.0000254956']</t>
         </is>
       </c>
     </row>
@@ -8662,12 +8665,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>pa: 209</t>
+          <t>ls: 94</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>['pa: 0.0010657175491555846']</t>
+          <t>['0.0004793179']</t>
         </is>
       </c>
     </row>
@@ -8677,12 +8680,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>eh: 152</t>
+          <t>pu: 4</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>['eh: 0.0007750673084767888']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -8692,12 +8695,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>nu: 96</t>
+          <t>na: 2977</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>['nu: 0.0004895161948274456']</t>
+          <t>['0.0151801012']</t>
         </is>
       </c>
     </row>
@@ -8707,12 +8710,13 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>zg: 1</t>
+          <t>c
+: 97</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>['zg: 5.0991270294525576e-06']</t>
+          <t>['0.0004946153']</t>
         </is>
       </c>
     </row>
@@ -8722,12 +8726,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ag: 168</t>
+          <t>vy: 121</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>['ag: 0.0008566533409480297']</t>
+          <t>['0.0006169944']</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8741,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>sp: 51</t>
+          <t>hm: 117</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>['sp: 0.00026005547850208044']</t>
+          <t>['0.0005965979']</t>
         </is>
       </c>
     </row>
@@ -8752,12 +8756,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>nh: 26</t>
+          <t>ic: 509</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>['nh: 0.0001325773027657665']</t>
+          <t>['0.0025954557']</t>
         </is>
       </c>
     </row>
@@ -8767,12 +8771,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>eu: 69</t>
+          <t>tw: 11</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>['eu: 0.0003518397650322265']</t>
+          <t>['0.0000560904']</t>
         </is>
       </c>
     </row>
@@ -8782,12 +8786,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>dv: 17</t>
+          <t>zm: 35</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>['dv: 8.668515950069348e-05']</t>
+          <t>['0.0001784694']</t>
         </is>
       </c>
     </row>
@@ -8797,12 +8801,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>lw: 16</t>
+          <t>ev: 463</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>['lw: 8.158603247124092e-05']</t>
+          <t>['0.0023608958']</t>
         </is>
       </c>
     </row>
@@ -8812,12 +8816,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>si: 684</t>
+          <t>um: 154</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>['si: 0.0034878028881455496']</t>
+          <t>['0.0007852656']</t>
         </is>
       </c>
     </row>
@@ -8827,12 +8831,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>gz: 1</t>
+          <t>er: 1958</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>['gz: 5.0991270294525576e-06']</t>
+          <t>['0.0099840907']</t>
         </is>
       </c>
     </row>
@@ -8842,12 +8846,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>wr: 22</t>
+          <t>sl: 279</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>['wr: 0.00011218079464795627']</t>
+          <t>['0.0014226564']</t>
         </is>
       </c>
     </row>
@@ -8857,12 +8861,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>my: 287</t>
+          <t>yy: 23</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>['my: 0.001463449457452884']</t>
+          <t>['0.0001172799']</t>
         </is>
       </c>
     </row>
@@ -8872,12 +8876,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>ng: 273</t>
+          <t>mr: 97</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>['ng: 0.0013920616790405482']</t>
+          <t>['0.0004946153']</t>
         </is>
       </c>
     </row>
@@ -8887,13 +8891,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>r
-: 1377</t>
+          <t>ay: 2050</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>['r\n: 0.007021497919556172']</t>
+          <t>['0.0104532104']</t>
         </is>
       </c>
     </row>
@@ -8903,12 +8906,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>ib: 110</t>
+          <t>rn: 140</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>['ib: 0.0005609039732397814']</t>
+          <t>['0.0007138778']</t>
         </is>
       </c>
     </row>
@@ -8918,12 +8921,13 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>ix: 89</t>
+          <t>s
+: 1169</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>['ix: 0.0004538223056212776']</t>
+          <t>['0.0059608795']</t>
         </is>
       </c>
     </row>
@@ -8933,12 +8937,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>fu: 10</t>
+          <t>ta: 1027</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>['fu: 5.099127029452558e-05']</t>
+          <t>['0.0052368035']</t>
         </is>
       </c>
     </row>
@@ -8948,12 +8952,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>uk: 93</t>
+          <t>sb: 21</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>['uk: 0.0004742188137390879']</t>
+          <t>['0.0001070817']</t>
         </is>
       </c>
     </row>
@@ -8963,12 +8967,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>iq: 52</t>
+          <t>mu: 139</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>['iq: 0.000265154605531533']</t>
+          <t>['0.0007087787']</t>
         </is>
       </c>
     </row>
@@ -8978,12 +8982,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>mn: 20</t>
+          <t>cs: 5</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>['mn: 0.00010198254058905116']</t>
+          <t>['0.0000254956']</t>
         </is>
       </c>
     </row>
@@ -8993,12 +8997,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>ev: 463</t>
+          <t>op: 95</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>['ev: 0.002360895814636534']</t>
+          <t>['0.0004844171']</t>
         </is>
       </c>
     </row>
@@ -9008,12 +9012,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>sw: 24</t>
+          <t>st: 765</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>['sw: 0.0001223790487068614']</t>
+          <t>['0.0039008322']</t>
         </is>
       </c>
     </row>
@@ -9023,12 +9027,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>mw: 2</t>
+          <t>ze: 373</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>['mw: 1.0198254058905115e-05']</t>
+          <t>['0.0019019744']</t>
         </is>
       </c>
     </row>
@@ -9038,12 +9042,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>fn: 4</t>
+          <t>im: 427</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>['fn: 2.039650811781023e-05']</t>
+          <t>['0.0021773272']</t>
         </is>
       </c>
     </row>
@@ -9053,12 +9057,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>xd: 5</t>
+          <t>id: 440</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>['xd: 2.549563514726279e-05']</t>
+          <t>['0.0022436159']</t>
         </is>
       </c>
     </row>
@@ -9068,12 +9072,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>jm: 5</t>
+          <t>lz: 10</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>['jm: 2.549563514726279e-05']</t>
+          <t>['0.0000509913']</t>
         </is>
       </c>
     </row>
@@ -9083,13 +9087,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>c
-: 97</t>
+          <t>fl: 20</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>['c\n: 0.0004946153218568981']</t>
+          <t>['0.0001019825']</t>
         </is>
       </c>
     </row>
@@ -9099,12 +9102,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>ew: 50</t>
+          <t>tn: 22</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>['ew: 0.0002549563514726279']</t>
+          <t>['0.0001121808']</t>
         </is>
       </c>
     </row>
@@ -9114,12 +9117,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>ju: 202</t>
+          <t>vo: 153</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>['ju: 0.0010300236599494166']</t>
+          <t>['0.0007801664']</t>
         </is>
       </c>
     </row>
@@ -9129,12 +9132,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>do: 378</t>
+          <t>uf: 19</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>['do: 0.0019274700171330668']</t>
+          <t>['0.0000968834']</t>
         </is>
       </c>
     </row>
@@ -9144,12 +9147,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>dr: 424</t>
+          <t>zk: 2</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>['dr: 0.0021620298604878843']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -9159,12 +9162,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>zl: 123</t>
+          <t>kv: 2</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>['zl: 0.0006271926246226646']</t>
+          <t>['0.0000101983']</t>
         </is>
       </c>
     </row>
@@ -9174,12 +9177,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>qs: 2</t>
+          <t>tb: 1</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>['qs: 1.0198254058905115e-05']</t>
+          <t>['0.0000050991']</t>
         </is>
       </c>
     </row>
@@ -9189,12 +9192,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>er: 1958</t>
+          <t>ka: 1731</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>['er: 0.009984090723668107']</t>
+          <t>['0.0088265889']</t>
         </is>
       </c>
     </row>
@@ -9204,12 +9207,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>zm: 35</t>
+          <t>sr: 55</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>['zm: 0.00017846944603083952']</t>
+          <t>['0.0002804520']</t>
         </is>
       </c>
     </row>
@@ -9219,13 +9222,12 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>z
-: 160</t>
+          <t>ur: 414</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>['z\n: 0.0008158603247124093']</t>
+          <t>['0.0021110386']</t>
         </is>
       </c>
     </row>
@@ -9235,12 +9237,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>yb: 27</t>
+          <t>ec: 153</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>['yb: 0.00013767642979521907']</t>
+          <t>['0.0007801664']</t>
         </is>
       </c>
     </row>
@@ -9250,12 +9252,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>bs: 8</t>
+          <t>sd: 9</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>['bs: 4.079301623562046e-05']</t>
+          <t>['0.0000458921']</t>
         </is>
       </c>
     </row>
@@ -9265,12 +9267,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>cu: 35</t>
+          <t>ji: 119</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>['cu: 0.00017846944603083952']</t>
+          <t>['0.0006067961']</t>
         </is>
       </c>
     </row>
@@ -9280,12 +9282,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>xh: 1</t>
+          <t>bn: 4</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>['xh: 5.0991270294525576e-06']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -9295,12 +9297,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>vk: 3</t>
+          <t>xu: 5</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>['vk: 1.5297381088357674e-05']</t>
+          <t>['0.0000254956']</t>
         </is>
       </c>
     </row>
@@ -9310,12 +9312,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>ck: 316</t>
+          <t>vl: 14</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>['ck: 0.0016113241413070083']</t>
+          <t>['0.0000713878']</t>
         </is>
       </c>
     </row>
@@ -9325,12 +9327,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>wt: 8</t>
+          <t>kl: 139</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>['wt: 4.079301623562046e-05']</t>
+          <t>['0.0007087787']</t>
         </is>
       </c>
     </row>
@@ -9340,12 +9342,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>ni: 1725</t>
+          <t>ep: 83</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>['ni: 0.008795994125805662']</t>
+          <t>['0.0004232275']</t>
         </is>
       </c>
     </row>
@@ -9355,12 +9357,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>nq: 2</t>
+          <t>ss: 461</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>['nq: 1.0198254058905115e-05']</t>
+          <t>['0.0023506976']</t>
         </is>
       </c>
     </row>
@@ -9370,12 +9372,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>hi: 729</t>
+          <t>zs: 4</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>['hi: 0.0037172636044709145']</t>
+          <t>['0.0000203965']</t>
         </is>
       </c>
     </row>
@@ -9385,13 +9387,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>w
-: 51</t>
+          <t>md: 24</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>['w\n: 0.00026005547850208044']</t>
+          <t>['0.0001223790']</t>
         </is>
       </c>
     </row>
@@ -9401,13 +9402,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>u
-: 155</t>
+          <t>eo: 269</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>['u\n: 0.0007903646895651464']</t>
+          <t>['0.0013716652']</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>ol: 619</t>
+          <t>hk: 29</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>['ol: 0.0031563596312311334']</t>
+          <t>['0.0001478747']</t>
         </is>
       </c>
     </row>
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>uc: 103</t>
+          <t>my: 287</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>['uc: 0.0005252100840336134']</t>
+          <t>['0.0014634495']</t>
         </is>
       </c>
     </row>
@@ -9447,12 +9447,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>xa: 103</t>
+          <t>ut: 82</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>['xa: 0.0005252100840336134']</t>
+          <t>['0.0004181284']</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9462,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>tm: 4</t>
+          <t>gj: 3</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>['tm: 2.039650811781023e-05']</t>
+          <t>['0.0000152974']</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>zi: 364</t>
+          <t>li: 2480</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>['zi: 0.0018560822387207311']</t>
+          <t>['0.0126458350']</t>
         </is>
       </c>
     </row>

--- a/Bigram_Language_Model/probabilities.xlsx
+++ b/Bigram_Language_Model/probabilities.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lr: 18</t>
+          <t>mu: 139</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['0.0000917843']</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jr: 11</t>
+          <t>ft: 18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['0.0000560904']</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rx: 3</t>
+          <t>dy: 317</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0016164233</t>
         </is>
       </c>
     </row>
@@ -496,13 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>y
-: 2007</t>
+          <t>hy: 213</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['0.0102339479']</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -512,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mt: 4</t>
+          <t>ld: 138</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -527,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dd: 149</t>
+          <t>kc: 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['0.0007597699']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -542,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>je: 440</t>
+          <t>mm: 168</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['0.0022436159']</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -557,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jn: 2</t>
+          <t>qi: 13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -572,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nb: 8</t>
+          <t>tm: 4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['0.0000407930']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -587,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>qm: 2</t>
+          <t>um: 154</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0007852656</t>
         </is>
       </c>
     </row>
@@ -602,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nh: 26</t>
+          <t>gn: 27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['0.0001325773']</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -617,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ma: 2590</t>
+          <t>vk: 3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['0.0132067390']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -632,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>wk: 6</t>
+          <t>st: 765</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['0.0000305948']</t>
+          <t>0.0039008322</t>
         </is>
       </c>
     </row>
@@ -647,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>np: 5</t>
+          <t>vi: 911</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['0.0000254956']</t>
+          <t>0.0046453047</t>
         </is>
       </c>
     </row>
@@ -662,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>hi: 729</t>
+          <t>fo: 60</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['0.0037172636']</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -677,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>xn: 1</t>
+          <t>ql: 1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -692,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>oy: 103</t>
+          <t>ej: 55</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['0.0005252101']</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -707,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>vr: 48</t>
+          <t>ca: 815</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['0.0002447581']</t>
+          <t>0.0041557885</t>
         </is>
       </c>
     </row>
@@ -722,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>em: 769</t>
+          <t>oe: 132</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['0.0039212287']</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -737,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>zi: 364</t>
+          <t>ea: 679</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['0.0018560822']</t>
+          <t>0.0034623073</t>
         </is>
       </c>
     </row>
@@ -752,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bi: 217</t>
+          <t>oa: 149</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['0.0011065106']</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -767,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ei: 818</t>
+          <t>dz: 1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['0.0041710859']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -782,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>kf: 1</t>
+          <t>dc: 3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -797,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>xi: 102</t>
+          <t>jw: 6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['0.0005201110']</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -812,12 +811,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ju: 202</t>
+          <t>m
+: 516</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['0.0010300237']</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mi: 1256</t>
+          <t>uz: 45</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['0.0064045035']</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -842,13 +842,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>h
-: 2409</t>
+          <t>wh: 23</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['0.0122837970']</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -858,12 +857,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>zd: 2</t>
+          <t>xf: 3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -873,12 +872,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tz: 105</t>
+          <t>ay: 2050</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['0.0005354083']</t>
+          <t>0.0104532104</t>
         </is>
       </c>
     </row>
@@ -888,12 +887,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>kw: 34</t>
+          <t>dk: 3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['0.0001733703']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -903,12 +902,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>es: 861</t>
+          <t>bd: 65</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['0.0043903484']</t>
+          <t>0.0003314433</t>
         </is>
       </c>
     </row>
@@ -918,12 +917,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ui: 121</t>
+          <t>ve: 568</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['0.0006169944']</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -933,12 +932,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pa: 209</t>
+          <t>ok: 68</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['0.0010657175']</t>
+          <t>0.0003467406</t>
         </is>
       </c>
     </row>
@@ -948,12 +947,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>rg: 76</t>
+          <t>bh: 41</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['0.0003875337']</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -963,12 +962,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pc: 1</t>
+          <t>rv: 80</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -978,12 +977,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>gz: 1</t>
+          <t>kd: 2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -993,12 +992,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>wb: 1</t>
+          <t>hr: 204</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1007,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>yr: 291</t>
+          <t>mn: 20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['0.0014838460']</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1022,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>nw: 11</t>
+          <t>dm: 30</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['0.0000560904']</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -1038,12 +1037,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>lv: 72</t>
+          <t>aj: 175</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['0.0003671371']</t>
+          <t>0.0008923472</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1052,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>eu: 69</t>
+          <t>tx: 2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['0.0003518398']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1067,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jh: 45</t>
+          <t>fn: 4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['0.0002294607']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1082,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>dt: 4</t>
+          <t>xx: 38</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -1098,12 +1097,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mw: 2</t>
+          <t>lf: 22</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -1113,13 +1112,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>l
-: 1314</t>
+          <t>fg: 1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['0.0067002529']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1129,12 +1127,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>or: 1059</t>
+          <t>ha: 2244</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['0.0053999755']</t>
+          <t>0.0114424411</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1142,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>fa: 242</t>
+          <t>yn: 1826</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['0.0012339887']</t>
+          <t>0.0093110060</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1157,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>lp: 15</t>
+          <t>yt: 104</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['0.0000764869']</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -1174,12 +1172,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ir: 849</t>
+          <t>mk: 1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['0.0043291588']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1187,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>zu: 73</t>
+          <t>yw: 4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['0.0003722363']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1204,12 +1202,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cp: 1</t>
+          <t>qm: 2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1217,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ne: 1359</t>
+          <t>wu: 25</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['0.0069297136']</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1232,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>go: 83</t>
+          <t>yp: 15</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['0.0004232275']</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -1249,12 +1247,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>dg: 25</t>
+          <t>pc: 1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['0.0001274782']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1264,12 +1262,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ct: 35</t>
+          <t>xo: 41</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['0.0001784694']</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1277,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>kc: 2</t>
+          <t>nb: 8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -1294,13 +1292,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>a
-: 6640</t>
+          <t>ny: 465</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['0.0338582035']</t>
+          <t>0.0023710941</t>
         </is>
       </c>
     </row>
@@ -1310,12 +1307,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>de: 1283</t>
+          <t>an: 5438</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['0.0065421800']</t>
+          <t>0.0277290528</t>
         </is>
       </c>
     </row>
@@ -1325,13 +1322,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>j
-: 71</t>
+          <t>ze: 373</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['0.0003620380']</t>
+          <t>0.0019019744</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1337,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>hp: 1</t>
+          <t>jd: 4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1352,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ah: 2332</t>
+          <t>d
+: 516</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['0.0118911642']</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1368,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>rt: 208</t>
+          <t>hl: 185</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['0.0010606184']</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1383,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>yp: 15</t>
+          <t>zz: 45</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['0.0000764869']</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1398,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>fy: 14</t>
+          <t>lr: 18</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['0.0000713878']</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1413,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ud: 136</t>
+          <t>xc: 4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['0.0006934813']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1428,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>dz: 1</t>
+          <t>om: 261</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0013308722</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1443,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ub: 103</t>
+          <t>ig: 428</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['0.0005252101']</t>
+          <t>0.0021824264</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1458,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ov: 176</t>
+          <t>ne: 1359</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['0.0008974464']</t>
+          <t>0.0069297136</t>
         </is>
       </c>
     </row>
@@ -1476,12 +1473,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>dy: 317</t>
+          <t>ai: 1650</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['0.0016164233']</t>
+          <t>0.0084135596</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1488,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>qe: 1</t>
+          <t>if: 101</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0005150118</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1503,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>lg: 6</t>
+          <t>uy: 13</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['0.0000305948']</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1518,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rp: 14</t>
+          <t>zl: 123</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['0.0000713878']</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1533,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>to: 667</t>
+          <t>gj: 3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['0.0034011177']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1548,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ac: 470</t>
+          <t>oc: 114</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['0.0023965897']</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1563,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ix: 89</t>
+          <t>yv: 106</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['0.0004538223']</t>
+          <t>0.0005405075</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1578,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bo: 105</t>
+          <t>pj: 1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['0.0005354083']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1596,12 +1593,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>rb: 41</t>
+          <t>yh: 22</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['0.0002090642']</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1608,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ow: 114</t>
+          <t>yd: 272</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['0.0005813005']</t>
+          <t>0.0013869626</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1623,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>wg: 1</t>
+          <t>ey: 1070</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0054560659</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1638,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jk: 2</t>
+          <t>ag: 168</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1653,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>uy: 13</t>
+          <t>cq: 11</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['0.0000662887']</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1668,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bj: 1</t>
+          <t>kj: 2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1683,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>pn: 1</t>
+          <t>lh: 19</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -1701,13 +1698,13 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>e
-: 3983</t>
+          <t>v
+: 88</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['0.0203098230']</t>
+          <t>0.0004487232</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1714,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>gh: 360</t>
+          <t>th: 647</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['0.0018356857']</t>
+          <t>0.0032991352</t>
         </is>
       </c>
     </row>
@@ -1732,12 +1729,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>rk: 90</t>
+          <t>hj: 9</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['0.0004589214']</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -1747,12 +1744,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>fg: 1</t>
+          <t>ru: 252</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0012849800</t>
         </is>
       </c>
     </row>
@@ -1762,12 +1759,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bd: 65</t>
+          <t>dh: 118</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['0.0003314433']</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1774,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ro: 869</t>
+          <t>kw: 34</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['0.0044311414']</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -1792,12 +1789,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jd: 4</t>
+          <t>jk: 2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1804,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>os: 504</t>
+          <t>fk: 2</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['0.0025699600']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1822,12 +1819,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>qo: 2</t>
+          <t>rl: 413</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0021059395</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1834,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>dn: 31</t>
+          <t>yb: 27</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['0.0001580729']</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1849,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>xe: 36</t>
+          <t>un: 275</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['0.0001835686']</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -1867,12 +1864,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>oz: 54</t>
+          <t>hi: 729</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['0.0002753529']</t>
+          <t>0.0037172636</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1879,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>wz: 1</t>
+          <t>oh: 171</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0008719507</t>
         </is>
       </c>
     </row>
@@ -1897,12 +1894,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>dj: 9</t>
+          <t>o
+: 855</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['0.0000458921']</t>
+          <t>0.0043597536</t>
         </is>
       </c>
     </row>
@@ -1912,12 +1910,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ia: 2445</t>
+          <t>sw: 24</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['0.0124673656']</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -1927,12 +1925,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>yv: 106</t>
+          <t>az: 435</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['0.0005405075']</t>
+          <t>0.0022181203</t>
         </is>
       </c>
     </row>
@@ -1942,13 +1940,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>x
-: 163</t>
+          <t>wt: 8</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['0.0008311577']</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -1958,12 +1955,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ca: 815</t>
+          <t>or: 1059</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['0.0041557885']</t>
+          <t>0.0053999755</t>
         </is>
       </c>
     </row>
@@ -1973,12 +1970,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>qs: 2</t>
+          <t>ue: 169</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0008617525</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1985,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>mb: 112</t>
+          <t>pf: 1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>['0.0005711022']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2000,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ak: 568</t>
+          <t>ov: 176</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>['0.0028963042']</t>
+          <t>0.0008974464</t>
         </is>
       </c>
     </row>
@@ -2018,12 +2015,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>on: 2411</t>
+          <t>uo: 10</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>['0.0122939953']</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2030,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ed: 384</t>
+          <t>zi: 364</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>['0.0019580648']</t>
+          <t>0.0018560822</t>
         </is>
       </c>
     </row>
@@ -2048,12 +2045,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>om: 261</t>
+          <t>hd: 24</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>['0.0013308722']</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -2063,12 +2060,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>wt: 8</t>
+          <t>gr: 201</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>['0.0000407930']</t>
+          <t>0.0010249245</t>
         </is>
       </c>
     </row>
@@ -2078,12 +2075,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jt: 2</t>
+          <t>ch: 664</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0033858203</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2090,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ds: 29</t>
+          <t>id: 440</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>['0.0001478747']</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2105,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ot: 118</t>
+          <t>xm: 1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>['0.0006016970']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2120,13 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>hw: 10</t>
+          <t>j
+: 71</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>['0.0000509913']</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -2138,12 +2136,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>oh: 171</t>
+          <t>hm: 117</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['0.0008719507']</t>
+          <t>0.0005965979</t>
         </is>
       </c>
     </row>
@@ -2153,12 +2151,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ok: 68</t>
+          <t>ki: 509</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>['0.0003467406']</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -2168,12 +2166,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ff: 44</t>
+          <t>jt: 2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>['0.0002243616']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2183,12 +2181,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>we: 149</t>
+          <t>io: 588</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>['0.0007597699']</t>
+          <t>0.0029982867</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2196,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>yh: 22</t>
+          <t>tg: 2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>['0.0001121808']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2211,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>dw: 23</t>
+          <t>mz: 11</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>['0.0001172799']</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -2228,12 +2226,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>tt: 374</t>
+          <t>cg: 2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>['0.0019070735']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2241,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>fh: 1</t>
+          <t>fe: 123</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -2258,12 +2256,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ul: 301</t>
+          <t>ji: 119</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>['0.0015348372']</t>
+          <t>0.0006067961</t>
         </is>
       </c>
     </row>
@@ -2273,12 +2271,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>uk: 93</t>
+          <t>di: 674</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>['0.0004742188']</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2286,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ms: 35</t>
+          <t>is: 1316</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['0.0001784694']</t>
+          <t>0.0067104512</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2301,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>qi: 13</t>
+          <t>ls: 94</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>['0.0000662887']</t>
+          <t>0.0004793179</t>
         </is>
       </c>
     </row>
@@ -2318,12 +2316,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ga: 330</t>
+          <t>gf: 1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>['0.0016827119']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2331,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>un: 275</t>
+          <t>ua: 163</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>['0.0014022599']</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -2348,12 +2346,13 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>gu: 85</t>
+          <t>y
+: 2007</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>['0.0004334258']</t>
+          <t>0.0102339479</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2362,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>wd: 8</t>
+          <t>wo: 36</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['0.0000407930']</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -2378,12 +2377,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>zn: 4</t>
+          <t>sq: 1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2393,12 +2392,13 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>df: 5</t>
+          <t>a
+: 6640</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>['0.0000254956']</t>
+          <t>0.0338582035</t>
         </is>
       </c>
     </row>
@@ -2408,12 +2408,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ph: 204</t>
+          <t>lg: 6</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>['0.0010402219']</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -2423,12 +2423,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>zv: 2</t>
+          <t>cy: 104</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -2438,12 +2438,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>nr: 44</t>
+          <t>ht: 71</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['0.0002243616']</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>pi: 61</t>
+          <t>ux: 34</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>['0.0003110467']</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>iw: 8</t>
+          <t>ud: 136</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>['0.0000407930']</t>
+          <t>0.0006934813</t>
         </is>
       </c>
     </row>
@@ -2483,12 +2483,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ol: 619</t>
+          <t>ur: 414</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>['0.0031563596']</t>
+          <t>0.0021110386</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>tu: 78</t>
+          <t>oi: 69</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>['0.0003977319']</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -2513,12 +2513,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>vb: 1</t>
+          <t>jv: 5</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -2528,12 +2528,13 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ap: 82</t>
+          <t>p
+: 33</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>['0.0004181284']</t>
+          <t>0.0001682712</t>
         </is>
       </c>
     </row>
@@ -2543,12 +2544,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ax: 182</t>
+          <t>ef: 82</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>['0.0009280411']</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -2558,12 +2559,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>nt: 443</t>
+          <t>zs: 4</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>['0.0022589133']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2573,12 +2574,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>dc: 3</t>
+          <t>ic: 509</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -2588,12 +2589,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>at: 687</t>
+          <t>xy: 30</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>['0.0035031003']</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2604,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>us: 474</t>
+          <t>sz: 10</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>['0.0024169862']</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -2618,12 +2619,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>fs: 6</t>
+          <t>yf: 12</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>['0.0000305948']</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -2633,12 +2634,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>tm: 4</t>
+          <t>zw: 3</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2648,12 +2649,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>yg: 30</t>
+          <t>co: 380</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>['0.0001529738']</t>
+          <t>0.0019376683</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2664,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>gv: 1</t>
+          <t>sp: 51</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -2678,12 +2679,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ai: 1650</t>
+          <t>lb: 52</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>['0.0084135596']</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2694,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ql: 1</t>
+          <t>xb: 1</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2709,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>wy: 73</t>
+          <t>fl: 20</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>['0.0003722363']</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2724,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>sh: 1285</t>
+          <t>rc: 99</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>['0.0065523782']</t>
+          <t>0.0005048136</t>
         </is>
       </c>
     </row>
@@ -2738,12 +2739,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ew: 50</t>
+          <t>pi: 61</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>['0.0002549564']</t>
+          <t>0.0003110467</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2754,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>js: 7</t>
+          <t>nd: 704</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>['0.0000356939']</t>
+          <t>0.0035897854</t>
         </is>
       </c>
     </row>
@@ -2768,12 +2769,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>wr: 22</t>
+          <t>po: 59</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>['0.0001121808']</t>
+          <t>0.0003008485</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2784,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>rh: 121</t>
+          <t>hb: 8</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>['0.0006169944']</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -2798,12 +2799,13 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ck: 316</t>
+          <t>x
+: 163</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>['0.0016113241']</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -2813,12 +2815,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ku: 50</t>
+          <t>ub: 103</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>['0.0002549564']</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -2828,12 +2830,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>jo: 479</t>
+          <t>zh: 43</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>['0.0024424818']</t>
+          <t>0.0002192625</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2845,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ch: 664</t>
+          <t>zm: 35</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>['0.0033858203']</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2860,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>sw: 24</t>
+          <t>ih: 95</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>['0.0001223790']</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2875,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>fn: 4</t>
+          <t>nj: 44</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2890,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>jp: 1</t>
+          <t>he: 674</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -2903,12 +2905,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ag: 168</t>
+          <t>kl: 139</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>['0.0008566533']</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -2918,12 +2920,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>rv: 80</t>
+          <t>tv: 15</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>['0.0004079302']</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -2933,12 +2935,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>sv: 14</t>
+          <t>qu: 206</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>['0.0000713878']</t>
+          <t>0.0010504202</t>
         </is>
       </c>
     </row>
@@ -2948,12 +2950,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>lj: 6</t>
+          <t>hz: 20</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['0.0000305948']</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -2963,12 +2965,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>tf: 2</t>
+          <t>pl: 16</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -2978,12 +2980,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>bl: 103</t>
+          <t>ae: 692</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['0.0005252101']</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -2993,12 +2995,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>la: 2623</t>
+          <t>wg: 1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>['0.0133750102']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3008,13 +3010,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>k
-: 363</t>
+          <t>xl: 39</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>['0.0018509831']</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -3024,12 +3025,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>sn: 24</t>
+          <t>nl: 195</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>['0.0001223790']</t>
+          <t>0.0009943298</t>
         </is>
       </c>
     </row>
@@ -3039,12 +3040,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>pt: 17</t>
+          <t>ci: 271</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>['0.0000866852']</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3055,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>al: 2528</t>
+          <t>fy: 14</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>['0.0128905931']</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -3069,12 +3070,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>kz: 2</t>
+          <t>mb: 112</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0005711022</t>
         </is>
       </c>
     </row>
@@ -3084,12 +3085,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>mv: 3</t>
+          <t>bo: 105</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -3099,12 +3100,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>eq: 14</t>
+          <t>je: 440</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>['0.0000713878']</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -3114,12 +3115,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>vv: 7</t>
+          <t>on: 2411</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>['0.0000356939']</t>
+          <t>0.0122939953</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3130,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>tc: 17</t>
+          <t>dg: 25</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>['0.0000866852']</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3145,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ou: 275</t>
+          <t>jr: 11</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>['0.0014022599']</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3160,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ek: 178</t>
+          <t>oj: 16</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>['0.0009076446']</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3175,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>zx: 1</t>
+          <t>qa: 13</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -3189,12 +3190,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ny: 465</t>
+          <t>wf: 2</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>['0.0023710941']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3204,12 +3205,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>uw: 86</t>
+          <t>eh: 152</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>['0.0004385249']</t>
+          <t>0.0007750673</t>
         </is>
       </c>
     </row>
@@ -3219,12 +3220,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>sg: 2</t>
+          <t>gb: 3</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3235,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>xz: 19</t>
+          <t>eb: 121</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>['0.0000968834']</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3250,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ns: 278</t>
+          <t>no: 496</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>['0.0014175573']</t>
+          <t>0.0025291670</t>
         </is>
       </c>
     </row>
@@ -3264,12 +3265,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>cl: 116</t>
+          <t>tl: 134</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>['0.0005914987']</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3280,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>zc: 2</t>
+          <t>ho: 287</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -3294,13 +3295,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>n
-: 6763</t>
+          <t>rp: 14</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>['0.0344853961']</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -3310,12 +3310,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>af: 134</t>
+          <t>rm: 162</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>['0.0006832830']</t>
+          <t>0.0008260586</t>
         </is>
       </c>
     </row>
@@ -3325,12 +3325,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>rz: 23</t>
+          <t>rh: 121</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>['0.0001172799']</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -3340,12 +3340,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>oa: 149</t>
+          <t>es: 861</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>['0.0007597699']</t>
+          <t>0.0043903484</t>
         </is>
       </c>
     </row>
@@ -3355,12 +3355,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>it: 541</t>
+          <t>so: 531</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>['0.0027586277']</t>
+          <t>0.0027076365</t>
         </is>
       </c>
     </row>
@@ -3370,12 +3370,13 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>qu: 206</t>
+          <t>u
+: 155</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>['0.0010504202']</t>
+          <t>0.0007903647</t>
         </is>
       </c>
     </row>
@@ -3385,12 +3386,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ry: 773</t>
+          <t>iy: 779</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>['0.0039416252']</t>
+          <t>0.0039722200</t>
         </is>
       </c>
     </row>
@@ -3400,12 +3401,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>kn: 26</t>
+          <t>pn: 1</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>['0.0001325773']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3416,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>nd: 704</t>
+          <t>ks: 95</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>['0.0035897854']</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -3430,12 +3431,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>hl: 185</t>
+          <t>sl: 279</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>['0.0009433385']</t>
+          <t>0.0014226564</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3446,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>xc: 4</t>
+          <t>lq: 3</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -3460,12 +3461,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>nq: 2</t>
+          <t>ma: 2590</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0132067390</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3476,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>pl: 16</t>
+          <t>tr: 352</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>['0.0000815860']</t>
+          <t>0.0017948927</t>
         </is>
       </c>
     </row>
@@ -3490,12 +3491,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>wa: 280</t>
+          <t>lu: 324</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>['0.0014277556']</t>
+          <t>0.0016521172</t>
         </is>
       </c>
     </row>
@@ -3505,12 +3506,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>nj: 44</t>
+          <t>wa: 280</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>['0.0002243616']</t>
+          <t>0.0014277556</t>
         </is>
       </c>
     </row>
@@ -3520,12 +3521,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>gm: 6</t>
+          <t>er: 1958</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>['0.0000305948']</t>
+          <t>0.0099840907</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3536,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>lw: 16</t>
+          <t>sr: 55</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>['0.0000815860']</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -3550,12 +3551,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>lm: 60</t>
+          <t>yi: 192</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>['0.0003059476']</t>
+          <t>0.0009790324</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3566,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>rj: 25</t>
+          <t>df: 5</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>['0.0001274782']</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -3580,12 +3581,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ii: 82</t>
+          <t>na: 2977</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>['0.0004181284']</t>
+          <t>0.0151801012</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3596,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>fu: 10</t>
+          <t>ty: 341</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>['0.0000509913']</t>
+          <t>0.0017388023</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3611,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>km: 9</t>
+          <t>zo: 110</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>['0.0000458921']</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3626,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>vh: 1</t>
+          <t>ja: 1473</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0075110141</t>
         </is>
       </c>
     </row>
@@ -3640,12 +3641,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>db: 1</t>
+          <t>wn: 58</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3656,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>wl: 13</t>
+          <t>jo: 479</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>['0.0000662887']</t>
+          <t>0.0024424818</t>
         </is>
       </c>
     </row>
@@ -3670,12 +3671,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>zh: 43</t>
+          <t>bj: 1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>['0.0002192625']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3685,12 +3686,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ll: 1345</t>
+          <t>sm: 90</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>['0.0068583259']</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -3700,12 +3701,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>xm: 1</t>
+          <t>ik: 445</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0022691115</t>
         </is>
       </c>
     </row>
@@ -3715,12 +3716,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>zr: 32</t>
+          <t>kb: 2</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>['0.0001631721']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3730,13 +3731,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>u
-: 155</t>
+          <t>ix: 89</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>['0.0007903647']</t>
+          <t>0.0004538223</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3746,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>uc: 103</t>
+          <t>ln: 14</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>['0.0005252101']</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ae: 692</t>
+          <t>yc: 115</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>['0.0035285959']</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>eh: 152</t>
+          <t>jn: 2</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>['0.0007750673']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3791,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>cx: 3</t>
+          <t>ak: 568</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -3806,12 +3806,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>jm: 5</t>
+          <t>mi: 1256</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>['0.0000254956']</t>
+          <t>0.0064045035</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3821,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>oj: 16</t>
+          <t>rr: 425</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>['0.0000815860']</t>
+          <t>0.0021671290</t>
         </is>
       </c>
     </row>
@@ -3836,12 +3836,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>hj: 9</t>
+          <t>up: 16</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>['0.0000458921']</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3851,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>wm: 2</t>
+          <t>xs: 31</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -3866,12 +3866,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>mc: 51</t>
+          <t>vd: 1</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>['0.0002600555']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3881,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ft: 18</t>
+          <t>vy: 121</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>['0.0000917843']</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -3896,12 +3896,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>tj: 3</t>
+          <t>br: 842</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0042934650</t>
         </is>
       </c>
     </row>
@@ -3911,12 +3911,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>en: 2675</t>
+          <t>ez: 181</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>['0.0136401648']</t>
+          <t>0.0009229420</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>br: 842</t>
+          <t>bb: 38</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>['0.0042934650']</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>pf: 1</t>
+          <t>ct: 35</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>su: 185</t>
+          <t>tz: 105</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>['0.0009433385']</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>pp: 39</t>
+          <t>jb: 1</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>['0.0001988660']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3986,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ld: 138</t>
+          <t>xn: 1</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>['0.0007036795']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4001,12 +4001,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ve: 568</t>
+          <t>pe: 197</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>['0.0028963042']</t>
+          <t>0.0010045280</t>
         </is>
       </c>
     </row>
@@ -4016,12 +4016,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>te: 716</t>
+          <t>ir: 849</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>['0.0036509750']</t>
+          <t>0.0043291588</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,13 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ar: 3264</t>
+          <t>g
+: 108</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>['0.0166435506']</t>
+          <t>0.0005507057</t>
         </is>
       </c>
     </row>
@@ -4046,12 +4047,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>vu: 7</t>
+          <t>vb: 1</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>['0.0000356939']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4062,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ce: 551</t>
+          <t>dr: 424</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>['0.0028096190']</t>
+          <t>0.0021620299</t>
         </is>
       </c>
     </row>
@@ -4076,12 +4077,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>fo: 60</t>
+          <t>tb: 1</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>['0.0003059476']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4091,12 +4092,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>re: 1697</t>
+          <t>mc: 51</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>['0.0086532186']</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -4106,12 +4107,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>aj: 175</t>
+          <t>uj: 14</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>['0.0008923472']</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4122,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ho: 287</t>
+          <t>ip: 53</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>['0.0014634495']</t>
+          <t>0.0002702537</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4137,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>mk: 1</t>
+          <t>gz: 1</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4151,12 +4152,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ik: 445</t>
+          <t>bn: 4</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>['0.0022691115']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4166,12 +4167,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>mm: 168</t>
+          <t>xw: 3</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>['0.0008566533']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4182,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>yt: 104</t>
+          <t>np: 5</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>['0.0005303092']</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -4196,12 +4197,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>zj: 2</t>
+          <t>cl: 116</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0005914987</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4212,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ja: 1473</t>
+          <t>rt: 208</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>['0.0075110141']</t>
+          <t>0.0010606184</t>
         </is>
       </c>
     </row>
@@ -4226,12 +4227,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ru: 252</t>
+          <t>fu: 10</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>['0.0012849800']</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4242,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>me: 818</t>
+          <t>vu: 7</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>['0.0041710859']</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -4256,12 +4257,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>jb: 1</t>
+          <t>re: 1697</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0086532186</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4272,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>iz: 277</t>
+          <t>qe: 1</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>['0.0014124582']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4286,12 +4287,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>hb: 8</t>
+          <t>ug: 47</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>['0.0000407930']</t>
+          <t>0.0002396590</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4302,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>mn: 20</t>
+          <t>bl: 103</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>['0.0001019825']</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4317,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>gb: 3</t>
+          <t>aq: 60</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -4331,12 +4332,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>og: 44</t>
+          <t>ac: 470</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>['0.0002243616']</t>
+          <t>0.0023965897</t>
         </is>
       </c>
     </row>
@@ -4346,12 +4347,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>gt: 31</t>
+          <t>yz: 78</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>['0.0001580729']</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4362,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>pj: 1</t>
+          <t>ke: 895</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0045637187</t>
         </is>
       </c>
     </row>
@@ -4376,12 +4377,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>cg: 2</t>
+          <t>aa: 556</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0028351146</t>
         </is>
       </c>
     </row>
@@ -4391,12 +4392,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>iy: 779</t>
+          <t>as: 1118</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>['0.0039722200']</t>
+          <t>0.0057008240</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4407,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>kk: 20</t>
+          <t>le: 2921</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>['0.0001019825']</t>
+          <t>0.0148945501</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4422,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>yc: 115</t>
+          <t>nm: 19</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>['0.0005863996']</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4437,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>sa: 1201</t>
+          <t>ek: 178</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>['0.0061240516']</t>
+          <t>0.0009076446</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4452,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>uo: 10</t>
+          <t>la: 2623</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>['0.0000509913']</t>
+          <t>0.0133750102</t>
         </is>
       </c>
     </row>
@@ -4466,12 +4467,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ox: 45</t>
+          <t>va: 642</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>['0.0002294607']</t>
+          <t>0.0032736396</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4482,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>jl: 9</t>
+          <t>pb: 2</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>['0.0000458921']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4496,12 +4497,13 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ha: 2244</t>
+          <t>q
+: 28</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>['0.0114424411']</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -4511,12 +4513,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>aw: 161</t>
+          <t>cc: 42</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>['0.0008209595']</t>
+          <t>0.0002141633</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4528,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>eb: 121</t>
+          <t>ul: 301</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>['0.0006169944']</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -4541,12 +4543,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>od: 190</t>
+          <t>sf: 2</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>['0.0009688341']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4556,12 +4558,13 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>qa: 13</t>
+          <t>c
+: 97</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>['0.0000662887']</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -4571,12 +4574,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>oi: 69</t>
+          <t>fs: 6</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>['0.0003518398']</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -4586,12 +4589,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>bh: 41</t>
+          <t>ee: 1271</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>['0.0002090642']</t>
+          <t>0.0064809905</t>
         </is>
       </c>
     </row>
@@ -4601,12 +4604,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>rc: 99</t>
+          <t>ou: 275</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>['0.0005048136']</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -4616,12 +4619,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ie: 1653</t>
+          <t>dq: 1</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>['0.0084288570']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4634,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>kt: 17</t>
+          <t>uh: 58</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>['0.0000866852']</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -4646,12 +4649,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>rr: 425</t>
+          <t>qr: 1</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>['0.0021671290']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4664,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>tl: 134</t>
+          <t>ab: 541</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>['0.0006832830']</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -4676,12 +4679,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ao: 63</t>
+          <t>sn: 24</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>['0.0003212450']</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4694,13 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>wh: 23</t>
+          <t>r
+: 1377</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>['0.0001172799']</t>
+          <t>0.0070214979</t>
         </is>
       </c>
     </row>
@@ -4706,12 +4710,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>yd: 272</t>
+          <t>ut: 82</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>['0.0013869626']</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4725,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>il: 1345</t>
+          <t>xt: 70</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>['0.0068583259']</t>
+          <t>0.0003569389</t>
         </is>
       </c>
     </row>
@@ -4736,12 +4740,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>kr: 109</t>
+          <t>fa: 242</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>['0.0005558048']</t>
+          <t>0.0012339887</t>
         </is>
       </c>
     </row>
@@ -4751,12 +4755,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ih: 95</t>
+          <t>ox: 45</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>['0.0004844171']</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4770,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ks: 95</t>
+          <t>hn: 138</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>['0.0004844171']</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -4781,12 +4785,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>va: 642</t>
+          <t>kt: 17</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>['0.0032736396']</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -4796,12 +4800,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>rf: 9</t>
+          <t>tj: 3</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>['0.0000458921']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4815,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>jy: 10</t>
+          <t>iv: 269</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>['0.0000509913']</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -4826,12 +4830,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>sf: 2</t>
+          <t>qs: 2</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4841,12 +4845,13 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>do: 378</t>
+          <t>e
+: 3983</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>['0.0019274700']</t>
+          <t>0.0203098230</t>
         </is>
       </c>
     </row>
@@ -4856,12 +4861,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>lf: 22</t>
+          <t>yl: 1104</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>['0.0001121808']</t>
+          <t>0.0056294362</t>
         </is>
       </c>
     </row>
@@ -4871,12 +4876,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>lc: 25</t>
+          <t>mw: 2</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>['0.0001274782']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4886,13 +4891,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>g
-: 108</t>
+          <t>pr: 151</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>['0.0005507057']</t>
+          <t>0.0007699682</t>
         </is>
       </c>
     </row>
@@ -4902,12 +4906,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ke: 895</t>
+          <t>hv: 39</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>['0.0045637187']</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -4917,12 +4921,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>eg: 125</t>
+          <t>zd: 2</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>['0.0006373909']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4932,12 +4936,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>zl: 123</t>
+          <t>ly: 1588</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>['0.0006271926']</t>
+          <t>0.0080974137</t>
         </is>
       </c>
     </row>
@@ -4947,12 +4951,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>xy: 30</t>
+          <t>ya: 2143</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>['0.0001529738']</t>
+          <t>0.0109274292</t>
         </is>
       </c>
     </row>
@@ -4962,12 +4966,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>wi: 148</t>
+          <t>qw: 3</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>['0.0007546708']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4981,13 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>bu: 45</t>
+          <t>h
+: 2409</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>['0.0002294607']</t>
+          <t>0.0122837970</t>
         </is>
       </c>
     </row>
@@ -4992,12 +4997,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>mj: 7</t>
+          <t>fw: 4</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>['0.0000356939']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5007,12 +5012,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ge: 334</t>
+          <t>mh: 5</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>['0.0017031084']</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -5022,12 +5027,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>vi: 911</t>
+          <t>su: 185</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>['0.0046453047']</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -5037,12 +5042,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ux: 34</t>
+          <t>tn: 22</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>['0.0001733703']</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -5052,12 +5057,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>uh: 58</t>
+          <t>mt: 4</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>['0.0002957494']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5067,12 +5072,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>rw: 21</t>
+          <t>lc: 25</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>['0.0001070817']</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -5082,12 +5087,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>gg: 25</t>
+          <t>ys: 401</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>['0.0001274782']</t>
+          <t>0.0020447499</t>
         </is>
       </c>
     </row>
@@ -5097,12 +5102,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>rq: 16</t>
+          <t>xe: 36</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>['0.0000815860']</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -5112,12 +5117,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ng: 273</t>
+          <t>yk: 86</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>['0.0013920617']</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -5127,12 +5132,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>lt: 77</t>
+          <t>ng: 273</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>['0.0003926328']</t>
+          <t>0.0013920617</t>
         </is>
       </c>
     </row>
@@ -5142,12 +5147,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>nc: 213</t>
+          <t>pp: 39</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>['0.0010861141']</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5162,13 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>yq: 6</t>
+          <t>l
+: 1314</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>['0.0000305948']</t>
+          <t>0.0067002529</t>
         </is>
       </c>
     </row>
@@ -5172,12 +5178,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>yf: 12</t>
+          <t>dv: 17</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>['0.0000611895']</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -5187,12 +5193,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>fz: 2</t>
+          <t>js: 7</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -5202,12 +5208,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>so: 531</t>
+          <t>ad: 1042</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>['0.0027076365']</t>
+          <t>0.0053132904</t>
         </is>
       </c>
     </row>
@@ -5217,13 +5223,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>p
-: 33</t>
+          <t>pu: 4</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>['0.0001682712']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5233,13 +5238,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>w
-: 51</t>
+          <t>pm: 1</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>['0.0002600555']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5249,12 +5253,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>kd: 2</t>
+          <t>uc: 103</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -5264,13 +5268,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>z
-: 160</t>
+          <t>et: 580</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>['0.0008158603']</t>
+          <t>0.0029574937</t>
         </is>
       </c>
     </row>
@@ -5280,12 +5283,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>xf: 3</t>
+          <t>uu: 3</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5295,12 +5298,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>mf: 1</t>
+          <t>gv: 1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5310,12 +5313,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>fw: 4</t>
+          <t>ed: 384</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0019580648</t>
         </is>
       </c>
     </row>
@@ -5325,12 +5328,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>io: 588</t>
+          <t>oz: 54</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>['0.0029982867']</t>
+          <t>0.0002753529</t>
         </is>
       </c>
     </row>
@@ -5340,12 +5343,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>th: 647</t>
+          <t>do: 378</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>['0.0032991352']</t>
+          <t>0.0019274700</t>
         </is>
       </c>
     </row>
@@ -5355,12 +5358,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>gd: 19</t>
+          <t>zy: 147</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>['0.0000968834']</t>
+          <t>0.0007495717</t>
         </is>
       </c>
     </row>
@@ -5370,12 +5373,13 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ws: 20</t>
+          <t>n
+: 6763</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>['0.0001019825']</t>
+          <t>0.0344853961</t>
         </is>
       </c>
     </row>
@@ -5385,12 +5389,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>yu: 141</t>
+          <t>nz: 145</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>['0.0007189769']</t>
+          <t>0.0007393734</t>
         </is>
       </c>
     </row>
@@ -5400,12 +5404,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>fr: 114</t>
+          <t>nx: 6</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>['0.0005813005']</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -5415,12 +5419,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>nl: 195</t>
+          <t>yr: 291</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>['0.0009943298']</t>
+          <t>0.0014838460</t>
         </is>
       </c>
     </row>
@@ -5430,12 +5434,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>gn: 27</t>
+          <t>hu: 166</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>['0.0001376764']</t>
+          <t>0.0008464551</t>
         </is>
       </c>
     </row>
@@ -5445,12 +5449,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>xo: 41</t>
+          <t>pk: 1</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>['0.0002090642']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5460,12 +5464,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>cc: 42</t>
+          <t>tt: 374</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>['0.0002141633']</t>
+          <t>0.0019070735</t>
         </is>
       </c>
     </row>
@@ -5475,12 +5479,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>an: 5438</t>
+          <t>lp: 15</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>['0.0277290528']</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -5490,12 +5494,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>ib: 110</t>
+          <t>wm: 2</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>['0.0005609040']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5505,12 +5509,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ri: 3033</t>
+          <t>xi: 102</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>['0.0154656523']</t>
+          <t>0.0005201110</t>
         </is>
       </c>
     </row>
@@ -5520,12 +5524,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>cd: 1</t>
+          <t>nw: 11</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5539,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>lb: 52</t>
+          <t>rb: 41</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>['0.0002651546']</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -5550,12 +5554,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>sz: 10</t>
+          <t>zk: 2</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>['0.0000509913']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5565,12 +5569,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ww: 2</t>
+          <t>hf: 2</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5580,12 +5584,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>di: 674</t>
+          <t>au: 381</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>['0.0034368116']</t>
+          <t>0.0019427674</t>
         </is>
       </c>
     </row>
@@ -5595,13 +5599,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>b
-: 114</t>
+          <t>iz: 277</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>['0.0005813005']</t>
+          <t>0.0014124582</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5614,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>vd: 1</t>
+          <t>sa: 1201</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0061240516</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5629,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>si: 684</t>
+          <t>ju: 202</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>['0.0034878029']</t>
+          <t>0.0010300237</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5644,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>ua: 163</t>
+          <t>ku: 50</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>['0.0008311577']</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5659,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>oe: 132</t>
+          <t>uq: 10</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>['0.0006730848']</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -5671,13 +5674,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>r
-: 1377</t>
+          <t>uf: 19</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>['0.0070214979']</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5689,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>rs: 190</t>
+          <t>eg: 125</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>['0.0009688341']</t>
+          <t>0.0006373909</t>
         </is>
       </c>
     </row>
@@ -5702,12 +5704,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>xa: 103</t>
+          <t>sv: 14</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>['0.0005252101']</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -5717,12 +5719,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>ra: 2356</t>
+          <t>ga: 330</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>['0.0120135433']</t>
+          <t>0.0016827119</t>
         </is>
       </c>
     </row>
@@ -5732,12 +5734,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>wf: 2</t>
+          <t>ds: 29</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -5747,12 +5749,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>ys: 401</t>
+          <t>my: 287</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>['0.0020447499']</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -5762,12 +5764,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>ps: 16</t>
+          <t>rz: 23</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>['0.0000815860']</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -5777,12 +5779,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ci: 271</t>
+          <t>tf: 2</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>['0.0013818634']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5792,12 +5794,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>za: 860</t>
+          <t>iu: 109</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>['0.0043852492']</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -5807,12 +5809,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>sk: 82</t>
+          <t>kk: 20</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>['0.0004181284']</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -5822,12 +5824,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>au: 381</t>
+          <t>ms: 35</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>['0.0019427674']</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5839,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>iv: 269</t>
+          <t>pa: 209</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>['0.0013716652']</t>
+          <t>0.0010657175</t>
         </is>
       </c>
     </row>
@@ -5852,12 +5854,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>by: 83</t>
+          <t>ye: 301</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>['0.0004232275']</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -5867,13 +5869,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>d
-: 516</t>
+          <t>zt: 4</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>['0.0026311495']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5883,12 +5884,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>rm: 162</t>
+          <t>jm: 5</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>['0.0008260586']</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5899,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>nm: 19</t>
+          <t>us: 474</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>['0.0000968834']</t>
+          <t>0.0024169862</t>
         </is>
       </c>
     </row>
@@ -5913,12 +5914,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>bt: 2</t>
+          <t>yx: 28</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -5928,12 +5929,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>tv: 15</t>
+          <t>jp: 1</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>['0.0000764869']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5943,12 +5944,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>rl: 413</t>
+          <t>du: 92</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>['0.0021059395']</t>
+          <t>0.0004691197</t>
         </is>
       </c>
     </row>
@@ -5958,12 +5959,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>xt: 70</t>
+          <t>se: 884</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>['0.0003569389']</t>
+          <t>0.0045076283</t>
         </is>
       </c>
     </row>
@@ -5973,12 +5974,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>hr: 204</t>
+          <t>ar: 3264</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>['0.0010402219']</t>
+          <t>0.0166435506</t>
         </is>
       </c>
     </row>
@@ -5988,12 +5989,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>sm: 90</t>
+          <t>eu: 69</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>['0.0004589214']</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -6003,12 +6004,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>be: 655</t>
+          <t>zc: 2</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>['0.0033399282']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6018,12 +6019,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>lh: 19</t>
+          <t>aw: 161</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>['0.0000968834']</t>
+          <t>0.0008209595</t>
         </is>
       </c>
     </row>
@@ -6033,12 +6034,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>tg: 2</t>
+          <t>em: 769</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0039212287</t>
         </is>
       </c>
     </row>
@@ -6048,12 +6049,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>xh: 1</t>
+          <t>sd: 9</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -6063,13 +6064,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>o
-: 855</t>
+          <t>cj: 3</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>['0.0043597536']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -6079,12 +6079,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>yx: 28</t>
+          <t>ni: 1725</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>['0.0001427756']</t>
+          <t>0.0087959941</t>
         </is>
       </c>
     </row>
@@ -6094,12 +6094,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>zb: 4</t>
+          <t>zj: 2</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6109,12 +6109,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>av: 834</t>
+          <t>rj: 25</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>['0.0042526719']</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -6124,12 +6124,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>sj: 2</t>
+          <t>gw: 26</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -6139,12 +6139,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>xb: 1</t>
+          <t>gt: 31</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -6154,12 +6154,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>cu: 35</t>
+          <t>gy: 31</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>['0.0001784694']</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -6169,12 +6169,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>hg: 2</t>
+          <t>ew: 50</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -6184,12 +6184,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>nk: 58</t>
+          <t>ap: 82</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>['0.0002957494']</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6199,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>da: 1303</t>
+          <t>yg: 30</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>['0.0066441625']</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -6214,12 +6214,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>wn: 58</t>
+          <t>lz: 10</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>['0.0002957494']</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -6229,12 +6229,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>yz: 78</t>
+          <t>tc: 17</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>['0.0003977319']</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -6244,13 +6244,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>q
-: 28</t>
+          <t>iw: 8</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>['0.0001427756']</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6259,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>no: 496</t>
+          <t>ra: 2356</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>['0.0025291670']</t>
+          <t>0.0120135433</t>
         </is>
       </c>
     </row>
@@ -6275,13 +6274,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>t
-: 483</t>
+          <t>ce: 551</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>['0.0024628784']</t>
+          <t>0.0028096190</t>
         </is>
       </c>
     </row>
@@ -6291,12 +6289,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>ug: 47</t>
+          <t>ba: 321</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>['0.0002396590']</t>
+          <t>0.0016368198</t>
         </is>
       </c>
     </row>
@@ -6306,12 +6304,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>ez: 181</t>
+          <t>ij: 76</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>['0.0009229420']</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -6321,12 +6319,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>el: 3248</t>
+          <t>ry: 773</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>['0.0165619646']</t>
+          <t>0.0039416252</t>
         </is>
       </c>
     </row>
@@ -6336,12 +6334,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>gi: 190</t>
+          <t>jy: 10</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>['0.0009688341']</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -6351,13 +6349,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>m
-: 516</t>
+          <t>od: 190</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>['0.0026311495']</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -6367,12 +6364,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>hy: 213</t>
+          <t>hg: 2</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>['0.0010861141']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6382,12 +6379,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>xx: 38</t>
+          <t>ui: 121</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>['0.0001937668']</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -6397,12 +6394,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ad: 1042</t>
+          <t>rd: 187</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>['0.0053132904']</t>
+          <t>0.0009535368</t>
         </is>
       </c>
     </row>
@@ -6412,12 +6409,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>ij: 76</t>
+          <t>qo: 2</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>['0.0003875337']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6424,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>mo: 452</t>
+          <t>op: 95</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>['0.0023048054']</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -6442,12 +6439,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>zy: 147</t>
+          <t>kv: 2</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>['0.0007495717']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6457,12 +6454,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>oc: 114</t>
+          <t>bc: 1</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>['0.0005813005']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6472,12 +6469,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>wu: 25</t>
+          <t>rf: 9</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>['0.0001274782']</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -6487,12 +6484,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>zp: 2</t>
+          <t>wd: 8</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -6502,12 +6499,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>lu: 324</t>
+          <t>dn: 31</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>['0.0016521172']</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -6517,12 +6514,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>nx: 6</t>
+          <t>lt: 77</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>['0.0000305948']</t>
+          <t>0.0003926328</t>
         </is>
       </c>
     </row>
@@ -6532,12 +6529,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>fe: 123</t>
+          <t>te: 716</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>['0.0006271926']</t>
+          <t>0.0036509750</t>
         </is>
       </c>
     </row>
@@ -6547,12 +6544,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>zo: 110</t>
+          <t>zb: 4</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>['0.0005609040']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -6562,12 +6559,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>az: 435</t>
+          <t>sk: 82</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>['0.0022181203']</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -6577,12 +6574,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ue: 169</t>
+          <t>wz: 1</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>['0.0008617525']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6592,12 +6589,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>xw: 3</t>
+          <t>jl: 9</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -6607,12 +6604,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>hh: 1</t>
+          <t>ph: 204</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -6622,12 +6619,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>ip: 53</t>
+          <t>vn: 8</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>['0.0002702537']</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6634,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>rd: 187</t>
+          <t>dt: 4</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>['0.0009535368']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -6652,12 +6649,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>mh: 5</t>
+          <t>dl: 60</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>['0.0000254956']</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -6667,12 +6664,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>hs: 31</t>
+          <t>il: 1345</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>['0.0001580729']</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -6682,12 +6679,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>hd: 24</t>
+          <t>rn: 140</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>['0.0001223790']</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -6697,12 +6694,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ob: 140</t>
+          <t>rs: 190</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>['0.0007138778']</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -6712,12 +6709,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>du: 92</t>
+          <t>hc: 2</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>['0.0004691197']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6727,12 +6724,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>am: 1634</t>
+          <t>ro: 869</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>['0.0083319736']</t>
+          <t>0.0044311414</t>
         </is>
       </c>
     </row>
@@ -6742,12 +6739,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>yk: 86</t>
+          <t>ow: 114</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>['0.0004385249']</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -6757,12 +6754,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>hu: 166</t>
+          <t>ns: 278</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>['0.0008464551']</t>
+          <t>0.0014175573</t>
         </is>
       </c>
     </row>
@@ -6772,12 +6769,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>yl: 1104</t>
+          <t>nv: 55</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>['0.0056294362']</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6784,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ly: 1588</t>
+          <t>vl: 14</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>['0.0080974137']</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -6802,12 +6799,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>hn: 138</t>
+          <t>hp: 1</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>['0.0007036795']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6817,12 +6814,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>if: 101</t>
+          <t>ia: 2445</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>['0.0005150118']</t>
+          <t>0.0124673656</t>
         </is>
       </c>
     </row>
@@ -6832,12 +6829,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>sq: 1</t>
+          <t>rq: 16</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -6847,12 +6844,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ya: 2143</t>
+          <t>ww: 2</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>['0.0109274292']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6862,12 +6859,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>aa: 556</t>
+          <t>nq: 2</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>['0.0028351146']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6877,12 +6874,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>bs: 8</t>
+          <t>yy: 23</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>['0.0000407930']</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -6892,12 +6889,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>kb: 2</t>
+          <t>ec: 153</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -6907,12 +6904,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ki: 509</t>
+          <t>wk: 6</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>['0.0025954557']</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -6922,12 +6919,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>is: 1316</t>
+          <t>ge: 334</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>['0.0067104512']</t>
+          <t>0.0017031084</t>
         </is>
       </c>
     </row>
@@ -6937,12 +6934,13 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>co: 380</t>
+          <t>z
+: 160</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>['0.0019376683']</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -6952,12 +6950,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>ko: 344</t>
+          <t>el: 3248</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>['0.0017540997']</t>
+          <t>0.0165619646</t>
         </is>
       </c>
     </row>
@@ -6967,12 +6965,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ht: 71</t>
+          <t>bi: 217</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>['0.0003620380']</t>
+          <t>0.0011065106</t>
         </is>
       </c>
     </row>
@@ -6982,12 +6980,13 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>lk: 24</t>
+          <t>i
+: 2489</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>['0.0001223790']</t>
+          <t>0.0126917272</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6996,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>up: 16</t>
+          <t>ei: 818</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>['0.0000815860']</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -7012,12 +7011,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>dq: 1</t>
+          <t>dd: 149</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -7027,12 +7026,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ml: 5</t>
+          <t>de: 1283</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>['0.0000254956']</t>
+          <t>0.0065421800</t>
         </is>
       </c>
     </row>
@@ -7042,12 +7041,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>wo: 36</t>
+          <t>xa: 103</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>['0.0001835686']</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7056,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>gy: 31</t>
+          <t>zu: 73</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>['0.0001580729']</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -7072,12 +7071,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>dr: 424</t>
+          <t>wr: 22</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>['0.0021620299']</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -7087,12 +7086,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>uq: 10</t>
+          <t>sc: 60</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>['0.0000509913']</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -7102,12 +7101,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>mz: 11</t>
+          <t>os: 504</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>['0.0000560904']</t>
+          <t>0.0025699600</t>
         </is>
       </c>
     </row>
@@ -7117,12 +7116,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>hz: 20</t>
+          <t>by: 83</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>['0.0001019825']</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -7132,12 +7131,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>bb: 38</t>
+          <t>da: 1303</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>['0.0001937668']</t>
+          <t>0.0066441625</t>
         </is>
       </c>
     </row>
@@ -7147,12 +7146,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>ni: 1725</t>
+          <t>lj: 6</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>['0.0087959941']</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -7162,12 +7161,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>vk: 3</t>
+          <t>kf: 1</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7177,12 +7176,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>zt: 4</t>
+          <t>zx: 1</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7192,12 +7191,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>gl: 32</t>
+          <t>nt: 443</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>['0.0001631721']</t>
+          <t>0.0022589133</t>
         </is>
       </c>
     </row>
@@ -7207,12 +7206,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>dl: 60</t>
+          <t>zp: 2</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>['0.0003059476']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7222,12 +7221,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>gf: 1</t>
+          <t>wy: 73</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -7237,12 +7236,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>xl: 39</t>
+          <t>jj: 2</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>['0.0001988660']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7252,12 +7251,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>aq: 60</t>
+          <t>yj: 23</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>['0.0003059476']</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7266,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>xs: 31</t>
+          <t>kr: 109</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>['0.0001580729']</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -7282,12 +7281,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>fk: 2</t>
+          <t>wi: 148</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -7297,12 +7296,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>uz: 45</t>
+          <t>zr: 32</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>['0.0002294607']</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -7312,12 +7311,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>qr: 1</t>
+          <t>be: 655</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0033399282</t>
         </is>
       </c>
     </row>
@@ -7327,12 +7326,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>jc: 4</t>
+          <t>ev: 463</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0023608958</t>
         </is>
       </c>
     </row>
@@ -7342,12 +7341,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>as: 1118</t>
+          <t>xd: 5</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>['0.0057008240']</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -7357,12 +7356,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>yb: 27</t>
+          <t>hs: 31</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>['0.0001376764']</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -7372,12 +7371,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>qw: 3</t>
+          <t>li: 2480</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0126458350</t>
         </is>
       </c>
     </row>
@@ -7387,12 +7386,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>zg: 1</t>
+          <t>ss: 461</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0023506976</t>
         </is>
       </c>
     </row>
@@ -7402,12 +7401,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ab: 541</t>
+          <t>ot: 118</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>['0.0027586277']</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -7417,12 +7416,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>ey: 1070</t>
+          <t>lw: 16</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>['0.0054560659']</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -7432,12 +7431,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>uv: 37</t>
+          <t>nk: 58</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>['0.0001886677']</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -7447,12 +7446,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>xd: 5</t>
+          <t>dj: 9</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>['0.0000254956']</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -7462,12 +7461,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>sp: 51</t>
+          <t>uw: 86</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>['0.0002600555']</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7476,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>cr: 76</t>
+          <t>ao: 63</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>['0.0003875337']</t>
+          <t>0.0003212450</t>
         </is>
       </c>
     </row>
@@ -7492,12 +7491,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>nn: 1906</t>
+          <t>iq: 52</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>['0.0097189361']</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -7507,12 +7506,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>yw: 4</t>
+          <t>we: 149</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -7522,12 +7521,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>pr: 151</t>
+          <t>yo: 271</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>['0.0007699682']</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -7537,12 +7536,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>ba: 321</t>
+          <t>av: 834</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>['0.0016368198']</t>
+          <t>0.0042526719</t>
         </is>
       </c>
     </row>
@@ -7552,12 +7551,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>et: 580</t>
+          <t>si: 684</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>['0.0029574937']</t>
+          <t>0.0034878029</t>
         </is>
       </c>
     </row>
@@ -7567,12 +7566,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>ti: 532</t>
+          <t>bs: 8</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>['0.0027127356']</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -7582,12 +7581,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>uj: 14</t>
+          <t>oq: 3</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>['0.0000713878']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -7597,12 +7596,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>kj: 2</t>
+          <t>ll: 1345</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -7612,13 +7611,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>v
-: 88</t>
+          <t>cx: 3</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>['0.0004487232']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -7628,12 +7626,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>pk: 1</t>
+          <t>ka: 1731</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0088265889</t>
         </is>
       </c>
     </row>
@@ -7643,13 +7641,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>i
-: 2489</t>
+          <t>ol: 619</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>['0.0126917272']</t>
+          <t>0.0031563596</t>
         </is>
       </c>
     </row>
@@ -7659,12 +7656,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>kh: 307</t>
+          <t>go: 83</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>['0.0015654320']</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -7674,12 +7671,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>yi: 192</t>
+          <t>vo: 153</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>['0.0009790324']</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -7689,12 +7686,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>ye: 301</t>
+          <t>xz: 19</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>['0.0015348372']</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -7704,12 +7701,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>nv: 55</t>
+          <t>ie: 1653</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>['0.0002804520']</t>
+          <t>0.0084288570</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7716,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>ym: 148</t>
+          <t>wb: 1</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>['0.0007546708']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7734,12 +7731,13 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>cz: 4</t>
+          <t>k
+: 363</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0018509831</t>
         </is>
       </c>
     </row>
@@ -7749,12 +7747,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>ts: 35</t>
+          <t>vh: 1</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>['0.0001784694']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7764,12 +7762,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>jj: 2</t>
+          <t>pt: 17</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -7779,12 +7777,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>lq: 3</t>
+          <t>in: 2126</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0108407441</t>
         </is>
       </c>
     </row>
@@ -7794,12 +7792,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>le: 2921</t>
+          <t>ib: 110</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>['0.0148945501']</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -7809,12 +7807,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>iu: 109</t>
+          <t>mj: 7</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>['0.0005558048']</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -7824,12 +7822,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>pe: 197</t>
+          <t>it: 541</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>['0.0010045280']</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -7839,12 +7837,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>hv: 39</t>
+          <t>ah: 2332</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>['0.0001988660']</t>
+          <t>0.0118911642</t>
         </is>
       </c>
     </row>
@@ -7854,12 +7852,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>ky: 379</t>
+          <t>fi: 160</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>['0.0019325691']</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -7869,12 +7867,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>zw: 3</t>
+          <t>jh: 45</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -7884,12 +7882,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>dh: 118</t>
+          <t>yq: 6</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>['0.0006016970']</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -7899,12 +7897,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>lo: 692</t>
+          <t>sg: 2</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>['0.0035285959']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7914,12 +7912,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>tr: 352</t>
+          <t>al: 2528</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>['0.0017948927']</t>
+          <t>0.0128905931</t>
         </is>
       </c>
     </row>
@@ -7929,12 +7927,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>fi: 160</t>
+          <t>at: 687</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>['0.0008158603']</t>
+          <t>0.0035031003</t>
         </is>
       </c>
     </row>
@@ -7944,12 +7942,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>yj: 23</t>
+          <t>ii: 82</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>['0.0001172799']</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -7959,12 +7957,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>ig: 428</t>
+          <t>lm: 60</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>['0.0021824264']</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -7974,12 +7972,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>in: 2126</t>
+          <t>dw: 23</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>['0.0108407441']</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -7989,12 +7987,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>pb: 2</t>
+          <t>cu: 35</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -8004,12 +8002,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>yo: 271</t>
+          <t>vv: 7</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>['0.0013818634']</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -8019,12 +8017,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>mp: 38</t>
+          <t>ax: 182</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>['0.0001937668']</t>
+          <t>0.0009280411</t>
         </is>
       </c>
     </row>
@@ -8034,13 +8032,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>f
-: 80</t>
+          <t>lk: 24</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>['0.0004079302']</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -8050,12 +8047,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ef: 82</t>
+          <t>rk: 90</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>['0.0004181284']</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8062,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>vn: 8</t>
+          <t>kz: 2</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>['0.0000407930']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8080,12 +8077,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>jw: 6</t>
+          <t>oy: 103</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>['0.0000305948']</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -8095,12 +8092,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>hq: 1</t>
+          <t>rg: 76</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -8110,12 +8107,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>pm: 1</t>
+          <t>af: 134</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -8125,12 +8122,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>po: 59</t>
+          <t>xh: 1</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>['0.0003008485']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8140,12 +8137,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>he: 674</t>
+          <t>ko: 344</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>['0.0034368116']</t>
+          <t>0.0017540997</t>
         </is>
       </c>
     </row>
@@ -8155,12 +8152,13 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>ln: 14</t>
+          <t>t
+: 483</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>['0.0000713878']</t>
+          <t>0.0024628784</t>
         </is>
       </c>
     </row>
@@ -8170,12 +8168,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>gr: 201</t>
+          <t>fr: 114</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>['0.0010249245']</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -8185,12 +8183,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>py: 12</t>
+          <t>db: 1</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>['0.0000611895']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8200,12 +8198,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>zz: 45</t>
+          <t>en: 2675</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>['0.0002294607']</t>
+          <t>0.0136401648</t>
         </is>
       </c>
     </row>
@@ -8215,12 +8213,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>uu: 3</t>
+          <t>ob: 140</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -8230,12 +8228,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>cj: 3</t>
+          <t>ta: 1027</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0052368035</t>
         </is>
       </c>
     </row>
@@ -8245,12 +8243,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>hc: 2</t>
+          <t>nf: 11</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -8260,12 +8258,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>se: 884</t>
+          <t>zn: 4</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>['0.0045076283']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8273,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ea: 679</t>
+          <t>nn: 1906</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>['0.0034623073']</t>
+          <t>0.0097189361</t>
         </is>
       </c>
     </row>
@@ -8290,12 +8288,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>oo: 115</t>
+          <t>fh: 1</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>['0.0005863996']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8305,12 +8303,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>tx: 2</t>
+          <t>rx: 3</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8320,12 +8318,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>gw: 26</t>
+          <t>ck: 316</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>['0.0001325773']</t>
+          <t>0.0016113241</t>
         </is>
       </c>
     </row>
@@ -8335,12 +8333,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>gs: 30</t>
+          <t>mo: 452</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>['0.0001529738']</t>
+          <t>0.0023048054</t>
         </is>
       </c>
     </row>
@@ -8350,12 +8348,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>hf: 2</t>
+          <t>jc: 4</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8365,12 +8363,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>dk: 3</t>
+          <t>gg: 25</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -8380,12 +8378,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>nz: 145</t>
+          <t>wl: 13</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>['0.0007393734']</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -8395,12 +8393,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>ej: 55</t>
+          <t>oo: 115</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>['0.0002804520']</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -8410,12 +8408,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>dm: 30</t>
+          <t>gh: 360</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>['0.0001529738']</t>
+          <t>0.0018356857</t>
         </is>
       </c>
     </row>
@@ -8425,12 +8423,13 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>ty: 341</t>
+          <t>f
+: 80</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>['0.0017388023']</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -8440,12 +8439,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>iq: 52</t>
+          <t>py: 12</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>['0.0002651546']</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -8455,12 +8454,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>of: 34</t>
+          <t>xu: 5</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>['0.0001733703']</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -8470,12 +8469,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>sy: 215</t>
+          <t>uk: 93</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>['0.0010963123']</t>
+          <t>0.0004742188</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8484,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>nf: 11</t>
+          <t>hq: 1</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>['0.0000560904']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8500,12 +8499,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>yn: 1826</t>
+          <t>sb: 21</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>['0.0093110060']</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -8515,12 +8514,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>cy: 104</t>
+          <t>sj: 2</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>['0.0005303092']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8530,12 +8529,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>oq: 3</t>
+          <t>ri: 3033</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0154656523</t>
         </is>
       </c>
     </row>
@@ -8545,12 +8544,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ex: 132</t>
+          <t>gm: 6</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>['0.0006730848']</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -8560,12 +8559,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>dv: 17</t>
+          <t>zv: 2</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>['0.0000866852']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8575,12 +8574,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ee: 1271</t>
+          <t>ws: 20</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>['0.0064809905']</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -8590,12 +8589,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>nu: 96</t>
+          <t>cz: 4</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>['0.0004895162']</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8605,12 +8604,13 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>bc: 1</t>
+          <t>s
+: 1169</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0059608795</t>
         </is>
       </c>
     </row>
@@ -8620,12 +8620,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>sc: 60</t>
+          <t>rw: 21</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>['0.0003059476']</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -8635,12 +8635,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>cq: 11</t>
+          <t>ts: 35</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>['0.0000560904']</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -8650,12 +8650,12 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>jv: 5</t>
+          <t>hk: 29</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>['0.0000254956']</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -8665,12 +8665,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>ls: 94</t>
+          <t>ym: 148</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>['0.0004793179']</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -8680,12 +8680,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>pu: 4</t>
+          <t>nr: 44</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>na: 2977</t>
+          <t>md: 24</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>['0.0151801012']</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -8710,13 +8710,12 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>c
-: 97</t>
+          <t>nh: 26</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>['0.0004946153']</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -8726,12 +8725,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>vy: 121</t>
+          <t>za: 860</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>['0.0006169944']</t>
+          <t>0.0043852492</t>
         </is>
       </c>
     </row>
@@ -8741,12 +8740,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>hm: 117</t>
+          <t>km: 9</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>['0.0005965979']</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -8756,12 +8755,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>ic: 509</t>
+          <t>mp: 38</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>['0.0025954557']</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -8771,12 +8770,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>tw: 11</t>
+          <t>mv: 3</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>['0.0000560904']</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8786,12 +8785,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>zm: 35</t>
+          <t>tw: 11</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>['0.0001784694']</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -8801,12 +8800,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>ev: 463</t>
+          <t>sh: 1285</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>['0.0023608958']</t>
+          <t>0.0065523782</t>
         </is>
       </c>
     </row>
@@ -8816,12 +8815,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>um: 154</t>
+          <t>sy: 215</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>['0.0007852656']</t>
+          <t>0.0010963123</t>
         </is>
       </c>
     </row>
@@ -8831,12 +8830,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>er: 1958</t>
+          <t>hw: 10</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>['0.0099840907']</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -8846,12 +8845,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>sl: 279</t>
+          <t>ti: 532</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>['0.0014226564']</t>
+          <t>0.0027127356</t>
         </is>
       </c>
     </row>
@@ -8861,12 +8860,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>yy: 23</t>
+          <t>am: 1634</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>['0.0001172799']</t>
+          <t>0.0083319736</t>
         </is>
       </c>
     </row>
@@ -8876,12 +8875,13 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>mr: 97</t>
+          <t>w
+: 51</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>['0.0004946153']</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -8891,12 +8891,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>ay: 2050</t>
+          <t>hh: 1</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>['0.0104532104']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8906,12 +8906,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>rn: 140</t>
+          <t>cd: 1</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>['0.0007138778']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8921,13 +8921,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>s
-: 1169</t>
+          <t>nc: 213</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>['0.0059608795']</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -8937,12 +8936,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>ta: 1027</t>
+          <t>fz: 2</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>['0.0052368035']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8952,12 +8951,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>sb: 21</t>
+          <t>tu: 78</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>['0.0001070817']</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -8967,12 +8966,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>mu: 139</t>
+          <t>ky: 379</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>['0.0007087787']</t>
+          <t>0.0019325691</t>
         </is>
       </c>
     </row>
@@ -8982,12 +8981,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>cs: 5</t>
+          <t>zg: 1</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>['0.0000254956']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8997,12 +8996,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>op: 95</t>
+          <t>ff: 44</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>['0.0004844171']</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -9012,12 +9011,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>st: 765</t>
+          <t>ex: 132</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>['0.0039008322']</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -9027,12 +9026,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>ze: 373</t>
+          <t>bu: 45</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>['0.0019019744']</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -9042,12 +9041,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>im: 427</t>
+          <t>og: 44</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>['0.0021773272']</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -9057,12 +9056,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>id: 440</t>
+          <t>nu: 96</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>['0.0022436159']</t>
+          <t>0.0004895162</t>
         </is>
       </c>
     </row>
@@ -9072,12 +9071,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>lz: 10</t>
+          <t>me: 818</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>['0.0000509913']</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -9087,12 +9086,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>fl: 20</t>
+          <t>bt: 2</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>['0.0001019825']</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9102,12 +9101,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>tn: 22</t>
+          <t>im: 427</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>['0.0001121808']</t>
+          <t>0.0021773272</t>
         </is>
       </c>
     </row>
@@ -9117,12 +9116,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>vo: 153</t>
+          <t>kh: 307</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>['0.0007801664']</t>
+          <t>0.0015654320</t>
         </is>
       </c>
     </row>
@@ -9132,12 +9131,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>uf: 19</t>
+          <t>gi: 190</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>['0.0000968834']</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -9147,12 +9146,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>zk: 2</t>
+          <t>mf: 1</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9162,12 +9161,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>kv: 2</t>
+          <t>eq: 14</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>['0.0000101983']</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -9177,12 +9176,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>tb: 1</t>
+          <t>uv: 37</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>['0.0000050991']</t>
+          <t>0.0001886677</t>
         </is>
       </c>
     </row>
@@ -9192,12 +9191,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>ka: 1731</t>
+          <t>ep: 83</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>['0.0088265889']</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -9207,12 +9206,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>sr: 55</t>
+          <t>mr: 97</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>['0.0002804520']</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -9222,12 +9221,12 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>ur: 414</t>
+          <t>lv: 72</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>['0.0021110386']</t>
+          <t>0.0003671371</t>
         </is>
       </c>
     </row>
@@ -9237,12 +9236,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>ec: 153</t>
+          <t>gu: 85</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>['0.0007801664']</t>
+          <t>0.0004334258</t>
         </is>
       </c>
     </row>
@@ -9252,12 +9251,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>sd: 9</t>
+          <t>cp: 1</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>['0.0000458921']</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9267,12 +9266,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>ji: 119</t>
+          <t>kn: 26</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>['0.0006067961']</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -9282,12 +9281,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>bn: 4</t>
+          <t>gd: 19</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -9297,12 +9296,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>xu: 5</t>
+          <t>gl: 32</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>['0.0000254956']</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -9312,12 +9311,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>vl: 14</t>
+          <t>gs: 30</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>['0.0000713878']</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -9327,12 +9326,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>kl: 139</t>
+          <t>vr: 48</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>['0.0007087787']</t>
+          <t>0.0002447581</t>
         </is>
       </c>
     </row>
@@ -9342,12 +9341,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>ep: 83</t>
+          <t>ml: 5</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>['0.0004232275']</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -9357,12 +9356,13 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>ss: 461</t>
+          <t>b
+: 114</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>['0.0023506976']</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -9372,12 +9372,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>zs: 4</t>
+          <t>cr: 76</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>['0.0000203965']</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9387,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>md: 24</t>
+          <t>lo: 692</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>['0.0001223790']</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -9402,12 +9402,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>eo: 269</t>
+          <t>cs: 5</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>['0.0013716652']</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>hk: 29</t>
+          <t>of: 34</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>['0.0001478747']</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>my: 287</t>
+          <t>yu: 141</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>['0.0014634495']</t>
+          <t>0.0007189769</t>
         </is>
       </c>
     </row>
@@ -9447,12 +9447,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>ut: 82</t>
+          <t>eo: 269</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>['0.0004181284']</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9462,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>gj: 3</t>
+          <t>to: 667</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>['0.0000152974']</t>
+          <t>0.0034011177</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>li: 2480</t>
+          <t>ps: 16</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>['0.0126458350']</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>

--- a/Bigram_Language_Model/probabilities.xlsx
+++ b/Bigram_Language_Model/probabilities.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mu: 139</t>
+          <t>wr: 22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ft: 18</t>
+          <t>xd: 5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dy: 317</t>
+          <t>ai: 1650</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0016164233</t>
+          <t>0.0084135596</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hy: 213</t>
+          <t>rp: 14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ld: 138</t>
+          <t>uv: 37</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0001886677</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kc: 2</t>
+          <t>om: 261</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0013308722</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mm: 168</t>
+          <t>oi: 69</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>qi: 13</t>
+          <t>sd: 9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tm: 4</t>
+          <t>xx: 38</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>um: 154</t>
+          <t>dl: 60</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0007852656</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gn: 27</t>
+          <t>yl: 1104</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0056294362</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>vk: 3</t>
+          <t>cp: 1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>st: 765</t>
+          <t>yo: 271</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0039008322</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>vi: 911</t>
+          <t>w
+: 51</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0046453047</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -661,12 +662,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>fo: 60</t>
+          <t>hd: 24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -676,12 +677,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ql: 1</t>
+          <t>ho: 287</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -691,12 +692,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ej: 55</t>
+          <t>je: 440</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -706,12 +707,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ca: 815</t>
+          <t>bj: 1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.0041557885</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -721,12 +722,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>oe: 132</t>
+          <t>cj: 3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -736,12 +737,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ea: 679</t>
+          <t>lw: 16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.0034623073</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -751,12 +752,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>oa: 149</t>
+          <t>fw: 4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -766,12 +767,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dz: 1</t>
+          <t>xc: 4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -781,12 +782,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dc: 3</t>
+          <t>kb: 2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -796,12 +797,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jw: 6</t>
+          <t>ko: 344</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0017540997</t>
         </is>
       </c>
     </row>
@@ -811,13 +812,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>m
-: 516</t>
+          <t>ss: 461</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0023506976</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>uz: 45</t>
+          <t>nc: 213</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -842,12 +842,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>wh: 23</t>
+          <t>jh: 45</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -857,12 +857,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>xf: 3</t>
+          <t>po: 59</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0003008485</t>
         </is>
       </c>
     </row>
@@ -872,12 +872,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ay: 2050</t>
+          <t>lf: 22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.0104532104</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dk: 3</t>
+          <t>ay: 2050</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0104532104</t>
         </is>
       </c>
     </row>
@@ -902,12 +902,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bd: 65</t>
+          <t>ih: 95</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.0003314433</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ve: 568</t>
+          <t>mr: 97</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -932,12 +932,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ok: 68</t>
+          <t>dd: 149</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.0003467406</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -947,12 +947,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bh: 41</t>
+          <t>o
+: 855</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0043597536</t>
         </is>
       </c>
     </row>
@@ -962,12 +963,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>rv: 80</t>
+          <t>wt: 8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -977,12 +978,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>kd: 2</t>
+          <t>wo: 36</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -992,12 +993,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>hr: 204</t>
+          <t>sa: 1201</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0061240516</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1008,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mn: 20</t>
+          <t>or: 1059</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0053999755</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1023,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>dm: 30</t>
+          <t>ru: 252</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0012849800</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1038,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>aj: 175</t>
+          <t>vi: 911</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.0008923472</t>
+          <t>0.0046453047</t>
         </is>
       </c>
     </row>
@@ -1052,12 +1053,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tx: 2</t>
+          <t>ex: 132</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -1067,12 +1068,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>fn: 4</t>
+          <t>sb: 21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -1082,12 +1083,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>xx: 38</t>
+          <t>ma: 2590</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0132067390</t>
         </is>
       </c>
     </row>
@@ -1097,12 +1098,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>lf: 22</t>
+          <t>kh: 307</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0015654320</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1113,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fg: 1</t>
+          <t>dm: 30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1128,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ha: 2244</t>
+          <t>ua: 163</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.0114424411</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -1142,12 +1143,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>yn: 1826</t>
+          <t>av: 834</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.0093110060</t>
+          <t>0.0042526719</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1158,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>yt: 104</t>
+          <t>ak: 568</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1173,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mk: 1</t>
+          <t>wh: 23</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1188,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>yw: 4</t>
+          <t>pt: 17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1203,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>qm: 2</t>
+          <t>wu: 25</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -1217,12 +1218,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>wu: 25</t>
+          <t>rf: 9</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -1232,12 +1233,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>yp: 15</t>
+          <t>xf: 3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1247,12 +1248,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pc: 1</t>
+          <t>m
+: 516</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -1262,12 +1264,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>xo: 41</t>
+          <t>vv: 7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1279,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>nb: 8</t>
+          <t>ct: 35</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -1292,12 +1294,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ny: 465</t>
+          <t>pf: 1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.0023710941</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1309,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>an: 5438</t>
+          <t>fk: 2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.0277290528</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1322,12 +1324,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ze: 373</t>
+          <t>uh: 58</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.0019019744</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -1337,12 +1339,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jd: 4</t>
+          <t>x
+: 163</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1355,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>d
-: 516</t>
+          <t>tm: 4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1370,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>hl: 185</t>
+          <t>wg: 1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1385,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>zz: 45</t>
+          <t>nh: 26</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -1398,12 +1400,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>lr: 18</t>
+          <t>se: 884</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0045076283</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1415,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>xc: 4</t>
+          <t>zx: 1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1428,12 +1430,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>om: 261</t>
+          <t>ch: 664</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.0013308722</t>
+          <t>0.0033858203</t>
         </is>
       </c>
     </row>
@@ -1443,12 +1445,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ig: 428</t>
+          <t>ld: 138</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.0021824264</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1460,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ne: 1359</t>
+          <t>rt: 208</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.0069297136</t>
+          <t>0.0010606184</t>
         </is>
       </c>
     </row>
@@ -1473,12 +1475,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ai: 1650</t>
+          <t>ud: 136</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.0084135596</t>
+          <t>0.0006934813</t>
         </is>
       </c>
     </row>
@@ -1488,12 +1490,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>if: 101</t>
+          <t>pm: 1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.0005150118</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1503,12 +1505,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>uy: 13</t>
+          <t>ds: 29</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -1518,12 +1520,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>zl: 123</t>
+          <t>zc: 2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1535,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>gj: 3</t>
+          <t>te: 716</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0036509750</t>
         </is>
       </c>
     </row>
@@ -1548,12 +1550,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>oc: 114</t>
+          <t>ol: 619</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0031563596</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1565,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>yv: 106</t>
+          <t>mf: 1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.0005405075</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1578,12 +1580,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>pj: 1</t>
+          <t>sm: 90</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -1593,12 +1595,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>yh: 22</t>
+          <t>ag: 168</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -1608,12 +1610,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>yd: 272</t>
+          <t>ps: 16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.0013869626</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -1623,12 +1625,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ey: 1070</t>
+          <t>il: 1345</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.0054560659</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -1638,12 +1640,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ag: 168</t>
+          <t>lm: 60</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1655,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>cq: 11</t>
+          <t>nt: 443</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0022589133</t>
         </is>
       </c>
     </row>
@@ -1668,12 +1670,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>kj: 2</t>
+          <t>do: 378</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0019274700</t>
         </is>
       </c>
     </row>
@@ -1683,12 +1685,13 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>lh: 19</t>
+          <t>l
+: 1314</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0067002529</t>
         </is>
       </c>
     </row>
@@ -1698,13 +1701,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>v
-: 88</t>
+          <t>fh: 1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.0004487232</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1716,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>th: 647</t>
+          <t>fr: 114</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.0032991352</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1731,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>hj: 9</t>
+          <t>nu: 96</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0004895162</t>
         </is>
       </c>
     </row>
@@ -1744,12 +1746,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ru: 252</t>
+          <t>eo: 269</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.0012849800</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1761,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>dh: 118</t>
+          <t>sv: 14</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -1774,12 +1776,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>kw: 34</t>
+          <t>it: 541</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -1789,12 +1791,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jk: 2</t>
+          <t>qw: 3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1804,12 +1806,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>fk: 2</t>
+          <t>jo: 479</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0024424818</t>
         </is>
       </c>
     </row>
@@ -1819,12 +1821,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>rl: 413</t>
+          <t>sq: 1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.0021059395</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1834,12 +1836,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>yb: 27</t>
+          <t>nn: 1906</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0097189361</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1851,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>un: 275</t>
+          <t>ek: 178</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0009076446</t>
         </is>
       </c>
     </row>
@@ -1864,12 +1866,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>hi: 729</t>
+          <t>bh: 41</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.0037172636</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -1879,12 +1881,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>oh: 171</t>
+          <t>sh: 1285</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.0008719507</t>
+          <t>0.0065523782</t>
         </is>
       </c>
     </row>
@@ -1894,13 +1896,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>o
-: 855</t>
+          <t>oa: 149</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.0043597536</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1911,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sw: 24</t>
+          <t>yb: 27</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1926,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>az: 435</t>
+          <t>tj: 3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.0022181203</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1940,12 +1941,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>wt: 8</t>
+          <t>lq: 3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1955,12 +1956,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>or: 1059</t>
+          <t>cz: 4</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.0053999755</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1970,12 +1971,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ue: 169</t>
+          <t>bb: 38</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.0008617525</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -1985,12 +1986,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>pf: 1</t>
+          <t>of: 34</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -2000,12 +2001,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ov: 176</t>
+          <t>us: 474</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.0008974464</t>
+          <t>0.0024169862</t>
         </is>
       </c>
     </row>
@@ -2015,12 +2016,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>uo: 10</t>
+          <t>wl: 13</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -2030,12 +2031,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>zi: 364</t>
+          <t>mu: 139</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.0018560822</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -2045,12 +2046,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>hd: 24</t>
+          <t>rv: 80</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -2060,12 +2061,13 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>gr: 201</t>
+          <t>s
+: 1169</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.0010249245</t>
+          <t>0.0059608795</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2077,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ch: 664</t>
+          <t>uk: 93</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.0033858203</t>
+          <t>0.0004742188</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2092,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>id: 440</t>
+          <t>iu: 109</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2107,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>xm: 1</t>
+          <t>ii: 82</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -2120,13 +2122,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>j
-: 71</t>
+          <t>pl: 16</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2137,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>hm: 117</t>
+          <t>mc: 51</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.0005965979</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2152,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ki: 509</t>
+          <t>gi: 190</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -2166,12 +2167,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jt: 2</t>
+          <t>dv: 17</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2182,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>io: 588</t>
+          <t>kc: 2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.0029982867</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2196,12 +2197,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>tg: 2</t>
+          <t>xa: 103</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2212,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>mz: 11</t>
+          <t>ta: 1027</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0052368035</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>cg: 2</t>
+          <t>kv: 2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2241,12 +2242,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>fe: 123</t>
+          <t>yr: 291</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0014838460</t>
         </is>
       </c>
     </row>
@@ -2256,12 +2257,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ji: 119</t>
+          <t>nq: 2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.0006067961</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2271,12 +2272,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>di: 674</t>
+          <t>ic: 509</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2287,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>is: 1316</t>
+          <t>ug: 47</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.0067104512</t>
+          <t>0.0002396590</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2302,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ls: 94</t>
+          <t>zm: 35</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.0004793179</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -2316,12 +2317,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>gf: 1</t>
+          <t>dt: 4</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2332,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ua: 163</t>
+          <t>ra: 2356</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0120135433</t>
         </is>
       </c>
     </row>
@@ -2346,13 +2347,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>y
-: 2007</t>
+          <t>rq: 16</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.0102339479</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>wo: 36</t>
+          <t>zb: 4</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sq: 1</t>
+          <t>sl: 279</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0014226564</t>
         </is>
       </c>
     </row>
@@ -2392,13 +2392,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>a
-: 6640</t>
+          <t>rx: 3</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.0338582035</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2408,12 +2407,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>lg: 6</t>
+          <t>bi: 217</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0011065106</t>
         </is>
       </c>
     </row>
@@ -2423,12 +2422,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>cy: 104</t>
+          <t>ce: 551</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0028096190</t>
         </is>
       </c>
     </row>
@@ -2438,12 +2437,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ht: 71</t>
+          <t>aa: 556</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0028351146</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2452,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ux: 34</t>
+          <t>es: 861</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0043903484</t>
         </is>
       </c>
     </row>
@@ -2468,12 +2467,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ud: 136</t>
+          <t>cq: 11</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.0006934813</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -2483,12 +2482,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ur: 414</t>
+          <t>ks: 95</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.0021110386</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2497,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>oi: 69</t>
+          <t>va: 642</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0032736396</t>
         </is>
       </c>
     </row>
@@ -2513,12 +2512,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>jv: 5</t>
+          <t>zt: 4</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2528,13 +2527,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>p
-: 33</t>
+          <t>no: 496</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.0001682712</t>
+          <t>0.0025291670</t>
         </is>
       </c>
     </row>
@@ -2544,12 +2542,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ef: 82</t>
+          <t>yk: 86</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2557,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>zs: 4</t>
+          <t>sp: 51</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -2574,12 +2572,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ic: 509</t>
+          <t>xo: 41</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -2589,12 +2587,13 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>xy: 30</t>
+          <t>q
+: 28</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -2604,12 +2603,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>sz: 10</t>
+          <t>od: 190</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -2619,12 +2618,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>yf: 12</t>
+          <t>ya: 2143</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0109274292</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2633,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>zw: 3</t>
+          <t>hg: 2</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2649,12 +2648,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>co: 380</t>
+          <t>ro: 869</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.0019376683</t>
+          <t>0.0044311414</t>
         </is>
       </c>
     </row>
@@ -2664,12 +2663,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>sp: 51</t>
+          <t>nr: 44</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2678,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>lb: 52</t>
+          <t>be: 655</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0033399282</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2693,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>xb: 1</t>
+          <t>aj: 175</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008923472</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2708,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>fl: 20</t>
+          <t>yz: 78</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -2724,12 +2723,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>rc: 99</t>
+          <t>tx: 2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.0005048136</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2739,12 +2738,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>pi: 61</t>
+          <t>qu: 206</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.0003110467</t>
+          <t>0.0010504202</t>
         </is>
       </c>
     </row>
@@ -2754,12 +2753,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>nd: 704</t>
+          <t>ia: 2445</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.0035897854</t>
+          <t>0.0124673656</t>
         </is>
       </c>
     </row>
@@ -2769,12 +2768,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>po: 59</t>
+          <t>to: 667</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.0003008485</t>
+          <t>0.0034011177</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2783,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>hb: 8</t>
+          <t>nj: 44</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -2799,13 +2798,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>x
-: 163</t>
+          <t>tr: 352</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0017948927</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2813,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ub: 103</t>
+          <t>id: 440</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -2830,12 +2828,13 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>zh: 43</t>
+          <t>n
+: 6763</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.0002192625</t>
+          <t>0.0344853961</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2844,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>zm: 35</t>
+          <t>sf: 2</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2860,12 +2859,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ih: 95</t>
+          <t>uu: 3</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2875,12 +2874,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>nj: 44</t>
+          <t>ww: 2</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2890,12 +2889,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>he: 674</t>
+          <t>kl: 139</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -2905,12 +2904,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>kl: 139</t>
+          <t>nk: 58</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -2920,12 +2919,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>tv: 15</t>
+          <t>fz: 2</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2935,12 +2934,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>qu: 206</t>
+          <t>ju: 202</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.0010504202</t>
+          <t>0.0010300237</t>
         </is>
       </c>
     </row>
@@ -2950,12 +2949,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>hz: 20</t>
+          <t>dr: 424</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0021620299</t>
         </is>
       </c>
     </row>
@@ -2965,12 +2964,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>pl: 16</t>
+          <t>ei: 818</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -2980,12 +2979,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ae: 692</t>
+          <t>ny: 465</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0023710941</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2994,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>wg: 1</t>
+          <t>aq: 60</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3009,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>xl: 39</t>
+          <t>kr: 109</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3024,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>nl: 195</t>
+          <t>cu: 35</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.0009943298</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -3040,12 +3039,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ci: 271</t>
+          <t>ln: 14</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -3055,12 +3054,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>fy: 14</t>
+          <t>pc: 1</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3070,12 +3069,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>mb: 112</t>
+          <t>rs: 190</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.0005711022</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -3085,12 +3084,13 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>bo: 105</t>
+          <t>v
+: 88</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0004487232</t>
         </is>
       </c>
     </row>
@@ -3100,12 +3100,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>je: 440</t>
+          <t>jm: 5</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -3115,12 +3115,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>on: 2411</t>
+          <t>ee: 1271</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.0122939953</t>
+          <t>0.0064809905</t>
         </is>
       </c>
     </row>
@@ -3130,12 +3130,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>dg: 25</t>
+          <t>wy: 73</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -3145,12 +3145,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>jr: 11</t>
+          <t>yu: 141</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0007189769</t>
         </is>
       </c>
     </row>
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>oj: 16</t>
+          <t>di: 674</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -3175,12 +3175,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>qa: 13</t>
+          <t>ne: 1359</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0069297136</t>
         </is>
       </c>
     </row>
@@ -3190,12 +3190,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>wf: 2</t>
+          <t>xi: 102</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005201110</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>eh: 152</t>
+          <t>dg: 25</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.0007750673</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -3220,12 +3220,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>gb: 3</t>
+          <t>my: 287</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>eb: 121</t>
+          <t>xh: 1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3250,12 +3250,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>no: 496</t>
+          <t>pa: 209</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.0025291670</t>
+          <t>0.0010657175</t>
         </is>
       </c>
     </row>
@@ -3265,12 +3265,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>tl: 134</t>
+          <t>kz: 2</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ho: 287</t>
+          <t>an: 5438</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0277290528</t>
         </is>
       </c>
     </row>
@@ -3295,12 +3295,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>rp: 14</t>
+          <t>sc: 60</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -3310,12 +3310,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>rm: 162</t>
+          <t>ot: 118</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.0008260586</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -3325,12 +3325,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>rh: 121</t>
+          <t>sk: 82</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -3340,12 +3340,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>es: 861</t>
+          <t>az: 435</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.0043903484</t>
+          <t>0.0022181203</t>
         </is>
       </c>
     </row>
@@ -3355,12 +3355,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>so: 531</t>
+          <t>ze: 373</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.0027076365</t>
+          <t>0.0019019744</t>
         </is>
       </c>
     </row>
@@ -3370,13 +3370,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>u
-: 155</t>
+          <t>ib: 110</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.0007903647</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3385,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>iy: 779</t>
+          <t>og: 44</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.0039722200</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3400,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>pn: 1</t>
+          <t>kk: 20</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3415,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ks: 95</t>
+          <t>ej: 55</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -3431,12 +3430,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>sl: 279</t>
+          <t>mt: 4</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.0014226564</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -3446,12 +3445,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>lq: 3</t>
+          <t>tb: 1</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3460,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ma: 2590</t>
+          <t>na: 2977</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.0132067390</t>
+          <t>0.0151801012</t>
         </is>
       </c>
     </row>
@@ -3476,12 +3475,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>tr: 352</t>
+          <t>li: 2480</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.0017948927</t>
+          <t>0.0126458350</t>
         </is>
       </c>
     </row>
@@ -3491,12 +3490,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>lu: 324</t>
+          <t>nw: 11</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.0016521172</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3505,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>wa: 280</t>
+          <t>dc: 3</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.0014277556</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3520,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>er: 1958</t>
+          <t>nv: 55</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.0099840907</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -3536,12 +3535,13 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>sr: 55</t>
+          <t>h
+: 2409</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0122837970</t>
         </is>
       </c>
     </row>
@@ -3551,12 +3551,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>yi: 192</t>
+          <t>hr: 204</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.0009790324</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -3566,12 +3566,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>df: 5</t>
+          <t>fs: 6</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3581,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>na: 2977</t>
+          <t>un: 275</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.0151801012</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -3596,12 +3596,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ty: 341</t>
+          <t>br: 842</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.0017388023</t>
+          <t>0.0042934650</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3611,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>zo: 110</t>
+          <t>zh: 43</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0002192625</t>
         </is>
       </c>
     </row>
@@ -3626,12 +3626,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ja: 1473</t>
+          <t>wi: 148</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.0075110141</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>wn: 58</t>
+          <t>mz: 11</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -3656,12 +3656,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>jo: 479</t>
+          <t>ts: 35</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.0024424818</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>bj: 1</t>
+          <t>qi: 13</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>sm: 90</t>
+          <t>pu: 4</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ik: 445</t>
+          <t>cd: 1</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.0022691115</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>kb: 2</t>
+          <t>yi: 192</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0009790324</t>
         </is>
       </c>
     </row>
@@ -3731,12 +3731,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ix: 89</t>
+          <t>er: 1958</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.0004538223</t>
+          <t>0.0099840907</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3746,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ln: 14</t>
+          <t>ys: 401</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0020447499</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>yc: 115</t>
+          <t>rh: 121</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>jn: 2</t>
+          <t>gd: 19</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3791,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ak: 568</t>
+          <t>bs: 8</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -3806,12 +3806,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>mi: 1256</t>
+          <t>oz: 54</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.0064045035</t>
+          <t>0.0002753529</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3821,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>rr: 425</t>
+          <t>cc: 42</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.0021671290</t>
+          <t>0.0002141633</t>
         </is>
       </c>
     </row>
@@ -3836,12 +3836,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>up: 16</t>
+          <t>zu: 73</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3851,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>xs: 31</t>
+          <t>zz: 45</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -3866,12 +3866,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>vd: 1</t>
+          <t>iz: 277</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0014124582</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3881,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>vy: 121</t>
+          <t>ac: 470</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0023965897</t>
         </is>
       </c>
     </row>
@@ -3896,12 +3896,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>br: 842</t>
+          <t>ml: 5</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.0042934650</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -3911,12 +3911,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ez: 181</t>
+          <t>kn: 26</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.0009229420</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>bb: 38</t>
+          <t>ll: 1345</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ct: 35</t>
+          <t>en: 2675</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0136401648</t>
         </is>
       </c>
     </row>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>tz: 105</t>
+          <t>eh: 152</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0007750673</t>
         </is>
       </c>
     </row>
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>jb: 1</t>
+          <t>xz: 19</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3986,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>xn: 1</t>
+          <t>os: 504</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0025699600</t>
         </is>
       </c>
     </row>
@@ -4001,12 +4001,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>pe: 197</t>
+          <t>ef: 82</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.0010045280</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -4016,12 +4016,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ir: 849</t>
+          <t>ye: 301</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.0043291588</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -4031,13 +4031,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>g
-: 108</t>
+          <t>ty: 341</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.0005507057</t>
+          <t>0.0017388023</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4046,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>vb: 1</t>
+          <t>jp: 1</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4062,12 +4061,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>dr: 424</t>
+          <t>sg: 2</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.0021620299</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4077,12 +4076,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>tb: 1</t>
+          <t>ry: 773</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0039416252</t>
         </is>
       </c>
     </row>
@@ -4092,12 +4091,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>mc: 51</t>
+          <t>mw: 2</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4107,12 +4106,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>uj: 14</t>
+          <t>oj: 16</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -4122,12 +4121,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ip: 53</t>
+          <t>gs: 30</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.0002702537</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -4137,12 +4136,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>gz: 1</t>
+          <t>dj: 9</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -4152,12 +4151,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>bn: 4</t>
+          <t>vk: 3</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4167,12 +4166,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>xw: 3</t>
+          <t>kt: 17</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4181,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>np: 5</t>
+          <t>ou: 275</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -4197,12 +4196,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>cl: 116</t>
+          <t>bd: 65</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.0005914987</t>
+          <t>0.0003314433</t>
         </is>
       </c>
     </row>
@@ -4212,12 +4211,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>rt: 208</t>
+          <t>tw: 11</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.0010606184</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -4227,12 +4226,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>fu: 10</t>
+          <t>zn: 4</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4242,12 +4241,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>vu: 7</t>
+          <t>zp: 2</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4257,12 +4256,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>re: 1697</t>
+          <t>ab: 541</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.0086532186</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -4272,12 +4271,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>qe: 1</t>
+          <t>df: 5</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -4287,12 +4286,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ug: 47</t>
+          <t>mo: 452</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.0002396590</t>
+          <t>0.0023048054</t>
         </is>
       </c>
     </row>
@@ -4302,12 +4301,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>bl: 103</t>
+          <t>go: 83</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4316,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>aq: 60</t>
+          <t>zi: 364</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0018560822</t>
         </is>
       </c>
     </row>
@@ -4332,12 +4331,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ac: 470</t>
+          <t>yv: 106</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.0023965897</t>
+          <t>0.0005405075</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4346,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>yz: 78</t>
+          <t>gz: 1</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4362,12 +4361,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ke: 895</t>
+          <t>ax: 182</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.0045637187</t>
+          <t>0.0009280411</t>
         </is>
       </c>
     </row>
@@ -4377,12 +4376,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>aa: 556</t>
+          <t>pn: 1</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.0028351146</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4392,12 +4391,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>as: 1118</t>
+          <t>py: 12</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.0057008240</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -4407,12 +4406,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>le: 2921</t>
+          <t>vo: 153</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.0148945501</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -4422,12 +4421,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>nm: 19</t>
+          <t>ig: 428</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0021824264</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4436,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ek: 178</t>
+          <t>hs: 31</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.0009076446</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -4452,12 +4451,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>la: 2623</t>
+          <t>ca: 815</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.0133750102</t>
+          <t>0.0041557885</t>
         </is>
       </c>
     </row>
@@ -4467,12 +4466,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>va: 642</t>
+          <t>lz: 10</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.0032736396</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -4482,12 +4481,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>pb: 2</t>
+          <t>ff: 44</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -4497,13 +4496,13 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>q
-: 28</t>
+          <t>k
+: 363</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0018509831</t>
         </is>
       </c>
     </row>
@@ -4513,12 +4512,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>cc: 42</t>
+          <t>ov: 176</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.0002141633</t>
+          <t>0.0008974464</t>
         </is>
       </c>
     </row>
@@ -4528,12 +4527,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ul: 301</t>
+          <t>xm: 1</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4542,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>sf: 2</t>
+          <t>wf: 2</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -4558,13 +4557,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>c
-: 97</t>
+          <t>ns: 278</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0014175573</t>
         </is>
       </c>
     </row>
@@ -4574,12 +4572,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>fs: 6</t>
+          <t>uo: 10</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4587,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ee: 1271</t>
+          <t>mk: 1</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.0064809905</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4604,12 +4602,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ou: 275</t>
+          <t>yf: 12</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -4619,12 +4617,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>dq: 1</t>
+          <t>zw: 3</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4634,12 +4632,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>uh: 58</t>
+          <t>in: 2126</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0108407441</t>
         </is>
       </c>
     </row>
@@ -4649,12 +4647,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>qr: 1</t>
+          <t>ok: 68</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0003467406</t>
         </is>
       </c>
     </row>
@@ -4664,12 +4662,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ab: 541</t>
+          <t>kw: 34</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -4679,12 +4677,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>sn: 24</t>
+          <t>on: 2411</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0122939953</t>
         </is>
       </c>
     </row>
@@ -4694,13 +4692,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>r
-: 1377</t>
+          <t>ow: 114</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.0070214979</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -4710,12 +4707,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ut: 82</t>
+          <t>yj: 23</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4722,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>xt: 70</t>
+          <t>ad: 1042</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.0003569389</t>
+          <t>0.0053132904</t>
         </is>
       </c>
     </row>
@@ -4740,12 +4737,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>fa: 242</t>
+          <t>cr: 76</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.0012339887</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4752,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ox: 45</t>
+          <t>fi: 160</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -4770,12 +4767,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>hn: 138</t>
+          <t>yw: 4</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4785,12 +4782,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>kt: 17</t>
+          <t>ph: 204</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -4800,12 +4797,13 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>tj: 3</t>
+          <t>r
+: 1377</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0070214979</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4813,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>iv: 269</t>
+          <t>rr: 425</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0021671290</t>
         </is>
       </c>
     </row>
@@ -4830,12 +4828,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>qs: 2</t>
+          <t>gg: 25</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -4845,13 +4843,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>e
-: 3983</t>
+          <t>de: 1283</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.0203098230</t>
+          <t>0.0065421800</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4858,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>yl: 1104</t>
+          <t>xw: 3</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.0056294362</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4876,12 +4873,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>mw: 2</t>
+          <t>ti: 532</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0027127356</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4888,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>pr: 151</t>
+          <t>ha: 2244</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.0007699682</t>
+          <t>0.0114424411</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4903,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>hv: 39</t>
+          <t>pi: 61</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0003110467</t>
         </is>
       </c>
     </row>
@@ -4921,12 +4918,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>zd: 2</t>
+          <t>eq: 14</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4933,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ly: 1588</t>
+          <t>zv: 2</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.0080974137</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4948,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ya: 2143</t>
+          <t>gt: 31</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.0109274292</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -4966,12 +4963,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>qw: 3</t>
+          <t>ut: 82</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -4981,13 +4978,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>h
-: 2409</t>
+          <t>ev: 463</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.0122837970</t>
+          <t>0.0023608958</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4993,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>fw: 4</t>
+          <t>kf: 1</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5012,12 +5008,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>mh: 5</t>
+          <t>iq: 52</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5023,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>su: 185</t>
+          <t>ae: 692</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -5042,12 +5038,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>tn: 22</t>
+          <t>pj: 1</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5057,12 +5053,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>mt: 4</t>
+          <t>gr: 201</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0010249245</t>
         </is>
       </c>
     </row>
@@ -5072,12 +5068,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>lc: 25</t>
+          <t>xb: 1</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5083,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ys: 401</t>
+          <t>gf: 1</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.0020447499</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5102,12 +5098,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>xe: 36</t>
+          <t>zl: 123</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -5117,12 +5113,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>yk: 86</t>
+          <t>rl: 413</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0021059395</t>
         </is>
       </c>
     </row>
@@ -5132,12 +5128,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ng: 273</t>
+          <t>ew: 50</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.0013920617</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -5147,12 +5143,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>pp: 39</t>
+          <t>qo: 2</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5162,13 +5158,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>l
-: 1314</t>
+          <t>dz: 1</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.0067002529</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5178,12 +5173,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>dv: 17</t>
+          <t>bl: 103</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -5193,12 +5188,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>js: 7</t>
+          <t>op: 95</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -5208,12 +5203,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ad: 1042</t>
+          <t>ly: 1588</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.0053132904</t>
+          <t>0.0080974137</t>
         </is>
       </c>
     </row>
@@ -5223,12 +5218,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>pu: 4</t>
+          <t>al: 2528</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0128905931</t>
         </is>
       </c>
     </row>
@@ -5238,12 +5233,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>pm: 1</t>
+          <t>hk: 29</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -5253,12 +5248,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>uc: 103</t>
+          <t>tv: 15</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -5268,12 +5263,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>et: 580</t>
+          <t>he: 674</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.0029574937</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -5283,12 +5278,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>uu: 3</t>
+          <t>kd: 2</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5298,12 +5293,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>gv: 1</t>
+          <t>hv: 39</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5308,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ed: 384</t>
+          <t>vn: 8</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.0019580648</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -5328,12 +5323,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>oz: 54</t>
+          <t>xe: 36</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.0002753529</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -5343,12 +5338,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>do: 378</t>
+          <t>cy: 104</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.0019274700</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -5358,12 +5353,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>zy: 147</t>
+          <t>vr: 48</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.0007495717</t>
+          <t>0.0002447581</t>
         </is>
       </c>
     </row>
@@ -5373,13 +5368,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>n
-: 6763</t>
+          <t>zg: 1</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.0344853961</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5389,12 +5383,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>nz: 145</t>
+          <t>ki: 509</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.0007393734</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -5404,12 +5398,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>nx: 6</t>
+          <t>ip: 53</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0002702537</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5413,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>yr: 291</t>
+          <t>wm: 2</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.0014838460</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5434,12 +5428,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>hu: 166</t>
+          <t>ao: 63</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.0008464551</t>
+          <t>0.0003212450</t>
         </is>
       </c>
     </row>
@@ -5449,12 +5443,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>pk: 1</t>
+          <t>oh: 171</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008719507</t>
         </is>
       </c>
     </row>
@@ -5464,12 +5458,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>tt: 374</t>
+          <t>sy: 215</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.0019070735</t>
+          <t>0.0010963123</t>
         </is>
       </c>
     </row>
@@ -5479,12 +5473,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>lp: 15</t>
+          <t>bn: 4</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5494,12 +5488,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>wm: 2</t>
+          <t>mv: 3</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5509,12 +5503,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>xi: 102</t>
+          <t>ea: 679</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.0005201110</t>
+          <t>0.0034623073</t>
         </is>
       </c>
     </row>
@@ -5524,12 +5518,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>nw: 11</t>
+          <t>xt: 70</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0003569389</t>
         </is>
       </c>
     </row>
@@ -5539,12 +5533,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>rb: 41</t>
+          <t>md: 24</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5548,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>zk: 2</t>
+          <t>pe: 197</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0010045280</t>
         </is>
       </c>
     </row>
@@ -5569,12 +5563,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>hf: 2</t>
+          <t>rb: 41</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -5584,12 +5578,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>au: 381</t>
+          <t>yy: 23</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.0019427674</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5593,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>iz: 277</t>
+          <t>ik: 445</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.0014124582</t>
+          <t>0.0022691115</t>
         </is>
       </c>
     </row>
@@ -5614,12 +5608,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>sa: 1201</t>
+          <t>as: 1118</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.0061240516</t>
+          <t>0.0057008240</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5623,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>ju: 202</t>
+          <t>af: 134</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.0010300237</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -5644,12 +5638,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>ku: 50</t>
+          <t>uq: 10</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -5659,12 +5653,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>uq: 10</t>
+          <t>jd: 4</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5674,12 +5668,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>uf: 19</t>
+          <t>by: 83</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -5689,12 +5683,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>eg: 125</t>
+          <t>mj: 7</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.0006373909</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -5704,12 +5698,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>sv: 14</t>
+          <t>am: 1634</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0083319736</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5713,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>ga: 330</t>
+          <t>rj: 25</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.0016827119</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -5734,12 +5728,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>ds: 29</t>
+          <t>ge: 334</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0017031084</t>
         </is>
       </c>
     </row>
@@ -5749,12 +5743,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>my: 287</t>
+          <t>pp: 39</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -5764,12 +5758,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>rz: 23</t>
+          <t>st: 765</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0039008322</t>
         </is>
       </c>
     </row>
@@ -5779,12 +5773,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>tf: 2</t>
+          <t>pr: 151</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0007699682</t>
         </is>
       </c>
     </row>
@@ -5794,12 +5788,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>iu: 109</t>
+          <t>hy: 213</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -5809,12 +5803,13 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>kk: 20</t>
+          <t>e
+: 3983</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0203098230</t>
         </is>
       </c>
     </row>
@@ -5824,12 +5819,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>ms: 35</t>
+          <t>nd: 704</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0035897854</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5834,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>pa: 209</t>
+          <t>hz: 20</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.0010657175</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -5854,12 +5849,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>ye: 301</t>
+          <t>rz: 23</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -5869,12 +5864,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>zt: 4</t>
+          <t>yh: 22</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -5884,12 +5879,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>jm: 5</t>
+          <t>gm: 6</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5894,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>us: 474</t>
+          <t>lt: 77</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.0024169862</t>
+          <t>0.0003926328</t>
         </is>
       </c>
     </row>
@@ -5914,12 +5909,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>yx: 28</t>
+          <t>xn: 1</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5929,12 +5924,13 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>jp: 1</t>
+          <t>u
+: 155</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007903647</t>
         </is>
       </c>
     </row>
@@ -5944,12 +5940,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>du: 92</t>
+          <t>gv: 1</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.0004691197</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5959,12 +5955,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>se: 884</t>
+          <t>rd: 187</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.0045076283</t>
+          <t>0.0009535368</t>
         </is>
       </c>
     </row>
@@ -5974,12 +5970,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ar: 3264</t>
+          <t>rm: 162</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.0166435506</t>
+          <t>0.0008260586</t>
         </is>
       </c>
     </row>
@@ -5989,12 +5985,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>eu: 69</t>
+          <t>hu: 166</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0008464551</t>
         </is>
       </c>
     </row>
@@ -6004,12 +6000,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>zc: 2</t>
+          <t>dn: 31</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -6019,12 +6015,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>aw: 161</t>
+          <t>tf: 2</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.0008209595</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6034,12 +6030,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>em: 769</t>
+          <t>sn: 24</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.0039212287</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6045,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>sd: 9</t>
+          <t>vb: 1</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6064,12 +6060,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>cj: 3</t>
+          <t>nf: 11</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -6079,12 +6075,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ni: 1725</t>
+          <t>jl: 9</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.0087959941</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -6094,12 +6090,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>zj: 2</t>
+          <t>vd: 1</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6109,12 +6105,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>rj: 25</t>
+          <t>yt: 104</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -6124,12 +6120,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>gw: 26</t>
+          <t>lk: 24</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -6139,12 +6135,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>gt: 31</t>
+          <t>nm: 19</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -6154,12 +6150,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>gy: 31</t>
+          <t>pk: 1</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6169,12 +6165,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ew: 50</t>
+          <t>eb: 121</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -6184,12 +6180,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ap: 82</t>
+          <t>yc: 115</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -6214,12 +6210,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>lz: 10</t>
+          <t>mm: 168</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -6229,12 +6225,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>tc: 17</t>
+          <t>ie: 1653</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0084288570</t>
         </is>
       </c>
     </row>
@@ -6244,12 +6240,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>iw: 8</t>
+          <t>wz: 1</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6255,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>ra: 2356</t>
+          <t>ba: 321</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.0120135433</t>
+          <t>0.0016368198</t>
         </is>
       </c>
     </row>
@@ -6274,12 +6270,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>ce: 551</t>
+          <t>oo: 115</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.0028096190</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -6289,12 +6285,13 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>ba: 321</t>
+          <t>j
+: 71</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.0016368198</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -6304,12 +6301,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>ij: 76</t>
+          <t>uj: 14</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -6319,12 +6316,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ry: 773</t>
+          <t>ux: 34</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.0039416252</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -6334,12 +6331,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>jy: 10</t>
+          <t>if: 101</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0005150118</t>
         </is>
       </c>
     </row>
@@ -6349,12 +6346,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>od: 190</t>
+          <t>rg: 76</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -6364,12 +6361,13 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>hg: 2</t>
+          <t>f
+: 80</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -6379,12 +6377,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>ui: 121</t>
+          <t>uc: 103</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -6394,12 +6392,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>rd: 187</t>
+          <t>tc: 17</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.0009535368</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -6409,12 +6407,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>qo: 2</t>
+          <t>xl: 39</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -6424,12 +6422,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>op: 95</t>
+          <t>iv: 269</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6437,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>kv: 2</t>
+          <t>ox: 45</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -6454,12 +6452,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>bc: 1</t>
+          <t>jw: 6</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6467,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>rf: 9</t>
+          <t>jj: 2</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6484,12 +6482,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>wd: 8</t>
+          <t>at: 687</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0035031003</t>
         </is>
       </c>
     </row>
@@ -6499,12 +6497,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>dn: 31</t>
+          <t>nl: 195</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0009943298</t>
         </is>
       </c>
     </row>
@@ -6514,12 +6512,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>lt: 77</t>
+          <t>ls: 94</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.0003926328</t>
+          <t>0.0004793179</t>
         </is>
       </c>
     </row>
@@ -6529,12 +6527,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>te: 716</t>
+          <t>ir: 849</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.0036509750</t>
+          <t>0.0043291588</t>
         </is>
       </c>
     </row>
@@ -6544,12 +6542,13 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>zb: 4</t>
+          <t>y
+: 2007</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0102339479</t>
         </is>
       </c>
     </row>
@@ -6559,12 +6558,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>sk: 82</t>
+          <t>fu: 10</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -6574,12 +6573,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>wz: 1</t>
+          <t>vu: 7</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -6589,7 +6588,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>jl: 9</t>
+          <t>hj: 9</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -6604,12 +6603,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>ph: 204</t>
+          <t>im: 427</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0021773272</t>
         </is>
       </c>
     </row>
@@ -6619,12 +6618,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>vn: 8</t>
+          <t>fo: 60</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -6634,12 +6633,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>dt: 4</t>
+          <t>jk: 2</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6649,12 +6648,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>dl: 60</t>
+          <t>lr: 18</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -6664,12 +6663,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>il: 1345</t>
+          <t>za: 860</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0043852492</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6678,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>rn: 140</t>
+          <t>xu: 5</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -6694,12 +6693,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>rs: 190</t>
+          <t>mh: 5</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -6709,12 +6708,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>hc: 2</t>
+          <t>eg: 125</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0006373909</t>
         </is>
       </c>
     </row>
@@ -6724,12 +6723,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ro: 869</t>
+          <t>ur: 414</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.0044311414</t>
+          <t>0.0021110386</t>
         </is>
       </c>
     </row>
@@ -6739,12 +6738,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>ow: 114</t>
+          <t>gn: 27</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -6754,12 +6753,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ns: 278</t>
+          <t>dq: 1</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.0014175573</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6769,12 +6768,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>nv: 55</t>
+          <t>ku: 50</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -6784,12 +6783,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>vl: 14</t>
+          <t>cs: 5</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -6799,12 +6798,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>hp: 1</t>
+          <t>gb: 3</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -6814,12 +6813,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>ia: 2445</t>
+          <t>le: 2921</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.0124673656</t>
+          <t>0.0148945501</t>
         </is>
       </c>
     </row>
@@ -6829,12 +6828,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>rq: 16</t>
+          <t>cx: 3</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -6844,12 +6843,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ww: 2</t>
+          <t>ng: 273</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0013920617</t>
         </is>
       </c>
     </row>
@@ -6859,12 +6858,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>nq: 2</t>
+          <t>fy: 14</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -6874,12 +6873,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>yy: 23</t>
+          <t>we: 149</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6888,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>ec: 153</t>
+          <t>mb: 112</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0005711022</t>
         </is>
       </c>
     </row>
@@ -6904,12 +6903,13 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>wk: 6</t>
+          <t>i
+: 2489</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0126917272</t>
         </is>
       </c>
     </row>
@@ -6919,12 +6919,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ge: 334</t>
+          <t>jn: 2</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.0017031084</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6934,13 +6934,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>z
-: 160</t>
+          <t>co: 380</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0019376683</t>
         </is>
       </c>
     </row>
@@ -6950,12 +6949,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>el: 3248</t>
+          <t>nx: 6</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.0165619646</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -6965,12 +6964,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>bi: 217</t>
+          <t>jt: 2</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.0011065106</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6980,13 +6979,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>i
-: 2489</t>
+          <t>ws: 20</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.0126917272</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -6996,12 +6994,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ei: 818</t>
+          <t>zd: 2</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7011,12 +7009,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>dd: 149</t>
+          <t>ub: 103</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -7026,12 +7024,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>de: 1283</t>
+          <t>lo: 692</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.0065421800</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -7041,12 +7039,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>xa: 103</t>
+          <t>dh: 118</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -7056,12 +7054,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>zu: 73</t>
+          <t>el: 3248</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0165619646</t>
         </is>
       </c>
     </row>
@@ -7071,12 +7069,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>wr: 22</t>
+          <t>bt: 2</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7086,12 +7084,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>sc: 60</t>
+          <t>em: 769</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0039212287</t>
         </is>
       </c>
     </row>
@@ -7101,12 +7099,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>os: 504</t>
+          <t>yd: 272</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.0025699600</t>
+          <t>0.0013869626</t>
         </is>
       </c>
     </row>
@@ -7116,12 +7114,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>by: 83</t>
+          <t>ed: 384</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0019580648</t>
         </is>
       </c>
     </row>
@@ -7131,12 +7129,13 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>da: 1303</t>
+          <t>g
+: 108</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.0066441625</t>
+          <t>0.0005507057</t>
         </is>
       </c>
     </row>
@@ -7146,12 +7145,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>lj: 6</t>
+          <t>jr: 11</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -7161,12 +7160,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>kf: 1</t>
+          <t>bu: 45</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -7176,12 +7175,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>zx: 1</t>
+          <t>re: 1697</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0086532186</t>
         </is>
       </c>
     </row>
@@ -7191,12 +7190,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>nt: 443</t>
+          <t>hb: 8</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.0022589133</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -7206,12 +7205,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>zp: 2</t>
+          <t>iy: 779</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0039722200</t>
         </is>
       </c>
     </row>
@@ -7221,12 +7220,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>wy: 73</t>
+          <t>da: 1303</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0066441625</t>
         </is>
       </c>
     </row>
@@ -7236,12 +7235,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>jj: 2</t>
+          <t>zs: 4</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7251,12 +7250,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>yj: 23</t>
+          <t>hw: 10</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -7266,12 +7265,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>kr: 109</t>
+          <t>yq: 6</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -7281,12 +7280,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>wi: 148</t>
+          <t>ep: 83</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -7296,12 +7295,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>zr: 32</t>
+          <t>nz: 145</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0007393734</t>
         </is>
       </c>
     </row>
@@ -7311,12 +7310,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>be: 655</t>
+          <t>sw: 24</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.0033399282</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -7326,12 +7325,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ev: 463</t>
+          <t>ri: 3033</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.0023608958</t>
+          <t>0.0154656523</t>
         </is>
       </c>
     </row>
@@ -7341,12 +7340,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>xd: 5</t>
+          <t>hp: 1</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7356,12 +7355,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>hs: 31</t>
+          <t>oy: 103</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -7371,12 +7370,13 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>li: 2480</t>
+          <t>b
+: 114</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.0126458350</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -7386,12 +7386,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ss: 461</t>
+          <t>uw: 86</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.0023506976</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -7401,12 +7401,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ot: 118</t>
+          <t>hh: 1</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7416,12 +7416,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>lw: 16</t>
+          <t>fg: 1</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7431,12 +7431,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>nk: 58</t>
+          <t>vy: 121</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -7446,12 +7446,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>dj: 9</t>
+          <t>yn: 1826</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0093110060</t>
         </is>
       </c>
     </row>
@@ -7461,12 +7461,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>uw: 86</t>
+          <t>tt: 374</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0019070735</t>
         </is>
       </c>
     </row>
@@ -7476,12 +7476,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>ao: 63</t>
+          <t>ky: 379</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.0003212450</t>
+          <t>0.0019325691</t>
         </is>
       </c>
     </row>
@@ -7491,12 +7491,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>iq: 52</t>
+          <t>sr: 55</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -7506,12 +7506,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>we: 149</t>
+          <t>fl: 20</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -7521,12 +7521,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>yo: 271</t>
+          <t>ij: 76</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -7536,12 +7536,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>av: 834</t>
+          <t>tg: 2</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.0042526719</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7551,12 +7551,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>si: 684</t>
+          <t>dk: 3</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.0034878029</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -7566,12 +7566,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>bs: 8</t>
+          <t>qs: 2</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>oq: 3</t>
+          <t>ez: 181</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0009229420</t>
         </is>
       </c>
     </row>
@@ -7596,12 +7596,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>ll: 1345</t>
+          <t>uz: 45</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -7611,12 +7611,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>cx: 3</t>
+          <t>np: 5</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -7626,12 +7626,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ka: 1731</t>
+          <t>ve: 568</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.0088265889</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -7641,12 +7641,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>ol: 619</t>
+          <t>mn: 20</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.0031563596</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -7656,12 +7656,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>go: 83</t>
+          <t>ul: 301</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -7671,12 +7671,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>vo: 153</t>
+          <t>oc: 114</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -7686,12 +7686,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>xz: 19</t>
+          <t>wb: 1</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7701,12 +7701,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>ie: 1653</t>
+          <t>pb: 2</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.0084288570</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7716,12 +7716,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>wb: 1</t>
+          <t>zy: 147</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007495717</t>
         </is>
       </c>
     </row>
@@ -7731,13 +7731,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>k
-: 363</t>
+          <t>gy: 31</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.0018509831</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -7747,12 +7746,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>vh: 1</t>
+          <t>ji: 119</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0006067961</t>
         </is>
       </c>
     </row>
@@ -7762,12 +7761,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>pt: 17</t>
+          <t>dw: 23</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -7777,12 +7776,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>in: 2126</t>
+          <t>ci: 271</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.0108407441</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -7792,12 +7791,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>ib: 110</t>
+          <t>hi: 729</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0037172636</t>
         </is>
       </c>
     </row>
@@ -7807,12 +7806,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>mj: 7</t>
+          <t>lu: 324</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0016521172</t>
         </is>
       </c>
     </row>
@@ -7822,12 +7821,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>it: 541</t>
+          <t>ck: 316</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0016113241</t>
         </is>
       </c>
     </row>
@@ -7837,12 +7836,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ah: 2332</t>
+          <t>su: 185</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.0118911642</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -7852,12 +7851,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>fi: 160</t>
+          <t>db: 1</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7867,12 +7866,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>jh: 45</t>
+          <t>lv: 72</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0003671371</t>
         </is>
       </c>
     </row>
@@ -7882,12 +7881,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>yq: 6</t>
+          <t>th: 647</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0032991352</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7896,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>sg: 2</t>
+          <t>qr: 1</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7912,12 +7911,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>al: 2528</t>
+          <t>lp: 15</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.0128905931</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -7927,12 +7926,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>at: 687</t>
+          <t>hf: 2</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.0035031003</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7942,12 +7941,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>ii: 82</t>
+          <t>me: 818</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -7957,12 +7956,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>lm: 60</t>
+          <t>up: 16</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -7972,12 +7971,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>dw: 23</t>
+          <t>ni: 1725</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0087959941</t>
         </is>
       </c>
     </row>
@@ -7987,12 +7986,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>cu: 35</t>
+          <t>rc: 99</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0005048136</t>
         </is>
       </c>
     </row>
@@ -8002,12 +8001,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>vv: 7</t>
+          <t>so: 531</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0027076365</t>
         </is>
       </c>
     </row>
@@ -8017,12 +8016,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>ax: 182</t>
+          <t>gl: 32</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.0009280411</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -8032,12 +8031,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>lk: 24</t>
+          <t>qm: 2</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8047,12 +8046,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>rk: 90</t>
+          <t>ah: 2332</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0118911642</t>
         </is>
       </c>
     </row>
@@ -8062,12 +8061,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>kz: 2</t>
+          <t>zo: 110</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -8077,12 +8076,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>oy: 103</t>
+          <t>um: 154</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0007852656</t>
         </is>
       </c>
     </row>
@@ -8092,12 +8091,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>rg: 76</t>
+          <t>ec: 153</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8106,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>af: 134</t>
+          <t>hc: 2</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8122,12 +8121,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>xh: 1</t>
+          <t>ft: 18</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -8137,12 +8136,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ko: 344</t>
+          <t>gh: 360</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.0017540997</t>
+          <t>0.0018356857</t>
         </is>
       </c>
     </row>
@@ -8152,13 +8151,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>t
-: 483</t>
+          <t>fe: 123</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.0024628784</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -8168,12 +8166,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>fr: 114</t>
+          <t>mp: 38</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -8183,12 +8181,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>db: 1</t>
+          <t>mi: 1256</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0064045035</t>
         </is>
       </c>
     </row>
@@ -8198,12 +8196,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>en: 2675</t>
+          <t>ms: 35</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.0136401648</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -8213,12 +8211,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ob: 140</t>
+          <t>xy: 30</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -8228,12 +8226,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ta: 1027</t>
+          <t>wa: 280</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.0052368035</t>
+          <t>0.0014277556</t>
         </is>
       </c>
     </row>
@@ -8243,12 +8241,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>nf: 11</t>
+          <t>kj: 2</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8258,12 +8256,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>zn: 4</t>
+          <t>zk: 2</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8273,12 +8271,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>nn: 1906</t>
+          <t>et: 580</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.0097189361</t>
+          <t>0.0029574937</t>
         </is>
       </c>
     </row>
@@ -8288,12 +8286,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>fh: 1</t>
+          <t>lb: 52</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -8303,12 +8301,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>rx: 3</t>
+          <t>au: 381</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0019427674</t>
         </is>
       </c>
     </row>
@@ -8318,12 +8316,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>ck: 316</t>
+          <t>tn: 22</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.0016113241</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -8333,12 +8331,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>mo: 452</t>
+          <t>jc: 4</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.0023048054</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8348,12 +8346,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>jc: 4</t>
+          <t>lc: 25</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8361,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>gg: 25</t>
+          <t>wd: 8</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -8378,12 +8376,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>wl: 13</t>
+          <t>rn: 140</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -8393,12 +8391,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>oo: 115</t>
+          <t>bc: 1</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8408,12 +8406,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>gh: 360</t>
+          <t>rk: 90</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.0018356857</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -8423,13 +8421,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>f
-: 80</t>
+          <t>wn: 58</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -8439,12 +8436,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>py: 12</t>
+          <t>hm: 117</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0005965979</t>
         </is>
       </c>
     </row>
@@ -8454,7 +8451,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>xu: 5</t>
+          <t>jv: 5</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -8469,12 +8466,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>uk: 93</t>
+          <t>sz: 10</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.0004742188</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8481,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>hq: 1</t>
+          <t>ql: 1</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -8499,12 +8496,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>sb: 21</t>
+          <t>js: 7</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -8514,12 +8511,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>sj: 2</t>
+          <t>vh: 1</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8529,12 +8526,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>ri: 3033</t>
+          <t>hq: 1</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.0154656523</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8544,12 +8541,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>gm: 6</t>
+          <t>sj: 2</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8559,12 +8556,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>zv: 2</t>
+          <t>gw: 26</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -8574,12 +8571,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ws: 20</t>
+          <t>xs: 31</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -8589,12 +8586,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>cz: 4</t>
+          <t>bo: 105</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -8604,13 +8601,13 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>s
-: 1169</t>
+          <t>d
+: 516</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.0059608795</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -8620,12 +8617,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>rw: 21</t>
+          <t>wk: 6</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -8635,12 +8632,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>ts: 35</t>
+          <t>dy: 317</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0016164233</t>
         </is>
       </c>
     </row>
@@ -8650,12 +8647,13 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>hk: 29</t>
+          <t>c
+: 97</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -8665,12 +8663,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>ym: 148</t>
+          <t>du: 92</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0004691197</t>
         </is>
       </c>
     </row>
@@ -8680,12 +8678,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>nr: 44</t>
+          <t>ap: 82</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8693,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>md: 24</t>
+          <t>lj: 6</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -8710,12 +8708,12 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>nh: 26</t>
+          <t>ui: 121</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -8725,12 +8723,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>za: 860</t>
+          <t>is: 1316</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.0043852492</t>
+          <t>0.0067104512</t>
         </is>
       </c>
     </row>
@@ -8740,12 +8738,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>km: 9</t>
+          <t>ht: 71</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -8755,12 +8753,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>mp: 38</t>
+          <t>oq: 3</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8770,12 +8768,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>mv: 3</t>
+          <t>km: 9</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -8785,12 +8783,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>tw: 11</t>
+          <t>nb: 8</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -8800,12 +8798,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>sh: 1285</t>
+          <t>cg: 2</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.0065523782</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8815,12 +8813,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>sy: 215</t>
+          <t>tl: 134</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.0010963123</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -8830,12 +8828,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>hw: 10</t>
+          <t>rw: 21</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -8845,12 +8843,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>ti: 532</t>
+          <t>qa: 13</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.0027127356</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -8860,12 +8858,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>am: 1634</t>
+          <t>tz: 105</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.0083319736</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -8875,13 +8873,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>w
-: 51</t>
+          <t>zj: 2</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8891,12 +8888,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>hh: 1</t>
+          <t>ix: 89</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0004538223</t>
         </is>
       </c>
     </row>
@@ -8906,12 +8903,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>cd: 1</t>
+          <t>lg: 6</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -8921,12 +8918,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>nc: 213</t>
+          <t>vl: 14</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -8936,12 +8933,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>fz: 2</t>
+          <t>uf: 19</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -8951,12 +8948,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>tu: 78</t>
+          <t>yx: 28</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -8966,12 +8963,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>ky: 379</t>
+          <t>jb: 1</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.0019325691</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8981,12 +8978,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>zg: 1</t>
+          <t>zr: 32</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -8996,12 +8993,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>ff: 44</t>
+          <t>eu: 69</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -9011,12 +9008,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ex: 132</t>
+          <t>ga: 330</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0016827119</t>
         </is>
       </c>
     </row>
@@ -9026,12 +9023,13 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>bu: 45</t>
+          <t>t
+: 483</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0024628784</t>
         </is>
       </c>
     </row>
@@ -9041,12 +9039,13 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>og: 44</t>
+          <t>p
+: 33</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0001682712</t>
         </is>
       </c>
     </row>
@@ -9056,12 +9055,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>nu: 96</t>
+          <t>hl: 185</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.0004895162</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -9071,12 +9070,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>me: 818</t>
+          <t>la: 2623</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0133750102</t>
         </is>
       </c>
     </row>
@@ -9086,12 +9085,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>bt: 2</t>
+          <t>uy: 13</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -9101,12 +9100,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>im: 427</t>
+          <t>cl: 116</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.0021773272</t>
+          <t>0.0005914987</t>
         </is>
       </c>
     </row>
@@ -9116,12 +9115,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>kh: 307</t>
+          <t>ey: 1070</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.0015654320</t>
+          <t>0.0054560659</t>
         </is>
       </c>
     </row>
@@ -9131,12 +9130,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>gi: 190</t>
+          <t>fa: 242</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0012339887</t>
         </is>
       </c>
     </row>
@@ -9146,12 +9145,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>mf: 1</t>
+          <t>fn: 4</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -9161,12 +9160,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>eq: 14</t>
+          <t>io: 588</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0029982867</t>
         </is>
       </c>
     </row>
@@ -9176,12 +9175,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>uv: 37</t>
+          <t>gu: 85</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.0001886677</t>
+          <t>0.0004334258</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9190,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>ep: 83</t>
+          <t>aw: 161</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0008209595</t>
         </is>
       </c>
     </row>
@@ -9206,12 +9205,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>mr: 97</t>
+          <t>tu: 78</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -9221,12 +9220,13 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>lv: 72</t>
+          <t>z
+: 160</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.0003671371</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>gu: 85</t>
+          <t>jy: 10</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.0004334258</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -9251,12 +9251,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>cp: 1</t>
+          <t>hn: 138</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -9266,12 +9266,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>kn: 26</t>
+          <t>ja: 1473</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0075110141</t>
         </is>
       </c>
     </row>
@@ -9281,12 +9281,13 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>gd: 19</t>
+          <t>a
+: 6640</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0338582035</t>
         </is>
       </c>
     </row>
@@ -9296,12 +9297,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>gl: 32</t>
+          <t>qe: 1</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9311,12 +9312,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>gs: 30</t>
+          <t>ue: 169</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0008617525</t>
         </is>
       </c>
     </row>
@@ -9326,12 +9327,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>vr: 48</t>
+          <t>ar: 3264</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.0002447581</t>
+          <t>0.0166435506</t>
         </is>
       </c>
     </row>
@@ -9341,12 +9342,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>ml: 5</t>
+          <t>yp: 15</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -9356,13 +9357,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>b
-: 114</t>
+          <t>lh: 19</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -9372,12 +9372,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>cr: 76</t>
+          <t>iw: 8</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9387,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>lo: 692</t>
+          <t>gj: 3</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -9402,12 +9402,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>cs: 5</t>
+          <t>ka: 1731</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0088265889</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>of: 34</t>
+          <t>oe: 132</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>yu: 141</t>
+          <t>ob: 140</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.0007189769</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -9447,12 +9447,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>eo: 269</t>
+          <t>si: 684</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0034878029</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9462,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>to: 667</t>
+          <t>ke: 895</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.0034011177</t>
+          <t>0.0045637187</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>ps: 16</t>
+          <t>ym: 148</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>

--- a/Bigram_Language_Model/probabilities.xlsx
+++ b/Bigram_Language_Model/probabilities.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wr: 22</t>
+          <t>sm: 90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xd: 5</t>
+          <t>hi: 729</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0037172636</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ai: 1650</t>
+          <t>vv: 7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0084135596</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rp: 14</t>
+          <t>lq: 3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>uv: 37</t>
+          <t>iu: 109</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0001886677</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>om: 261</t>
+          <t>qe: 1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0013308722</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>oi: 69</t>
+          <t>sc: 60</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sd: 9</t>
+          <t>be: 655</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0033399282</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>xx: 38</t>
+          <t>zc: 2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dl: 60</t>
+          <t>lo: 692</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>yl: 1104</t>
+          <t>bn: 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0056294362</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cp: 1</t>
+          <t>z
+: 160</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -631,12 +632,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>yo: 271</t>
+          <t>mc: 51</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -646,13 +647,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>w
-: 51</t>
+          <t>ml: 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>hd: 24</t>
+          <t>ic: 509</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ho: 287</t>
+          <t>ex: 132</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -692,12 +692,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>je: 440</t>
+          <t>v
+: 88</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0004487232</t>
         </is>
       </c>
     </row>
@@ -707,12 +708,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bj: 1</t>
+          <t>jd: 4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -722,7 +723,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cj: 3</t>
+          <t>cx: 3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -737,12 +738,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>lw: 16</t>
+          <t>bj: 1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -752,12 +753,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>fw: 4</t>
+          <t>rj: 25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -767,12 +768,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>xc: 4</t>
+          <t>li: 2480</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0126458350</t>
         </is>
       </c>
     </row>
@@ -782,12 +783,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>kb: 2</t>
+          <t>us: 474</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0024169862</t>
         </is>
       </c>
     </row>
@@ -797,12 +798,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ko: 344</t>
+          <t>az: 435</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.0017540997</t>
+          <t>0.0022181203</t>
         </is>
       </c>
     </row>
@@ -812,12 +813,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ss: 461</t>
+          <t>ir: 849</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.0023506976</t>
+          <t>0.0043291588</t>
         </is>
       </c>
     </row>
@@ -827,12 +828,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nc: 213</t>
+          <t>gm: 6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -842,12 +843,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jh: 45</t>
+          <t>ug: 47</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0002396590</t>
         </is>
       </c>
     </row>
@@ -857,12 +858,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>po: 59</t>
+          <t>aa: 556</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.0003008485</t>
+          <t>0.0028351146</t>
         </is>
       </c>
     </row>
@@ -872,12 +873,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>lf: 22</t>
+          <t>rx: 3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -887,12 +888,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ay: 2050</t>
+          <t>uh: 58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.0104532104</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -902,12 +903,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ih: 95</t>
+          <t>vd: 1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -917,12 +918,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mr: 97</t>
+          <t>ux: 34</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -932,12 +933,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dd: 149</t>
+          <t>ht: 71</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -947,13 +948,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>o
-: 855</t>
+          <t>et: 580</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.0043597536</t>
+          <t>0.0029574937</t>
         </is>
       </c>
     </row>
@@ -963,12 +963,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>wt: 8</t>
+          <t>fh: 1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>wo: 36</t>
+          <t>su: 185</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -993,12 +993,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sa: 1201</t>
+          <t>xm: 1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.0061240516</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1008,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>or: 1059</t>
+          <t>bb: 38</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.0053999755</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ru: 252</t>
+          <t>xu: 5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.0012849800</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -1038,12 +1038,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>vi: 911</t>
+          <t>uz: 45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.0046453047</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ex: 132</t>
+          <t>qa: 13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1068,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sb: 21</t>
+          <t>ln: 14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ma: 2590</t>
+          <t>gs: 30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.0132067390</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -1098,12 +1098,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>kh: 307</t>
+          <t>id: 440</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.0015654320</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>dm: 30</t>
+          <t>zy: 147</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0007495717</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ua: 163</t>
+          <t>za: 860</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0043852492</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>av: 834</t>
+          <t>ni: 1725</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.0042526719</t>
+          <t>0.0087959941</t>
         </is>
       </c>
     </row>
@@ -1158,12 +1158,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ak: 568</t>
+          <t>nv: 55</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -1173,12 +1173,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>wh: 23</t>
+          <t>nw: 11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pt: 17</t>
+          <t>tu: 78</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -1203,12 +1203,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>wu: 25</t>
+          <t>l
+: 1314</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0067002529</t>
         </is>
       </c>
     </row>
@@ -1218,12 +1219,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>rf: 9</t>
+          <t>ua: 163</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1234,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>xf: 3</t>
+          <t>uo: 10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -1248,13 +1249,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>m
-: 516</t>
+          <t>zh: 43</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0002192625</t>
         </is>
       </c>
     </row>
@@ -1264,12 +1264,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>vv: 7</t>
+          <t>sd: 9</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ct: 35</t>
+          <t>jy: 10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pf: 1</t>
+          <t>oe: 132</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1309,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fk: 2</t>
+          <t>yk: 86</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -1324,12 +1324,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>uh: 58</t>
+          <t>te: 716</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0036509750</t>
         </is>
       </c>
     </row>
@@ -1339,13 +1339,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>x
-: 163</t>
+          <t>zv: 2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1355,12 +1354,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>tm: 4</t>
+          <t>ej: 55</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -1370,12 +1369,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>wg: 1</t>
+          <t>aw: 161</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008209595</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1384,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>nh: 26</t>
+          <t>he: 674</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -1400,12 +1399,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>se: 884</t>
+          <t>ck: 316</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.0045076283</t>
+          <t>0.0016113241</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1414,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>zx: 1</t>
+          <t>ns: 278</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0014175573</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1429,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ch: 664</t>
+          <t>kz: 2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.0033858203</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1444,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ld: 138</t>
+          <t>yr: 291</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0014838460</t>
         </is>
       </c>
     </row>
@@ -1460,12 +1459,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>rt: 208</t>
+          <t>cs: 5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.0010606184</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -1475,12 +1474,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ud: 136</t>
+          <t>oi: 69</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.0006934813</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -1490,12 +1489,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pm: 1</t>
+          <t>jv: 5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -1505,12 +1504,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ds: 29</t>
+          <t>vi: 911</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0046453047</t>
         </is>
       </c>
     </row>
@@ -1520,12 +1519,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>zc: 2</t>
+          <t>ev: 463</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0023608958</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1534,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>te: 716</t>
+          <t>hv: 39</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.0036509750</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -1550,12 +1549,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ol: 619</t>
+          <t>fk: 2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.0031563596</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1565,12 +1564,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>mf: 1</t>
+          <t>am: 1634</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0083319736</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1579,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sm: 90</t>
+          <t>jw: 6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -1595,12 +1594,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ag: 168</t>
+          <t>cp: 1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1610,12 +1609,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ps: 16</t>
+          <t>fo: 60</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -1625,12 +1624,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>il: 1345</t>
+          <t>hc: 2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1640,12 +1639,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>lm: 60</t>
+          <t>hh: 1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1654,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>nt: 443</t>
+          <t>oz: 54</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.0022589133</t>
+          <t>0.0002753529</t>
         </is>
       </c>
     </row>
@@ -1670,12 +1669,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>do: 378</t>
+          <t>wm: 2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.0019274700</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1685,13 +1684,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>l
-: 1314</t>
+          <t>gh: 360</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.0067002529</t>
+          <t>0.0018356857</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1699,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>fh: 1</t>
+          <t>dc: 3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1714,8 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>fr: 114</t>
+          <t>b
+: 114</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1731,12 +1730,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>nu: 96</t>
+          <t>ud: 136</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.0004895162</t>
+          <t>0.0006934813</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1745,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>eo: 269</t>
+          <t>hy: 213</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1760,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sv: 14</t>
+          <t>kt: 17</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1775,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>it: 541</t>
+          <t>nf: 11</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1790,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>qw: 3</t>
+          <t>ao: 63</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0003212450</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1805,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jo: 479</t>
+          <t>zl: 123</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.0024424818</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1820,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>sq: 1</t>
+          <t>wu: 25</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -1836,12 +1835,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>nn: 1906</t>
+          <t>yi: 192</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.0097189361</t>
+          <t>0.0009790324</t>
         </is>
       </c>
     </row>
@@ -1851,12 +1850,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ek: 178</t>
+          <t>kl: 139</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.0009076446</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -1866,12 +1865,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bh: 41</t>
+          <t>rt: 208</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0010606184</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1880,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>sh: 1285</t>
+          <t>kj: 2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.0065523782</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1895,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>oa: 149</t>
+          <t>dl: 60</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1910,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>yb: 27</t>
+          <t>ax: 182</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0009280411</t>
         </is>
       </c>
     </row>
@@ -1926,12 +1925,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>tj: 3</t>
+          <t>zt: 4</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1940,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>lq: 3</t>
+          <t>xs: 31</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -1956,12 +1955,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>cz: 4</t>
+          <t>bu: 45</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1970,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bb: 38</t>
+          <t>mi: 1256</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0064045035</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1985,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>of: 34</t>
+          <t>zi: 364</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0018560822</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2000,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>us: 474</t>
+          <t>og: 44</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.0024169862</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -2016,12 +2015,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>wl: 13</t>
+          <t>uk: 93</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0004742188</t>
         </is>
       </c>
     </row>
@@ -2031,12 +2030,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>mu: 139</t>
+          <t>dk: 3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2046,12 +2045,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>rv: 80</t>
+          <t>di: 674</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -2061,13 +2060,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>s
-: 1169</t>
+          <t>jh: 45</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.0059608795</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -2077,12 +2075,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>uk: 93</t>
+          <t>lt: 77</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.0004742188</t>
+          <t>0.0003926328</t>
         </is>
       </c>
     </row>
@@ -2092,12 +2090,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>iu: 109</t>
+          <t>tn: 22</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2105,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ii: 82</t>
+          <t>dr: 424</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0021620299</t>
         </is>
       </c>
     </row>
@@ -2122,12 +2120,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>pl: 16</t>
+          <t>df: 5</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -2137,12 +2135,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>mc: 51</t>
+          <t>ph: 204</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2150,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>gi: 190</t>
+          <t>xd: 5</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -2167,12 +2165,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>dv: 17</t>
+          <t>sz: 10</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -2182,12 +2180,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>kc: 2</t>
+          <t>vk: 3</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2195,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>xa: 103</t>
+          <t>ba: 321</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0016368198</t>
         </is>
       </c>
     </row>
@@ -2212,12 +2210,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ta: 1027</t>
+          <t>um: 154</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.0052368035</t>
+          <t>0.0007852656</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2225,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>kv: 2</t>
+          <t>cg: 2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2242,12 +2240,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>yr: 291</t>
+          <t>la: 2623</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.0014838460</t>
+          <t>0.0133750102</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2255,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>nq: 2</t>
+          <t>jk: 2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2272,12 +2270,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ic: 509</t>
+          <t>em: 769</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0039212287</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2285,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ug: 47</t>
+          <t>ta: 1027</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.0002396590</t>
+          <t>0.0052368035</t>
         </is>
       </c>
     </row>
@@ -2302,12 +2300,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>zm: 35</t>
+          <t>sp: 51</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -2317,12 +2315,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>dt: 4</t>
+          <t>fg: 1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2330,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ra: 2356</t>
+          <t>ig: 428</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.0120135433</t>
+          <t>0.0021824264</t>
         </is>
       </c>
     </row>
@@ -2347,12 +2345,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>rq: 16</t>
+          <t>fa: 242</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0012339887</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2360,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>zb: 4</t>
+          <t>ac: 470</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0023965897</t>
         </is>
       </c>
     </row>
@@ -2377,12 +2375,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sl: 279</t>
+          <t>gw: 26</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.0014226564</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -2392,12 +2390,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>rx: 3</t>
+          <t>ei: 818</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2405,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>bi: 217</t>
+          <t>jc: 4</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.0011065106</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2420,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ce: 551</t>
+          <t>so: 531</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.0028096190</t>
+          <t>0.0027076365</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2435,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>aa: 556</t>
+          <t>ef: 82</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.0028351146</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -2452,12 +2450,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>es: 861</t>
+          <t>iy: 779</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.0043903484</t>
+          <t>0.0039722200</t>
         </is>
       </c>
     </row>
@@ -2467,12 +2465,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>cq: 11</t>
+          <t>ie: 1653</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0084288570</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2480,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ks: 95</t>
+          <t>pl: 16</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -2497,12 +2495,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>va: 642</t>
+          <t>yh: 22</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.0032736396</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -2512,12 +2510,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>zt: 4</t>
+          <t>zj: 2</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2525,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>no: 496</t>
+          <t>pe: 197</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.0025291670</t>
+          <t>0.0010045280</t>
         </is>
       </c>
     </row>
@@ -2542,12 +2540,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>yk: 86</t>
+          <t>zm: 35</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2555,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>sp: 51</t>
+          <t>hm: 117</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0005965979</t>
         </is>
       </c>
     </row>
@@ -2572,12 +2570,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>xo: 41</t>
+          <t>sr: 55</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -2587,13 +2585,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>q
-: 28</t>
+          <t>tg: 2</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2600,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>od: 190</t>
+          <t>ga: 330</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0016827119</t>
         </is>
       </c>
     </row>
@@ -2618,12 +2615,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ya: 2143</t>
+          <t>cj: 3</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.0109274292</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2633,12 +2630,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>hg: 2</t>
+          <t>eo: 269</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -2648,12 +2645,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ro: 869</t>
+          <t>il: 1345</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.0044311414</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2660,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>nr: 44</t>
+          <t>iv: 269</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -2678,12 +2675,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>be: 655</t>
+          <t>nj: 44</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.0033399282</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2690,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>aj: 175</t>
+          <t>es: 861</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.0008923472</t>
+          <t>0.0043903484</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2705,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>yz: 78</t>
+          <t>fr: 114</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2720,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>tx: 2</t>
+          <t>ii: 82</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -2738,12 +2735,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>qu: 206</t>
+          <t>lf: 22</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.0010504202</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2750,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ia: 2445</t>
+          <t>ek: 178</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.0124673656</t>
+          <t>0.0009076446</t>
         </is>
       </c>
     </row>
@@ -2768,12 +2765,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>to: 667</t>
+          <t>lm: 60</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.0034011177</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2780,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>nj: 44</t>
+          <t>ly: 1588</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0080974137</t>
         </is>
       </c>
     </row>
@@ -2798,12 +2795,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>tr: 352</t>
+          <t>oc: 114</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.0017948927</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -2813,12 +2810,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>id: 440</t>
+          <t>ko: 344</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0017540997</t>
         </is>
       </c>
     </row>
@@ -2828,13 +2825,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>n
-: 6763</t>
+          <t>sw: 24</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.0344853961</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -2844,12 +2840,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>sf: 2</t>
+          <t>hs: 31</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -2859,12 +2855,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>uu: 3</t>
+          <t>aq: 60</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -2874,12 +2870,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ww: 2</t>
+          <t>up: 16</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2885,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>kl: 139</t>
+          <t>wt: 8</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -2904,12 +2900,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>nk: 58</t>
+          <t>zb: 4</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2915,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>fz: 2</t>
+          <t>bh: 41</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -2934,12 +2930,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ju: 202</t>
+          <t>kw: 34</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.0010300237</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2945,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>dr: 424</t>
+          <t>ov: 176</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.0021620299</t>
+          <t>0.0008974464</t>
         </is>
       </c>
     </row>
@@ -2964,12 +2960,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ei: 818</t>
+          <t>xl: 39</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2975,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ny: 465</t>
+          <t>fu: 10</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.0023710941</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -2994,12 +2990,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>aq: 60</t>
+          <t>ib: 110</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -3009,12 +3005,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>kr: 109</t>
+          <t>dn: 31</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -3024,12 +3020,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>cu: 35</t>
+          <t>gn: 27</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -3039,12 +3035,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ln: 14</t>
+          <t>eu: 69</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3050,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>pc: 1</t>
+          <t>uq: 10</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -3069,12 +3065,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>rs: 190</t>
+          <t>hd: 24</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -3084,13 +3080,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>v
-: 88</t>
+          <t>uc: 103</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.0004487232</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -3100,12 +3095,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>jm: 5</t>
+          <t>rq: 16</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -3115,12 +3110,13 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ee: 1271</t>
+          <t>h
+: 2409</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.0064809905</t>
+          <t>0.0122837970</t>
         </is>
       </c>
     </row>
@@ -3130,12 +3126,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>wy: 73</t>
+          <t>xy: 30</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -3145,12 +3141,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>yu: 141</t>
+          <t>iz: 277</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.0007189769</t>
+          <t>0.0014124582</t>
         </is>
       </c>
     </row>
@@ -3160,12 +3156,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>di: 674</t>
+          <t>nz: 145</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0007393734</t>
         </is>
       </c>
     </row>
@@ -3175,12 +3171,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ne: 1359</t>
+          <t>kv: 2</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.0069297136</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3190,12 +3186,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>xi: 102</t>
+          <t>xb: 1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.0005201110</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3201,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>dg: 25</t>
+          <t>ma: 2590</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0132067390</t>
         </is>
       </c>
     </row>
@@ -3220,12 +3216,13 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>my: 287</t>
+          <t>o
+: 855</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0043597536</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3232,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>xh: 1</t>
+          <t>gd: 19</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -3250,12 +3247,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>pa: 209</t>
+          <t>rg: 76</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.0010657175</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -3265,12 +3262,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>kz: 2</t>
+          <t>rb: 41</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3277,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>an: 5438</t>
+          <t>vr: 48</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.0277290528</t>
+          <t>0.0002447581</t>
         </is>
       </c>
     </row>
@@ -3295,12 +3292,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>sc: 60</t>
+          <t>nq: 2</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3310,12 +3307,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ot: 118</t>
+          <t>tb: 1</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3325,12 +3322,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>sk: 82</t>
+          <t>ya: 2143</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0109274292</t>
         </is>
       </c>
     </row>
@@ -3340,12 +3337,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>az: 435</t>
+          <t>lj: 6</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.0022181203</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -3355,12 +3352,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ze: 373</t>
+          <t>hr: 204</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.0019019744</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -3370,12 +3367,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ib: 110</t>
+          <t>wr: 22</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -3385,12 +3382,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>og: 44</t>
+          <t>dh: 118</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -3400,12 +3397,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>kk: 20</t>
+          <t>it: 541</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3412,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ej: 55</t>
+          <t>mn: 20</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -3430,12 +3427,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>mt: 4</t>
+          <t>fz: 2</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3442,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>tb: 1</t>
+          <t>ip: 53</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002702537</t>
         </is>
       </c>
     </row>
@@ -3460,12 +3457,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>na: 2977</t>
+          <t>wl: 13</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.0151801012</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3472,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>li: 2480</t>
+          <t>xn: 1</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.0126458350</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3490,12 +3487,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>nw: 11</t>
+          <t>rl: 413</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0021059395</t>
         </is>
       </c>
     </row>
@@ -3505,12 +3502,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>dc: 3</t>
+          <t>np: 5</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -3520,12 +3517,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>nv: 55</t>
+          <t>wo: 36</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -3535,13 +3532,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>h
-: 2409</t>
+          <t>ro: 869</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.0122837970</t>
+          <t>0.0044311414</t>
         </is>
       </c>
     </row>
@@ -3551,12 +3547,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>hr: 204</t>
+          <t>cu: 35</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -3566,12 +3562,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>fs: 6</t>
+          <t>eg: 125</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0006373909</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3577,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>un: 275</t>
+          <t>ow: 114</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -3596,12 +3592,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>br: 842</t>
+          <t>vo: 153</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.0042934650</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3607,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>zh: 43</t>
+          <t>zx: 1</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.0002192625</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3626,12 +3622,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>wi: 148</t>
+          <t>zd: 2</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3637,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>mz: 11</t>
+          <t>wn: 58</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -3656,12 +3652,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ts: 35</t>
+          <t>ne: 1359</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0069297136</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3667,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>qi: 13</t>
+          <t>ys: 401</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0020447499</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3682,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>pu: 4</t>
+          <t>vl: 14</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3697,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>cd: 1</t>
+          <t>jb: 1</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -3716,12 +3712,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>yi: 192</t>
+          <t>kf: 1</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.0009790324</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3731,12 +3727,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>er: 1958</t>
+          <t>dv: 17</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.0099840907</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3742,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ys: 401</t>
+          <t>qw: 3</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.0020447499</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3757,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>rh: 121</t>
+          <t>de: 1283</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0065421800</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3772,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>gd: 19</t>
+          <t>lk: 24</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3787,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>bs: 8</t>
+          <t>zk: 2</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3806,12 +3802,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>oz: 54</t>
+          <t>yo: 271</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.0002753529</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3817,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>cc: 42</t>
+          <t>sl: 279</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.0002141633</t>
+          <t>0.0014226564</t>
         </is>
       </c>
     </row>
@@ -3836,12 +3832,13 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>zu: 73</t>
+          <t>j
+: 71</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3848,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>zz: 45</t>
+          <t>uu: 3</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -3866,12 +3863,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>iz: 277</t>
+          <t>oq: 3</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.0014124582</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3878,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ac: 470</t>
+          <t>mt: 4</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.0023965897</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -3896,12 +3893,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ml: 5</t>
+          <t>fe: 123</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -3911,12 +3908,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>kn: 26</t>
+          <t>cc: 42</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0002141633</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3923,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ll: 1345</t>
+          <t>hq: 1</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3938,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>en: 2675</t>
+          <t>ix: 89</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.0136401648</t>
+          <t>0.0004538223</t>
         </is>
       </c>
     </row>
@@ -3956,12 +3953,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>eh: 152</t>
+          <t>we: 149</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.0007750673</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -3971,12 +3968,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>xz: 19</t>
+          <t>ab: 541</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3983,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>os: 504</t>
+          <t>ue: 169</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.0025699600</t>
+          <t>0.0008617525</t>
         </is>
       </c>
     </row>
@@ -4001,12 +3998,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ef: 82</t>
+          <t>tx: 2</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4016,12 +4013,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ye: 301</t>
+          <t>wz: 1</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4028,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ty: 341</t>
+          <t>xa: 103</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.0017388023</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -4046,12 +4043,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>jp: 1</t>
+          <t>co: 380</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0019376683</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4058,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>sg: 2</t>
+          <t>wk: 6</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -4076,12 +4073,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ry: 773</t>
+          <t>do: 378</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.0039416252</t>
+          <t>0.0019274700</t>
         </is>
       </c>
     </row>
@@ -4091,12 +4088,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>mw: 2</t>
+          <t>bd: 65</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0003314433</t>
         </is>
       </c>
     </row>
@@ -4106,12 +4103,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>oj: 16</t>
+          <t>ia: 2445</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0124673656</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4118,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>gs: 30</t>
+          <t>dd: 149</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4133,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>dj: 9</t>
+          <t>lc: 25</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -4151,12 +4148,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>vk: 3</t>
+          <t>ws: 20</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -4166,12 +4163,13 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>kt: 17</t>
+          <t>c
+: 97</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4179,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ou: 275</t>
+          <t>du: 92</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0004691197</t>
         </is>
       </c>
     </row>
@@ -4196,12 +4194,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>bd: 65</t>
+          <t>hb: 8</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.0003314433</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4209,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>tw: 11</t>
+          <t>kn: 26</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -4226,12 +4224,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>zn: 4</t>
+          <t>pf: 1</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4239,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>zp: 2</t>
+          <t>va: 642</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0032736396</t>
         </is>
       </c>
     </row>
@@ -4256,12 +4254,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ab: 541</t>
+          <t>nd: 704</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0035897854</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4269,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>df: 5</t>
+          <t>yl: 1104</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0056294362</t>
         </is>
       </c>
     </row>
@@ -4286,12 +4284,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>mo: 452</t>
+          <t>sk: 82</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.0023048054</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4299,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>go: 83</t>
+          <t>my: 287</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4314,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>zi: 364</t>
+          <t>sv: 14</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.0018560822</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -4331,12 +4329,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>yv: 106</t>
+          <t>pn: 1</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.0005405075</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4346,12 +4344,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>gz: 1</t>
+          <t>ry: 773</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0039416252</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4359,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ax: 182</t>
+          <t>dz: 1</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.0009280411</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4376,12 +4374,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>pn: 1</t>
+          <t>iw: 8</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -4391,12 +4389,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>py: 12</t>
+          <t>yg: 30</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4404,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>vo: 153</t>
+          <t>zp: 2</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4419,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ig: 428</t>
+          <t>mk: 1</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.0021824264</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4434,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>hs: 31</t>
+          <t>zr: 32</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4449,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ca: 815</t>
+          <t>gy: 31</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.0041557885</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -4466,12 +4464,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>lz: 10</t>
+          <t>pj: 1</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4479,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ff: 44</t>
+          <t>cl: 116</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0005914987</t>
         </is>
       </c>
     </row>
@@ -4496,13 +4494,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>k
-: 363</t>
+          <t>ge: 334</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.0018509831</t>
+          <t>0.0017031084</t>
         </is>
       </c>
     </row>
@@ -4512,12 +4509,13 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ov: 176</t>
+          <t>f
+: 80</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.0008974464</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4525,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>xm: 1</t>
+          <t>tr: 352</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0017948927</t>
         </is>
       </c>
     </row>
@@ -4542,12 +4540,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>wf: 2</t>
+          <t>ae: 692</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4555,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ns: 278</t>
+          <t>ps: 16</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.0014175573</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -4572,12 +4570,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>uo: 10</t>
+          <t>fi: 160</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -4587,12 +4585,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>mk: 1</t>
+          <t>ij: 76</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -4602,12 +4600,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>yf: 12</t>
+          <t>jl: 9</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -4617,12 +4615,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>zw: 3</t>
+          <t>wa: 280</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0014277556</t>
         </is>
       </c>
     </row>
@@ -4632,12 +4630,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>in: 2126</t>
+          <t>ci: 271</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.0108407441</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -4647,12 +4645,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ok: 68</t>
+          <t>er: 1958</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.0003467406</t>
+          <t>0.0099840907</t>
         </is>
       </c>
     </row>
@@ -4662,12 +4660,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>kw: 34</t>
+          <t>lb: 52</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4675,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>on: 2411</t>
+          <t>yc: 115</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.0122939953</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -4692,12 +4690,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ow: 114</t>
+          <t>ou: 275</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -4707,12 +4705,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>yj: 23</t>
+          <t>uv: 37</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0001886677</t>
         </is>
       </c>
     </row>
@@ -4722,12 +4720,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ad: 1042</t>
+          <t>rm: 162</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.0053132904</t>
+          <t>0.0008260586</t>
         </is>
       </c>
     </row>
@@ -4737,12 +4735,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>cr: 76</t>
+          <t>pi: 61</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0003110467</t>
         </is>
       </c>
     </row>
@@ -4752,12 +4750,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>fi: 160</t>
+          <t>ze: 373</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0019019744</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4765,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>yw: 4</t>
+          <t>if: 101</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0005150118</t>
         </is>
       </c>
     </row>
@@ -4782,12 +4780,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ph: 204</t>
+          <t>ft: 18</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -4797,13 +4795,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>r
-: 1377</t>
+          <t>jt: 2</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.0070214979</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4810,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>rr: 425</t>
+          <t>rk: 90</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.0021671290</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -4828,12 +4825,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>gg: 25</t>
+          <t>ch: 664</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0033858203</t>
         </is>
       </c>
     </row>
@@ -4843,12 +4840,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>de: 1283</t>
+          <t>yt: 104</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.0065421800</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -4858,12 +4855,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>xw: 3</t>
+          <t>ep: 83</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4870,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ti: 532</t>
+          <t>mw: 2</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.0027127356</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4888,12 +4885,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ha: 2244</t>
+          <t>an: 5438</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.0114424411</t>
+          <t>0.0277290528</t>
         </is>
       </c>
     </row>
@@ -4903,12 +4900,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>pi: 61</t>
+          <t>rp: 14</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.0003110467</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -4918,12 +4915,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>eq: 14</t>
+          <t>nx: 6</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4930,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>zv: 2</t>
+          <t>nc: 213</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -4948,12 +4945,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>gt: 31</t>
+          <t>au: 381</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0019427674</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4960,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ut: 82</t>
+          <t>qi: 13</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -4978,12 +4975,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>ev: 463</t>
+          <t>yb: 27</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.0023608958</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -4993,12 +4990,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>kf: 1</t>
+          <t>rn: 140</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -5008,12 +5005,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>iq: 52</t>
+          <t>gj: 3</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5023,12 +5020,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ae: 692</t>
+          <t>cd: 1</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5038,12 +5035,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>pj: 1</t>
+          <t>gg: 25</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -5053,12 +5050,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>gr: 201</t>
+          <t>oa: 149</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.0010249245</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -5068,7 +5065,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>xb: 1</t>
+          <t>xh: 1</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5083,12 +5080,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>gf: 1</t>
+          <t>nr: 44</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -5098,12 +5095,13 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>zl: 123</t>
+          <t>a
+: 6640</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0338582035</t>
         </is>
       </c>
     </row>
@@ -5113,12 +5111,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>rl: 413</t>
+          <t>sg: 2</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.0021059395</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5128,12 +5126,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ew: 50</t>
+          <t>yp: 15</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -5143,12 +5141,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>qo: 2</t>
+          <t>tt: 374</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0019070735</t>
         </is>
       </c>
     </row>
@@ -5158,12 +5156,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>dz: 1</t>
+          <t>ra: 2356</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0120135433</t>
         </is>
       </c>
     </row>
@@ -5173,12 +5171,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>bl: 103</t>
+          <t>xt: 70</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0003569389</t>
         </is>
       </c>
     </row>
@@ -5188,12 +5186,13 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>op: 95</t>
+          <t>g
+: 108</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0005507057</t>
         </is>
       </c>
     </row>
@@ -5203,12 +5202,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ly: 1588</t>
+          <t>yx: 28</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.0080974137</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -5218,12 +5217,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>al: 2528</t>
+          <t>je: 440</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.0128905931</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5232,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>hk: 29</t>
+          <t>qr: 1</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5248,12 +5247,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>tv: 15</t>
+          <t>tj: 3</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5262,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>he: 674</t>
+          <t>nu: 96</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0004895162</t>
         </is>
       </c>
     </row>
@@ -5278,12 +5277,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>kd: 2</t>
+          <t>mv: 3</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5292,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>hv: 39</t>
+          <t>vn: 8</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5307,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>vn: 8</t>
+          <t>nb: 8</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5323,12 +5322,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>xe: 36</t>
+          <t>bi: 217</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0011065106</t>
         </is>
       </c>
     </row>
@@ -5338,12 +5337,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>cy: 104</t>
+          <t>xe: 36</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -5353,12 +5352,13 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>vr: 48</t>
+          <t>d
+: 516</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.0002447581</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -5368,12 +5368,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>zg: 1</t>
+          <t>hj: 9</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -5383,12 +5383,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ki: 509</t>
+          <t>dt: 4</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5398,12 +5398,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ip: 53</t>
+          <t>rv: 80</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.0002702537</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -5413,12 +5413,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>wm: 2</t>
+          <t>zw: 3</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5428,12 +5428,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ao: 63</t>
+          <t>ik: 445</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.0003212450</t>
+          <t>0.0022691115</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>oh: 171</t>
+          <t>tl: 134</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.0008719507</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -5458,12 +5458,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>sy: 215</t>
+          <t>zg: 1</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.0010963123</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5473,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>bn: 4</t>
+          <t>ul: 301</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -5488,12 +5488,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>mv: 3</t>
+          <t>dg: 25</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ea: 679</t>
+          <t>dq: 1</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.0034623073</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5518,12 +5518,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>xt: 70</t>
+          <t>rd: 187</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.0003569389</t>
+          <t>0.0009535368</t>
         </is>
       </c>
     </row>
@@ -5533,12 +5533,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>md: 24</t>
+          <t>gr: 201</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0010249245</t>
         </is>
       </c>
     </row>
@@ -5548,12 +5548,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>pe: 197</t>
+          <t>yv: 106</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.0010045280</t>
+          <t>0.0005405075</t>
         </is>
       </c>
     </row>
@@ -5563,12 +5563,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>rb: 41</t>
+          <t>wg: 1</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5578,12 +5578,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>yy: 23</t>
+          <t>kh: 307</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0015654320</t>
         </is>
       </c>
     </row>
@@ -5593,12 +5593,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ik: 445</t>
+          <t>ky: 379</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.0022691115</t>
+          <t>0.0019325691</t>
         </is>
       </c>
     </row>
@@ -5608,12 +5608,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>as: 1118</t>
+          <t>uf: 19</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.0057008240</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -5623,12 +5623,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>af: 134</t>
+          <t>rh: 121</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -5638,12 +5638,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>uq: 10</t>
+          <t>oy: 103</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -5653,12 +5653,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>jd: 4</t>
+          <t>ks: 95</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -5668,12 +5668,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>by: 83</t>
+          <t>mf: 1</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5683,12 +5683,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>mj: 7</t>
+          <t>im: 427</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0021773272</t>
         </is>
       </c>
     </row>
@@ -5698,12 +5698,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>am: 1634</t>
+          <t>si: 684</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.0083319736</t>
+          <t>0.0034878029</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5713,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>rj: 25</t>
+          <t>tz: 105</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -5728,12 +5728,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>ge: 334</t>
+          <t>sa: 1201</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.0017031084</t>
+          <t>0.0061240516</t>
         </is>
       </c>
     </row>
@@ -5743,12 +5743,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>pp: 39</t>
+          <t>qo: 2</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5758,12 +5758,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>st: 765</t>
+          <t>sy: 215</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.0039008322</t>
+          <t>0.0010963123</t>
         </is>
       </c>
     </row>
@@ -5773,12 +5773,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>pr: 151</t>
+          <t>ki: 509</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.0007699682</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -5788,12 +5788,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>hy: 213</t>
+          <t>mz: 11</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -5803,13 +5803,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>e
-: 3983</t>
+          <t>op: 95</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.0203098230</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -5819,12 +5818,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>nd: 704</t>
+          <t>sh: 1285</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.0035897854</t>
+          <t>0.0065523782</t>
         </is>
       </c>
     </row>
@@ -5834,12 +5833,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>hz: 20</t>
+          <t>ad: 1042</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0053132904</t>
         </is>
       </c>
     </row>
@@ -5849,12 +5848,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>rz: 23</t>
+          <t>wb: 1</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5864,12 +5863,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>yh: 22</t>
+          <t>lu: 324</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0016521172</t>
         </is>
       </c>
     </row>
@@ -5879,12 +5878,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>gm: 6</t>
+          <t>xo: 41</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -5894,12 +5893,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>lt: 77</t>
+          <t>vu: 7</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.0003926328</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -5909,12 +5908,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>xn: 1</t>
+          <t>ag: 168</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -5924,13 +5923,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>u
-: 155</t>
+          <t>go: 83</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.0007903647</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -5940,12 +5938,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>gv: 1</t>
+          <t>gu: 85</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0004334258</t>
         </is>
       </c>
     </row>
@@ -5955,12 +5953,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>rd: 187</t>
+          <t>pk: 1</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.0009535368</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5970,12 +5968,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>rm: 162</t>
+          <t>aj: 175</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.0008260586</t>
+          <t>0.0008923472</t>
         </is>
       </c>
     </row>
@@ -5985,12 +5983,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>hu: 166</t>
+          <t>ru: 252</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.0008464551</t>
+          <t>0.0012849800</t>
         </is>
       </c>
     </row>
@@ -6000,12 +5998,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>dn: 31</t>
+          <t>eb: 121</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6013,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>tf: 2</t>
+          <t>jn: 2</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6030,12 +6028,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>sn: 24</t>
+          <t>ri: 3033</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0154656523</t>
         </is>
       </c>
     </row>
@@ -6045,12 +6043,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>vb: 1</t>
+          <t>bl: 103</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -6060,12 +6058,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>nf: 11</t>
+          <t>gz: 1</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6073,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>jl: 9</t>
+          <t>km: 9</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6090,12 +6088,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>vd: 1</t>
+          <t>os: 504</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0025699600</t>
         </is>
       </c>
     </row>
@@ -6105,12 +6103,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>yt: 104</t>
+          <t>pa: 209</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0010657175</t>
         </is>
       </c>
     </row>
@@ -6120,12 +6118,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>lk: 24</t>
+          <t>sj: 2</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6135,12 +6133,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>nm: 19</t>
+          <t>pp: 39</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -6150,12 +6148,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>pk: 1</t>
+          <t>hw: 10</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -6165,12 +6163,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>eb: 121</t>
+          <t>gt: 31</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -6180,12 +6178,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>yc: 115</t>
+          <t>ur: 414</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0021110386</t>
         </is>
       </c>
     </row>
@@ -6195,12 +6193,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>yg: 30</t>
+          <t>mr: 97</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -6210,12 +6208,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>mm: 168</t>
+          <t>no: 496</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0025291670</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6223,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>ie: 1653</t>
+          <t>eh: 152</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.0084288570</t>
+          <t>0.0007750673</t>
         </is>
       </c>
     </row>
@@ -6240,12 +6238,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>wz: 1</t>
+          <t>hn: 138</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -6255,12 +6253,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>ba: 321</t>
+          <t>ea: 679</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.0016368198</t>
+          <t>0.0034623073</t>
         </is>
       </c>
     </row>
@@ -6270,12 +6268,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>oo: 115</t>
+          <t>dy: 317</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0016164233</t>
         </is>
       </c>
     </row>
@@ -6285,13 +6283,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>j
-: 71</t>
+          <t>oj: 16</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6298,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>uj: 14</t>
+          <t>gl: 32</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -6316,12 +6313,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ux: 34</t>
+          <t>ut: 82</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -6331,12 +6328,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>if: 101</t>
+          <t>ui: 121</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.0005150118</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -6346,12 +6343,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>rg: 76</t>
+          <t>zs: 4</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -6361,13 +6358,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>f
-: 80</t>
+          <t>vb: 1</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6377,12 +6373,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>uc: 103</t>
+          <t>bo: 105</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -6392,12 +6388,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>tc: 17</t>
+          <t>ty: 341</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0017388023</t>
         </is>
       </c>
     </row>
@@ -6407,12 +6403,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>xl: 39</t>
+          <t>ey: 1070</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0054560659</t>
         </is>
       </c>
     </row>
@@ -6422,12 +6418,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>iv: 269</t>
+          <t>ap: 82</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -6437,12 +6433,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ox: 45</t>
+          <t>hz: 20</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -6452,12 +6448,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>jw: 6</t>
+          <t>md: 24</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -6467,12 +6463,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>jj: 2</t>
+          <t>yz: 78</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -6482,12 +6478,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>at: 687</t>
+          <t>av: 834</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.0035031003</t>
+          <t>0.0042526719</t>
         </is>
       </c>
     </row>
@@ -6497,12 +6493,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>nl: 195</t>
+          <t>wi: 148</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.0009943298</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -6512,12 +6508,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ls: 94</t>
+          <t>ji: 119</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.0004793179</t>
+          <t>0.0006067961</t>
         </is>
       </c>
     </row>
@@ -6527,12 +6523,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>ir: 849</t>
+          <t>ju: 202</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.0043291588</t>
+          <t>0.0010300237</t>
         </is>
       </c>
     </row>
@@ -6542,13 +6538,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>y
-: 2007</t>
+          <t>nt: 443</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.0102339479</t>
+          <t>0.0022589133</t>
         </is>
       </c>
     </row>
@@ -6558,12 +6553,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>fu: 10</t>
+          <t>ku: 50</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -6573,12 +6568,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>vu: 7</t>
+          <t>br: 842</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0042934650</t>
         </is>
       </c>
     </row>
@@ -6588,12 +6583,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>hj: 9</t>
+          <t>cr: 76</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6598,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>im: 427</t>
+          <t>uj: 14</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.0021773272</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -6618,12 +6613,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>fo: 60</t>
+          <t>le: 2921</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0148945501</t>
         </is>
       </c>
     </row>
@@ -6633,12 +6628,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>jk: 2</t>
+          <t>gi: 190</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -6648,12 +6643,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>lr: 18</t>
+          <t>dm: 30</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -6663,12 +6658,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>za: 860</t>
+          <t>oh: 171</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.0043852492</t>
+          <t>0.0008719507</t>
         </is>
       </c>
     </row>
@@ -6678,12 +6673,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>xu: 5</t>
+          <t>fl: 20</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -6693,12 +6688,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>mh: 5</t>
+          <t>ms: 35</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -6708,12 +6703,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>eg: 125</t>
+          <t>lw: 16</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.0006373909</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -6723,12 +6718,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ur: 414</t>
+          <t>hk: 29</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.0021110386</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -6738,12 +6733,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>gn: 27</t>
+          <t>ce: 551</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0028096190</t>
         </is>
       </c>
     </row>
@@ -6753,12 +6748,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>dq: 1</t>
+          <t>ec: 153</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -6768,12 +6763,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>ku: 50</t>
+          <t>bt: 2</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6778,13 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>cs: 5</t>
+          <t>s
+: 1169</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0059608795</t>
         </is>
       </c>
     </row>
@@ -6798,12 +6794,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>gb: 3</t>
+          <t>ar: 3264</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0166435506</t>
         </is>
       </c>
     </row>
@@ -6813,12 +6809,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>le: 2921</t>
+          <t>zo: 110</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.0148945501</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -6828,12 +6824,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>cx: 3</t>
+          <t>ll: 1345</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -6843,12 +6839,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ng: 273</t>
+          <t>ol: 619</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.0013920617</t>
+          <t>0.0031563596</t>
         </is>
       </c>
     </row>
@@ -6858,12 +6854,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>fy: 14</t>
+          <t>jj: 2</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6873,12 +6869,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>we: 149</t>
+          <t>xi: 102</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0005201110</t>
         </is>
       </c>
     </row>
@@ -6888,12 +6884,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>mb: 112</t>
+          <t>db: 1</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.0005711022</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6903,13 +6899,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>i
-: 2489</t>
+          <t>sn: 24</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.0126917272</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -6919,12 +6914,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>jn: 2</t>
+          <t>hp: 1</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6934,12 +6929,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>co: 380</t>
+          <t>om: 261</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.0019376683</t>
+          <t>0.0013308722</t>
         </is>
       </c>
     </row>
@@ -6949,12 +6944,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>nx: 6</t>
+          <t>jr: 11</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -6964,12 +6959,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>jt: 2</t>
+          <t>kr: 109</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -6979,12 +6974,13 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ws: 20</t>
+          <t>p
+: 33</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0001682712</t>
         </is>
       </c>
     </row>
@@ -6994,12 +6990,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>zd: 2</t>
+          <t>ca: 815</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0041557885</t>
         </is>
       </c>
     </row>
@@ -7009,12 +7005,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>ub: 103</t>
+          <t>dj: 9</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -7024,12 +7020,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>lo: 692</t>
+          <t>lp: 15</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -7039,12 +7035,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>dh: 118</t>
+          <t>ym: 148</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -7054,12 +7050,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>el: 3248</t>
+          <t>mu: 139</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.0165619646</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -7069,12 +7065,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>bt: 2</t>
+          <t>ay: 2050</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0104532104</t>
         </is>
       </c>
     </row>
@@ -7084,12 +7080,13 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>em: 769</t>
+          <t>w
+: 51</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.0039212287</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7096,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>yd: 272</t>
+          <t>ti: 532</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.0013869626</t>
+          <t>0.0027127356</t>
         </is>
       </c>
     </row>
@@ -7114,12 +7111,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>ed: 384</t>
+          <t>dw: 23</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.0019580648</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -7129,13 +7126,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>g
-: 108</t>
+          <t>on: 2411</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.0005507057</t>
+          <t>0.0122939953</t>
         </is>
       </c>
     </row>
@@ -7145,12 +7141,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>jr: 11</t>
+          <t>ew: 50</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -7160,12 +7156,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>bu: 45</t>
+          <t>mo: 452</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0023048054</t>
         </is>
       </c>
     </row>
@@ -7175,12 +7171,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>re: 1697</t>
+          <t>se: 884</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.0086532186</t>
+          <t>0.0045076283</t>
         </is>
       </c>
     </row>
@@ -7190,12 +7186,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>hb: 8</t>
+          <t>yj: 23</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -7205,12 +7201,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>iy: 779</t>
+          <t>al: 2528</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>0.0039722200</t>
+          <t>0.0128905931</t>
         </is>
       </c>
     </row>
@@ -7220,12 +7216,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>da: 1303</t>
+          <t>rf: 9</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.0066441625</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -7235,12 +7231,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>zs: 4</t>
+          <t>ff: 44</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -7250,12 +7246,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>hw: 10</t>
+          <t>en: 2675</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0136401648</t>
         </is>
       </c>
     </row>
@@ -7265,12 +7261,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>yq: 6</t>
+          <t>fw: 4</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7280,12 +7276,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ep: 83</t>
+          <t>me: 818</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -7295,12 +7291,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>nz: 145</t>
+          <t>yf: 12</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.0007393734</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -7310,12 +7306,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>sw: 24</t>
+          <t>sq: 1</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7325,12 +7321,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ri: 3033</t>
+          <t>st: 765</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.0154656523</t>
+          <t>0.0039008322</t>
         </is>
       </c>
     </row>
@@ -7340,12 +7336,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>hp: 1</t>
+          <t>ez: 181</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0009229420</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7351,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>oy: 103</t>
+          <t>tf: 2</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7370,13 +7366,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>b
-: 114</t>
+          <t>yy: 23</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -7386,12 +7381,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>uw: 86</t>
+          <t>ee: 1271</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0064809905</t>
         </is>
       </c>
     </row>
@@ -7401,12 +7396,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>hh: 1</t>
+          <t>kd: 2</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7416,12 +7411,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>fg: 1</t>
+          <t>or: 1059</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0053999755</t>
         </is>
       </c>
     </row>
@@ -7431,12 +7426,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>vy: 121</t>
+          <t>kc: 2</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7446,12 +7441,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>yn: 1826</t>
+          <t>ts: 35</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.0093110060</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -7461,12 +7456,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>tt: 374</t>
+          <t>tm: 4</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.0019070735</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7476,12 +7471,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>ky: 379</t>
+          <t>wy: 73</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.0019325691</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -7491,12 +7486,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>sr: 55</t>
+          <t>xx: 38</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -7506,12 +7501,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>fl: 20</t>
+          <t>ja: 1473</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0075110141</t>
         </is>
       </c>
     </row>
@@ -7521,12 +7516,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>ij: 76</t>
+          <t>nk: 58</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -7536,12 +7531,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>tg: 2</t>
+          <t>ha: 2244</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0114424411</t>
         </is>
       </c>
     </row>
@@ -7551,12 +7546,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>dk: 3</t>
+          <t>nm: 19</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7561,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>qs: 2</t>
+          <t>ww: 2</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -7581,12 +7576,13 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>ez: 181</t>
+          <t>k
+: 363</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.0009229420</t>
+          <t>0.0018509831</t>
         </is>
       </c>
     </row>
@@ -7596,12 +7592,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>uz: 45</t>
+          <t>vh: 1</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7611,12 +7607,13 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>np: 5</t>
+          <t>n
+: 6763</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0344853961</t>
         </is>
       </c>
     </row>
@@ -7626,12 +7623,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ve: 568</t>
+          <t>uw: 86</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -7641,12 +7638,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>mn: 20</t>
+          <t>ot: 118</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -7656,12 +7653,13 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ul: 301</t>
+          <t>y
+: 2007</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0102339479</t>
         </is>
       </c>
     </row>
@@ -7671,12 +7669,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>oc: 114</t>
+          <t>of: 34</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -7686,12 +7684,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>wb: 1</t>
+          <t>wd: 8</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -7701,12 +7699,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>pb: 2</t>
+          <t>ah: 2332</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0118911642</t>
         </is>
       </c>
     </row>
@@ -7716,12 +7714,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>zy: 147</t>
+          <t>bc: 1</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.0007495717</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7731,12 +7729,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>gy: 31</t>
+          <t>at: 687</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0035031003</t>
         </is>
       </c>
     </row>
@@ -7746,12 +7744,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>ji: 119</t>
+          <t>fs: 6</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.0006067961</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -7761,12 +7759,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>dw: 23</t>
+          <t>io: 588</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0029982867</t>
         </is>
       </c>
     </row>
@@ -7776,12 +7774,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>ci: 271</t>
+          <t>ny: 465</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0023710941</t>
         </is>
       </c>
     </row>
@@ -7791,12 +7789,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>hi: 729</t>
+          <t>eq: 14</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.0037172636</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -7806,12 +7804,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>lu: 324</t>
+          <t>wf: 2</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.0016521172</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7821,12 +7819,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>ck: 316</t>
+          <t>ed: 384</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.0016113241</t>
+          <t>0.0019580648</t>
         </is>
       </c>
     </row>
@@ -7836,12 +7834,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>su: 185</t>
+          <t>ho: 287</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -7851,12 +7849,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>db: 1</t>
+          <t>ds: 29</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -7866,12 +7864,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>lv: 72</t>
+          <t>qm: 2</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.0003671371</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7881,12 +7879,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>th: 647</t>
+          <t>zn: 4</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.0032991352</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7896,12 +7894,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>qr: 1</t>
+          <t>xz: 19</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -7911,12 +7909,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>lp: 15</t>
+          <t>in: 2126</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0108407441</t>
         </is>
       </c>
     </row>
@@ -7926,12 +7924,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>hf: 2</t>
+          <t>ct: 35</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -7941,12 +7939,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>me: 818</t>
+          <t>hl: 185</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -7956,12 +7954,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>up: 16</t>
+          <t>rr: 425</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0021671290</t>
         </is>
       </c>
     </row>
@@ -7971,12 +7969,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>ni: 1725</t>
+          <t>ls: 94</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.0087959941</t>
+          <t>0.0004793179</t>
         </is>
       </c>
     </row>
@@ -7986,12 +7984,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>rc: 99</t>
+          <t>js: 7</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.0005048136</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -8001,12 +7999,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>so: 531</t>
+          <t>fn: 4</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.0027076365</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8016,12 +8014,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>gl: 32</t>
+          <t>lv: 72</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0003671371</t>
         </is>
       </c>
     </row>
@@ -8031,12 +8029,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>qm: 2</t>
+          <t>pm: 1</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8046,12 +8044,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ah: 2332</t>
+          <t>iq: 52</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.0118911642</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -8061,12 +8059,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>zo: 110</t>
+          <t>re: 1697</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0086532186</t>
         </is>
       </c>
     </row>
@@ -8076,12 +8074,13 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>um: 154</t>
+          <t>r
+: 1377</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.0007852656</t>
+          <t>0.0070214979</t>
         </is>
       </c>
     </row>
@@ -8091,12 +8090,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>ec: 153</t>
+          <t>gb: 3</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8105,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>hc: 2</t>
+          <t>hg: 2</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -8121,12 +8120,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ft: 18</t>
+          <t>as: 1118</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0057008240</t>
         </is>
       </c>
     </row>
@@ -8136,12 +8135,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>gh: 360</t>
+          <t>zu: 73</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.0018356857</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -8151,12 +8150,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>fe: 123</t>
+          <t>hu: 166</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0008464551</t>
         </is>
       </c>
     </row>
@@ -8166,12 +8165,13 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>mp: 38</t>
+          <t>u
+: 155</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0007903647</t>
         </is>
       </c>
     </row>
@@ -8181,12 +8181,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>mi: 1256</t>
+          <t>ka: 1731</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.0064045035</t>
+          <t>0.0088265889</t>
         </is>
       </c>
     </row>
@@ -8196,12 +8196,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>ms: 35</t>
+          <t>by: 83</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -8211,12 +8211,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>xy: 30</t>
+          <t>mp: 38</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -8226,12 +8226,13 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>wa: 280</t>
+          <t>e
+: 3983</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.0014277556</t>
+          <t>0.0203098230</t>
         </is>
       </c>
     </row>
@@ -8241,12 +8242,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>kj: 2</t>
+          <t>tw: 11</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -8256,12 +8257,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>zk: 2</t>
+          <t>uy: 13</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -8271,12 +8272,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>et: 580</t>
+          <t>yu: 141</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.0029574937</t>
+          <t>0.0007189769</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8287,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>lb: 52</t>
+          <t>nl: 195</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0009943298</t>
         </is>
       </c>
     </row>
@@ -8301,12 +8302,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>au: 381</t>
+          <t>ye: 301</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.0019427674</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -8316,12 +8317,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>tn: 22</t>
+          <t>jp: 1</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8332,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>jc: 4</t>
+          <t>yw: 4</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -8346,12 +8347,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>lc: 25</t>
+          <t>po: 59</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0003008485</t>
         </is>
       </c>
     </row>
@@ -8361,12 +8362,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>wd: 8</t>
+          <t>cq: 11</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -8376,12 +8377,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>rn: 140</t>
+          <t>ss: 461</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0023506976</t>
         </is>
       </c>
     </row>
@@ -8391,12 +8392,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>bc: 1</t>
+          <t>wh: 23</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -8406,12 +8407,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>rk: 90</t>
+          <t>gv: 1</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8421,12 +8422,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>wn: 58</t>
+          <t>zz: 45</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -8436,12 +8437,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>hm: 117</t>
+          <t>sf: 2</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.0005965979</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8451,12 +8452,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>jv: 5</t>
+          <t>xf: 3</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8466,12 +8467,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>sz: 10</t>
+          <t>pb: 2</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8481,12 +8482,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>ql: 1</t>
+          <t>jo: 479</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0024424818</t>
         </is>
       </c>
     </row>
@@ -8496,12 +8497,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>js: 7</t>
+          <t>ih: 95</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -8511,12 +8512,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>vh: 1</t>
+          <t>sb: 21</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -8526,12 +8527,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>hq: 1</t>
+          <t>ke: 895</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0045637187</t>
         </is>
       </c>
     </row>
@@ -8541,12 +8542,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>sj: 2</t>
+          <t>lh: 19</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -8556,12 +8557,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>gw: 26</t>
+          <t>rz: 23</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -8571,12 +8572,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>xs: 31</t>
+          <t>bs: 8</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -8586,12 +8587,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>bo: 105</t>
+          <t>qu: 206</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0010504202</t>
         </is>
       </c>
     </row>
@@ -8601,13 +8602,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>d
-: 516</t>
+          <t>un: 275</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -8617,12 +8617,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>wk: 6</t>
+          <t>ld: 138</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -8632,12 +8632,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>dy: 317</t>
+          <t>rw: 21</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.0016164233</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -8647,13 +8647,12 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>c
-: 97</t>
+          <t>kk: 20</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -8663,12 +8662,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>du: 92</t>
+          <t>is: 1316</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.0004691197</t>
+          <t>0.0067104512</t>
         </is>
       </c>
     </row>
@@ -8678,12 +8677,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>ap: 82</t>
+          <t>th: 647</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0032991352</t>
         </is>
       </c>
     </row>
@@ -8693,12 +8692,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>lj: 6</t>
+          <t>tc: 17</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -8708,12 +8707,12 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>ui: 121</t>
+          <t>xc: 4</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8723,12 +8722,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>is: 1316</t>
+          <t>ok: 68</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.0067104512</t>
+          <t>0.0003467406</t>
         </is>
       </c>
     </row>
@@ -8738,12 +8737,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>ht: 71</t>
+          <t>pt: 17</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -8753,12 +8752,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>oq: 3</t>
+          <t>pr: 151</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0007699682</t>
         </is>
       </c>
     </row>
@@ -8768,12 +8767,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>km: 9</t>
+          <t>na: 2977</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0151801012</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8782,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>nb: 8</t>
+          <t>lr: 18</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -8798,12 +8797,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>cg: 2</t>
+          <t>pc: 1</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8813,12 +8812,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>tl: 134</t>
+          <t>lg: 6</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -8828,12 +8827,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>rw: 21</t>
+          <t>fy: 14</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -8843,12 +8842,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>qa: 13</t>
+          <t>ai: 1650</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0084135596</t>
         </is>
       </c>
     </row>
@@ -8858,12 +8857,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>tz: 105</t>
+          <t>yd: 272</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0013869626</t>
         </is>
       </c>
     </row>
@@ -8873,12 +8872,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>zj: 2</t>
+          <t>ob: 140</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -8888,12 +8887,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>ix: 89</t>
+          <t>ak: 568</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.0004538223</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -8903,12 +8902,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>lg: 6</t>
+          <t>ox: 45</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -8918,12 +8917,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>vl: 14</t>
+          <t>yq: 6</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -8933,12 +8932,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>uf: 19</t>
+          <t>ng: 273</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0013920617</t>
         </is>
       </c>
     </row>
@@ -8948,12 +8947,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>yx: 28</t>
+          <t>ub: 103</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -8963,12 +8962,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>jb: 1</t>
+          <t>kb: 2</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8978,12 +8977,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>zr: 32</t>
+          <t>ve: 568</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -8993,12 +8992,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>eu: 69</t>
+          <t>yn: 1826</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0093110060</t>
         </is>
       </c>
     </row>
@@ -9008,12 +9007,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ga: 330</t>
+          <t>xw: 3</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.0016827119</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -9023,13 +9022,13 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>t
-: 483</t>
+          <t>x
+: 163</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.0024628784</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -9039,13 +9038,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>p
-: 33</t>
+          <t>pu: 4</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.0001682712</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -9055,12 +9053,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>hl: 185</t>
+          <t>af: 134</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -9070,12 +9068,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>la: 2623</t>
+          <t>nh: 26</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.0133750102</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -9085,12 +9083,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>uy: 13</t>
+          <t>jm: 5</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -9100,12 +9098,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>cl: 116</t>
+          <t>oo: 115</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.0005914987</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9113,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>ey: 1070</t>
+          <t>rc: 99</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.0054560659</t>
+          <t>0.0005048136</t>
         </is>
       </c>
     </row>
@@ -9130,12 +9128,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>fa: 242</t>
+          <t>cy: 104</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.0012339887</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -9145,12 +9143,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>fn: 4</t>
+          <t>hf: 2</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9160,12 +9158,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>io: 588</t>
+          <t>lz: 10</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.0029982867</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -9175,12 +9173,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>gu: 85</t>
+          <t>el: 3248</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.0004334258</t>
+          <t>0.0165619646</t>
         </is>
       </c>
     </row>
@@ -9190,12 +9188,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>aw: 161</t>
+          <t>mj: 7</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.0008209595</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -9205,12 +9203,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>tu: 78</t>
+          <t>mh: 5</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -9220,13 +9218,13 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>z
-: 160</t>
+          <t>t
+: 483</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0024628784</t>
         </is>
       </c>
     </row>
@@ -9236,12 +9234,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>jy: 10</t>
+          <t>ql: 1</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9251,12 +9249,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>hn: 138</t>
+          <t>mb: 112</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0005711022</t>
         </is>
       </c>
     </row>
@@ -9266,12 +9264,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>ja: 1473</t>
+          <t>rs: 190</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.0075110141</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -9281,13 +9279,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>a
-: 6640</t>
+          <t>od: 190</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.0338582035</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -9297,12 +9294,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>qe: 1</t>
+          <t>mm: 168</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -9312,12 +9309,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>ue: 169</t>
+          <t>nn: 1906</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.0008617525</t>
+          <t>0.0097189361</t>
         </is>
       </c>
     </row>
@@ -9327,12 +9324,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>ar: 3264</t>
+          <t>py: 12</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.0166435506</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -9342,12 +9339,13 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>yp: 15</t>
+          <t>i
+: 2489</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0126917272</t>
         </is>
       </c>
     </row>
@@ -9357,12 +9355,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>lh: 19</t>
+          <t>da: 1303</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0066441625</t>
         </is>
       </c>
     </row>
@@ -9372,12 +9370,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>iw: 8</t>
+          <t>qs: 2</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9385,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>gj: 3</t>
+          <t>gf: 1</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9402,12 +9400,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>ka: 1731</t>
+          <t>cz: 4</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.0088265889</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9415,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>oe: 132</t>
+          <t>to: 667</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0034011177</t>
         </is>
       </c>
     </row>
@@ -9432,12 +9430,13 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>ob: 140</t>
+          <t>m
+: 516</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -9447,12 +9446,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>si: 684</t>
+          <t>vy: 121</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.0034878029</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9461,13 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>ke: 895</t>
+          <t>q
+: 28</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.0045637187</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>ym: 148</t>
+          <t>tv: 15</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>

--- a/Bigram_Language_Model/probabilities.xlsx
+++ b/Bigram_Language_Model/probabilities.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sm: 90</t>
+          <t>oq: 3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hi: 729</t>
+          <t>zx: 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0037172636</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vv: 7</t>
+          <t>mb: 112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0005711022</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lq: 3</t>
+          <t>md: 24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>iu: 109</t>
+          <t>ci: 271</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>qe: 1</t>
+          <t>ha: 2244</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0114424411</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sc: 60</t>
+          <t>za: 860</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0043852492</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>be: 655</t>
+          <t>pn: 1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0033399282</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>zc: 2</t>
+          <t>gv: 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>lo: 692</t>
+          <t>pc: 1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bn: 4</t>
+          <t>lu: 324</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0016521172</t>
         </is>
       </c>
     </row>
@@ -616,13 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>z
-: 160</t>
+          <t>qw: 3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -632,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mc: 51</t>
+          <t>ra: 2356</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0120135433</t>
         </is>
       </c>
     </row>
@@ -647,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ml: 5</t>
+          <t>ql: 1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -662,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ic: 509</t>
+          <t>st: 765</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0039008322</t>
         </is>
       </c>
     </row>
@@ -677,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ex: 132</t>
+          <t>lj: 6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -692,13 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>v
-: 88</t>
+          <t>ae: 692</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0004487232</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -708,12 +706,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jd: 4</t>
+          <t>r
+: 1377</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0070214979</t>
         </is>
       </c>
     </row>
@@ -723,12 +722,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cx: 3</t>
+          <t>qi: 13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -738,12 +737,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bj: 1</t>
+          <t>gh: 360</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0018356857</t>
         </is>
       </c>
     </row>
@@ -753,12 +752,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>rj: 25</t>
+          <t>ec: 153</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -768,12 +767,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>li: 2480</t>
+          <t>nn: 1906</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.0126458350</t>
+          <t>0.0097189361</t>
         </is>
       </c>
     </row>
@@ -783,12 +782,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>us: 474</t>
+          <t>yu: 141</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.0024169862</t>
+          <t>0.0007189769</t>
         </is>
       </c>
     </row>
@@ -798,12 +797,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>az: 435</t>
+          <t>ps: 16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.0022181203</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -813,12 +812,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ir: 849</t>
+          <t>hs: 31</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.0043291588</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -828,12 +827,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>gm: 6</t>
+          <t>kz: 2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -843,12 +842,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ug: 47</t>
+          <t>mk: 1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.0002396590</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -858,12 +857,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>aa: 556</t>
+          <t>xi: 102</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.0028351146</t>
+          <t>0.0005201110</t>
         </is>
       </c>
     </row>
@@ -873,12 +872,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>rx: 3</t>
+          <t>bj: 1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -888,12 +887,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>uh: 58</t>
+          <t>qe: 1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -903,12 +902,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vd: 1</t>
+          <t>zk: 2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -918,12 +917,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ux: 34</t>
+          <t>u
+: 155</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0007903647</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ht: 71</t>
+          <t>yy: 23</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -948,12 +948,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>et: 580</t>
+          <t>mf: 1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.0029574937</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -963,12 +963,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fh: 1</t>
+          <t>be: 655</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0033399282</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>su: 185</t>
+          <t>je: 440</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -993,12 +993,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>xm: 1</t>
+          <t>mh: 5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1008,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bb: 38</t>
+          <t>bl: 103</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>xu: 5</t>
+          <t>ju: 202</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0010300237</t>
         </is>
       </c>
     </row>
@@ -1038,12 +1038,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>uz: 45</t>
+          <t>ww: 2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>qa: 13</t>
+          <t>rh: 121</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1068,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ln: 14</t>
+          <t>zs: 4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>gs: 30</t>
+          <t>ee: 1271</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0064809905</t>
         </is>
       </c>
     </row>
@@ -1098,12 +1098,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>id: 440</t>
+          <t>qa: 13</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>zy: 147</t>
+          <t>ez: 181</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.0007495717</t>
+          <t>0.0009229420</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>za: 860</t>
+          <t>en: 2675</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.0043852492</t>
+          <t>0.0136401648</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ni: 1725</t>
+          <t>mr: 97</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.0087959941</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -1158,12 +1158,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nv: 55</t>
+          <t>bo: 105</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -1173,12 +1173,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nw: 11</t>
+          <t>lv: 72</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0003671371</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tu: 78</t>
+          <t>tg: 2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1203,13 +1203,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>l
-: 1314</t>
+          <t>zo: 110</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.0067002529</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1218,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ua: 163</t>
+          <t>cr: 76</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1233,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>uo: 10</t>
+          <t>lk: 24</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -1249,12 +1248,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>zh: 43</t>
+          <t>nh: 26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.0002192625</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -1264,12 +1263,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sd: 9</t>
+          <t>zg: 1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1278,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jy: 10</t>
+          <t>bn: 4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1293,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>oe: 132</t>
+          <t>uc: 103</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1308,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>yk: 86</t>
+          <t>ay: 2050</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0104532104</t>
         </is>
       </c>
     </row>
@@ -1324,12 +1323,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>te: 716</t>
+          <t>d
+: 516</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.0036509750</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>zv: 2</t>
+          <t>ar: 3264</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0166435506</t>
         </is>
       </c>
     </row>
@@ -1354,12 +1354,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ej: 55</t>
+          <t>yn: 1826</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0093110060</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1369,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>aw: 161</t>
+          <t>uv: 37</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.0008209595</t>
+          <t>0.0001886677</t>
         </is>
       </c>
     </row>
@@ -1384,12 +1384,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>he: 674</t>
+          <t>ii: 82</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ck: 316</t>
+          <t>ok: 68</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.0016113241</t>
+          <t>0.0003467406</t>
         </is>
       </c>
     </row>
@@ -1414,12 +1414,13 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ns: 278</t>
+          <t>l
+: 1314</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.0014175573</t>
+          <t>0.0067002529</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1430,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>kz: 2</t>
+          <t>ul: 301</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1445,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>yr: 291</t>
+          <t>xc: 4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.0014838460</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1460,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>cs: 5</t>
+          <t>zc: 2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1474,12 +1475,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>oi: 69</t>
+          <t>rx: 3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1489,12 +1490,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jv: 5</t>
+          <t>xh: 1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1505,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>vi: 911</t>
+          <t>wh: 23</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.0046453047</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -1519,12 +1520,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ev: 463</t>
+          <t>oe: 132</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.0023608958</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -1534,12 +1535,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>hv: 39</t>
+          <t>zz: 45</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -1549,12 +1550,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>fk: 2</t>
+          <t>kf: 1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1565,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>am: 1634</t>
+          <t>xa: 103</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.0083319736</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1580,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jw: 6</t>
+          <t>ea: 679</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0034623073</t>
         </is>
       </c>
     </row>
@@ -1594,12 +1595,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cp: 1</t>
+          <t>it: 541</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1610,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>fo: 60</t>
+          <t>dg: 25</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1625,13 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>hc: 2</t>
+          <t>b
+: 114</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1641,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>hh: 1</t>
+          <t>dv: 17</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -1654,12 +1656,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>oz: 54</t>
+          <t>gz: 1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.0002753529</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1669,12 +1671,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>wm: 2</t>
+          <t>fa: 242</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0012339887</t>
         </is>
       </c>
     </row>
@@ -1684,12 +1686,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>gh: 360</t>
+          <t>ls: 94</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.0018356857</t>
+          <t>0.0004793179</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1701,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>dc: 3</t>
+          <t>do: 378</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0019274700</t>
         </is>
       </c>
     </row>
@@ -1714,13 +1716,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>b
-: 114</t>
+          <t>ln: 14</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -1730,12 +1731,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ud: 136</t>
+          <t>is: 1316</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.0006934813</t>
+          <t>0.0067104512</t>
         </is>
       </c>
     </row>
@@ -1745,12 +1746,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>hy: 213</t>
+          <t>nv: 55</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -1760,12 +1761,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>kt: 17</t>
+          <t>zu: 73</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -1775,12 +1776,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>nf: 11</t>
+          <t>ua: 163</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -1790,12 +1791,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ao: 63</t>
+          <t>eh: 152</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.0003212450</t>
+          <t>0.0007750673</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1806,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>zl: 123</t>
+          <t>si: 684</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0034878029</t>
         </is>
       </c>
     </row>
@@ -1820,12 +1821,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>wu: 25</t>
+          <t>dr: 424</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0021620299</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1836,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>yi: 192</t>
+          <t>oo: 115</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.0009790324</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -1850,12 +1851,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>kl: 139</t>
+          <t>ah: 2332</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0118911642</t>
         </is>
       </c>
     </row>
@@ -1865,12 +1866,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rt: 208</t>
+          <t>cp: 1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.0010606184</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1880,12 +1881,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>kj: 2</t>
+          <t>ns: 278</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0014175573</t>
         </is>
       </c>
     </row>
@@ -1895,12 +1896,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>dl: 60</t>
+          <t>cs: 5</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1911,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ax: 182</t>
+          <t>sz: 10</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.0009280411</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1926,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>zt: 4</t>
+          <t>yt: 104</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -1940,12 +1941,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>xs: 31</t>
+          <t>te: 716</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0036509750</t>
         </is>
       </c>
     </row>
@@ -1955,12 +1956,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bu: 45</t>
+          <t>ix: 89</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0004538223</t>
         </is>
       </c>
     </row>
@@ -1970,12 +1971,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>mi: 1256</t>
+          <t>pu: 4</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.0064045035</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1985,12 +1986,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>zi: 364</t>
+          <t>de: 1283</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.0018560822</t>
+          <t>0.0065421800</t>
         </is>
       </c>
     </row>
@@ -2000,12 +2001,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>og: 44</t>
+          <t>ep: 83</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -2015,12 +2016,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>uk: 93</t>
+          <t>ke: 895</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.0004742188</t>
+          <t>0.0045637187</t>
         </is>
       </c>
     </row>
@@ -2030,12 +2031,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>dk: 3</t>
+          <t>jl: 9</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -2045,12 +2046,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>di: 674</t>
+          <t>zj: 2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2060,12 +2061,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jh: 45</t>
+          <t>sh: 1285</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0065523782</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2076,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>lt: 77</t>
+          <t>vr: 48</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.0003926328</t>
+          <t>0.0002447581</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2091,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>tn: 22</t>
+          <t>ek: 178</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0009076446</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2106,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>dr: 424</t>
+          <t>lc: 25</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.0021620299</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -2120,12 +2121,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>df: 5</t>
+          <t>ip: 53</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0002702537</t>
         </is>
       </c>
     </row>
@@ -2135,12 +2136,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ph: 204</t>
+          <t>sn: 24</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2151,13 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>xd: 5</t>
+          <t>q
+: 28</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -2165,12 +2167,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>sz: 10</t>
+          <t>gi: 190</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -2180,12 +2182,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>vk: 3</t>
+          <t>re: 1697</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0086532186</t>
         </is>
       </c>
     </row>
@@ -2195,12 +2197,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ba: 321</t>
+          <t>yh: 22</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.0016368198</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2212,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>um: 154</t>
+          <t>da: 1303</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.0007852656</t>
+          <t>0.0066441625</t>
         </is>
       </c>
     </row>
@@ -2225,12 +2227,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>cg: 2</t>
+          <t>se: 884</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0045076283</t>
         </is>
       </c>
     </row>
@@ -2240,12 +2242,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>la: 2623</t>
+          <t>gt: 31</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.0133750102</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -2255,12 +2257,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jk: 2</t>
+          <t>ye: 301</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -2270,12 +2272,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>em: 769</t>
+          <t>gn: 27</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.0039212287</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -2285,12 +2287,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ta: 1027</t>
+          <t>lh: 19</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.0052368035</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -2300,12 +2302,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>sp: 51</t>
+          <t>br: 842</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0042934650</t>
         </is>
       </c>
     </row>
@@ -2315,12 +2317,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>fg: 1</t>
+          <t>yb: 27</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -2330,12 +2332,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ig: 428</t>
+          <t>gb: 3</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.0021824264</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2347,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>fa: 242</t>
+          <t>yg: 30</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.0012339887</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -2360,12 +2362,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ac: 470</t>
+          <t>ig: 428</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.0023965897</t>
+          <t>0.0021824264</t>
         </is>
       </c>
     </row>
@@ -2375,12 +2377,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>gw: 26</t>
+          <t>vk: 3</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2390,12 +2392,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ei: 818</t>
+          <t>xz: 19</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2407,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jc: 4</t>
+          <t>ao: 63</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0003212450</t>
         </is>
       </c>
     </row>
@@ -2420,12 +2422,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>so: 531</t>
+          <t>ng: 273</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.0027076365</t>
+          <t>0.0013920617</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2437,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ef: 82</t>
+          <t>av: 834</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0042526719</t>
         </is>
       </c>
     </row>
@@ -2450,12 +2452,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>iy: 779</t>
+          <t>cx: 3</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.0039722200</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2467,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ie: 1653</t>
+          <t>me: 818</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.0084288570</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -2480,12 +2482,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>pl: 16</t>
+          <t>uw: 86</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -2495,12 +2497,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>yh: 22</t>
+          <t>jn: 2</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2510,12 +2512,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>zj: 2</t>
+          <t>ic: 509</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -2525,12 +2527,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>pe: 197</t>
+          <t>cg: 2</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.0010045280</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2540,12 +2542,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>zm: 35</t>
+          <t>gs: 30</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -2555,12 +2557,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>hm: 117</t>
+          <t>hg: 2</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.0005965979</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2572,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>sr: 55</t>
+          <t>tl: 134</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -2585,12 +2587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>tg: 2</t>
+          <t>tw: 11</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2602,13 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ga: 330</t>
+          <t>c
+: 97</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.0016827119</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -2615,12 +2618,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>cj: 3</t>
+          <t>nj: 44</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -2630,12 +2633,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>eo: 269</t>
+          <t>ys: 401</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0020447499</t>
         </is>
       </c>
     </row>
@@ -2645,12 +2648,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>il: 1345</t>
+          <t>eg: 125</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0006373909</t>
         </is>
       </c>
     </row>
@@ -2660,12 +2663,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>iv: 269</t>
+          <t>dh: 118</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2678,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>nj: 44</t>
+          <t>eq: 14</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -2690,12 +2693,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>es: 861</t>
+          <t>df: 5</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.0043903484</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -2705,12 +2708,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>fr: 114</t>
+          <t>ib: 110</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2723,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ii: 82</t>
+          <t>km: 9</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -2735,12 +2738,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>lf: 22</t>
+          <t>kk: 20</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -2750,12 +2753,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ek: 178</t>
+          <t>nw: 11</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.0009076446</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -2765,12 +2768,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>lm: 60</t>
+          <t>ot: 118</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -2780,12 +2783,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ly: 1588</t>
+          <t>xf: 3</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.0080974137</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2795,12 +2798,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>oc: 114</t>
+          <t>wd: 8</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -2810,12 +2813,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ko: 344</t>
+          <t>ct: 35</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.0017540997</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -2825,12 +2828,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>sw: 24</t>
+          <t>ru: 252</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0012849800</t>
         </is>
       </c>
     </row>
@@ -2840,12 +2843,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>hs: 31</t>
+          <t>ux: 34</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2858,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>aq: 60</t>
+          <t>pi: 61</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0003110467</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2873,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>up: 16</t>
+          <t>pl: 16</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -2885,12 +2888,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>wt: 8</t>
+          <t>dy: 317</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0016164233</t>
         </is>
       </c>
     </row>
@@ -2900,12 +2903,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>zb: 4</t>
+          <t>ma: 2590</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0132067390</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2918,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>bh: 41</t>
+          <t>aa: 556</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0028351146</t>
         </is>
       </c>
     </row>
@@ -2930,12 +2933,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>kw: 34</t>
+          <t>ou: 275</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2948,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ov: 176</t>
+          <t>xu: 5</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.0008974464</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -2960,12 +2963,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>xl: 39</t>
+          <t>ad: 1042</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0053132904</t>
         </is>
       </c>
     </row>
@@ -2975,12 +2978,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>fu: 10</t>
+          <t>hh: 1</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2990,12 +2993,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ib: 110</t>
+          <t>sg: 2</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3005,12 +3008,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>dn: 31</t>
+          <t>pe: 197</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0010045280</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3023,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>gn: 27</t>
+          <t>vo: 153</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -3035,12 +3038,13 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>eu: 69</t>
+          <t>n
+: 6763</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0344853961</t>
         </is>
       </c>
     </row>
@@ -3050,12 +3054,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>uq: 10</t>
+          <t>em: 769</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0039212287</t>
         </is>
       </c>
     </row>
@@ -3065,12 +3069,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>hd: 24</t>
+          <t>qr: 1</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3080,12 +3084,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>uc: 103</t>
+          <t>hz: 20</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -3095,12 +3099,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>rq: 16</t>
+          <t>ac: 470</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0023965897</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3114,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>h
-: 2409</t>
+          <t>by: 83</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.0122837970</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -3126,12 +3129,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>xy: 30</t>
+          <t>bh: 41</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3144,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>iz: 277</t>
+          <t>ov: 176</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.0014124582</t>
+          <t>0.0008974464</t>
         </is>
       </c>
     </row>
@@ -3156,12 +3159,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>nz: 145</t>
+          <t>tj: 3</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.0007393734</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -3171,12 +3174,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>kv: 2</t>
+          <t>nd: 704</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0035897854</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3189,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>xb: 1</t>
+          <t>hv: 39</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3204,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ma: 2590</t>
+          <t>fu: 10</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.0132067390</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -3216,13 +3219,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>o
-: 855</t>
+          <t>lf: 22</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.0043597536</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -3232,12 +3234,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>gd: 19</t>
+          <t>ij: 76</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3249,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>rg: 76</t>
+          <t>nu: 96</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0004895162</t>
         </is>
       </c>
     </row>
@@ -3262,12 +3264,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>rb: 41</t>
+          <t>sy: 215</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0010963123</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3279,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>vr: 48</t>
+          <t>wo: 36</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.0002447581</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -3292,12 +3294,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>nq: 2</t>
+          <t>nb: 8</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -3307,12 +3309,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>tb: 1</t>
+          <t>tt: 374</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0019070735</t>
         </is>
       </c>
     </row>
@@ -3322,12 +3324,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ya: 2143</t>
+          <t>pp: 39</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.0109274292</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -3337,12 +3339,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>lj: 6</t>
+          <t>oi: 69</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -3352,12 +3354,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>hr: 204</t>
+          <t>zr: 32</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3369,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>wr: 22</t>
+          <t>tz: 105</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3384,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>dh: 118</t>
+          <t>py: 12</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3399,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>it: 541</t>
+          <t>gm: 6</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -3412,12 +3414,13 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>mn: 20</t>
+          <t>k
+: 363</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0018509831</t>
         </is>
       </c>
     </row>
@@ -3427,12 +3430,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>fz: 2</t>
+          <t>im: 427</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0021773272</t>
         </is>
       </c>
     </row>
@@ -3442,12 +3445,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ip: 53</t>
+          <t>ya: 2143</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.0002702537</t>
+          <t>0.0109274292</t>
         </is>
       </c>
     </row>
@@ -3457,12 +3460,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>wl: 13</t>
+          <t>yi: 192</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0009790324</t>
         </is>
       </c>
     </row>
@@ -3472,12 +3475,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>xn: 1</t>
+          <t>dm: 30</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3490,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>rl: 413</t>
+          <t>wm: 2</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.0021059395</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3502,12 +3505,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>np: 5</t>
+          <t>aw: 161</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0008209595</t>
         </is>
       </c>
     </row>
@@ -3517,12 +3520,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>wo: 36</t>
+          <t>we: 149</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -3532,12 +3535,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ro: 869</t>
+          <t>wn: 58</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.0044311414</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -3547,12 +3550,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>cu: 35</t>
+          <t>yx: 28</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -3562,12 +3565,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>eg: 125</t>
+          <t>np: 5</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.0006373909</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3580,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ow: 114</t>
+          <t>eb: 121</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -3592,12 +3595,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>vo: 153</t>
+          <t>xm: 1</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3607,12 +3610,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>zx: 1</t>
+          <t>eo: 269</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -3622,12 +3625,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>zd: 2</t>
+          <t>xd: 5</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3640,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>wn: 58</t>
+          <t>rz: 23</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -3652,12 +3655,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ne: 1359</t>
+          <t>hj: 9</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.0069297136</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3670,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ys: 401</t>
+          <t>cc: 42</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.0020447499</t>
+          <t>0.0002141633</t>
         </is>
       </c>
     </row>
@@ -3682,12 +3685,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>vl: 14</t>
+          <t>rn: 140</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3700,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>jb: 1</t>
+          <t>ei: 818</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -3712,12 +3715,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>kf: 1</t>
+          <t>ht: 71</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3730,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>dv: 17</t>
+          <t>mj: 7</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -3742,12 +3745,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>qw: 3</t>
+          <t>qm: 2</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3757,12 +3760,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>de: 1283</t>
+          <t>lm: 60</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.0065421800</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -3772,12 +3775,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>lk: 24</t>
+          <t>nc: 213</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3790,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>zk: 2</t>
+          <t>yl: 1104</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0056294362</t>
         </is>
       </c>
     </row>
@@ -3802,12 +3805,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>yo: 271</t>
+          <t>rk: 90</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -3817,12 +3820,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>sl: 279</t>
+          <t>pb: 2</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.0014226564</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3832,13 +3835,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>j
-: 71</t>
+          <t>di: 674</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -3848,12 +3850,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>uu: 3</t>
+          <t>rd: 187</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0009535368</t>
         </is>
       </c>
     </row>
@@ -3863,12 +3865,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>oq: 3</t>
+          <t>ve: 568</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -3878,12 +3880,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>mt: 4</t>
+          <t>jo: 479</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0024424818</t>
         </is>
       </c>
     </row>
@@ -3893,12 +3895,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>fe: 123</t>
+          <t>dd: 149</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -3908,12 +3910,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>cc: 42</t>
+          <t>gf: 1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.0002141633</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3923,12 +3925,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>hq: 1</t>
+          <t>ub: 103</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -3938,12 +3940,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ix: 89</t>
+          <t>rt: 208</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.0004538223</t>
+          <t>0.0010606184</t>
         </is>
       </c>
     </row>
@@ -3953,12 +3955,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>we: 149</t>
+          <t>ms: 35</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -3968,12 +3970,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ab: 541</t>
+          <t>oz: 54</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0002753529</t>
         </is>
       </c>
     </row>
@@ -3983,12 +3985,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ue: 169</t>
+          <t>ce: 551</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.0008617525</t>
+          <t>0.0028096190</t>
         </is>
       </c>
     </row>
@@ -3998,12 +4000,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>tx: 2</t>
+          <t>bb: 38</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -4013,12 +4015,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>wz: 1</t>
+          <t>yq: 6</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -4028,12 +4030,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>xa: 103</t>
+          <t>cl: 116</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0005914987</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4045,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>co: 380</t>
+          <t>bt: 2</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.0019376683</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4058,12 +4060,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>wk: 6</t>
+          <t>qu: 206</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0010504202</t>
         </is>
       </c>
     </row>
@@ -4073,12 +4075,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>do: 378</t>
+          <t>vi: 911</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.0019274700</t>
+          <t>0.0046453047</t>
         </is>
       </c>
     </row>
@@ -4088,12 +4090,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>bd: 65</t>
+          <t>ai: 1650</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.0003314433</t>
+          <t>0.0084135596</t>
         </is>
       </c>
     </row>
@@ -4103,12 +4105,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ia: 2445</t>
+          <t>os: 504</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.0124673656</t>
+          <t>0.0025699600</t>
         </is>
       </c>
     </row>
@@ -4118,12 +4120,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>dd: 149</t>
+          <t>yj: 23</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4135,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>lc: 25</t>
+          <t>lr: 18</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -4148,12 +4150,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ws: 20</t>
+          <t>hq: 1</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4163,13 +4165,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>c
-: 97</t>
+          <t>nr: 44</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -4179,12 +4180,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>du: 92</t>
+          <t>as: 1118</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.0004691197</t>
+          <t>0.0057008240</t>
         </is>
       </c>
     </row>
@@ -4194,12 +4195,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>hb: 8</t>
+          <t>yz: 78</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -4209,12 +4210,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>kn: 26</t>
+          <t>il: 1345</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -4224,12 +4225,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>pf: 1</t>
+          <t>up: 16</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -4239,12 +4240,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>va: 642</t>
+          <t>vd: 1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.0032736396</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4254,12 +4255,13 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>nd: 704</t>
+          <t>s
+: 1169</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.0035897854</t>
+          <t>0.0059608795</t>
         </is>
       </c>
     </row>
@@ -4269,12 +4271,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>yl: 1104</t>
+          <t>yk: 86</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.0056294362</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -4284,12 +4286,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>sk: 82</t>
+          <t>zm: 35</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -4299,12 +4301,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>my: 287</t>
+          <t>ji: 119</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0006067961</t>
         </is>
       </c>
     </row>
@@ -4314,12 +4316,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>sv: 14</t>
+          <t>ks: 95</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -4329,12 +4331,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>pn: 1</t>
+          <t>kj: 2</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4344,12 +4346,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ry: 773</t>
+          <t>kh: 307</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.0039416252</t>
+          <t>0.0015654320</t>
         </is>
       </c>
     </row>
@@ -4359,12 +4361,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>dz: 1</t>
+          <t>ts: 35</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -4374,12 +4376,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>iw: 8</t>
+          <t>ym: 148</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4391,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>yg: 30</t>
+          <t>kw: 34</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -4404,12 +4406,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>zp: 2</t>
+          <t>mc: 51</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4421,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>mk: 1</t>
+          <t>ev: 463</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0023608958</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4436,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>zr: 32</t>
+          <t>zi: 364</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0018560822</t>
         </is>
       </c>
     </row>
@@ -4449,12 +4451,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>gy: 31</t>
+          <t>jd: 4</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4464,12 +4466,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>pj: 1</t>
+          <t>rs: 190</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -4479,12 +4481,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>cl: 116</t>
+          <t>ta: 1027</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.0005914987</t>
+          <t>0.0052368035</t>
         </is>
       </c>
     </row>
@@ -4494,12 +4496,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ge: 334</t>
+          <t>gl: 32</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.0017031084</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -4509,13 +4511,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>f
-: 80</t>
+          <t>sb: 21</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4526,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>tr: 352</t>
+          <t>ge: 334</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.0017948927</t>
+          <t>0.0017031084</t>
         </is>
       </c>
     </row>
@@ -4540,12 +4541,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ae: 692</t>
+          <t>pr: 151</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0007699682</t>
         </is>
       </c>
     </row>
@@ -4555,12 +4556,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ps: 16</t>
+          <t>jv: 5</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -4570,12 +4571,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>fi: 160</t>
+          <t>iq: 52</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -4585,12 +4586,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ij: 76</t>
+          <t>ob: 140</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -4600,12 +4601,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>jl: 9</t>
+          <t>ue: 169</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0008617525</t>
         </is>
       </c>
     </row>
@@ -4615,12 +4616,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>wa: 280</t>
+          <t>gw: 26</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.0014277556</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -4630,12 +4631,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ci: 271</t>
+          <t>ph: 204</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -4645,12 +4646,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>er: 1958</t>
+          <t>rr: 425</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.0099840907</t>
+          <t>0.0021671290</t>
         </is>
       </c>
     </row>
@@ -4660,12 +4661,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>lb: 52</t>
+          <t>ki: 509</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -4675,12 +4676,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>yc: 115</t>
+          <t>oy: 103</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -4690,12 +4691,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ou: 275</t>
+          <t>jm: 5</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4706,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>uv: 37</t>
+          <t>mt: 4</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.0001886677</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4720,12 +4721,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>rm: 162</t>
+          <t>au: 381</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.0008260586</t>
+          <t>0.0019427674</t>
         </is>
       </c>
     </row>
@@ -4735,12 +4736,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>pi: 61</t>
+          <t>ry: 773</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.0003110467</t>
+          <t>0.0039416252</t>
         </is>
       </c>
     </row>
@@ -4750,12 +4751,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ze: 373</t>
+          <t>tn: 22</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.0019019744</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4766,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>if: 101</t>
+          <t>ds: 29</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.0005150118</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -4780,12 +4781,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ft: 18</t>
+          <t>wk: 6</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -4795,12 +4796,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>jt: 2</t>
+          <t>ag: 168</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4811,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>rk: 90</t>
+          <t>ud: 136</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0006934813</t>
         </is>
       </c>
     </row>
@@ -4825,12 +4826,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ch: 664</t>
+          <t>bc: 1</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.0033858203</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4840,12 +4841,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>yt: 104</t>
+          <t>li: 2480</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0126458350</t>
         </is>
       </c>
     </row>
@@ -4855,12 +4856,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ep: 83</t>
+          <t>jc: 4</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4871,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>mw: 2</t>
+          <t>yv: 106</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005405075</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4886,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>an: 5438</t>
+          <t>ef: 82</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.0277290528</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -4900,12 +4901,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>rp: 14</t>
+          <t>le: 2921</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0148945501</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4916,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>nx: 6</t>
+          <t>to: 667</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0034011177</t>
         </is>
       </c>
     </row>
@@ -4930,12 +4931,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>nc: 213</t>
+          <t>nk: 58</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -4945,12 +4946,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>au: 381</t>
+          <t>kb: 2</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.0019427674</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4960,12 +4961,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>qi: 13</t>
+          <t>ka: 1731</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0088265889</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4976,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>yb: 27</t>
+          <t>db: 1</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4990,12 +4991,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>rn: 140</t>
+          <t>ko: 344</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0017540997</t>
         </is>
       </c>
     </row>
@@ -5005,12 +5006,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>gj: 3</t>
+          <t>bu: 45</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -5020,12 +5021,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>cd: 1</t>
+          <t>rb: 41</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5036,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>gg: 25</t>
+          <t>tr: 352</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0017948927</t>
         </is>
       </c>
     </row>
@@ -5050,12 +5051,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>oa: 149</t>
+          <t>lg: 6</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5066,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>xh: 1</t>
+          <t>oj: 16</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -5080,12 +5081,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>nr: 44</t>
+          <t>dt: 4</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5095,13 +5096,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>a
-: 6640</t>
+          <t>gy: 31</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.0338582035</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -5111,12 +5111,13 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>sg: 2</t>
+          <t>f
+: 80</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -5126,12 +5127,13 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>yp: 15</t>
+          <t>o
+: 855</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0043597536</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5143,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>tt: 374</t>
+          <t>on: 2411</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.0019070735</t>
+          <t>0.0122939953</t>
         </is>
       </c>
     </row>
@@ -5156,12 +5158,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ra: 2356</t>
+          <t>er: 1958</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.0120135433</t>
+          <t>0.0099840907</t>
         </is>
       </c>
     </row>
@@ -5171,12 +5173,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>xt: 70</t>
+          <t>xl: 39</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.0003569389</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -5186,13 +5188,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>g
-: 108</t>
+          <t>aq: 60</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.0005507057</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -5202,12 +5203,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>yx: 28</t>
+          <t>ol: 619</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0031563596</t>
         </is>
       </c>
     </row>
@@ -5217,12 +5218,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>je: 440</t>
+          <t>tm: 4</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5232,12 +5233,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>qr: 1</t>
+          <t>hr: 204</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -5247,12 +5248,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>tj: 3</t>
+          <t>fy: 14</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -5262,12 +5263,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>nu: 96</t>
+          <t>tb: 1</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.0004895162</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5277,12 +5278,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>mv: 3</t>
+          <t>pk: 1</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5292,12 +5293,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>vn: 8</t>
+          <t>wb: 1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5307,12 +5308,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>nb: 8</t>
+          <t>et: 580</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0029574937</t>
         </is>
       </c>
     </row>
@@ -5322,12 +5323,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>bi: 217</t>
+          <t>hl: 185</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.0011065106</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -5337,12 +5338,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>xe: 36</t>
+          <t>ro: 869</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0044311414</t>
         </is>
       </c>
     </row>
@@ -5352,13 +5353,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>d
-: 516</t>
+          <t>ui: 121</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -5368,12 +5368,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>hj: 9</t>
+          <t>rp: 14</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -5383,12 +5383,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>dt: 4</t>
+          <t>nf: 11</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -5398,12 +5398,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>rv: 80</t>
+          <t>sr: 55</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -5413,12 +5413,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>zw: 3</t>
+          <t>uo: 10</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -5428,12 +5428,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ik: 445</t>
+          <t>rf: 9</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.0022691115</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>tl: 134</t>
+          <t>pf: 1</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5458,12 +5458,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>zg: 1</t>
+          <t>us: 474</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0024169862</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5473,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ul: 301</t>
+          <t>ik: 445</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0022691115</t>
         </is>
       </c>
     </row>
@@ -5488,12 +5488,13 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>dg: 25</t>
+          <t>t
+: 483</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0024628784</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5504,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>dq: 1</t>
+          <t>go: 83</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -5518,12 +5519,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>rd: 187</t>
+          <t>mz: 11</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.0009535368</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -5533,12 +5534,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>gr: 201</t>
+          <t>ld: 138</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.0010249245</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -5548,12 +5549,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>yv: 106</t>
+          <t>lb: 52</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.0005405075</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -5563,12 +5564,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>wg: 1</t>
+          <t>ax: 182</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0009280411</t>
         </is>
       </c>
     </row>
@@ -5578,12 +5579,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>kh: 307</t>
+          <t>ow: 114</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.0015654320</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -5593,12 +5594,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ky: 379</t>
+          <t>gu: 85</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.0019325691</t>
+          <t>0.0004334258</t>
         </is>
       </c>
     </row>
@@ -5608,12 +5609,13 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>uf: 19</t>
+          <t>j
+: 71</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -5623,12 +5625,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>rh: 121</t>
+          <t>nl: 195</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0009943298</t>
         </is>
       </c>
     </row>
@@ -5638,12 +5640,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>oy: 103</t>
+          <t>lo: 692</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -5653,12 +5655,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>ks: 95</t>
+          <t>ny: 465</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0023710941</t>
         </is>
       </c>
     </row>
@@ -5668,12 +5670,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>mf: 1</t>
+          <t>oa: 149</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -5683,12 +5685,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>im: 427</t>
+          <t>mp: 38</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.0021773272</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -5698,12 +5700,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>si: 684</t>
+          <t>zh: 43</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.0034878029</t>
+          <t>0.0002192625</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5715,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>tz: 105</t>
+          <t>dz: 1</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5728,12 +5730,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>sa: 1201</t>
+          <t>yp: 15</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.0061240516</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -5743,12 +5745,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>qo: 2</t>
+          <t>zn: 4</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5758,12 +5760,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>sy: 215</t>
+          <t>mo: 452</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.0010963123</t>
+          <t>0.0023048054</t>
         </is>
       </c>
     </row>
@@ -5773,12 +5775,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ki: 509</t>
+          <t>hm: 117</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0005965979</t>
         </is>
       </c>
     </row>
@@ -5788,12 +5790,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>mz: 11</t>
+          <t>ih: 95</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -5803,12 +5805,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>op: 95</t>
+          <t>am: 1634</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0083319736</t>
         </is>
       </c>
     </row>
@@ -5818,12 +5820,13 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>sh: 1285</t>
+          <t>w
+: 51</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.0065523782</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -5833,12 +5836,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>ad: 1042</t>
+          <t>iw: 8</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.0053132904</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -5848,12 +5851,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>wb: 1</t>
+          <t>hw: 10</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -5863,12 +5866,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>lu: 324</t>
+          <t>jr: 11</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.0016521172</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -5878,12 +5881,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>xo: 41</t>
+          <t>az: 435</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0022181203</t>
         </is>
       </c>
     </row>
@@ -5893,12 +5896,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>vu: 7</t>
+          <t>sw: 24</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -5908,12 +5911,13 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ag: 168</t>
+          <t>a
+: 6640</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0338582035</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5927,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>go: 83</t>
+          <t>lw: 16</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -5938,12 +5942,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>gu: 85</t>
+          <t>ku: 50</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.0004334258</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -5953,12 +5957,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>pk: 1</t>
+          <t>tx: 2</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5968,12 +5972,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>aj: 175</t>
+          <t>vv: 7</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.0008923472</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -5983,12 +5987,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ru: 252</t>
+          <t>ox: 45</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.0012849800</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -5998,12 +6002,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>eb: 121</t>
+          <t>hk: 29</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -6013,12 +6017,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>jn: 2</t>
+          <t>ia: 2445</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0124673656</t>
         </is>
       </c>
     </row>
@@ -6028,12 +6032,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ri: 3033</t>
+          <t>fl: 20</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.0154656523</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -6043,12 +6047,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>bl: 103</t>
+          <t>ey: 1070</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0054560659</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6062,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>gz: 1</t>
+          <t>fh: 1</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6073,12 +6077,13 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>km: 9</t>
+          <t>g
+: 108</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0005507057</t>
         </is>
       </c>
     </row>
@@ -6088,12 +6093,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>os: 504</t>
+          <t>lz: 10</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.0025699600</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6108,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>pa: 209</t>
+          <t>ew: 50</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.0010657175</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -6118,12 +6123,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>sj: 2</t>
+          <t>co: 380</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0019376683</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6138,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>pp: 39</t>
+          <t>wu: 25</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -6148,12 +6153,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>hw: 10</t>
+          <t>ll: 1345</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -6163,12 +6168,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>gt: 31</t>
+          <t>hc: 2</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6178,12 +6183,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ur: 414</t>
+          <t>lp: 15</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.0021110386</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -6193,12 +6198,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>mr: 97</t>
+          <t>wi: 148</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -6208,12 +6213,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>no: 496</t>
+          <t>fw: 4</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.0025291670</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -6223,12 +6228,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>eh: 152</t>
+          <t>mw: 2</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.0007750673</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6238,12 +6243,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>hn: 138</t>
+          <t>wl: 13</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -6253,12 +6258,13 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>ea: 679</t>
+          <t>y
+: 2007</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.0034623073</t>
+          <t>0.0102339479</t>
         </is>
       </c>
     </row>
@@ -6268,12 +6274,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>dy: 317</t>
+          <t>or: 1059</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.0016164233</t>
+          <t>0.0053999755</t>
         </is>
       </c>
     </row>
@@ -6283,12 +6289,13 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>oj: 16</t>
+          <t>m
+: 516</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -6298,12 +6305,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>gl: 32</t>
+          <t>sd: 9</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -6313,12 +6320,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ut: 82</t>
+          <t>dn: 31</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -6328,12 +6335,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ui: 121</t>
+          <t>wz: 1</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6350,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>zs: 4</t>
+          <t>vh: 1</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6358,12 +6365,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>vb: 1</t>
+          <t>zd: 2</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6373,12 +6380,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>bo: 105</t>
+          <t>xs: 31</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -6388,12 +6395,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ty: 341</t>
+          <t>al: 2528</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.0017388023</t>
+          <t>0.0128905931</t>
         </is>
       </c>
     </row>
@@ -6403,12 +6410,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>ey: 1070</t>
+          <t>ut: 82</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.0054560659</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -6418,12 +6425,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ap: 82</t>
+          <t>wy: 73</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -6433,12 +6440,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>hz: 20</t>
+          <t>an: 5438</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0277290528</t>
         </is>
       </c>
     </row>
@@ -6448,12 +6455,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>md: 24</t>
+          <t>fr: 114</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -6463,12 +6470,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>yz: 78</t>
+          <t>ws: 20</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -6478,12 +6485,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>av: 834</t>
+          <t>ie: 1653</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.0042526719</t>
+          <t>0.0084288570</t>
         </is>
       </c>
     </row>
@@ -6493,12 +6500,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>wi: 148</t>
+          <t>sm: 90</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -6508,12 +6515,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ji: 119</t>
+          <t>he: 674</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.0006067961</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -6523,12 +6530,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>ju: 202</t>
+          <t>jh: 45</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.0010300237</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -6538,12 +6545,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>nt: 443</t>
+          <t>vu: 7</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.0022589133</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -6553,12 +6560,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ku: 50</t>
+          <t>op: 95</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -6568,12 +6575,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>br: 842</t>
+          <t>ej: 55</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.0042934650</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -6583,12 +6590,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>cr: 76</t>
+          <t>ck: 316</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0016113241</t>
         </is>
       </c>
     </row>
@@ -6598,12 +6605,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>uj: 14</t>
+          <t>tv: 15</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -6613,12 +6620,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>le: 2921</t>
+          <t>hb: 8</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.0148945501</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -6628,12 +6635,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>gi: 190</t>
+          <t>xb: 1</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6643,12 +6650,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>dm: 30</t>
+          <t>tf: 2</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6658,12 +6665,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>oh: 171</t>
+          <t>wg: 1</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.0008719507</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6680,13 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>fl: 20</t>
+          <t>e
+: 3983</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0203098230</t>
         </is>
       </c>
     </row>
@@ -6688,12 +6696,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ms: 35</t>
+          <t>el: 3248</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0165619646</t>
         </is>
       </c>
     </row>
@@ -6703,12 +6711,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>lw: 16</t>
+          <t>cd: 1</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6718,12 +6726,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>hk: 29</t>
+          <t>hy: 213</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -6733,12 +6741,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>ce: 551</t>
+          <t>jt: 2</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.0028096190</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6748,12 +6756,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ec: 153</t>
+          <t>xw: 3</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6771,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>bt: 2</t>
+          <t>oc: 114</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -6778,13 +6786,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>s
-: 1169</t>
+          <t>rw: 21</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.0059608795</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -6794,12 +6801,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ar: 3264</t>
+          <t>zl: 123</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.0166435506</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -6809,12 +6816,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>zo: 110</t>
+          <t>yo: 271</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -6824,12 +6831,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>ll: 1345</t>
+          <t>cu: 35</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -6839,12 +6846,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ol: 619</t>
+          <t>dc: 3</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.0031563596</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -6854,12 +6861,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>jj: 2</t>
+          <t>vl: 14</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -6869,12 +6876,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>xi: 102</t>
+          <t>ri: 3033</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.0005201110</t>
+          <t>0.0154656523</t>
         </is>
       </c>
     </row>
@@ -6884,12 +6891,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>db: 1</t>
+          <t>kr: 109</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -6899,12 +6906,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>sn: 24</t>
+          <t>iu: 109</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -6914,12 +6921,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>hp: 1</t>
+          <t>wr: 22</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -6929,12 +6936,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>om: 261</t>
+          <t>rg: 76</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.0013308722</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -6944,12 +6951,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>jr: 11</t>
+          <t>uz: 45</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -6959,12 +6966,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>kr: 109</t>
+          <t>yc: 115</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -6974,13 +6981,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>p
-: 33</t>
+          <t>na: 2977</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.0001682712</t>
+          <t>0.0151801012</t>
         </is>
       </c>
     </row>
@@ -6990,12 +6996,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ca: 815</t>
+          <t>nx: 6</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.0041557885</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -7005,12 +7011,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>dj: 9</t>
+          <t>mv: 3</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -7020,12 +7026,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>lp: 15</t>
+          <t>og: 44</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -7035,12 +7041,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>ym: 148</t>
+          <t>hp: 1</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7050,12 +7056,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>mu: 139</t>
+          <t>dl: 60</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -7065,12 +7071,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ay: 2050</t>
+          <t>so: 531</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.0104532104</t>
+          <t>0.0027076365</t>
         </is>
       </c>
     </row>
@@ -7080,13 +7086,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>w
-: 51</t>
+          <t>ca: 815</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0041557885</t>
         </is>
       </c>
     </row>
@@ -7096,12 +7101,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ti: 532</t>
+          <t>rq: 16</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.0027127356</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -7111,12 +7116,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>dw: 23</t>
+          <t>wf: 2</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7126,12 +7131,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>on: 2411</t>
+          <t>ed: 384</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.0122939953</t>
+          <t>0.0019580648</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7146,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>ew: 50</t>
+          <t>tu: 78</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -7156,12 +7161,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>mo: 452</t>
+          <t>fz: 2</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.0023048054</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7171,12 +7176,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>se: 884</t>
+          <t>id: 440</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.0045076283</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -7186,12 +7191,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>yj: 23</t>
+          <t>un: 275</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -7201,12 +7206,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>al: 2528</t>
+          <t>ab: 541</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>0.0128905931</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -7216,12 +7221,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>rf: 9</t>
+          <t>cq: 11</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -7231,12 +7236,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>ff: 44</t>
+          <t>nm: 19</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -7246,12 +7251,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>en: 2675</t>
+          <t>jb: 1</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.0136401648</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7261,12 +7266,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>fw: 4</t>
+          <t>ss: 461</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0023506976</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7281,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>me: 818</t>
+          <t>yw: 4</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7291,12 +7296,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>yf: 12</t>
+          <t>va: 642</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0032736396</t>
         </is>
       </c>
     </row>
@@ -7306,12 +7311,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>sq: 1</t>
+          <t>vy: 121</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7326,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>st: 765</t>
+          <t>hn: 138</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.0039008322</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -7336,12 +7341,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>ez: 181</t>
+          <t>wa: 280</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.0009229420</t>
+          <t>0.0014277556</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7356,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>tf: 2</t>
+          <t>js: 7</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -7366,12 +7371,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>yy: 23</t>
+          <t>hu: 166</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0008464551</t>
         </is>
       </c>
     </row>
@@ -7381,12 +7386,13 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ee: 1271</t>
+          <t>z
+: 160</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.0064809905</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -7396,12 +7402,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>kd: 2</t>
+          <t>uu: 3</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7417,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>or: 1059</t>
+          <t>la: 2623</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.0053999755</t>
+          <t>0.0133750102</t>
         </is>
       </c>
     </row>
@@ -7426,12 +7432,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>kc: 2</t>
+          <t>kn: 26</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -7441,12 +7447,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>ts: 35</t>
+          <t>jj: 2</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7456,12 +7462,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>tm: 4</t>
+          <t>rl: 413</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0021059395</t>
         </is>
       </c>
     </row>
@@ -7471,12 +7477,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>wy: 73</t>
+          <t>rj: 25</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -7486,12 +7492,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>xx: 38</t>
+          <t>sp: 51</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -7501,12 +7507,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>ja: 1473</t>
+          <t>jy: 10</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.0075110141</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -7516,12 +7522,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>nk: 58</t>
+          <t>kt: 17</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7537,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>ha: 2244</t>
+          <t>oh: 171</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.0114424411</t>
+          <t>0.0008719507</t>
         </is>
       </c>
     </row>
@@ -7546,12 +7552,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>nm: 19</t>
+          <t>fo: 60</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7567,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>ww: 2</t>
+          <t>mu: 139</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -7576,13 +7582,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>k
-: 363</t>
+          <t>of: 34</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.0018509831</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -7592,12 +7597,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>vh: 1</t>
+          <t>hf: 2</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7607,13 +7612,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>n
-: 6763</t>
+          <t>mi: 1256</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.0344853961</t>
+          <t>0.0064045035</t>
         </is>
       </c>
     </row>
@@ -7623,12 +7627,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>uw: 86</t>
+          <t>pa: 209</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0010657175</t>
         </is>
       </c>
     </row>
@@ -7638,12 +7642,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>ot: 118</t>
+          <t>yr: 291</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0014838460</t>
         </is>
       </c>
     </row>
@@ -7653,13 +7657,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>y
-: 2007</t>
+          <t>pt: 17</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.0102339479</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -7669,12 +7672,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>of: 34</t>
+          <t>jw: 6</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -7684,12 +7687,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>wd: 8</t>
+          <t>mm: 168</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7702,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>ah: 2332</t>
+          <t>lq: 3</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.0118911642</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -7714,12 +7717,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>bc: 1</t>
+          <t>kd: 2</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7732,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>at: 687</t>
+          <t>bs: 8</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.0035031003</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -7744,12 +7747,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>fs: 6</t>
+          <t>ne: 1359</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0069297136</t>
         </is>
       </c>
     </row>
@@ -7759,12 +7762,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>io: 588</t>
+          <t>ft: 18</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.0029982867</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -7774,12 +7777,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>ny: 465</t>
+          <t>ky: 379</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.0023710941</t>
+          <t>0.0019325691</t>
         </is>
       </c>
     </row>
@@ -7789,12 +7792,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>eq: 14</t>
+          <t>kl: 139</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -7804,12 +7807,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>wf: 2</t>
+          <t>dw: 23</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -7819,12 +7822,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>ed: 384</t>
+          <t>xn: 1</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.0019580648</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7834,12 +7837,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ho: 287</t>
+          <t>xo: 41</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -7849,12 +7852,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>ds: 29</t>
+          <t>xx: 38</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -7864,12 +7867,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>qm: 2</t>
+          <t>ty: 341</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0017388023</t>
         </is>
       </c>
     </row>
@@ -7879,12 +7882,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>zn: 4</t>
+          <t>ly: 1588</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0080974137</t>
         </is>
       </c>
     </row>
@@ -7894,12 +7897,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>xz: 19</t>
+          <t>sk: 82</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -7909,12 +7912,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>in: 2126</t>
+          <t>rv: 80</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.0108407441</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -7924,12 +7927,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>ct: 35</t>
+          <t>ga: 330</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0016827119</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7942,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>hl: 185</t>
+          <t>xy: 30</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -7954,12 +7957,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>rr: 425</t>
+          <t>pm: 1</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.0021671290</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7969,12 +7972,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>ls: 94</t>
+          <t>gd: 19</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.0004793179</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -7984,12 +7987,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>js: 7</t>
+          <t>fs: 6</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -7999,7 +8002,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>fn: 4</t>
+          <t>zb: 4</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8014,12 +8017,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>lv: 72</t>
+          <t>my: 287</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.0003671371</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -8029,12 +8032,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>pm: 1</t>
+          <t>xt: 70</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0003569389</t>
         </is>
       </c>
     </row>
@@ -8044,12 +8047,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>iq: 52</t>
+          <t>ti: 532</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0027127356</t>
         </is>
       </c>
     </row>
@@ -8059,12 +8062,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>re: 1697</t>
+          <t>sc: 60</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.0086532186</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -8074,13 +8077,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>r
-: 1377</t>
+          <t>yd: 272</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.0070214979</t>
+          <t>0.0013869626</t>
         </is>
       </c>
     </row>
@@ -8090,12 +8092,13 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>gb: 3</t>
+          <t>i
+: 2489</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0126917272</t>
         </is>
       </c>
     </row>
@@ -8105,12 +8108,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>hg: 2</t>
+          <t>cj: 3</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8120,12 +8123,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>as: 1118</t>
+          <t>hd: 24</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.0057008240</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -8135,12 +8138,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>zu: 73</t>
+          <t>uk: 93</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0004742188</t>
         </is>
       </c>
     </row>
@@ -8150,12 +8153,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>hu: 166</t>
+          <t>at: 687</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.0008464551</t>
+          <t>0.0035031003</t>
         </is>
       </c>
     </row>
@@ -8165,13 +8168,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>u
-: 155</t>
+          <t>iz: 277</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.0007903647</t>
+          <t>0.0014124582</t>
         </is>
       </c>
     </row>
@@ -8181,12 +8183,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>ka: 1731</t>
+          <t>zy: 147</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.0088265889</t>
+          <t>0.0007495717</t>
         </is>
       </c>
     </row>
@@ -8196,12 +8198,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>by: 83</t>
+          <t>qs: 2</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8211,12 +8213,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>mp: 38</t>
+          <t>cy: 104</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -8226,13 +8228,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>e
-: 3983</t>
+          <t>eu: 69</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.0203098230</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -8242,12 +8243,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>tw: 11</t>
+          <t>fe: 123</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -8257,12 +8258,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>uy: 13</t>
+          <t>ak: 568</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -8272,12 +8273,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>yu: 141</t>
+          <t>fi: 160</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.0007189769</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -8287,12 +8288,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>nl: 195</t>
+          <t>pj: 1</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.0009943298</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8302,12 +8303,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ye: 301</t>
+          <t>ml: 5</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8318,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>jp: 1</t>
+          <t>nz: 145</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007393734</t>
         </is>
       </c>
     </row>
@@ -8332,12 +8333,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>yw: 4</t>
+          <t>zv: 2</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8347,12 +8348,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>po: 59</t>
+          <t>nt: 443</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.0003008485</t>
+          <t>0.0022589133</t>
         </is>
       </c>
     </row>
@@ -8362,12 +8363,13 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>cq: 11</t>
+          <t>h
+: 2409</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0122837970</t>
         </is>
       </c>
     </row>
@@ -8377,12 +8379,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>ss: 461</t>
+          <t>zw: 3</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.0023506976</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8392,12 +8394,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>wh: 23</t>
+          <t>uy: 13</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -8407,12 +8409,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>gv: 1</t>
+          <t>gg: 25</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -8422,12 +8424,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>zz: 45</t>
+          <t>bi: 217</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0011065106</t>
         </is>
       </c>
     </row>
@@ -8437,12 +8439,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>sf: 2</t>
+          <t>af: 134</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -8452,12 +8454,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>xf: 3</t>
+          <t>uf: 19</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -8467,12 +8469,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>pb: 2</t>
+          <t>mn: 20</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -8482,12 +8484,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>jo: 479</t>
+          <t>ja: 1473</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.0024424818</t>
+          <t>0.0075110141</t>
         </is>
       </c>
     </row>
@@ -8497,12 +8499,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>ih: 95</t>
+          <t>fg: 1</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8512,12 +8514,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>sb: 21</t>
+          <t>ap: 82</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8529,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>ke: 895</t>
+          <t>if: 101</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.0045637187</t>
+          <t>0.0005150118</t>
         </is>
       </c>
     </row>
@@ -8542,12 +8544,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>lh: 19</t>
+          <t>cz: 4</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8557,12 +8559,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>rz: 23</t>
+          <t>qo: 2</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8572,12 +8574,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>bs: 8</t>
+          <t>jp: 1</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8587,12 +8589,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>qu: 206</t>
+          <t>nq: 2</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.0010504202</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8602,12 +8604,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>un: 275</t>
+          <t>vb: 1</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8617,12 +8619,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>ld: 138</t>
+          <t>vn: 8</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -8632,12 +8634,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>rw: 21</t>
+          <t>ze: 373</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0019019744</t>
         </is>
       </c>
     </row>
@@ -8647,12 +8649,12 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>kk: 20</t>
+          <t>iv: 269</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -8662,12 +8664,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>is: 1316</t>
+          <t>zt: 4</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.0067104512</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8677,12 +8679,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>th: 647</t>
+          <t>ur: 414</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.0032991352</t>
+          <t>0.0021110386</t>
         </is>
       </c>
     </row>
@@ -8692,12 +8694,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>tc: 17</t>
+          <t>dq: 1</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8707,7 +8709,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>xc: 4</t>
+          <t>fn: 4</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -8722,12 +8724,13 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ok: 68</t>
+          <t>p
+: 33</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.0003467406</t>
+          <t>0.0001682712</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8740,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>pt: 17</t>
+          <t>yf: 12</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -8752,12 +8755,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>pr: 151</t>
+          <t>du: 92</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.0007699682</t>
+          <t>0.0004691197</t>
         </is>
       </c>
     </row>
@@ -8767,12 +8770,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>na: 2977</t>
+          <t>gj: 3</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.0151801012</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8782,12 +8785,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>lr: 18</t>
+          <t>xe: 36</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -8797,12 +8800,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>pc: 1</t>
+          <t>rc: 99</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0005048136</t>
         </is>
       </c>
     </row>
@@ -8812,12 +8815,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>lg: 6</t>
+          <t>jk: 2</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8827,7 +8830,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>fy: 14</t>
+          <t>sv: 14</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -8842,12 +8845,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>ai: 1650</t>
+          <t>no: 496</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.0084135596</t>
+          <t>0.0025291670</t>
         </is>
       </c>
     </row>
@@ -8857,12 +8860,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>yd: 272</t>
+          <t>wt: 8</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.0013869626</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -8872,12 +8875,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>ob: 140</t>
+          <t>uh: 58</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -8887,12 +8890,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>ak: 568</t>
+          <t>kc: 2</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8902,12 +8905,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>ox: 45</t>
+          <t>lt: 77</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0003926328</t>
         </is>
       </c>
     </row>
@@ -8917,12 +8920,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>yq: 6</t>
+          <t>om: 261</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0013308722</t>
         </is>
       </c>
     </row>
@@ -8932,12 +8935,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>ng: 273</t>
+          <t>zp: 2</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.0013920617</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8950,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>ub: 103</t>
+          <t>su: 185</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -8962,12 +8965,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>kb: 2</t>
+          <t>ho: 287</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -8977,12 +8980,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>ve: 568</t>
+          <t>uj: 14</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -8992,12 +8995,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>yn: 1826</t>
+          <t>po: 59</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.0093110060</t>
+          <t>0.0003008485</t>
         </is>
       </c>
     </row>
@@ -9007,12 +9010,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>xw: 3</t>
+          <t>gr: 201</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0010249245</t>
         </is>
       </c>
     </row>
@@ -9022,13 +9025,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>x
-: 163</t>
+          <t>sj: 2</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9038,12 +9040,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>pu: 4</t>
+          <t>rm: 162</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0008260586</t>
         </is>
       </c>
     </row>
@@ -9053,12 +9055,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>af: 134</t>
+          <t>tc: 17</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -9068,12 +9070,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>nh: 26</t>
+          <t>sf: 2</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9083,12 +9085,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>jm: 5</t>
+          <t>io: 588</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0029982867</t>
         </is>
       </c>
     </row>
@@ -9098,12 +9100,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>oo: 115</t>
+          <t>ni: 1725</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0087959941</t>
         </is>
       </c>
     </row>
@@ -9113,12 +9115,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>rc: 99</t>
+          <t>ug: 47</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.0005048136</t>
+          <t>0.0002396590</t>
         </is>
       </c>
     </row>
@@ -9128,12 +9130,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>cy: 104</t>
+          <t>kv: 2</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9143,12 +9145,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>hf: 2</t>
+          <t>ff: 44</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -9158,12 +9160,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>lz: 10</t>
+          <t>es: 861</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0043903484</t>
         </is>
       </c>
     </row>
@@ -9173,12 +9175,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>el: 3248</t>
+          <t>dk: 3</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.0165619646</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -9188,12 +9190,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>mj: 7</t>
+          <t>in: 2126</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0108407441</t>
         </is>
       </c>
     </row>
@@ -9203,12 +9205,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>mh: 5</t>
+          <t>uq: 10</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -9218,13 +9220,13 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>t
-: 483</t>
+          <t>x
+: 163</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.0024628784</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -9234,12 +9236,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>ql: 1</t>
+          <t>od: 190</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -9249,12 +9251,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>mb: 112</t>
+          <t>bd: 65</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.0005711022</t>
+          <t>0.0003314433</t>
         </is>
       </c>
     </row>
@@ -9264,12 +9266,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>rs: 190</t>
+          <t>aj: 175</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0008923472</t>
         </is>
       </c>
     </row>
@@ -9279,12 +9281,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>od: 190</t>
+          <t>ch: 664</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0033858203</t>
         </is>
       </c>
     </row>
@@ -9294,12 +9296,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>mm: 168</t>
+          <t>ir: 849</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0043291588</t>
         </is>
       </c>
     </row>
@@ -9309,12 +9311,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>nn: 1906</t>
+          <t>th: 647</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.0097189361</t>
+          <t>0.0032991352</t>
         </is>
       </c>
     </row>
@@ -9324,12 +9326,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>py: 12</t>
+          <t>um: 154</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0007852656</t>
         </is>
       </c>
     </row>
@@ -9339,13 +9341,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>i
-: 2489</t>
+          <t>ba: 321</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.0126917272</t>
+          <t>0.0016368198</t>
         </is>
       </c>
     </row>
@@ -9355,12 +9356,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>da: 1303</t>
+          <t>ex: 132</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.0066441625</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -9370,12 +9371,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>qs: 2</t>
+          <t>hi: 729</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0037172636</t>
         </is>
       </c>
     </row>
@@ -9385,12 +9386,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>gf: 1</t>
+          <t>iy: 779</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0039722200</t>
         </is>
       </c>
     </row>
@@ -9400,12 +9401,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>cz: 4</t>
+          <t>sq: 1</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9415,12 +9416,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>to: 667</t>
+          <t>dj: 9</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.0034011177</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -9430,13 +9431,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>m
-: 516</t>
+          <t>fk: 2</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9446,12 +9446,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>vy: 121</t>
+          <t>sl: 279</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0014226564</t>
         </is>
       </c>
     </row>
@@ -9461,13 +9461,13 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>q
-: 28</t>
+          <t>v
+: 88</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0004487232</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>tv: 15</t>
+          <t>sa: 1201</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0061240516</t>
         </is>
       </c>
     </row>

--- a/Bigram_Language_Model/probabilities.xlsx
+++ b/Bigram_Language_Model/probabilities.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>oq: 3</t>
+          <t>li: 2480</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0126458350</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zx: 1</t>
+          <t>wg: 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mb: 112</t>
+          <t>dk: 3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0005711022</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>md: 24</t>
+          <t>iy: 779</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0039722200</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ci: 271</t>
+          <t>xu: 5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ha: 2244</t>
+          <t>ul: 301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0114424411</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>za: 860</t>
+          <t>wu: 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0043852492</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pn: 1</t>
+          <t>vi: 911</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0046453047</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gv: 1</t>
+          <t>gf: 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pc: 1</t>
+          <t>ne: 1359</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0069297136</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lu: 324</t>
+          <t>kj: 2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0016521172</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>qw: 3</t>
+          <t>ix: 89</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0004538223</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ra: 2356</t>
+          <t>zc: 2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0120135433</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ql: 1</t>
+          <t>id: 440</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>st: 765</t>
+          <t>br: 842</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0039008322</t>
+          <t>0.0042934650</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lj: 6</t>
+          <t>mz: 11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ae: 692</t>
+          <t>no: 496</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0025291670</t>
         </is>
       </c>
     </row>
@@ -706,13 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>r
-: 1377</t>
+          <t>rg: 76</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.0070214979</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -722,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>qi: 13</t>
+          <t>sm: 90</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -737,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>gh: 360</t>
+          <t>ay: 2050</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.0018356857</t>
+          <t>0.0104532104</t>
         </is>
       </c>
     </row>
@@ -752,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ec: 153</t>
+          <t>ib: 110</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -767,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nn: 1906</t>
+          <t>ir: 849</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.0097189361</t>
+          <t>0.0043291588</t>
         </is>
       </c>
     </row>
@@ -782,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>yu: 141</t>
+          <t>jv: 5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.0007189769</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -797,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ps: 16</t>
+          <t>vu: 7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -812,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>hs: 31</t>
+          <t>nt: 443</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0022589133</t>
         </is>
       </c>
     </row>
@@ -827,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>kz: 2</t>
+          <t>ol: 619</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0031563596</t>
         </is>
       </c>
     </row>
@@ -842,7 +841,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mk: 1</t>
+          <t>wz: 1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -857,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>xi: 102</t>
+          <t>ct: 35</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.0005201110</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -872,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bj: 1</t>
+          <t>ek: 178</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0009076446</t>
         </is>
       </c>
     </row>
@@ -887,12 +886,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>qe: 1</t>
+          <t>hb: 8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -902,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>zk: 2</t>
+          <t>xo: 41</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -917,13 +916,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>u
-: 155</t>
+          <t>ak: 568</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.0007903647</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -933,12 +931,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>yy: 23</t>
+          <t>sd: 9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -948,12 +946,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mf: 1</t>
+          <t>ys: 401</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0020447499</t>
         </is>
       </c>
     </row>
@@ -963,12 +961,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>be: 655</t>
+          <t>o
+: 855</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.0033399282</t>
+          <t>0.0043597536</t>
         </is>
       </c>
     </row>
@@ -978,12 +977,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>je: 440</t>
+          <t>tu: 78</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -993,12 +992,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mh: 5</t>
+          <t>gj: 3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1007,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bl: 103</t>
+          <t>jh: 45</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1022,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ju: 202</t>
+          <t>ce: 551</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.0010300237</t>
+          <t>0.0028096190</t>
         </is>
       </c>
     </row>
@@ -1038,12 +1037,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ww: 2</t>
+          <t>an: 5438</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0277290528</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1052,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>rh: 121</t>
+          <t>hr: 204</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1067,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>zs: 4</t>
+          <t>sf: 2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1082,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ee: 1271</t>
+          <t>so: 531</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.0064809905</t>
+          <t>0.0027076365</t>
         </is>
       </c>
     </row>
@@ -1098,12 +1097,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>qa: 13</t>
+          <t>im: 427</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0021773272</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1112,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ez: 181</t>
+          <t>ck: 316</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.0009229420</t>
+          <t>0.0016113241</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1127,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>en: 2675</t>
+          <t>rn: 140</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.0136401648</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1142,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mr: 97</t>
+          <t>rw: 21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -1158,12 +1157,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bo: 105</t>
+          <t>mv: 3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1173,12 +1172,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>lv: 72</t>
+          <t>ar: 3264</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.0003671371</t>
+          <t>0.0166435506</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1187,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tg: 2</t>
+          <t>wn: 58</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -1203,12 +1202,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>zo: 110</t>
+          <t>jl: 9</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -1218,12 +1217,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cr: 76</t>
+          <t>wr: 22</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1232,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>lk: 24</t>
+          <t>xd: 5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -1248,12 +1247,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>nh: 26</t>
+          <t>mt: 4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1262,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>zg: 1</t>
+          <t>to: 667</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0034011177</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1277,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bn: 4</t>
+          <t>db: 1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1293,12 +1292,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>uc: 103</t>
+          <t>yb: 27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1307,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ay: 2050</t>
+          <t>na: 2977</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.0104532104</t>
+          <t>0.0151801012</t>
         </is>
       </c>
     </row>
@@ -1323,13 +1322,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>d
-: 516</t>
+          <t>vo: 153</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1337,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ar: 3264</t>
+          <t>sq: 1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.0166435506</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1354,12 +1352,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>yn: 1826</t>
+          <t>ft: 18</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.0093110060</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1367,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>uv: 37</t>
+          <t>fw: 4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.0001886677</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1384,12 +1382,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ii: 82</t>
+          <t>ra: 2356</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0120135433</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1397,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ok: 68</t>
+          <t>va: 642</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.0003467406</t>
+          <t>0.0032736396</t>
         </is>
       </c>
     </row>
@@ -1414,13 +1412,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>l
-: 1314</t>
+          <t>io: 588</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.0067002529</t>
+          <t>0.0029982867</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1427,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ul: 301</t>
+          <t>kf: 1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1442,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>xc: 4</t>
+          <t>st: 765</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0039008322</t>
         </is>
       </c>
     </row>
@@ -1460,12 +1457,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>zc: 2</t>
+          <t>tn: 22</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -1475,12 +1472,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>rx: 3</t>
+          <t>ws: 20</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -1490,12 +1487,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>xh: 1</t>
+          <t>eg: 125</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0006373909</t>
         </is>
       </c>
     </row>
@@ -1505,12 +1502,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>wh: 23</t>
+          <t>qo: 2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1520,12 +1517,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>oe: 132</t>
+          <t>rl: 413</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0021059395</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1532,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>zz: 45</t>
+          <t>oj: 16</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -1550,12 +1547,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>kf: 1</t>
+          <t>xz: 19</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -1565,12 +1562,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>xa: 103</t>
+          <t>up: 16</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1577,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ea: 679</t>
+          <t>iw: 8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.0034623073</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -1595,12 +1592,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>it: 541</t>
+          <t>nf: 11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -1610,12 +1607,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>dg: 25</t>
+          <t>ta: 1027</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0052368035</t>
         </is>
       </c>
     </row>
@@ -1625,13 +1622,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>b
-: 114</t>
+          <t>se: 884</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0045076283</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1637,13 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>dv: 17</t>
+          <t>y
+: 2007</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0102339479</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1653,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>gz: 1</t>
+          <t>of: 34</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1668,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>fa: 242</t>
+          <t>sy: 215</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.0012339887</t>
+          <t>0.0010963123</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1683,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ls: 94</t>
+          <t>md: 24</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.0004793179</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1698,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>do: 378</t>
+          <t>sa: 1201</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.0019274700</t>
+          <t>0.0061240516</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1713,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ln: 14</t>
+          <t>la: 2623</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0133750102</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1728,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>is: 1316</t>
+          <t>ni: 1725</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.0067104512</t>
+          <t>0.0087959941</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1743,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>nv: 55</t>
+          <t>ts: 35</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1758,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>zu: 73</t>
+          <t>ff: 44</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1773,13 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ua: 163</t>
+          <t>h
+: 2409</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0122837970</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1789,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>eh: 152</t>
+          <t>lz: 10</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.0007750673</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1804,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>si: 684</t>
+          <t>yf: 12</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.0034878029</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1819,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>dr: 424</t>
+          <t>zg: 1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.0021620299</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1836,12 +1834,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>oo: 115</t>
+          <t>ho: 287</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -1851,12 +1849,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ah: 2332</t>
+          <t>ub: 103</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.0118911642</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -1866,12 +1864,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cp: 1</t>
+          <t>rd: 187</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0009535368</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1879,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ns: 278</t>
+          <t>oa: 149</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.0014175573</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1894,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cs: 5</t>
+          <t>fn: 4</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1909,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sz: 10</t>
+          <t>bt: 2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1926,12 +1924,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>yt: 104</t>
+          <t>ju: 202</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0010300237</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1939,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>te: 716</t>
+          <t>rs: 190</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.0036509750</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -1956,12 +1954,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ix: 89</t>
+          <t>zj: 2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.0004538223</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1969,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>pu: 4</t>
+          <t>yj: 23</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1984,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>de: 1283</t>
+          <t>pl: 16</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.0065421800</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -2001,12 +1999,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ep: 83</t>
+          <t>ru: 252</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0012849800</t>
         </is>
       </c>
     </row>
@@ -2016,12 +2014,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ke: 895</t>
+          <t>bl: 103</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.0045637187</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -2031,12 +2029,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jl: 9</t>
+          <t>xh: 1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2046,12 +2044,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>zj: 2</t>
+          <t>ry: 773</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0039416252</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2059,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>sh: 1285</t>
+          <t>sg: 2</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.0065523782</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2076,12 +2074,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vr: 48</t>
+          <t>mm: 168</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.0002447581</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -2091,12 +2089,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ek: 178</t>
+          <t>tr: 352</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.0009076446</t>
+          <t>0.0017948927</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2104,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>lc: 25</t>
+          <t>vk: 3</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2119,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ip: 53</t>
+          <t>og: 44</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.0002702537</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2134,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>sn: 24</t>
+          <t>nc: 213</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -2151,13 +2149,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>q
-: 28</t>
+          <t>uy: 13</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -2167,12 +2164,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>gi: 190</t>
+          <t>sw: 24</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -2182,12 +2179,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>re: 1697</t>
+          <t>wo: 36</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.0086532186</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2194,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>yh: 22</t>
+          <t>ss: 461</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0023506976</t>
         </is>
       </c>
     </row>
@@ -2212,12 +2209,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>da: 1303</t>
+          <t>nq: 2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.0066441625</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2224,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>se: 884</t>
+          <t>re: 1697</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.0045076283</t>
+          <t>0.0086532186</t>
         </is>
       </c>
     </row>
@@ -2242,12 +2239,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>gt: 31</t>
+          <t>vy: 121</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2254,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ye: 301</t>
+          <t>le: 2921</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0148945501</t>
         </is>
       </c>
     </row>
@@ -2272,12 +2269,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>gn: 27</t>
+          <t>qw: 3</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2284,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>lh: 19</t>
+          <t>fr: 114</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -2302,12 +2299,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>br: 842</t>
+          <t>nu: 96</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.0042934650</t>
+          <t>0.0004895162</t>
         </is>
       </c>
     </row>
@@ -2317,12 +2314,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>yb: 27</t>
+          <t>tm: 4</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2329,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>gb: 3</t>
+          <t>zh: 43</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0002192625</t>
         </is>
       </c>
     </row>
@@ -2347,12 +2344,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>yg: 30</t>
+          <t>si: 684</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0034878029</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2359,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ig: 428</t>
+          <t>it: 541</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.0021824264</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -2377,12 +2374,13 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>vk: 3</t>
+          <t>x
+: 163</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -2392,12 +2390,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>xz: 19</t>
+          <t>ku: 50</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2405,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ao: 63</t>
+          <t>uu: 3</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.0003212450</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2420,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ng: 273</t>
+          <t>hw: 10</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.0013920617</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2435,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>av: 834</t>
+          <t>xx: 38</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.0042526719</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -2452,12 +2450,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>cx: 3</t>
+          <t>xm: 1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2467,12 +2465,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>me: 818</t>
+          <t>da: 1303</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0066441625</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2480,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>uw: 86</t>
+          <t>fe: 123</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -2497,12 +2495,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>jn: 2</t>
+          <t>ve: 568</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -2512,12 +2510,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ic: 509</t>
+          <t>rb: 41</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2525,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>cg: 2</t>
+          <t>yx: 28</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -2542,12 +2540,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>gs: 30</t>
+          <t>xb: 1</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2555,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>hg: 2</t>
+          <t>gz: 1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2572,12 +2570,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>tl: 134</t>
+          <t>mw: 2</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2587,12 +2585,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>tw: 11</t>
+          <t>zx: 1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2602,13 +2600,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>c
-: 97</t>
+          <t>zy: 147</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0007495717</t>
         </is>
       </c>
     </row>
@@ -2618,12 +2615,13 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>nj: 44</t>
+          <t>l
+: 1314</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0067002529</t>
         </is>
       </c>
     </row>
@@ -2633,12 +2631,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ys: 401</t>
+          <t>jt: 2</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.0020447499</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2648,12 +2646,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>eg: 125</t>
+          <t>ln: 14</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.0006373909</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2661,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>dh: 118</t>
+          <t>bh: 41</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -2678,12 +2676,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>eq: 14</t>
+          <t>wl: 13</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2691,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>df: 5</t>
+          <t>uw: 86</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2706,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ib: 110</t>
+          <t>cu: 35</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2721,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>km: 9</t>
+          <t>fs: 6</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -2738,12 +2736,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>kk: 20</t>
+          <t>al: 2528</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0128905931</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2751,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>nw: 11</t>
+          <t>hg: 2</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2768,12 +2766,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ot: 118</t>
+          <t>xc: 4</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2781,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>xf: 3</t>
+          <t>ui: 121</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -2798,12 +2796,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>wd: 8</t>
+          <t>yd: 272</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0013869626</t>
         </is>
       </c>
     </row>
@@ -2813,12 +2811,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ct: 35</t>
+          <t>dl: 60</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -2828,12 +2826,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ru: 252</t>
+          <t>th: 647</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.0012849800</t>
+          <t>0.0032991352</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2841,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ux: 34</t>
+          <t>jd: 4</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2856,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>pi: 61</t>
+          <t>ur: 414</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.0003110467</t>
+          <t>0.0021110386</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2871,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>pl: 16</t>
+          <t>zu: 73</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2886,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>dy: 317</t>
+          <t>tl: 134</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.0016164233</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -2903,12 +2901,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ma: 2590</t>
+          <t>yh: 22</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.0132067390</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -2918,12 +2916,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>aa: 556</t>
+          <t>oq: 3</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.0028351146</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2933,12 +2931,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ou: 275</t>
+          <t>pk: 1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2948,12 +2946,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>xu: 5</t>
+          <t>sb: 21</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -2963,12 +2961,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ad: 1042</t>
+          <t>lh: 19</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.0053132904</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -2978,12 +2976,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>hh: 1</t>
+          <t>ua: 163</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2991,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>sg: 2</t>
+          <t>sj: 2</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3008,12 +3006,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>pe: 197</t>
+          <t>rh: 121</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.0010045280</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -3023,12 +3021,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>vo: 153</t>
+          <t>ot: 118</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -3038,13 +3036,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>n
-: 6763</t>
+          <t>de: 1283</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.0344853961</t>
+          <t>0.0065421800</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3051,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>em: 769</t>
+          <t>jj: 2</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.0039212287</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3066,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>qr: 1</t>
+          <t>ql: 1</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3084,12 +3081,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>hz: 20</t>
+          <t>yw: 4</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -3099,12 +3096,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ac: 470</t>
+          <t>ow: 114</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.0023965897</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -3114,12 +3111,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>by: 83</t>
+          <t>di: 674</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3126,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>bh: 41</t>
+          <t>ms: 35</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3141,13 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ov: 176</t>
+          <t>f
+: 80</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.0008974464</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3157,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>tj: 3</t>
+          <t>df: 5</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3172,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>nd: 704</t>
+          <t>qi: 13</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.0035897854</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -3189,12 +3187,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>hv: 39</t>
+          <t>if: 101</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0005150118</t>
         </is>
       </c>
     </row>
@@ -3204,12 +3202,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>fu: 10</t>
+          <t>dg: 25</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -3219,12 +3217,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>lf: 22</t>
+          <t>ja: 1473</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0075110141</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3232,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ij: 76</t>
+          <t>um: 154</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0007852656</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3247,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>nu: 96</t>
+          <t>jw: 6</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.0004895162</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -3264,12 +3262,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>sy: 215</t>
+          <t>yt: 104</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.0010963123</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3277,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>wo: 36</t>
+          <t>ef: 82</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3292,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>nb: 8</t>
+          <t>zp: 2</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3309,12 +3307,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>tt: 374</t>
+          <t>ic: 509</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.0019070735</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -3324,12 +3322,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>pp: 39</t>
+          <t>oy: 103</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3337,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>oi: 69</t>
+          <t>yv: 106</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0005405075</t>
         </is>
       </c>
     </row>
@@ -3354,12 +3352,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>zr: 32</t>
+          <t>vh: 1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3367,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>tz: 105</t>
+          <t>fz: 2</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3384,12 +3382,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>py: 12</t>
+          <t>gs: 30</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3397,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>gm: 6</t>
+          <t>yq: 6</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3414,13 +3412,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>k
-: 363</t>
+          <t>ht: 71</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.0018509831</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -3430,12 +3427,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>im: 427</t>
+          <t>cc: 42</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.0021773272</t>
+          <t>0.0002141633</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3442,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ya: 2143</t>
+          <t>be: 655</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.0109274292</t>
+          <t>0.0033399282</t>
         </is>
       </c>
     </row>
@@ -3460,12 +3457,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>yi: 192</t>
+          <t>kk: 20</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.0009790324</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3472,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>dm: 30</t>
+          <t>ob: 140</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -3490,12 +3487,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>wm: 2</t>
+          <t>iz: 277</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0014124582</t>
         </is>
       </c>
     </row>
@@ -3505,12 +3502,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>aw: 161</t>
+          <t>vn: 8</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.0008209595</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -3520,12 +3517,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>we: 149</t>
+          <t>fy: 14</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3532,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>wn: 58</t>
+          <t>ko: 344</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0017540997</t>
         </is>
       </c>
     </row>
@@ -3550,12 +3547,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>yx: 28</t>
+          <t>hv: 39</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3562,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>np: 5</t>
+          <t>xa: 103</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -3580,12 +3577,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>eb: 121</t>
+          <t>gu: 85</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0004334258</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3592,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>xm: 1</t>
+          <t>mr: 97</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3607,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>eo: 269</t>
+          <t>ge: 334</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0017031084</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3622,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>xd: 5</t>
+          <t>bu: 45</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -3640,12 +3637,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>rz: 23</t>
+          <t>ls: 94</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0004793179</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3652,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>hj: 9</t>
+          <t>fk: 2</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3670,12 +3667,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>cc: 42</t>
+          <t>cy: 104</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.0002141633</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -3685,12 +3682,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>rn: 140</t>
+          <t>nn: 1906</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0097189361</t>
         </is>
       </c>
     </row>
@@ -3700,12 +3697,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ei: 818</t>
+          <t>ps: 16</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -3715,12 +3712,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ht: 71</t>
+          <t>ox: 45</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -3730,12 +3727,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>mj: 7</t>
+          <t>uq: 10</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -3745,12 +3742,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>qm: 2</t>
+          <t>lr: 18</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -3760,12 +3757,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>lm: 60</t>
+          <t>rp: 14</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -3775,12 +3772,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>nc: 213</t>
+          <t>aw: 161</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0008209595</t>
         </is>
       </c>
     </row>
@@ -3790,12 +3787,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>yl: 1104</t>
+          <t>nm: 19</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.0056294362</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3802,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>rk: 90</t>
+          <t>ca: 815</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0041557885</t>
         </is>
       </c>
     </row>
@@ -3820,12 +3817,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>pb: 2</t>
+          <t>hi: 729</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0037172636</t>
         </is>
       </c>
     </row>
@@ -3835,12 +3832,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>di: 674</t>
+          <t>eb: 121</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -3850,12 +3847,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>rd: 187</t>
+          <t>gh: 360</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.0009535368</t>
+          <t>0.0018356857</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3862,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ve: 568</t>
+          <t>rc: 99</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0005048136</t>
         </is>
       </c>
     </row>
@@ -3880,12 +3877,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>jo: 479</t>
+          <t>af: 134</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.0024424818</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -3895,12 +3892,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>dd: 149</t>
+          <t>xn: 1</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3910,12 +3907,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>gf: 1</t>
+          <t>hn: 138</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -3925,12 +3922,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ub: 103</t>
+          <t>dm: 30</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -3940,12 +3937,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>rt: 208</t>
+          <t>mf: 1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.0010606184</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3955,12 +3952,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ms: 35</t>
+          <t>lk: 24</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -3970,12 +3967,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>oz: 54</t>
+          <t>nx: 6</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.0002753529</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -3985,12 +3982,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ce: 551</t>
+          <t>xs: 31</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.0028096190</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -4000,12 +3997,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>bb: 38</t>
+          <t>ym: 148</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -4015,12 +4012,13 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>yq: 6</t>
+          <t>n
+: 6763</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0344853961</t>
         </is>
       </c>
     </row>
@@ -4030,12 +4028,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>cl: 116</t>
+          <t>bd: 65</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.0005914987</t>
+          <t>0.0003314433</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4043,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>bt: 2</t>
+          <t>dq: 1</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4060,12 +4058,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>qu: 206</t>
+          <t>pr: 151</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.0010504202</t>
+          <t>0.0007699682</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4073,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>vi: 911</t>
+          <t>ti: 532</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.0046453047</t>
+          <t>0.0027127356</t>
         </is>
       </c>
     </row>
@@ -4090,12 +4088,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ai: 1650</t>
+          <t>zm: 35</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.0084135596</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4103,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>os: 504</t>
+          <t>nz: 145</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.0025699600</t>
+          <t>0.0007393734</t>
         </is>
       </c>
     </row>
@@ -4120,12 +4118,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>yj: 23</t>
+          <t>zv: 2</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4135,12 +4133,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>lr: 18</t>
+          <t>pb: 2</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4150,12 +4148,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>hq: 1</t>
+          <t>gg: 25</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -4165,12 +4163,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>nr: 44</t>
+          <t>fg: 1</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4180,12 +4178,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>as: 1118</t>
+          <t>zb: 4</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.0057008240</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4195,12 +4193,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>yz: 78</t>
+          <t>jo: 479</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0024424818</t>
         </is>
       </c>
     </row>
@@ -4210,12 +4208,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>il: 1345</t>
+          <t>jp: 1</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4225,12 +4223,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>up: 16</t>
+          <t>ig: 428</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0021824264</t>
         </is>
       </c>
     </row>
@@ -4240,12 +4238,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>vd: 1</t>
+          <t>au: 381</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0019427674</t>
         </is>
       </c>
     </row>
@@ -4255,13 +4253,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>s
-: 1169</t>
+          <t>np: 5</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.0059608795</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4268,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>yk: 86</t>
+          <t>oz: 54</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0002753529</t>
         </is>
       </c>
     </row>
@@ -4286,12 +4283,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>zm: 35</t>
+          <t>pp: 39</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4298,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ji: 119</t>
+          <t>er: 1958</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.0006067961</t>
+          <t>0.0099840907</t>
         </is>
       </c>
     </row>
@@ -4316,12 +4313,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ks: 95</t>
+          <t>gb: 3</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4331,12 +4328,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>kj: 2</t>
+          <t>zs: 4</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4346,12 +4343,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>kh: 307</t>
+          <t>ka: 1731</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.0015654320</t>
+          <t>0.0088265889</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4358,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ts: 35</t>
+          <t>wy: 73</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -4376,12 +4373,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ym: 148</t>
+          <t>ri: 3033</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0154656523</t>
         </is>
       </c>
     </row>
@@ -4391,12 +4388,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>kw: 34</t>
+          <t>ou: 275</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -4406,12 +4403,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>mc: 51</t>
+          <t>uv: 37</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0001886677</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4418,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ev: 463</t>
+          <t>lg: 6</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.0023608958</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4433,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>zi: 364</t>
+          <t>hq: 1</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.0018560822</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4448,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>jd: 4</t>
+          <t>cq: 11</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -4466,12 +4463,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>rs: 190</t>
+          <t>ae: 692</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4478,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ta: 1027</t>
+          <t>zz: 45</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.0052368035</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -4496,12 +4493,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>gl: 32</t>
+          <t>oh: 171</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0008719507</t>
         </is>
       </c>
     </row>
@@ -4511,12 +4508,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>sb: 21</t>
+          <t>hf: 2</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4523,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ge: 334</t>
+          <t>yy: 23</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.0017031084</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -4541,12 +4538,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>pr: 151</t>
+          <t>xi: 102</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.0007699682</t>
+          <t>0.0005201110</t>
         </is>
       </c>
     </row>
@@ -4556,12 +4553,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>jv: 5</t>
+          <t>rv: 80</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -4571,12 +4568,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>iq: 52</t>
+          <t>je: 440</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -4586,12 +4583,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ob: 140</t>
+          <t>wm: 2</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4601,12 +4598,13 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ue: 169</t>
+          <t>k
+: 363</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.0008617525</t>
+          <t>0.0018509831</t>
         </is>
       </c>
     </row>
@@ -4616,12 +4614,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>gw: 26</t>
+          <t>rt: 208</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0010606184</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4629,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ph: 204</t>
+          <t>et: 580</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0029574937</t>
         </is>
       </c>
     </row>
@@ -4646,12 +4644,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>rr: 425</t>
+          <t>ov: 176</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.0021671290</t>
+          <t>0.0008974464</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4659,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ki: 509</t>
+          <t>nh: 26</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -4676,12 +4674,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>oy: 103</t>
+          <t>kr: 109</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4689,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>jm: 5</t>
+          <t>jn: 2</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4706,12 +4704,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>mt: 4</t>
+          <t>ah: 2332</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0118911642</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4719,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>au: 381</t>
+          <t>bn: 4</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.0019427674</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4736,12 +4734,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ry: 773</t>
+          <t>bb: 38</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.0039416252</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -4751,12 +4749,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>tn: 22</t>
+          <t>gv: 1</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4764,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ds: 29</t>
+          <t>ao: 63</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0003212450</t>
         </is>
       </c>
     </row>
@@ -4781,12 +4779,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>wk: 6</t>
+          <t>km: 9</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -4796,12 +4794,13 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ag: 168</t>
+          <t>r
+: 1377</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0070214979</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4810,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ud: 136</t>
+          <t>ad: 1042</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.0006934813</t>
+          <t>0.0053132904</t>
         </is>
       </c>
     </row>
@@ -4826,12 +4825,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>bc: 1</t>
+          <t>jr: 11</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -4841,12 +4840,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>li: 2480</t>
+          <t>pn: 1</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.0126458350</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4856,12 +4855,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>jc: 4</t>
+          <t>lu: 324</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0016521172</t>
         </is>
       </c>
     </row>
@@ -4871,12 +4870,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>yv: 106</t>
+          <t>sl: 279</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.0005405075</t>
+          <t>0.0014226564</t>
         </is>
       </c>
     </row>
@@ -4886,12 +4885,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ef: 82</t>
+          <t>tj: 3</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4901,12 +4900,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>le: 2921</t>
+          <t>cd: 1</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.0148945501</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4916,12 +4915,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>to: 667</t>
+          <t>cz: 4</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.0034011177</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4931,12 +4930,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>nk: 58</t>
+          <t>mh: 5</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4945,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>kb: 2</t>
+          <t>kd: 2</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -4961,12 +4960,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ka: 1731</t>
+          <t>hh: 1</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.0088265889</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4976,12 +4975,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>db: 1</t>
+          <t>pe: 197</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0010045280</t>
         </is>
       </c>
     </row>
@@ -4991,12 +4990,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ko: 344</t>
+          <t>yo: 271</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.0017540997</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -5006,12 +5005,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>bu: 45</t>
+          <t>ks: 95</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -5021,12 +5020,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>rb: 41</t>
+          <t>ij: 76</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -5036,12 +5035,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>tr: 352</t>
+          <t>az: 435</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.0017948927</t>
+          <t>0.0022181203</t>
         </is>
       </c>
     </row>
@@ -5051,12 +5050,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>lg: 6</t>
+          <t>lm: 60</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -5066,12 +5065,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>oj: 16</t>
+          <t>zi: 364</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0018560822</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5080,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>dt: 4</t>
+          <t>vd: 1</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5096,12 +5095,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>gy: 31</t>
+          <t>ip: 53</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0002702537</t>
         </is>
       </c>
     </row>
@@ -5111,13 +5110,13 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>f
-: 80</t>
+          <t>q
+: 28</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -5127,13 +5126,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>o
-: 855</t>
+          <t>ep: 83</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.0043597536</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -5143,12 +5141,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>on: 2411</t>
+          <t>op: 95</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.0122939953</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -5158,12 +5156,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>er: 1958</t>
+          <t>ax: 182</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.0099840907</t>
+          <t>0.0009280411</t>
         </is>
       </c>
     </row>
@@ -5173,12 +5171,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>xl: 39</t>
+          <t>hj: 9</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -5188,12 +5186,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>aq: 60</t>
+          <t>ke: 895</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0045637187</t>
         </is>
       </c>
     </row>
@@ -5203,12 +5201,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ol: 619</t>
+          <t>yl: 1104</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.0031563596</t>
+          <t>0.0056294362</t>
         </is>
       </c>
     </row>
@@ -5218,12 +5216,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>tm: 4</t>
+          <t>ap: 82</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5231,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>hr: 204</t>
+          <t>wf: 2</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5248,12 +5246,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>fy: 14</t>
+          <t>nj: 44</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5261,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>tb: 1</t>
+          <t>kc: 2</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5278,12 +5276,13 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>pk: 1</t>
+          <t>e
+: 3983</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0203098230</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5292,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>wb: 1</t>
+          <t>bi: 217</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0011065106</t>
         </is>
       </c>
     </row>
@@ -5308,12 +5307,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>et: 580</t>
+          <t>zd: 2</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.0029574937</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5323,12 +5322,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>hl: 185</t>
+          <t>gt: 31</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -5338,12 +5337,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ro: 869</t>
+          <t>tf: 2</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.0044311414</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5353,12 +5352,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ui: 121</t>
+          <t>co: 380</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0019376683</t>
         </is>
       </c>
     </row>
@@ -5368,12 +5367,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>rp: 14</t>
+          <t>pu: 4</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5383,12 +5382,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>nf: 11</t>
+          <t>rx: 3</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5398,12 +5397,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>sr: 55</t>
+          <t>ky: 379</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0019325691</t>
         </is>
       </c>
     </row>
@@ -5413,12 +5412,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>uo: 10</t>
+          <t>os: 504</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0025699600</t>
         </is>
       </c>
     </row>
@@ -5428,12 +5427,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>rf: 9</t>
+          <t>xt: 70</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0003569389</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5442,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>pf: 1</t>
+          <t>po: 59</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0003008485</t>
         </is>
       </c>
     </row>
@@ -5458,12 +5457,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>us: 474</t>
+          <t>pc: 1</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.0024169862</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5472,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ik: 445</t>
+          <t>rr: 425</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.0022691115</t>
+          <t>0.0021671290</t>
         </is>
       </c>
     </row>
@@ -5488,13 +5487,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>t
-: 483</t>
+          <t>lt: 77</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.0024628784</t>
+          <t>0.0003926328</t>
         </is>
       </c>
     </row>
@@ -5504,12 +5502,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>go: 83</t>
+          <t>oi: 69</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5517,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>mz: 11</t>
+          <t>uo: 10</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -5534,12 +5532,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>ld: 138</t>
+          <t>jm: 5</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -5549,12 +5547,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>lb: 52</t>
+          <t>ed: 384</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0019580648</t>
         </is>
       </c>
     </row>
@@ -5564,12 +5562,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ax: 182</t>
+          <t>pi: 61</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.0009280411</t>
+          <t>0.0003110467</t>
         </is>
       </c>
     </row>
@@ -5579,12 +5577,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ow: 114</t>
+          <t>iu: 109</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -5594,12 +5592,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>gu: 85</t>
+          <t>dv: 17</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.0004334258</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -5609,13 +5607,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>j
-: 71</t>
+          <t>gw: 26</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -5625,12 +5622,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>nl: 195</t>
+          <t>my: 287</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.0009943298</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -5640,12 +5637,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>lo: 692</t>
+          <t>lp: 15</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -5655,12 +5652,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>ny: 465</t>
+          <t>nd: 704</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.0023710941</t>
+          <t>0.0035897854</t>
         </is>
       </c>
     </row>
@@ -5670,12 +5667,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>oa: 149</t>
+          <t>eo: 269</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -5685,12 +5682,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>mp: 38</t>
+          <t>om: 261</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0013308722</t>
         </is>
       </c>
     </row>
@@ -5700,12 +5697,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>zh: 43</t>
+          <t>fa: 242</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.0002192625</t>
+          <t>0.0012339887</t>
         </is>
       </c>
     </row>
@@ -5715,12 +5712,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>dz: 1</t>
+          <t>at: 687</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0035031003</t>
         </is>
       </c>
     </row>
@@ -5730,12 +5727,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>yp: 15</t>
+          <t>wk: 6</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -5745,12 +5742,13 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>zn: 4</t>
+          <t>p
+: 33</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001682712</t>
         </is>
       </c>
     </row>
@@ -5760,12 +5758,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>mo: 452</t>
+          <t>mp: 38</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.0023048054</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -5775,12 +5773,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>hm: 117</t>
+          <t>dy: 317</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.0005965979</t>
+          <t>0.0016164233</t>
         </is>
       </c>
     </row>
@@ -5790,12 +5788,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>ih: 95</t>
+          <t>dc: 3</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5805,12 +5803,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>am: 1634</t>
+          <t>qa: 13</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.0083319736</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -5820,13 +5818,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>w
-: 51</t>
+          <t>lj: 6</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -5836,12 +5833,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>iw: 8</t>
+          <t>uk: 93</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0004742188</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5848,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>hw: 10</t>
+          <t>kn: 26</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -5866,12 +5863,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>jr: 11</t>
+          <t>mj: 7</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5878,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>az: 435</t>
+          <t>gn: 27</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.0022181203</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -5896,12 +5893,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>sw: 24</t>
+          <t>tw: 11</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -5911,13 +5908,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>a
-: 6640</t>
+          <t>ex: 132</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.0338582035</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -5927,12 +5923,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>lw: 16</t>
+          <t>du: 92</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0004691197</t>
         </is>
       </c>
     </row>
@@ -5942,12 +5938,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ku: 50</t>
+          <t>zl: 123</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -5957,12 +5953,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>tx: 2</t>
+          <t>rk: 90</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -5972,12 +5968,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>vv: 7</t>
+          <t>go: 83</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -5987,12 +5983,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ox: 45</t>
+          <t>ab: 541</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -6002,12 +5998,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>hk: 29</t>
+          <t>pj: 1</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6017,12 +6013,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>ia: 2445</t>
+          <t>te: 716</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.0124673656</t>
+          <t>0.0036509750</t>
         </is>
       </c>
     </row>
@@ -6032,12 +6028,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>fl: 20</t>
+          <t>am: 1634</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0083319736</t>
         </is>
       </c>
     </row>
@@ -6047,12 +6043,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>ey: 1070</t>
+          <t>mo: 452</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.0054560659</t>
+          <t>0.0023048054</t>
         </is>
       </c>
     </row>
@@ -6062,12 +6058,13 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>fh: 1</t>
+          <t>v
+: 88</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0004487232</t>
         </is>
       </c>
     </row>
@@ -6077,13 +6074,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>g
-: 108</t>
+          <t>ro: 869</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.0005507057</t>
+          <t>0.0044311414</t>
         </is>
       </c>
     </row>
@@ -6093,12 +6089,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>lz: 10</t>
+          <t>as: 1118</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0057008240</t>
         </is>
       </c>
     </row>
@@ -6108,12 +6104,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ew: 50</t>
+          <t>ih: 95</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -6123,12 +6119,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>co: 380</t>
+          <t>zn: 4</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.0019376683</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -6138,12 +6134,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>wu: 25</t>
+          <t>sk: 82</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -6153,12 +6149,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>ll: 1345</t>
+          <t>wt: 8</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -6168,12 +6164,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>hc: 2</t>
+          <t>yn: 1826</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0093110060</t>
         </is>
       </c>
     </row>
@@ -6183,12 +6179,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>lp: 15</t>
+          <t>ld: 138</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -6198,12 +6194,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>wi: 148</t>
+          <t>qe: 1</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6213,12 +6209,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>fw: 4</t>
+          <t>qr: 1</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6228,12 +6224,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>mw: 2</t>
+          <t>tt: 374</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0019070735</t>
         </is>
       </c>
     </row>
@@ -6243,12 +6239,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>wl: 13</t>
+          <t>dt: 4</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -6258,13 +6254,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>y
-: 2007</t>
+          <t>yc: 115</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.0102339479</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -6274,12 +6269,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>or: 1059</t>
+          <t>ga: 330</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.0053999755</t>
+          <t>0.0016827119</t>
         </is>
       </c>
     </row>
@@ -6289,13 +6284,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>m
-: 516</t>
+          <t>nw: 11</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -6305,12 +6299,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>sd: 9</t>
+          <t>wh: 23</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -6320,12 +6314,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>dn: 31</t>
+          <t>eq: 14</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -6335,12 +6329,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>wz: 1</t>
+          <t>lw: 16</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -6350,12 +6344,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>vh: 1</t>
+          <t>yi: 192</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0009790324</t>
         </is>
       </c>
     </row>
@@ -6365,12 +6359,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>zd: 2</t>
+          <t>za: 860</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0043852492</t>
         </is>
       </c>
     </row>
@@ -6380,12 +6374,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>xs: 31</t>
+          <t>ba: 321</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0016368198</t>
         </is>
       </c>
     </row>
@@ -6395,12 +6389,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>al: 2528</t>
+          <t>rq: 16</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.0128905931</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -6410,12 +6404,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>ut: 82</t>
+          <t>tz: 105</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -6425,12 +6419,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>wy: 73</t>
+          <t>ei: 818</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -6440,12 +6434,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>an: 5438</t>
+          <t>od: 190</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.0277290528</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6449,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>fr: 114</t>
+          <t>dn: 31</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -6470,12 +6464,13 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>ws: 20</t>
+          <t>j
+: 71</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -6485,12 +6480,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ie: 1653</t>
+          <t>gr: 201</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.0084288570</t>
+          <t>0.0010249245</t>
         </is>
       </c>
     </row>
@@ -6500,12 +6495,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>sm: 90</t>
+          <t>yr: 291</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0014838460</t>
         </is>
       </c>
     </row>
@@ -6515,12 +6510,13 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>he: 674</t>
+          <t>z
+: 160</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -6530,12 +6526,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>jh: 45</t>
+          <t>xe: 36</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -6545,12 +6541,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>vu: 7</t>
+          <t>by: 83</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -6560,12 +6556,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>op: 95</t>
+          <t>rm: 162</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0008260586</t>
         </is>
       </c>
     </row>
@@ -6575,12 +6571,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ej: 55</t>
+          <t>ey: 1070</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0054560659</t>
         </is>
       </c>
     </row>
@@ -6590,12 +6586,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>ck: 316</t>
+          <t>us: 474</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.0016113241</t>
+          <t>0.0024169862</t>
         </is>
       </c>
     </row>
@@ -6605,12 +6601,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>tv: 15</t>
+          <t>gi: 190</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -6620,12 +6616,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>hb: 8</t>
+          <t>rz: 23</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -6635,12 +6631,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>xb: 1</t>
+          <t>sr: 55</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -6650,12 +6646,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>tf: 2</t>
+          <t>nl: 195</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0009943298</t>
         </is>
       </c>
     </row>
@@ -6665,12 +6661,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>wg: 1</t>
+          <t>ya: 2143</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0109274292</t>
         </is>
       </c>
     </row>
@@ -6680,13 +6676,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>e
-: 3983</t>
+          <t>ha: 2244</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.0203098230</t>
+          <t>0.0114424411</t>
         </is>
       </c>
     </row>
@@ -6696,12 +6691,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>el: 3248</t>
+          <t>ji: 119</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.0165619646</t>
+          <t>0.0006067961</t>
         </is>
       </c>
     </row>
@@ -6711,12 +6706,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>cd: 1</t>
+          <t>eh: 152</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007750673</t>
         </is>
       </c>
     </row>
@@ -6726,12 +6721,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>hy: 213</t>
+          <t>hz: 20</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -6741,12 +6736,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>jt: 2</t>
+          <t>vb: 1</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6756,12 +6751,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>xw: 3</t>
+          <t>ut: 82</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6766,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>oc: 114</t>
+          <t>ac: 470</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0023965897</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6781,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>rw: 21</t>
+          <t>tx: 2</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6801,12 +6796,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>zl: 123</t>
+          <t>dw: 23</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -6816,12 +6811,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>yo: 271</t>
+          <t>ok: 68</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0003467406</t>
         </is>
       </c>
     </row>
@@ -6831,12 +6826,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>cu: 35</t>
+          <t>aa: 556</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0028351146</t>
         </is>
       </c>
     </row>
@@ -6846,12 +6841,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>dc: 3</t>
+          <t>wb: 1</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6861,12 +6856,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>vl: 14</t>
+          <t>jb: 1</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6876,12 +6871,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ri: 3033</t>
+          <t>uc: 103</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.0154656523</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -6891,12 +6886,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>kr: 109</t>
+          <t>cg: 2</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6906,12 +6901,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>iu: 109</t>
+          <t>ec: 153</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -6921,12 +6916,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>wr: 22</t>
+          <t>ag: 168</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -6936,12 +6931,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>rg: 76</t>
+          <t>mu: 139</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -6951,12 +6946,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>uz: 45</t>
+          <t>ie: 1653</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0084288570</t>
         </is>
       </c>
     </row>
@@ -6966,12 +6961,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>yc: 115</t>
+          <t>ng: 273</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0013920617</t>
         </is>
       </c>
     </row>
@@ -6981,12 +6976,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>na: 2977</t>
+          <t>mi: 1256</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.0151801012</t>
+          <t>0.0064045035</t>
         </is>
       </c>
     </row>
@@ -6996,12 +6991,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>nx: 6</t>
+          <t>ew: 50</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -7011,12 +7006,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>mv: 3</t>
+          <t>el: 3248</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0165619646</t>
         </is>
       </c>
     </row>
@@ -7026,12 +7021,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>og: 44</t>
+          <t>lq: 3</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -7041,12 +7036,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>hp: 1</t>
+          <t>is: 1316</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0067104512</t>
         </is>
       </c>
     </row>
@@ -7056,12 +7051,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>dl: 60</t>
+          <t>hu: 166</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0008464551</t>
         </is>
       </c>
     </row>
@@ -7071,12 +7066,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>so: 531</t>
+          <t>pt: 17</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.0027076365</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -7086,12 +7081,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ca: 815</t>
+          <t>oo: 115</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.0041557885</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -7101,12 +7096,13 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>rq: 16</t>
+          <t>i
+: 2489</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0126917272</t>
         </is>
       </c>
     </row>
@@ -7116,12 +7112,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>wf: 2</t>
+          <t>ej: 55</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -7131,12 +7127,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>ed: 384</t>
+          <t>rf: 9</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.0019580648</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -7146,12 +7142,13 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>tu: 78</t>
+          <t>t
+: 483</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0024628784</t>
         </is>
       </c>
     </row>
@@ -7161,12 +7158,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>fz: 2</t>
+          <t>pa: 209</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0010657175</t>
         </is>
       </c>
     </row>
@@ -7176,12 +7173,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>id: 440</t>
+          <t>hc: 2</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7191,12 +7188,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>un: 275</t>
+          <t>hs: 31</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -7206,12 +7203,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>ab: 541</t>
+          <t>dd: 149</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -7221,12 +7218,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>cq: 11</t>
+          <t>jc: 4</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7236,12 +7233,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>nm: 19</t>
+          <t>kv: 2</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7251,7 +7248,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>jb: 1</t>
+          <t>cp: 1</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -7266,12 +7263,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>ss: 461</t>
+          <t>iq: 52</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.0023506976</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -7281,12 +7278,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>yw: 4</t>
+          <t>kw: 34</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -7296,12 +7293,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>va: 642</t>
+          <t>ea: 679</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.0032736396</t>
+          <t>0.0034623073</t>
         </is>
       </c>
     </row>
@@ -7311,12 +7308,13 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>vy: 121</t>
+          <t>u
+: 155</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0007903647</t>
         </is>
       </c>
     </row>
@@ -7326,12 +7324,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>hn: 138</t>
+          <t>ma: 2590</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0132067390</t>
         </is>
       </c>
     </row>
@@ -7341,12 +7339,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>wa: 280</t>
+          <t>gl: 32</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.0014277556</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -7356,12 +7354,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>js: 7</t>
+          <t>lo: 692</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -7371,12 +7369,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>hu: 166</t>
+          <t>oc: 114</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.0008464551</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -7386,13 +7384,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>z
-: 160</t>
+          <t>ez: 181</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0009229420</t>
         </is>
       </c>
     </row>
@@ -7402,12 +7399,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>uu: 3</t>
+          <t>kh: 307</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0015654320</t>
         </is>
       </c>
     </row>
@@ -7417,12 +7414,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>la: 2623</t>
+          <t>jk: 2</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.0133750102</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7432,12 +7429,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>kn: 26</t>
+          <t>lv: 72</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0003671371</t>
         </is>
       </c>
     </row>
@@ -7447,12 +7444,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>jj: 2</t>
+          <t>yz: 78</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -7462,12 +7459,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>rl: 413</t>
+          <t>fl: 20</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.0021059395</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -7477,12 +7474,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>rj: 25</t>
+          <t>nk: 58</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -7492,12 +7489,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>sp: 51</t>
+          <t>ye: 301</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -7507,12 +7504,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>jy: 10</t>
+          <t>eu: 69</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -7522,12 +7519,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>kt: 17</t>
+          <t>hl: 185</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -7537,12 +7534,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>oh: 171</t>
+          <t>zo: 110</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.0008719507</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -7552,12 +7549,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>fo: 60</t>
+          <t>wi: 148</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -7567,12 +7564,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>mu: 139</t>
+          <t>bj: 1</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7582,12 +7579,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>of: 34</t>
+          <t>cr: 76</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -7597,12 +7594,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>hf: 2</t>
+          <t>nb: 8</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -7612,12 +7609,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>mi: 1256</t>
+          <t>yu: 141</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.0064045035</t>
+          <t>0.0007189769</t>
         </is>
       </c>
     </row>
@@ -7627,12 +7624,13 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>pa: 209</t>
+          <t>g
+: 108</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.0010657175</t>
+          <t>0.0005507057</t>
         </is>
       </c>
     </row>
@@ -7642,12 +7640,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>yr: 291</t>
+          <t>hk: 29</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.0014838460</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -7657,12 +7655,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>pt: 17</t>
+          <t>ia: 2445</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0124673656</t>
         </is>
       </c>
     </row>
@@ -7672,12 +7670,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>jw: 6</t>
+          <t>ph: 204</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7685,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>mm: 168</t>
+          <t>kt: 17</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -7702,12 +7700,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>lq: 3</t>
+          <t>mk: 1</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7717,12 +7715,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>kd: 2</t>
+          <t>ud: 136</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0006934813</t>
         </is>
       </c>
     </row>
@@ -7732,12 +7730,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>bs: 8</t>
+          <t>qu: 206</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0010504202</t>
         </is>
       </c>
     </row>
@@ -7747,12 +7745,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>ne: 1359</t>
+          <t>aj: 175</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.0069297136</t>
+          <t>0.0008923472</t>
         </is>
       </c>
     </row>
@@ -7762,12 +7760,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>ft: 18</t>
+          <t>ch: 664</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0033858203</t>
         </is>
       </c>
     </row>
@@ -7777,12 +7775,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>ky: 379</t>
+          <t>we: 149</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.0019325691</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -7792,12 +7790,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>kl: 139</t>
+          <t>tg: 2</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7807,12 +7805,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>dw: 23</t>
+          <t>he: 674</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -7822,12 +7820,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>xn: 1</t>
+          <t>ww: 2</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7837,12 +7835,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>xo: 41</t>
+          <t>gd: 19</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -7852,12 +7850,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>xx: 38</t>
+          <t>ev: 463</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0023608958</t>
         </is>
       </c>
     </row>
@@ -7867,12 +7865,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>ty: 341</t>
+          <t>nv: 55</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.0017388023</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -7882,12 +7880,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>ly: 1588</t>
+          <t>pf: 1</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.0080974137</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7895,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>sk: 82</t>
+          <t>un: 275</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -7912,12 +7910,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>rv: 80</t>
+          <t>do: 378</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0019274700</t>
         </is>
       </c>
     </row>
@@ -7927,12 +7925,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>ga: 330</t>
+          <t>in: 2126</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.0016827119</t>
+          <t>0.0108407441</t>
         </is>
       </c>
     </row>
@@ -7957,12 +7955,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>pm: 1</t>
+          <t>fu: 10</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -7972,12 +7970,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>gd: 19</t>
+          <t>ty: 341</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0017388023</t>
         </is>
       </c>
     </row>
@@ -7987,12 +7985,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>fs: 6</t>
+          <t>zk: 2</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8002,12 +8000,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>zb: 4</t>
+          <t>uf: 19</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -8017,12 +8015,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>my: 287</t>
+          <t>yg: 30</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -8032,12 +8030,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>xt: 70</t>
+          <t>ee: 1271</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.0003569389</t>
+          <t>0.0064809905</t>
         </is>
       </c>
     </row>
@@ -8047,12 +8045,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ti: 532</t>
+          <t>bc: 1</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.0027127356</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8062,12 +8060,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>sc: 60</t>
+          <t>pm: 1</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8077,12 +8075,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>yd: 272</t>
+          <t>qm: 2</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.0013869626</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8092,13 +8090,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>i
-: 2489</t>
+          <t>ug: 47</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.0126917272</t>
+          <t>0.0002396590</t>
         </is>
       </c>
     </row>
@@ -8108,12 +8105,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>cj: 3</t>
+          <t>zr: 32</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8120,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>hd: 24</t>
+          <t>wd: 8</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -8138,12 +8135,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>uk: 93</t>
+          <t>py: 12</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.0004742188</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -8153,12 +8150,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>at: 687</t>
+          <t>bo: 105</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.0035031003</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -8168,12 +8165,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>iz: 277</t>
+          <t>su: 185</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.0014124582</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -8183,12 +8180,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>zy: 147</t>
+          <t>uj: 14</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.0007495717</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -8198,12 +8195,13 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>qs: 2</t>
+          <t>w
+: 51</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -8213,12 +8211,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>cy: 104</t>
+          <t>ci: 271</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -8228,12 +8226,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>eu: 69</t>
+          <t>ux: 34</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -8243,12 +8241,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>fe: 123</t>
+          <t>uh: 58</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -8258,12 +8256,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>ak: 568</t>
+          <t>sn: 24</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -8273,12 +8271,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>fi: 160</t>
+          <t>ik: 445</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0022691115</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8286,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>pj: 1</t>
+          <t>tb: 1</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -8303,12 +8301,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ml: 5</t>
+          <t>ll: 1345</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -8318,12 +8316,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>nz: 145</t>
+          <t>fo: 60</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.0007393734</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -8333,12 +8331,13 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>zv: 2</t>
+          <t>s
+: 1169</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0059608795</t>
         </is>
       </c>
     </row>
@@ -8348,12 +8347,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>nt: 443</t>
+          <t>ny: 465</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.0022589133</t>
+          <t>0.0023710941</t>
         </is>
       </c>
     </row>
@@ -8363,13 +8362,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>h
-: 2409</t>
+          <t>oe: 132</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.0122837970</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -8379,12 +8377,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>zw: 3</t>
+          <t>bs: 8</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -8394,12 +8392,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>uy: 13</t>
+          <t>xl: 39</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -8409,12 +8407,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>gg: 25</t>
+          <t>js: 7</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -8424,12 +8422,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>bi: 217</t>
+          <t>xw: 3</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.0011065106</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8439,12 +8437,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>af: 134</t>
+          <t>sz: 10</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -8454,12 +8452,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>uf: 19</t>
+          <t>cl: 116</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0005914987</t>
         </is>
       </c>
     </row>
@@ -8484,12 +8482,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>ja: 1473</t>
+          <t>or: 1059</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.0075110141</t>
+          <t>0.0053999755</t>
         </is>
       </c>
     </row>
@@ -8499,12 +8497,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>fg: 1</t>
+          <t>em: 769</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0039212287</t>
         </is>
       </c>
     </row>
@@ -8514,12 +8512,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>ap: 82</t>
+          <t>fi: 160</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -8529,12 +8527,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>if: 101</t>
+          <t>lf: 22</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.0005150118</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -8544,12 +8542,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>cz: 4</t>
+          <t>lb: 52</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -8559,12 +8557,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>qo: 2</t>
+          <t>aq: 60</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -8574,12 +8572,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>jp: 1</t>
+          <t>en: 2675</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0136401648</t>
         </is>
       </c>
     </row>
@@ -8589,12 +8587,13 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>nq: 2</t>
+          <t>b
+: 114</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -8604,12 +8603,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>vb: 1</t>
+          <t>rj: 25</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -8619,12 +8618,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>vn: 8</t>
+          <t>cj: 3</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8634,12 +8633,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>ze: 373</t>
+          <t>cx: 3</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.0019019744</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8649,12 +8648,12 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>iv: 269</t>
+          <t>ki: 509</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -8664,12 +8663,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>zt: 4</t>
+          <t>ml: 5</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -8679,12 +8678,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>ur: 414</t>
+          <t>kb: 2</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.0021110386</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8694,12 +8693,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>dq: 1</t>
+          <t>hd: 24</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -8709,12 +8708,12 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>fn: 4</t>
+          <t>sv: 14</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -8724,13 +8723,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>p
-: 33</t>
+          <t>vv: 7</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.0001682712</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -8740,12 +8738,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>yf: 12</t>
+          <t>yp: 15</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -8755,12 +8753,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>du: 92</t>
+          <t>ue: 169</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.0004691197</t>
+          <t>0.0008617525</t>
         </is>
       </c>
     </row>
@@ -8770,12 +8768,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>gj: 3</t>
+          <t>sh: 1285</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0065523782</t>
         </is>
       </c>
     </row>
@@ -8785,12 +8783,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>xe: 36</t>
+          <t>ai: 1650</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0084135596</t>
         </is>
       </c>
     </row>
@@ -8800,12 +8798,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>rc: 99</t>
+          <t>sp: 51</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.0005048136</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -8815,12 +8813,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>jk: 2</t>
+          <t>iv: 269</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -8830,12 +8828,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>sv: 14</t>
+          <t>sc: 60</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -8845,12 +8843,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>no: 496</t>
+          <t>me: 818</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.0025291670</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -8860,12 +8858,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>wt: 8</t>
+          <t>on: 2411</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0122939953</t>
         </is>
       </c>
     </row>
@@ -8875,12 +8873,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>uh: 58</t>
+          <t>gm: 6</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -8890,12 +8888,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>kc: 2</t>
+          <t>hm: 117</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005965979</t>
         </is>
       </c>
     </row>
@@ -8905,12 +8903,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>lt: 77</t>
+          <t>ze: 373</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.0003926328</t>
+          <t>0.0019019744</t>
         </is>
       </c>
     </row>
@@ -8920,12 +8918,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>om: 261</t>
+          <t>uz: 45</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.0013308722</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -8935,12 +8933,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>zp: 2</t>
+          <t>vr: 48</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002447581</t>
         </is>
       </c>
     </row>
@@ -8950,12 +8948,13 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>su: 185</t>
+          <t>a
+: 6640</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0338582035</t>
         </is>
       </c>
     </row>
@@ -8965,12 +8964,13 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>ho: 287</t>
+          <t>m
+: 516</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -8980,12 +8980,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>uj: 14</t>
+          <t>dh: 118</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -8995,12 +8995,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>po: 59</t>
+          <t>yk: 86</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.0003008485</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -9010,12 +9010,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>gr: 201</t>
+          <t>ii: 82</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.0010249245</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -9025,12 +9025,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>sj: 2</t>
+          <t>ns: 278</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0014175573</t>
         </is>
       </c>
     </row>
@@ -9040,12 +9040,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>rm: 162</t>
+          <t>es: 861</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.0008260586</t>
+          <t>0.0043903484</t>
         </is>
       </c>
     </row>
@@ -9055,12 +9055,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>tc: 17</t>
+          <t>vl: 14</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -9070,12 +9070,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>sf: 2</t>
+          <t>av: 834</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0042526719</t>
         </is>
       </c>
     </row>
@@ -9085,12 +9085,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>io: 588</t>
+          <t>kz: 2</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.0029982867</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9100,12 +9100,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>ni: 1725</t>
+          <t>dj: 9</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.0087959941</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>ug: 47</t>
+          <t>il: 1345</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.0002396590</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -9130,12 +9130,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>kv: 2</t>
+          <t>jy: 10</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -9145,12 +9145,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>ff: 44</t>
+          <t>wa: 280</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0014277556</t>
         </is>
       </c>
     </row>
@@ -9160,12 +9160,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>es: 861</t>
+          <t>tc: 17</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.0043903484</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -9175,12 +9175,13 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>dk: 3</t>
+          <t>d
+: 516</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -9190,12 +9191,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>in: 2126</t>
+          <t>tv: 15</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.0108407441</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -9205,12 +9206,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>uq: 10</t>
+          <t>mc: 51</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -9220,13 +9221,12 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>x
-: 163</t>
+          <t>lc: 25</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -9236,12 +9236,13 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>od: 190</t>
+          <t>c
+: 97</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -9251,12 +9252,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>bd: 65</t>
+          <t>gy: 31</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.0003314433</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -9266,12 +9267,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>aj: 175</t>
+          <t>dr: 424</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.0008923472</t>
+          <t>0.0021620299</t>
         </is>
       </c>
     </row>
@@ -9281,12 +9282,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>ch: 664</t>
+          <t>zt: 4</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.0033858203</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -9296,12 +9297,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>ir: 849</t>
+          <t>ds: 29</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.0043291588</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -9311,12 +9312,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>th: 647</t>
+          <t>zw: 3</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.0032991352</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -9326,12 +9327,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>um: 154</t>
+          <t>dz: 1</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.0007852656</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9341,12 +9342,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>ba: 321</t>
+          <t>cs: 5</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.0016368198</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -9356,12 +9357,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>ex: 132</t>
+          <t>kl: 139</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -9371,12 +9372,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>hi: 729</t>
+          <t>hy: 213</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.0037172636</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -9386,12 +9387,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>iy: 779</t>
+          <t>xf: 3</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.0039722200</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -9401,12 +9402,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>sq: 1</t>
+          <t>mb: 112</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0005711022</t>
         </is>
       </c>
     </row>
@@ -9416,12 +9417,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>dj: 9</t>
+          <t>hp: 1</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9432,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>fk: 2</t>
+          <t>qs: 2</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -9446,12 +9447,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>sl: 279</t>
+          <t>fh: 1</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.0014226564</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9461,13 +9462,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>v
-: 88</t>
+          <t>nr: 44</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.0004487232</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>sa: 1201</t>
+          <t>ly: 1588</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.0061240516</t>
+          <t>0.0080974137</t>
         </is>
       </c>
     </row>

--- a/Bigram_Language_Model/probabilities.xlsx
+++ b/Bigram_Language_Model/probabilities.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>li: 2480</t>
+          <t>br: 842</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0126458350</t>
+          <t>0.0042934650</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>wg: 1</t>
+          <t>mo: 452</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0023048054</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dk: 3</t>
+          <t>tr: 352</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0017948927</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>iy: 779</t>
+          <t>pa: 209</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0039722200</t>
+          <t>0.0010657175</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xu: 5</t>
+          <t>hi: 729</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0037172636</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ul: 301</t>
+          <t>ns: 278</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0014175573</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wu: 25</t>
+          <t>gw: 26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>vi: 911</t>
+          <t>rh: 121</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0046453047</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gf: 1</t>
+          <t>lt: 77</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0003926328</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ne: 1359</t>
+          <t>vd: 1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0069297136</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kj: 2</t>
+          <t>ut: 82</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ix: 89</t>
+          <t>lm: 60</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0004538223</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>zc: 2</t>
+          <t>yw: 4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>id: 440</t>
+          <t>ct: 35</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>br: 842</t>
+          <t>ak: 568</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0042934650</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mz: 11</t>
+          <t>bh: 41</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>no: 496</t>
+          <t>et: 580</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0025291670</t>
+          <t>0.0029574937</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rg: 76</t>
+          <t>cz: 4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sm: 90</t>
+          <t>ny: 465</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0023710941</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ay: 2050</t>
+          <t>rb: 41</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.0104532104</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ib: 110</t>
+          <t>qw: 3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ir: 849</t>
+          <t>ju: 202</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.0043291588</t>
+          <t>0.0010300237</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jv: 5</t>
+          <t>kn: 26</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>vu: 7</t>
+          <t>vi: 911</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0046453047</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nt: 443</t>
+          <t>or: 1059</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.0022589133</t>
+          <t>0.0053999755</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ol: 619</t>
+          <t>kk: 20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.0031563596</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>wz: 1</t>
+          <t>sf: 2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ct: 35</t>
+          <t>io: 588</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0029982867</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ek: 178</t>
+          <t>tu: 78</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.0009076446</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>hb: 8</t>
+          <t>rm: 162</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0008260586</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>xo: 41</t>
+          <t>mw: 2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ak: 568</t>
+          <t>we: 149</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sd: 9</t>
+          <t>dh: 118</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ys: 401</t>
+          <t>in: 2126</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.0020447499</t>
+          <t>0.0108407441</t>
         </is>
       </c>
     </row>
@@ -961,13 +961,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>o
-: 855</t>
+          <t>ja: 1473</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.0043597536</t>
+          <t>0.0075110141</t>
         </is>
       </c>
     </row>
@@ -977,12 +976,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tu: 78</t>
+          <t>no: 496</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0025291670</t>
         </is>
       </c>
     </row>
@@ -992,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gj: 3</t>
+          <t>tt: 374</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0019070735</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jh: 45</t>
+          <t>ec: 153</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1021,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ce: 551</t>
+          <t>st: 765</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.0028096190</t>
+          <t>0.0039008322</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1036,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>an: 5438</t>
+          <t>va: 642</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.0277290528</t>
+          <t>0.0032736396</t>
         </is>
       </c>
     </row>
@@ -1052,12 +1051,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hr: 204</t>
+          <t>xd: 5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -1067,12 +1066,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sf: 2</t>
+          <t>da: 1303</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0066441625</t>
         </is>
       </c>
     </row>
@@ -1082,12 +1081,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>so: 531</t>
+          <t>kt: 17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.0027076365</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -1097,12 +1096,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>im: 427</t>
+          <t>fg: 1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.0021773272</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1111,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ck: 316</t>
+          <t>hz: 20</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.0016113241</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1126,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>rn: 140</t>
+          <t>ra: 2356</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0120135433</t>
         </is>
       </c>
     </row>
@@ -1142,12 +1141,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>rw: 21</t>
+          <t>sr: 55</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1156,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mv: 3</t>
+          <t>ii: 82</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1171,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ar: 3264</t>
+          <t>yn: 1826</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.0166435506</t>
+          <t>0.0093110060</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1186,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>wn: 58</t>
+          <t>fu: 10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1201,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jl: 9</t>
+          <t>ml: 5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -1217,12 +1216,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>wr: 22</t>
+          <t>ax: 182</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0009280411</t>
         </is>
       </c>
     </row>
@@ -1232,12 +1231,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>xd: 5</t>
+          <t>ir: 849</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0043291588</t>
         </is>
       </c>
     </row>
@@ -1247,12 +1246,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mt: 4</t>
+          <t>p
+: 33</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001682712</t>
         </is>
       </c>
     </row>
@@ -1262,12 +1262,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>to: 667</t>
+          <t>c
+: 97</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.0034011177</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1278,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>db: 1</t>
+          <t>l
+: 1314</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0067002529</t>
         </is>
       </c>
     </row>
@@ -1292,12 +1294,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>yb: 27</t>
+          <t>hq: 1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1309,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>na: 2977</t>
+          <t>ip: 53</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.0151801012</t>
+          <t>0.0002702537</t>
         </is>
       </c>
     </row>
@@ -1322,12 +1324,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>vo: 153</t>
+          <t>ke: 895</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0045637187</t>
         </is>
       </c>
     </row>
@@ -1337,12 +1339,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sq: 1</t>
+          <t>jk: 2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1352,12 +1354,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ft: 18</t>
+          <t>ho: 287</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -1367,12 +1369,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>fw: 4</t>
+          <t>uq: 10</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -1382,12 +1384,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ra: 2356</t>
+          <t>ik: 445</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.0120135433</t>
+          <t>0.0022691115</t>
         </is>
       </c>
     </row>
@@ -1397,12 +1399,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>va: 642</t>
+          <t>jo: 479</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.0032736396</t>
+          <t>0.0024424818</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1414,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>io: 588</t>
+          <t>oa: 149</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.0029982867</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1429,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>kf: 1</t>
+          <t>mc: 51</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -1442,12 +1444,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>st: 765</t>
+          <t>ff: 44</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.0039008322</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -1457,12 +1459,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>tn: 22</t>
+          <t>zn: 4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -1472,12 +1474,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ws: 20</t>
+          <t>rv: 80</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -1487,12 +1489,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>eg: 125</t>
+          <t>ad: 1042</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.0006373909</t>
+          <t>0.0053132904</t>
         </is>
       </c>
     </row>
@@ -1502,12 +1504,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>qo: 2</t>
+          <t>xx: 38</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1519,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rl: 413</t>
+          <t>sa: 1201</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.0021059395</t>
+          <t>0.0061240516</t>
         </is>
       </c>
     </row>
@@ -1532,12 +1534,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>oj: 16</t>
+          <t>xi: 102</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0005201110</t>
         </is>
       </c>
     </row>
@@ -1547,12 +1549,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>xz: 19</t>
+          <t>au: 381</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0019427674</t>
         </is>
       </c>
     </row>
@@ -1562,12 +1564,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>up: 16</t>
+          <t>ru: 252</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0012849800</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1579,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>iw: 8</t>
+          <t>vy: 121</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1594,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>nf: 11</t>
+          <t>qu: 206</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0010504202</t>
         </is>
       </c>
     </row>
@@ -1607,12 +1609,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ta: 1027</t>
+          <t>rt: 208</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.0052368035</t>
+          <t>0.0010606184</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1624,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>se: 884</t>
+          <t>mf: 1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.0045076283</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1637,13 +1639,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>y
-: 2007</t>
+          <t>rg: 76</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.0102339479</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1654,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>of: 34</t>
+          <t>ln: 14</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -1668,12 +1669,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sy: 215</t>
+          <t>aa: 556</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.0010963123</t>
+          <t>0.0028351146</t>
         </is>
       </c>
     </row>
@@ -1683,12 +1684,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>md: 24</t>
+          <t>jh: 45</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -1698,12 +1699,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sa: 1201</t>
+          <t>lj: 6</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.0061240516</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -1713,12 +1714,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>la: 2623</t>
+          <t>cr: 76</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.0133750102</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -1728,12 +1729,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ni: 1725</t>
+          <t>fz: 2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.0087959941</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1743,12 +1744,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ts: 35</t>
+          <t>bt: 2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1758,12 +1759,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ff: 44</t>
+          <t>ua: 163</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -1773,13 +1774,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>h
-: 2409</t>
+          <t>yi: 192</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.0122837970</t>
+          <t>0.0009790324</t>
         </is>
       </c>
     </row>
@@ -1789,12 +1789,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>lz: 10</t>
+          <t>yy: 23</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -1804,12 +1804,13 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>yf: 12</t>
+          <t>h
+: 2409</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0122837970</t>
         </is>
       </c>
     </row>
@@ -1819,12 +1820,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>zg: 1</t>
+          <t>dw: 23</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -1834,12 +1835,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ho: 287</t>
+          <t>sq: 1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1850,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ub: 103</t>
+          <t>eu: 69</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -1864,12 +1865,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rd: 187</t>
+          <t>gf: 1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.0009535368</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1879,12 +1880,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>oa: 149</t>
+          <t>wz: 1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1894,12 +1895,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>fn: 4</t>
+          <t>zi: 364</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0018560822</t>
         </is>
       </c>
     </row>
@@ -1909,12 +1910,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bt: 2</t>
+          <t>gd: 19</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -1924,12 +1925,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ju: 202</t>
+          <t>rx: 3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.0010300237</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1939,12 +1940,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>rs: 190</t>
+          <t>hf: 2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1955,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>zj: 2</t>
+          <t>pl: 16</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -1969,12 +1970,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>yj: 23</t>
+          <t>vv: 7</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -1984,12 +1985,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>pl: 16</t>
+          <t>zx: 1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1999,12 +2000,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ru: 252</t>
+          <t>er: 1958</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.0012849800</t>
+          <t>0.0099840907</t>
         </is>
       </c>
     </row>
@@ -2014,12 +2015,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>bl: 103</t>
+          <t>li: 2480</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0126458350</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2030,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>xh: 1</t>
+          <t>mi: 1256</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0064045035</t>
         </is>
       </c>
     </row>
@@ -2044,12 +2045,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ry: 773</t>
+          <t>hu: 166</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.0039416252</t>
+          <t>0.0008464551</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2060,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>sg: 2</t>
+          <t>uf: 19</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -2074,12 +2075,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>mm: 168</t>
+          <t>iq: 52</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -2089,12 +2090,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>tr: 352</t>
+          <t>iw: 8</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.0017948927</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -2104,12 +2105,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>vk: 3</t>
+          <t>xm: 1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2119,12 +2120,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>og: 44</t>
+          <t>gs: 30</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -2134,12 +2135,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>nc: 213</t>
+          <t>hb: 8</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -2149,12 +2150,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>uy: 13</t>
+          <t>mj: 7</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -2164,12 +2165,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>sw: 24</t>
+          <t>wt: 8</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2180,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>wo: 36</t>
+          <t>zl: 123</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2195,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ss: 461</t>
+          <t>ht: 71</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.0023506976</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2210,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>nq: 2</t>
+          <t>af: 134</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -2224,12 +2225,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>re: 1697</t>
+          <t>le: 2921</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.0086532186</t>
+          <t>0.0148945501</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2240,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vy: 121</t>
+          <t>qa: 13</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -2254,12 +2255,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>le: 2921</t>
+          <t>rj: 25</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.0148945501</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2270,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>qw: 3</t>
+          <t>uc: 103</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -2284,12 +2285,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>fr: 114</t>
+          <t>wo: 36</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -2299,12 +2300,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>nu: 96</t>
+          <t>gr: 201</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.0004895162</t>
+          <t>0.0010249245</t>
         </is>
       </c>
     </row>
@@ -2314,12 +2315,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>tm: 4</t>
+          <t>of: 34</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -2329,12 +2330,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>zh: 43</t>
+          <t>sl: 279</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.0002192625</t>
+          <t>0.0014226564</t>
         </is>
       </c>
     </row>
@@ -2344,12 +2345,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>si: 684</t>
+          <t>hy: 213</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.0034878029</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -2359,12 +2360,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>it: 541</t>
+          <t>bb: 38</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -2374,13 +2375,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>x
-: 163</t>
+          <t>je: 440</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -2390,12 +2390,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ku: 50</t>
+          <t>dr: 424</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0021620299</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>uu: 3</t>
+          <t>ef: 82</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>hw: 10</t>
+          <t>lz: 10</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2435,12 +2435,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>xx: 38</t>
+          <t>dj: 9</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -2450,12 +2450,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>xm: 1</t>
+          <t>lc: 25</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>da: 1303</t>
+          <t>md: 24</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.0066441625</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -2480,12 +2480,13 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>fe: 123</t>
+          <t>t
+: 483</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0024628784</t>
         </is>
       </c>
     </row>
@@ -2495,12 +2496,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ve: 568</t>
+          <t>cl: 116</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0005914987</t>
         </is>
       </c>
     </row>
@@ -2510,12 +2511,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>rb: 41</t>
+          <t>pf: 1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2525,12 +2526,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>yx: 28</t>
+          <t>fi: 160</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -2540,12 +2541,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>xb: 1</t>
+          <t>ei: 818</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -2555,12 +2556,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>gz: 1</t>
+          <t>uo: 10</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2571,13 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>mw: 2</t>
+          <t>d
+: 516</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -2585,12 +2587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>zx: 1</t>
+          <t>he: 674</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2602,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>zy: 147</t>
+          <t>om: 261</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.0007495717</t>
+          <t>0.0013308722</t>
         </is>
       </c>
     </row>
@@ -2615,13 +2617,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>l
-: 1314</t>
+          <t>jj: 2</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.0067002529</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2632,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>jt: 2</t>
+          <t>wl: 13</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2647,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ln: 14</t>
+          <t>bc: 1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2662,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>bh: 41</t>
+          <t>as: 1118</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0057008240</t>
         </is>
       </c>
     </row>
@@ -2676,12 +2677,13 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>wl: 13</t>
+          <t>r
+: 1377</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0070214979</t>
         </is>
       </c>
     </row>
@@ -2691,12 +2693,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>uw: 86</t>
+          <t>nb: 8</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -2706,12 +2708,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>cu: 35</t>
+          <t>xc: 4</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2723,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>fs: 6</t>
+          <t>gt: 31</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2738,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>al: 2528</t>
+          <t>yc: 115</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.0128905931</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2753,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>hg: 2</t>
+          <t>ow: 114</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2768,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>xc: 4</t>
+          <t>tc: 17</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2783,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ui: 121</t>
+          <t>ul: 301</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -2796,12 +2798,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>yd: 272</t>
+          <t>iy: 779</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.0013869626</t>
+          <t>0.0039722200</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2813,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>dl: 60</t>
+          <t>mn: 20</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -2826,12 +2828,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>th: 647</t>
+          <t>hg: 2</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.0032991352</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2843,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>jd: 4</t>
+          <t>jw: 6</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -2856,12 +2858,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ur: 414</t>
+          <t>ss: 461</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.0021110386</t>
+          <t>0.0023506976</t>
         </is>
       </c>
     </row>
@@ -2871,12 +2873,13 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>zu: 73</t>
+          <t>x
+: 163</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -2886,12 +2889,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>tl: 134</t>
+          <t>jd: 4</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2901,12 +2904,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>yh: 22</t>
+          <t>de: 1283</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0065421800</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2919,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>oq: 3</t>
+          <t>tn: 22</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2934,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>pk: 1</t>
+          <t>tb: 1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -2946,12 +2949,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>sb: 21</t>
+          <t>ux: 34</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2964,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>lh: 19</t>
+          <t>jp: 1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2976,12 +2979,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ua: 163</t>
+          <t>if: 101</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0005150118</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2994,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>sj: 2</t>
+          <t>bn: 4</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3009,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>rh: 121</t>
+          <t>sk: 82</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3024,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ot: 118</t>
+          <t>kr: 109</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -3036,12 +3039,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>de: 1283</t>
+          <t>rr: 425</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.0065421800</t>
+          <t>0.0021671290</t>
         </is>
       </c>
     </row>
@@ -3051,12 +3054,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>jj: 2</t>
+          <t>jv: 5</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -3066,12 +3069,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ql: 1</t>
+          <t>sp: 51</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3084,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>yw: 4</t>
+          <t>tx: 2</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3096,12 +3099,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ow: 114</t>
+          <t>bl: 103</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3114,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>di: 674</t>
+          <t>fy: 14</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -3126,12 +3129,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ms: 35</t>
+          <t>mk: 1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3141,13 +3144,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>f
-: 80</t>
+          <t>qs: 2</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3157,12 +3159,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>df: 5</t>
+          <t>en: 2675</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0136401648</t>
         </is>
       </c>
     </row>
@@ -3172,12 +3174,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>qi: 13</t>
+          <t>dm: 30</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -3187,12 +3189,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>if: 101</t>
+          <t>ne: 1359</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.0005150118</t>
+          <t>0.0069297136</t>
         </is>
       </c>
     </row>
@@ -3202,12 +3204,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>dg: 25</t>
+          <t>ai: 1650</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0084135596</t>
         </is>
       </c>
     </row>
@@ -3217,12 +3219,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ja: 1473</t>
+          <t>hn: 138</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.0075110141</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -3232,12 +3234,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>um: 154</t>
+          <t>es: 861</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.0007852656</t>
+          <t>0.0043903484</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3249,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>jw: 6</t>
+          <t>uz: 45</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -3262,12 +3264,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>yt: 104</t>
+          <t>pn: 1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3279,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ef: 82</t>
+          <t>fh: 1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3292,12 +3294,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>zp: 2</t>
+          <t>nx: 6</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -3307,12 +3309,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ic: 509</t>
+          <t>rw: 21</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -3322,12 +3324,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>oy: 103</t>
+          <t>ud: 136</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0006934813</t>
         </is>
       </c>
     </row>
@@ -3337,12 +3339,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>yv: 106</t>
+          <t>oq: 3</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.0005405075</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -3352,12 +3354,13 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>vh: 1</t>
+          <t>b
+: 114</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3370,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>fz: 2</t>
+          <t>ae: 692</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3385,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>gs: 30</t>
+          <t>yg: 30</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3397,12 +3400,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>yq: 6</t>
+          <t>lr: 18</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -3412,12 +3415,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ht: 71</t>
+          <t>ls: 94</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0004793179</t>
         </is>
       </c>
     </row>
@@ -3427,12 +3430,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>cc: 42</t>
+          <t>wu: 25</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.0002141633</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -3442,12 +3445,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>be: 655</t>
+          <t>df: 5</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.0033399282</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -3457,12 +3460,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>kk: 20</t>
+          <t>pc: 1</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3472,12 +3475,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ob: 140</t>
+          <t>re: 1697</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0086532186</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3490,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>iz: 277</t>
+          <t>hr: 204</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.0014124582</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -3502,12 +3505,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>vn: 8</t>
+          <t>xw: 3</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -3517,12 +3520,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>fy: 14</t>
+          <t>xe: 36</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -3532,12 +3535,13 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ko: 344</t>
+          <t>j
+: 71</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.0017540997</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -3547,12 +3551,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>hv: 39</t>
+          <t>cc: 42</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0002141633</t>
         </is>
       </c>
     </row>
@@ -3562,12 +3566,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>xa: 103</t>
+          <t>gv: 1</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3581,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>gu: 85</t>
+          <t>dt: 4</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.0004334258</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -3592,12 +3596,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>mr: 97</t>
+          <t>qo: 2</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3607,12 +3611,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ge: 334</t>
+          <t>aw: 161</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.0017031084</t>
+          <t>0.0008209595</t>
         </is>
       </c>
     </row>
@@ -3622,12 +3626,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>bu: 45</t>
+          <t>op: 95</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3641,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ls: 94</t>
+          <t>ej: 55</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.0004793179</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -3652,12 +3656,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>fk: 2</t>
+          <t>sm: 90</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3671,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>cy: 104</t>
+          <t>jb: 1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3682,12 +3686,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>nn: 1906</t>
+          <t>km: 9</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.0097189361</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3701,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ps: 16</t>
+          <t>co: 380</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0019376683</t>
         </is>
       </c>
     </row>
@@ -3712,12 +3716,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ox: 45</t>
+          <t>wh: 23</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3731,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>uq: 10</t>
+          <t>aq: 60</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -3742,12 +3746,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>lr: 18</t>
+          <t>im: 427</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0021773272</t>
         </is>
       </c>
     </row>
@@ -3757,12 +3761,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>rp: 14</t>
+          <t>is: 1316</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0067104512</t>
         </is>
       </c>
     </row>
@@ -3772,12 +3776,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>aw: 161</t>
+          <t>nu: 96</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.0008209595</t>
+          <t>0.0004895162</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3791,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>nm: 19</t>
+          <t>bj: 1</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3802,12 +3806,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ca: 815</t>
+          <t>ob: 140</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.0041557885</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -3817,12 +3821,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>hi: 729</t>
+          <t>hd: 24</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.0037172636</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -3832,12 +3836,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>eb: 121</t>
+          <t>cg: 2</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3847,12 +3851,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>gh: 360</t>
+          <t>yr: 291</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.0018356857</t>
+          <t>0.0014838460</t>
         </is>
       </c>
     </row>
@@ -3862,12 +3866,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>rc: 99</t>
+          <t>sd: 9</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.0005048136</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3881,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>af: 134</t>
+          <t>vr: 48</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0002447581</t>
         </is>
       </c>
     </row>
@@ -3892,12 +3896,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>xn: 1</t>
+          <t>nr: 44</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3911,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>hn: 138</t>
+          <t>go: 83</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -3922,12 +3926,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>dm: 30</t>
+          <t>ps: 16</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -3937,12 +3941,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>mf: 1</t>
+          <t>bo: 105</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -3952,12 +3956,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>lk: 24</t>
+          <t>ag: 168</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -3967,12 +3971,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>nx: 6</t>
+          <t>lv: 72</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0003671371</t>
         </is>
       </c>
     </row>
@@ -3982,12 +3986,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>xs: 31</t>
+          <t>xb: 1</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3997,12 +4001,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ym: 148</t>
+          <t>xu: 5</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -4012,13 +4016,13 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>n
-: 6763</t>
+          <t>s
+: 1169</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.0344853961</t>
+          <t>0.0059608795</t>
         </is>
       </c>
     </row>
@@ -4028,12 +4032,13 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>bd: 65</t>
+          <t>q
+: 28</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.0003314433</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4048,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>dq: 1</t>
+          <t>an: 5438</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0277290528</t>
         </is>
       </c>
     </row>
@@ -4058,12 +4063,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>pr: 151</t>
+          <t>gn: 27</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.0007699682</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -4073,12 +4078,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ti: 532</t>
+          <t>kc: 2</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.0027127356</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4088,12 +4093,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>zm: 35</t>
+          <t>na: 2977</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0151801012</t>
         </is>
       </c>
     </row>
@@ -4103,12 +4108,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>nz: 145</t>
+          <t>fw: 4</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.0007393734</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4118,12 +4123,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>zv: 2</t>
+          <t>sv: 14</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4138,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>pb: 2</t>
+          <t>ta: 1027</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0052368035</t>
         </is>
       </c>
     </row>
@@ -4148,12 +4153,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>gg: 25</t>
+          <t>uu: 3</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4163,12 +4168,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>fg: 1</t>
+          <t>ba: 321</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0016368198</t>
         </is>
       </c>
     </row>
@@ -4178,12 +4183,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>zb: 4</t>
+          <t>be: 655</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0033399282</t>
         </is>
       </c>
     </row>
@@ -4193,12 +4198,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>jo: 479</t>
+          <t>qm: 2</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.0024424818</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4208,12 +4213,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>jp: 1</t>
+          <t>nf: 11</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -4223,12 +4228,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ig: 428</t>
+          <t>cp: 1</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.0021824264</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4243,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>au: 381</t>
+          <t>ma: 2590</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.0019427674</t>
+          <t>0.0132067390</t>
         </is>
       </c>
     </row>
@@ -4253,12 +4258,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>np: 5</t>
+          <t>nj: 44</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -4268,12 +4273,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>oz: 54</t>
+          <t>hj: 9</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.0002753529</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4288,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>pp: 39</t>
+          <t>jl: 9</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -4298,12 +4303,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>er: 1958</t>
+          <t>oc: 114</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.0099840907</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4318,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>gb: 3</t>
+          <t>yd: 272</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0013869626</t>
         </is>
       </c>
     </row>
@@ -4328,12 +4333,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>zs: 4</t>
+          <t>ll: 1345</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4348,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ka: 1731</t>
+          <t>os: 504</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.0088265889</t>
+          <t>0.0025699600</t>
         </is>
       </c>
     </row>
@@ -4358,12 +4363,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>wy: 73</t>
+          <t>ez: 181</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0009229420</t>
         </is>
       </c>
     </row>
@@ -4373,12 +4378,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ri: 3033</t>
+          <t>cu: 35</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.0154656523</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -4388,12 +4393,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ou: 275</t>
+          <t>cq: 11</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -4403,12 +4408,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>uv: 37</t>
+          <t>oo: 115</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.0001886677</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -4418,12 +4423,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>lg: 6</t>
+          <t>bs: 8</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -4433,12 +4438,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>hq: 1</t>
+          <t>oh: 171</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008719507</t>
         </is>
       </c>
     </row>
@@ -4448,12 +4453,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>cq: 11</t>
+          <t>iu: 109</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -4463,12 +4468,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ae: 692</t>
+          <t>hl: 185</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -4478,12 +4483,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>zz: 45</t>
+          <t>zj: 2</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4493,12 +4498,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>oh: 171</t>
+          <t>dv: 17</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.0008719507</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -4508,12 +4513,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>hf: 2</t>
+          <t>lk: 24</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -4523,12 +4528,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>yy: 23</t>
+          <t>ly: 1588</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0080974137</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4543,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>xi: 102</t>
+          <t>sj: 2</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.0005201110</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4553,12 +4558,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>rv: 80</t>
+          <t>po: 59</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0003008485</t>
         </is>
       </c>
     </row>
@@ -4568,12 +4573,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>je: 440</t>
+          <t>fk: 2</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4583,12 +4588,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>wm: 2</t>
+          <t>fr: 114</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -4598,13 +4603,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>k
-: 363</t>
+          <t>ng: 273</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.0018509831</t>
+          <t>0.0013920617</t>
         </is>
       </c>
     </row>
@@ -4614,12 +4618,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>rt: 208</t>
+          <t>hm: 117</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.0010606184</t>
+          <t>0.0005965979</t>
         </is>
       </c>
     </row>
@@ -4629,12 +4633,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>et: 580</t>
+          <t>xz: 19</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.0029574937</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -4644,12 +4648,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ov: 176</t>
+          <t>pi: 61</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.0008974464</t>
+          <t>0.0003110467</t>
         </is>
       </c>
     </row>
@@ -4659,12 +4663,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>nh: 26</t>
+          <t>uj: 14</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -4674,12 +4678,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>kr: 109</t>
+          <t>zy: 147</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0007495717</t>
         </is>
       </c>
     </row>
@@ -4689,12 +4693,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>jn: 2</t>
+          <t>ed: 384</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0019580648</t>
         </is>
       </c>
     </row>
@@ -4704,12 +4708,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ah: 2332</t>
+          <t>zz: 45</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.0118911642</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -4719,12 +4723,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>bn: 4</t>
+          <t>yv: 106</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0005405075</t>
         </is>
       </c>
     </row>
@@ -4734,12 +4738,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>bb: 38</t>
+          <t>tw: 11</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -4749,12 +4753,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>gv: 1</t>
+          <t>eh: 152</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007750673</t>
         </is>
       </c>
     </row>
@@ -4764,12 +4768,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ao: 63</t>
+          <t>la: 2623</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.0003212450</t>
+          <t>0.0133750102</t>
         </is>
       </c>
     </row>
@@ -4779,12 +4783,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>km: 9</t>
+          <t>id: 440</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -4794,13 +4798,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>r
-: 1377</t>
+          <t>wb: 1</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.0070214979</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4813,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ad: 1042</t>
+          <t>vn: 8</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.0053132904</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -4825,12 +4828,13 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>jr: 11</t>
+          <t>n
+: 6763</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0344853961</t>
         </is>
       </c>
     </row>
@@ -4840,7 +4844,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>pn: 1</t>
+          <t>cd: 1</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -4855,12 +4859,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>lu: 324</t>
+          <t>wr: 22</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.0016521172</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4874,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>sl: 279</t>
+          <t>gg: 25</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.0014226564</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4889,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>tj: 3</t>
+          <t>mh: 5</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -4900,12 +4904,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>cd: 1</t>
+          <t>zb: 4</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4919,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>cz: 4</t>
+          <t>ok: 68</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0003467406</t>
         </is>
       </c>
     </row>
@@ -4930,12 +4934,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>mh: 5</t>
+          <t>ww: 2</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4945,12 +4949,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>kd: 2</t>
+          <t>js: 7</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -4960,12 +4964,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>hh: 1</t>
+          <t>sh: 1285</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0065523782</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4979,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>pe: 197</t>
+          <t>uk: 93</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.0010045280</t>
+          <t>0.0004742188</t>
         </is>
       </c>
     </row>
@@ -5005,12 +5009,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ks: 95</t>
+          <t>uh: 58</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -5020,12 +5024,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ij: 76</t>
+          <t>ft: 18</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5039,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>az: 435</t>
+          <t>it: 541</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.0022181203</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -5050,12 +5054,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>lm: 60</t>
+          <t>vo: 153</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5069,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>zi: 364</t>
+          <t>pt: 17</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.0018560822</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -5080,12 +5084,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>vd: 1</t>
+          <t>wn: 58</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5099,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ip: 53</t>
+          <t>ky: 379</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.0002702537</t>
+          <t>0.0019325691</t>
         </is>
       </c>
     </row>
@@ -5110,13 +5114,13 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>q
-: 28</t>
+          <t>m
+: 516</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -5126,12 +5130,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ep: 83</t>
+          <t>av: 834</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0042526719</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5145,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>op: 95</t>
+          <t>vk: 3</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5156,12 +5160,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ax: 182</t>
+          <t>ov: 176</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.0009280411</t>
+          <t>0.0008974464</t>
         </is>
       </c>
     </row>
@@ -5171,12 +5175,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>hj: 9</t>
+          <t>ki: 509</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -5186,12 +5190,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ke: 895</t>
+          <t>zd: 2</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.0045637187</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5205,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>yl: 1104</t>
+          <t>am: 1634</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.0056294362</t>
+          <t>0.0083319736</t>
         </is>
       </c>
     </row>
@@ -5216,12 +5220,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ap: 82</t>
+          <t>ui: 121</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -5231,12 +5235,13 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>wf: 2</t>
+          <t>w
+: 51</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -5246,12 +5251,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>nj: 44</t>
+          <t>nc: 213</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -5261,12 +5266,13 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>kc: 2</t>
+          <t>y
+: 2007</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0102339479</t>
         </is>
       </c>
     </row>
@@ -5276,13 +5282,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>e
-: 3983</t>
+          <t>hp: 1</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.0203098230</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5292,12 +5297,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>bi: 217</t>
+          <t>di: 674</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.0011065106</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -5307,12 +5312,13 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>zd: 2</t>
+          <t>a
+: 6640</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0338582035</t>
         </is>
       </c>
     </row>
@@ -5322,12 +5328,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>gt: 31</t>
+          <t>ws: 20</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -5337,12 +5343,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>tf: 2</t>
+          <t>ch: 664</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0033858203</t>
         </is>
       </c>
     </row>
@@ -5352,12 +5358,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>co: 380</t>
+          <t>gm: 6</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.0019376683</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -5367,12 +5373,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>pu: 4</t>
+          <t>se: 884</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0045076283</t>
         </is>
       </c>
     </row>
@@ -5382,12 +5388,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>rx: 3</t>
+          <t>ew: 50</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -5397,12 +5403,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ky: 379</t>
+          <t>xo: 41</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.0019325691</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -5412,12 +5418,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>os: 504</t>
+          <t>ku: 50</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.0025699600</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -5427,12 +5433,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>xt: 70</t>
+          <t>nq: 2</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.0003569389</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5448,13 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>po: 59</t>
+          <t>e
+: 3983</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.0003008485</t>
+          <t>0.0203098230</t>
         </is>
       </c>
     </row>
@@ -5457,12 +5464,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>pc: 1</t>
+          <t>rp: 14</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -5472,12 +5479,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>rr: 425</t>
+          <t>dk: 3</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.0021671290</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5487,12 +5494,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>lt: 77</t>
+          <t>hk: 29</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.0003926328</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -5502,12 +5509,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>oi: 69</t>
+          <t>uw: 86</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -5517,12 +5524,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>uo: 10</t>
+          <t>mm: 168</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -5532,12 +5539,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>jm: 5</t>
+          <t>sz: 10</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -5547,12 +5554,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ed: 384</t>
+          <t>ci: 271</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.0019580648</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -5562,12 +5569,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>pi: 61</t>
+          <t>ia: 2445</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.0003110467</t>
+          <t>0.0124673656</t>
         </is>
       </c>
     </row>
@@ -5577,12 +5584,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>iu: 109</t>
+          <t>lu: 324</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0016521172</t>
         </is>
       </c>
     </row>
@@ -5592,12 +5599,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>dv: 17</t>
+          <t>uv: 37</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0001886677</t>
         </is>
       </c>
     </row>
@@ -5607,12 +5614,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>gw: 26</t>
+          <t>hv: 39</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -5622,12 +5629,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>my: 287</t>
+          <t>lp: 15</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5644,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>lp: 15</t>
+          <t>xf: 3</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5652,12 +5659,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>nd: 704</t>
+          <t>hh: 1</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.0035897854</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5667,12 +5674,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>eo: 269</t>
+          <t>qe: 1</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5682,12 +5689,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>om: 261</t>
+          <t>dq: 1</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.0013308722</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5697,12 +5704,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>fa: 242</t>
+          <t>eb: 121</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.0012339887</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -5712,12 +5719,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>at: 687</t>
+          <t>mr: 97</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.0035031003</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -5727,12 +5734,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>wk: 6</t>
+          <t>gh: 360</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0018356857</t>
         </is>
       </c>
     </row>
@@ -5742,13 +5749,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>p
-: 33</t>
+          <t>zh: 43</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.0001682712</t>
+          <t>0.0002192625</t>
         </is>
       </c>
     </row>
@@ -5758,12 +5764,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>mp: 38</t>
+          <t>zv: 2</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5773,12 +5779,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>dy: 317</t>
+          <t>ub: 103</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.0016164233</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -5788,12 +5794,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>dc: 3</t>
+          <t>wk: 6</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -5803,12 +5809,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>qa: 13</t>
+          <t>rf: 9</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -5818,12 +5824,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>lj: 6</t>
+          <t>cj: 3</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5833,12 +5839,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>uk: 93</t>
+          <t>yp: 15</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.0004742188</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -5848,12 +5854,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>kn: 26</t>
+          <t>un: 275</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -5863,12 +5869,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>mj: 7</t>
+          <t>yq: 6</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -5878,12 +5884,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>gn: 27</t>
+          <t>nl: 195</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0009943298</t>
         </is>
       </c>
     </row>
@@ -5893,12 +5899,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>tw: 11</t>
+          <t>ao: 63</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0003212450</t>
         </is>
       </c>
     </row>
@@ -5908,12 +5914,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ex: 132</t>
+          <t>mb: 112</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0005711022</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5929,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>du: 92</t>
+          <t>np: 5</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.0004691197</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -5938,12 +5944,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>zl: 123</t>
+          <t>wd: 8</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -5953,12 +5959,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>rk: 90</t>
+          <t>zw: 3</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5968,12 +5974,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>go: 83</t>
+          <t>vb: 1</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5983,12 +5989,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ab: 541</t>
+          <t>vl: 14</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -5998,12 +6004,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>pj: 1</t>
+          <t>ug: 47</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002396590</t>
         </is>
       </c>
     </row>
@@ -6013,12 +6019,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>te: 716</t>
+          <t>rd: 187</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.0036509750</t>
+          <t>0.0009535368</t>
         </is>
       </c>
     </row>
@@ -6028,12 +6034,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>am: 1634</t>
+          <t>kb: 2</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.0083319736</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6043,12 +6049,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>mo: 452</t>
+          <t>te: 716</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.0023048054</t>
+          <t>0.0036509750</t>
         </is>
       </c>
     </row>
@@ -6058,13 +6064,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>v
-: 88</t>
+          <t>so: 531</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.0004487232</t>
+          <t>0.0027076365</t>
         </is>
       </c>
     </row>
@@ -6074,12 +6079,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ro: 869</t>
+          <t>xy: 30</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.0044311414</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -6089,12 +6094,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>as: 1118</t>
+          <t>yk: 86</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.0057008240</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -6104,12 +6109,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ih: 95</t>
+          <t>zr: 32</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -6119,12 +6124,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>zn: 4</t>
+          <t>si: 684</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0034878029</t>
         </is>
       </c>
     </row>
@@ -6134,12 +6139,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>sk: 82</t>
+          <t>ex: 132</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6154,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>wt: 8</t>
+          <t>oj: 16</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -6164,12 +6169,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>yn: 1826</t>
+          <t>em: 769</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.0093110060</t>
+          <t>0.0039212287</t>
         </is>
       </c>
     </row>
@@ -6179,12 +6184,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ld: 138</t>
+          <t>yu: 141</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0007189769</t>
         </is>
       </c>
     </row>
@@ -6194,12 +6199,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>qe: 1</t>
+          <t>yb: 27</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -6209,12 +6214,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>qr: 1</t>
+          <t>rz: 23</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -6224,12 +6229,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>tt: 374</t>
+          <t>fs: 6</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.0019070735</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -6239,12 +6244,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>dt: 4</t>
+          <t>ev: 463</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0023608958</t>
         </is>
       </c>
     </row>
@@ -6254,12 +6259,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>yc: 115</t>
+          <t>wm: 2</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6269,12 +6274,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>ga: 330</t>
+          <t>zs: 4</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.0016827119</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -6284,12 +6289,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>nw: 11</t>
+          <t>ge: 334</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0017031084</t>
         </is>
       </c>
     </row>
@@ -6299,12 +6304,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>wh: 23</t>
+          <t>gz: 1</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6314,12 +6319,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>eq: 14</t>
+          <t>ry: 773</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0039416252</t>
         </is>
       </c>
     </row>
@@ -6329,12 +6334,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>lw: 16</t>
+          <t>wi: 148</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -6344,12 +6349,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>yi: 192</t>
+          <t>nz: 145</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.0009790324</t>
+          <t>0.0007393734</t>
         </is>
       </c>
     </row>
@@ -6359,12 +6364,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>za: 860</t>
+          <t>ro: 869</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.0043852492</t>
+          <t>0.0044311414</t>
         </is>
       </c>
     </row>
@@ -6374,12 +6379,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>ba: 321</t>
+          <t>ek: 178</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.0016368198</t>
+          <t>0.0009076446</t>
         </is>
       </c>
     </row>
@@ -6389,12 +6394,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>rq: 16</t>
+          <t>cs: 5</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -6404,12 +6409,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>tz: 105</t>
+          <t>pk: 1</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6419,12 +6424,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ei: 818</t>
+          <t>fe: 123</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -6434,12 +6439,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>od: 190</t>
+          <t>um: 154</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0007852656</t>
         </is>
       </c>
     </row>
@@ -6449,12 +6454,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>dn: 31</t>
+          <t>jt: 2</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6464,13 +6469,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>j
-: 71</t>
+          <t>bu: 45</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -6480,12 +6484,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>gr: 201</t>
+          <t>bi: 217</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.0010249245</t>
+          <t>0.0011065106</t>
         </is>
       </c>
     </row>
@@ -6495,12 +6499,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>yr: 291</t>
+          <t>sy: 215</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.0014838460</t>
+          <t>0.0010963123</t>
         </is>
       </c>
     </row>
@@ -6510,13 +6514,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>z
-: 160</t>
+          <t>tl: 134</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -6526,12 +6529,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>xe: 36</t>
+          <t>dg: 25</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -6541,12 +6544,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>by: 83</t>
+          <t>pp: 39</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -6556,12 +6559,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>rm: 162</t>
+          <t>zp: 2</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.0008260586</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6571,12 +6574,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ey: 1070</t>
+          <t>tf: 2</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.0054560659</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6586,12 +6589,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>us: 474</t>
+          <t>od: 190</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.0024169862</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -6601,12 +6604,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>gi: 190</t>
+          <t>us: 474</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0024169862</t>
         </is>
       </c>
     </row>
@@ -6616,12 +6619,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>rz: 23</t>
+          <t>zc: 2</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6634,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>sr: 55</t>
+          <t>sg: 2</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6646,12 +6649,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>nl: 195</t>
+          <t>kf: 1</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.0009943298</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6661,12 +6664,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>ya: 2143</t>
+          <t>ep: 83</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.0109274292</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -6676,12 +6679,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ha: 2244</t>
+          <t>ds: 29</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.0114424411</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -6691,12 +6694,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ji: 119</t>
+          <t>oy: 103</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.0006067961</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -6706,12 +6709,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>eh: 152</t>
+          <t>xl: 39</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.0007750673</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6724,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>hz: 20</t>
+          <t>kh: 307</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0015654320</t>
         </is>
       </c>
     </row>
@@ -6736,12 +6739,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>vb: 1</t>
+          <t>aj: 175</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008923472</t>
         </is>
       </c>
     </row>
@@ -6751,12 +6754,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ut: 82</t>
+          <t>ar: 3264</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0166435506</t>
         </is>
       </c>
     </row>
@@ -6766,12 +6769,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>ac: 470</t>
+          <t>xt: 70</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.0023965897</t>
+          <t>0.0003569389</t>
         </is>
       </c>
     </row>
@@ -6781,12 +6784,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>tx: 2</t>
+          <t>ya: 2143</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0109274292</t>
         </is>
       </c>
     </row>
@@ -6796,12 +6799,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>dw: 23</t>
+          <t>ap: 82</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -6811,12 +6814,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>ok: 68</t>
+          <t>rk: 90</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.0003467406</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -6826,12 +6829,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>aa: 556</t>
+          <t>nn: 1906</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.0028351146</t>
+          <t>0.0097189361</t>
         </is>
       </c>
     </row>
@@ -6841,12 +6844,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>wb: 1</t>
+          <t>ys: 401</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0020447499</t>
         </is>
       </c>
     </row>
@@ -6856,12 +6859,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>jb: 1</t>
+          <t>lh: 19</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6874,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>uc: 103</t>
+          <t>kl: 139</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -6886,12 +6889,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>cg: 2</t>
+          <t>rl: 413</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0021059395</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6904,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ec: 153</t>
+          <t>yz: 78</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -6916,12 +6919,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ag: 168</t>
+          <t>az: 435</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0022181203</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6934,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>mu: 139</t>
+          <t>ni: 1725</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0087959941</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6949,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>ie: 1653</t>
+          <t>dn: 31</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.0084288570</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -6961,12 +6964,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ng: 273</t>
+          <t>do: 378</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.0013920617</t>
+          <t>0.0019274700</t>
         </is>
       </c>
     </row>
@@ -6976,12 +6979,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>mi: 1256</t>
+          <t>jy: 10</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.0064045035</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -6991,12 +6994,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ew: 50</t>
+          <t>rc: 99</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0005048136</t>
         </is>
       </c>
     </row>
@@ -7006,12 +7009,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>el: 3248</t>
+          <t>by: 83</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.0165619646</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -7021,12 +7024,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>lq: 3</t>
+          <t>rs: 190</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -7036,12 +7039,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>is: 1316</t>
+          <t>al: 2528</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.0067104512</t>
+          <t>0.0128905931</t>
         </is>
       </c>
     </row>
@@ -7051,12 +7054,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>hu: 166</t>
+          <t>og: 44</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.0008464551</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -7066,12 +7069,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>pt: 17</t>
+          <t>ks: 95</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -7081,12 +7084,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>oo: 115</t>
+          <t>fl: 20</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -7096,13 +7099,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>i
-: 2489</t>
+          <t>ox: 45</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.0126917272</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -7112,12 +7114,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>ej: 55</t>
+          <t>at: 687</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0035031003</t>
         </is>
       </c>
     </row>
@@ -7127,12 +7129,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>rf: 9</t>
+          <t>il: 1345</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -7142,13 +7144,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>t
-: 483</t>
+          <t>xs: 31</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.0024628784</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -7158,12 +7159,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>pa: 209</t>
+          <t>gl: 32</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.0010657175</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -7173,12 +7174,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>hc: 2</t>
+          <t>ot: 118</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -7188,12 +7189,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>hs: 31</t>
+          <t>jm: 5</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -7203,12 +7204,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>dd: 149</t>
+          <t>kd: 2</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7218,12 +7219,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>jc: 4</t>
+          <t>ph: 204</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -7233,12 +7234,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>kv: 2</t>
+          <t>gi: 190</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -7248,12 +7249,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>cp: 1</t>
+          <t>to: 667</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0034011177</t>
         </is>
       </c>
     </row>
@@ -7263,12 +7264,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>iq: 52</t>
+          <t>fo: 60</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -7278,12 +7279,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>kw: 34</t>
+          <t>uy: 13</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -7293,12 +7294,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ea: 679</t>
+          <t>jn: 2</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.0034623073</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7308,13 +7309,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>u
-: 155</t>
+          <t>kw: 34</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.0007903647</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -7324,12 +7324,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ma: 2590</t>
+          <t>ig: 428</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.0132067390</t>
+          <t>0.0021824264</t>
         </is>
       </c>
     </row>
@@ -7339,12 +7339,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>gl: 32</t>
+          <t>ko: 344</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0017540997</t>
         </is>
       </c>
     </row>
@@ -7354,12 +7354,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>lo: 692</t>
+          <t>za: 860</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0043852492</t>
         </is>
       </c>
     </row>
@@ -7369,12 +7369,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>oc: 114</t>
+          <t>ih: 95</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ez: 181</t>
+          <t>oz: 54</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.0009229420</t>
+          <t>0.0002753529</t>
         </is>
       </c>
     </row>
@@ -7399,12 +7399,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>kh: 307</t>
+          <t>ac: 470</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.0015654320</t>
+          <t>0.0023965897</t>
         </is>
       </c>
     </row>
@@ -7414,12 +7414,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>jk: 2</t>
+          <t>ur: 414</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0021110386</t>
         </is>
       </c>
     </row>
@@ -7429,12 +7429,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>lv: 72</t>
+          <t>iz: 277</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.0003671371</t>
+          <t>0.0014124582</t>
         </is>
       </c>
     </row>
@@ -7444,12 +7444,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>yz: 78</t>
+          <t>fn: 4</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7459,12 +7459,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>fl: 20</t>
+          <t>ty: 341</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0017388023</t>
         </is>
       </c>
     </row>
@@ -7474,12 +7474,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>nk: 58</t>
+          <t>hc: 2</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7489,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>ye: 301</t>
+          <t>lg: 6</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -7504,12 +7504,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>eu: 69</t>
+          <t>tj: 3</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>hl: 185</t>
+          <t>py: 12</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -7534,12 +7534,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>zo: 110</t>
+          <t>fa: 242</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0012339887</t>
         </is>
       </c>
     </row>
@@ -7549,12 +7549,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>wi: 148</t>
+          <t>eo: 269</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -7564,12 +7564,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>bj: 1</t>
+          <t>sw: 24</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -7579,12 +7579,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>cr: 76</t>
+          <t>pr: 151</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0007699682</t>
         </is>
       </c>
     </row>
@@ -7594,12 +7594,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>nb: 8</t>
+          <t>rn: 140</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -7609,12 +7609,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>yu: 141</t>
+          <t>lq: 3</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.0007189769</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -7624,13 +7624,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>g
-: 108</t>
+          <t>zo: 110</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.0005507057</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -7640,12 +7639,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>hk: 29</t>
+          <t>du: 92</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0004691197</t>
         </is>
       </c>
     </row>
@@ -7655,12 +7654,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ia: 2445</t>
+          <t>ts: 35</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.0124673656</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -7670,12 +7669,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ph: 204</t>
+          <t>ms: 35</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -7685,12 +7684,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>kt: 17</t>
+          <t>zg: 1</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7700,12 +7699,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>mk: 1</t>
+          <t>pe: 197</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0010045280</t>
         </is>
       </c>
     </row>
@@ -7715,12 +7714,13 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>ud: 136</t>
+          <t>o
+: 855</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.0006934813</t>
+          <t>0.0043597536</t>
         </is>
       </c>
     </row>
@@ -7730,12 +7730,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>qu: 206</t>
+          <t>dz: 1</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.0010504202</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7745,12 +7745,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>aj: 175</t>
+          <t>pj: 1</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.0008923472</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7760,12 +7760,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>ch: 664</t>
+          <t>pm: 1</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.0033858203</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7775,12 +7775,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>we: 149</t>
+          <t>zt: 4</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7790,12 +7790,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>tg: 2</t>
+          <t>tz: 105</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -7805,12 +7805,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>he: 674</t>
+          <t>th: 647</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0032991352</t>
         </is>
       </c>
     </row>
@@ -7820,12 +7820,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>ww: 2</t>
+          <t>nm: 19</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -7835,12 +7835,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>gd: 19</t>
+          <t>lf: 22</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -7850,12 +7850,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>ev: 463</t>
+          <t>bd: 65</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.0023608958</t>
+          <t>0.0003314433</t>
         </is>
       </c>
     </row>
@@ -7865,12 +7865,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>nv: 55</t>
+          <t>zu: 73</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -7880,12 +7880,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>pf: 1</t>
+          <t>yj: 23</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -7895,12 +7895,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>un: 275</t>
+          <t>ze: 373</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0019019744</t>
         </is>
       </c>
     </row>
@@ -7910,12 +7910,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>do: 378</t>
+          <t>eq: 14</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.0019274700</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -7925,12 +7925,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>in: 2126</t>
+          <t>ea: 679</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.0108407441</t>
+          <t>0.0034623073</t>
         </is>
       </c>
     </row>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>xy: 30</t>
+          <t>ue: 169</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0008617525</t>
         </is>
       </c>
     </row>
@@ -7955,12 +7955,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>fu: 10</t>
+          <t>nv: 55</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -7970,12 +7970,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>ty: 341</t>
+          <t>nd: 704</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.0017388023</t>
+          <t>0.0035897854</t>
         </is>
       </c>
     </row>
@@ -7985,12 +7985,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>zk: 2</t>
+          <t>yl: 1104</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0056294362</t>
         </is>
       </c>
     </row>
@@ -8000,12 +8000,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>uf: 19</t>
+          <t>wa: 280</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0014277556</t>
         </is>
       </c>
     </row>
@@ -8015,12 +8015,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>yg: 30</t>
+          <t>vu: 7</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -8030,12 +8030,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>ee: 1271</t>
+          <t>iv: 269</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.0064809905</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -8045,12 +8045,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>bc: 1</t>
+          <t>ib: 110</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -8060,12 +8060,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>pm: 1</t>
+          <t>rq: 16</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -8075,12 +8075,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>qm: 2</t>
+          <t>ic: 509</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -8090,12 +8090,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>ug: 47</t>
+          <t>wf: 2</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.0002396590</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8105,12 +8105,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>zr: 32</t>
+          <t>ou: 275</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -8120,12 +8120,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>wd: 8</t>
+          <t>on: 2411</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0122939953</t>
         </is>
       </c>
     </row>
@@ -8135,12 +8135,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>py: 12</t>
+          <t>ah: 2332</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0118911642</t>
         </is>
       </c>
     </row>
@@ -8150,12 +8150,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>bo: 105</t>
+          <t>nh: 26</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -8165,12 +8165,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>su: 185</t>
+          <t>pb: 2</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>uj: 14</t>
+          <t>wy: 73</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -8195,13 +8195,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>w
-: 51</t>
+          <t>tv: 15</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -8211,12 +8210,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ci: 271</t>
+          <t>dd: 149</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -8226,12 +8225,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ux: 34</t>
+          <t>qr: 1</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8241,12 +8240,13 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>uh: 58</t>
+          <t>z
+: 160</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -8256,12 +8256,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>sn: 24</t>
+          <t>ql: 1</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8271,12 +8271,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ik: 445</t>
+          <t>ij: 76</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.0022691115</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8286,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>tb: 1</t>
+          <t>ce: 551</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0028096190</t>
         </is>
       </c>
     </row>
@@ -8301,12 +8301,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ll: 1345</t>
+          <t>ha: 2244</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0114424411</t>
         </is>
       </c>
     </row>
@@ -8316,12 +8316,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>fo: 60</t>
+          <t>zm: 35</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -8331,13 +8331,13 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>s
-: 1169</t>
+          <t>v
+: 88</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.0059608795</t>
+          <t>0.0004487232</t>
         </is>
       </c>
     </row>
@@ -8347,12 +8347,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>ny: 465</t>
+          <t>nt: 443</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.0023710941</t>
+          <t>0.0022589133</t>
         </is>
       </c>
     </row>
@@ -8362,12 +8362,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>oe: 132</t>
+          <t>pu: 4</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8377,12 +8377,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>bs: 8</t>
+          <t>su: 185</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -8392,12 +8392,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>xl: 39</t>
+          <t>ld: 138</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -8407,12 +8407,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>js: 7</t>
+          <t>gb: 3</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8422,12 +8422,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>xw: 3</t>
+          <t>db: 1</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8437,12 +8437,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>sz: 10</t>
+          <t>hs: 31</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -8452,12 +8452,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>cl: 116</t>
+          <t>tg: 2</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.0005914987</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8467,12 +8467,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>mn: 20</t>
+          <t>ey: 1070</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0054560659</t>
         </is>
       </c>
     </row>
@@ -8482,12 +8482,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>or: 1059</t>
+          <t>kz: 2</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.0053999755</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8497,12 +8497,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>em: 769</t>
+          <t>zk: 2</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.0039212287</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>fi: 160</t>
+          <t>mz: 11</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>lf: 22</t>
+          <t>gu: 85</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0004334258</t>
         </is>
       </c>
     </row>
@@ -8542,12 +8542,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>lb: 52</t>
+          <t>lw: 16</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>aq: 60</t>
+          <t>dl: 60</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -8572,12 +8572,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>en: 2675</t>
+          <t>wg: 1</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.0136401648</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8587,13 +8587,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>b
-: 114</t>
+          <t>ck: 316</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0016113241</t>
         </is>
       </c>
     </row>
@@ -8603,12 +8602,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>rj: 25</t>
+          <t>ca: 815</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0041557885</t>
         </is>
       </c>
     </row>
@@ -8618,12 +8617,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>cj: 3</t>
+          <t>nk: 58</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -8633,12 +8632,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>cx: 3</t>
+          <t>up: 16</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -8648,12 +8647,13 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>ki: 509</t>
+          <t>u
+: 155</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0007903647</t>
         </is>
       </c>
     </row>
@@ -8663,12 +8663,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>ml: 5</t>
+          <t>cy: 104</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -8678,12 +8678,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>kb: 2</t>
+          <t>ie: 1653</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0084288570</t>
         </is>
       </c>
     </row>
@@ -8693,12 +8693,13 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>hd: 24</t>
+          <t>f
+: 80</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -8708,12 +8709,12 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>sv: 14</t>
+          <t>mp: 38</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -8723,12 +8724,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>vv: 7</t>
+          <t>ka: 1731</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0088265889</t>
         </is>
       </c>
     </row>
@@ -8738,12 +8739,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>yp: 15</t>
+          <t>xn: 1</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8753,12 +8754,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>ue: 169</t>
+          <t>ix: 89</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.0008617525</t>
+          <t>0.0004538223</t>
         </is>
       </c>
     </row>
@@ -8768,12 +8769,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>sh: 1285</t>
+          <t>sc: 60</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.0065523782</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8784,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>ai: 1650</t>
+          <t>sb: 21</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.0084135596</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -8798,12 +8799,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>sp: 51</t>
+          <t>dc: 3</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8813,12 +8814,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>iv: 269</t>
+          <t>ti: 532</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0027127356</t>
         </is>
       </c>
     </row>
@@ -8828,12 +8829,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>sc: 60</t>
+          <t>yt: 104</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -8843,12 +8844,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>me: 818</t>
+          <t>ab: 541</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -8858,12 +8859,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>on: 2411</t>
+          <t>yh: 22</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.0122939953</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -8873,12 +8874,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>gm: 6</t>
+          <t>ri: 3033</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0154656523</t>
         </is>
       </c>
     </row>
@@ -8888,12 +8889,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>hm: 117</t>
+          <t>oe: 132</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.0005965979</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -8903,12 +8904,13 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>ze: 373</t>
+          <t>g
+: 108</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.0019019744</t>
+          <t>0.0005507057</t>
         </is>
       </c>
     </row>
@@ -8918,12 +8920,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>uz: 45</t>
+          <t>my: 287</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -8933,12 +8935,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>vr: 48</t>
+          <t>dy: 317</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.0002447581</t>
+          <t>0.0016164233</t>
         </is>
       </c>
     </row>
@@ -8948,13 +8950,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>a
-: 6640</t>
+          <t>hw: 10</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.0338582035</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -8964,13 +8965,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>m
-: 516</t>
+          <t>ga: 330</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0016827119</t>
         </is>
       </c>
     </row>
@@ -8980,12 +8980,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>dh: 118</t>
+          <t>qi: 13</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -8995,12 +8995,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>yk: 86</t>
+          <t>jc: 4</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -9010,12 +9010,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ii: 82</t>
+          <t>mt: 4</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -9025,12 +9025,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>ns: 278</t>
+          <t>gj: 3</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.0014175573</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -9040,12 +9040,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>es: 861</t>
+          <t>me: 818</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.0043903484</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -9055,12 +9055,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>vl: 14</t>
+          <t>ji: 119</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0006067961</t>
         </is>
       </c>
     </row>
@@ -9070,12 +9070,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>av: 834</t>
+          <t>vh: 1</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.0042526719</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9085,12 +9085,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>kz: 2</t>
+          <t>tm: 4</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -9100,12 +9100,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>dj: 9</t>
+          <t>ve: 568</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>il: 1345</t>
+          <t>mu: 139</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -9130,12 +9130,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>jy: 10</t>
+          <t>cx: 3</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -9145,12 +9145,13 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>wa: 280</t>
+          <t>i
+: 2489</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.0014277556</t>
+          <t>0.0126917272</t>
         </is>
       </c>
     </row>
@@ -9160,12 +9161,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>tc: 17</t>
+          <t>el: 3248</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0165619646</t>
         </is>
       </c>
     </row>
@@ -9175,13 +9176,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>d
-: 516</t>
+          <t>lo: 692</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9191,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>tv: 15</t>
+          <t>xa: 103</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -9206,12 +9206,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>mc: 51</t>
+          <t>jr: 11</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -9221,12 +9221,12 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>lc: 25</t>
+          <t>ye: 301</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -9236,13 +9236,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>c
-: 97</t>
+          <t>ee: 1271</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0064809905</t>
         </is>
       </c>
     </row>
@@ -9252,12 +9251,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>gy: 31</t>
+          <t>ol: 619</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0031563596</t>
         </is>
       </c>
     </row>
@@ -9267,12 +9266,13 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>dr: 424</t>
+          <t>k
+: 363</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.0021620299</t>
+          <t>0.0018509831</t>
         </is>
       </c>
     </row>
@@ -9282,12 +9282,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>zt: 4</t>
+          <t>sn: 24</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -9297,12 +9297,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>ds: 29</t>
+          <t>yx: 28</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -9312,12 +9312,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>zw: 3</t>
+          <t>gy: 31</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -9327,12 +9327,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>dz: 1</t>
+          <t>kj: 2</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9342,12 +9342,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>cs: 5</t>
+          <t>kv: 2</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9357,12 +9357,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>kl: 139</t>
+          <t>lb: 52</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -9372,12 +9372,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>hy: 213</t>
+          <t>yf: 12</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9387,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>xf: 3</t>
+          <t>ym: 148</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -9402,12 +9402,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>mb: 112</t>
+          <t>nw: 11</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.0005711022</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>hp: 1</t>
+          <t>ay: 2050</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0104532104</t>
         </is>
       </c>
     </row>
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>qs: 2</t>
+          <t>oi: 69</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -9447,12 +9447,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>fh: 1</t>
+          <t>eg: 125</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0006373909</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9462,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>nr: 44</t>
+          <t>xh: 1</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>ly: 1588</t>
+          <t>mv: 3</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.0080974137</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>

--- a/Bigram_Language_Model/probabilities.xlsx
+++ b/Bigram_Language_Model/probabilities.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>br: 842</t>
+          <t>tv: 15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0042934650</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mo: 452</t>
+          <t>wd: 8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0023048054</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tr: 352</t>
+          <t>ci: 271</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0017948927</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pa: 209</t>
+          <t>f
+: 80</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0010657175</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -511,12 +512,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hi: 729</t>
+          <t>az: 435</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0037172636</t>
+          <t>0.0022181203</t>
         </is>
       </c>
     </row>
@@ -526,12 +527,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ns: 278</t>
+          <t>kl: 139</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0014175573</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -541,12 +542,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gw: 26</t>
+          <t>po: 59</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0003008485</t>
         </is>
       </c>
     </row>
@@ -556,12 +557,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rh: 121</t>
+          <t>uw: 86</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -571,12 +572,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>lt: 77</t>
+          <t>wn: 58</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0003926328</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -586,12 +587,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>vd: 1</t>
+          <t>lf: 22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -601,12 +602,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ut: 82</t>
+          <t>bd: 65</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0003314433</t>
         </is>
       </c>
     </row>
@@ -616,12 +617,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>lm: 60</t>
+          <t>zy: 147</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0007495717</t>
         </is>
       </c>
     </row>
@@ -631,12 +632,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>yw: 4</t>
+          <t>mv: 3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -646,12 +647,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ct: 35</t>
+          <t>ug: 47</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0002396590</t>
         </is>
       </c>
     </row>
@@ -661,12 +662,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ak: 568</t>
+          <t>jn: 2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -676,7 +677,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bh: 41</t>
+          <t>rb: 41</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -691,12 +692,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>et: 580</t>
+          <t>xs: 31</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0029574937</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -706,12 +707,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cz: 4</t>
+          <t>ls: 94</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0004793179</t>
         </is>
       </c>
     </row>
@@ -721,12 +722,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ny: 465</t>
+          <t>fi: 160</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0023710941</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -736,12 +737,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>rb: 41</t>
+          <t>oy: 103</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -751,12 +752,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>qw: 3</t>
+          <t>ao: 63</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0003212450</t>
         </is>
       </c>
     </row>
@@ -766,12 +767,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ju: 202</t>
+          <t>yc: 115</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.0010300237</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -781,12 +782,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>kn: 26</t>
+          <t>rw: 21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -796,12 +797,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>vi: 911</t>
+          <t>gr: 201</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.0046453047</t>
+          <t>0.0010249245</t>
         </is>
       </c>
     </row>
@@ -811,12 +812,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>or: 1059</t>
+          <t>em: 769</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.0053999755</t>
+          <t>0.0039212287</t>
         </is>
       </c>
     </row>
@@ -826,12 +827,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>kk: 20</t>
+          <t>hs: 31</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -841,7 +842,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sf: 2</t>
+          <t>nq: 2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -856,12 +857,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>io: 588</t>
+          <t>jh: 45</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.0029982867</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -871,12 +872,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tu: 78</t>
+          <t>lm: 60</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -886,12 +887,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>rm: 162</t>
+          <t>gj: 3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.0008260586</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -901,12 +902,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mw: 2</t>
+          <t>vi: 911</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0046453047</t>
         </is>
       </c>
     </row>
@@ -916,12 +917,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>we: 149</t>
+          <t>nw: 11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -931,12 +932,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dh: 118</t>
+          <t>kr: 109</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -946,12 +947,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>in: 2126</t>
+          <t>wf: 2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.0108407441</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -961,12 +962,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ja: 1473</t>
+          <t>rk: 90</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.0075110141</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -976,12 +977,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>no: 496</t>
+          <t>nk: 58</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.0025291670</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -991,12 +992,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tt: 374</t>
+          <t>rd: 187</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.0019070735</t>
+          <t>0.0009535368</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1007,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ec: 153</t>
+          <t>mw: 2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1022,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>st: 765</t>
+          <t>ay: 2050</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.0039008322</t>
+          <t>0.0104532104</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1037,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>va: 642</t>
+          <t>hr: 204</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.0032736396</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1052,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>xd: 5</t>
+          <t>ms: 35</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1067,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>da: 1303</t>
+          <t>rn: 140</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.0066441625</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1082,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>kt: 17</t>
+          <t>ys: 401</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0020447499</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1097,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fg: 1</t>
+          <t>dq: 1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1111,12 +1112,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>hz: 20</t>
+          <t>tw: 11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1127,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ra: 2356</t>
+          <t>ui: 121</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.0120135433</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1142,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sr: 55</t>
+          <t>kw: 34</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1157,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ii: 82</t>
+          <t>js: 7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1172,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>yn: 1826</t>
+          <t>ea: 679</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.0093110060</t>
+          <t>0.0034623073</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1187,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fu: 10</t>
+          <t>ll: 1345</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1202,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ml: 5</t>
+          <t>nj: 44</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1217,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ax: 182</t>
+          <t>cp: 1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.0009280411</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1232,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ir: 849</t>
+          <t>vu: 7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.0043291588</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -1246,13 +1247,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>p
-: 33</t>
+          <t>cu: 35</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.0001682712</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -1262,13 +1262,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>c
-: 97</t>
+          <t>vy: 121</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -1278,13 +1277,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>l
-: 1314</t>
+          <t>ry: 773</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.0067002529</t>
+          <t>0.0039416252</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1292,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>hq: 1</t>
+          <t>ef: 82</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1307,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ip: 53</t>
+          <t>kb: 2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.0002702537</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1324,12 +1322,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ke: 895</t>
+          <t>ur: 414</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.0045637187</t>
+          <t>0.0021110386</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1337,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jk: 2</t>
+          <t>au: 381</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0019427674</t>
         </is>
       </c>
     </row>
@@ -1354,12 +1352,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ho: 287</t>
+          <t>iu: 109</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0005558048</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1367,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>uq: 10</t>
+          <t>yz: 78</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -1384,12 +1382,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ik: 445</t>
+          <t>uz: 45</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.0022691115</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1397,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jo: 479</t>
+          <t>oq: 3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.0024424818</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1414,12 +1412,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>oa: 149</t>
+          <t>ze: 373</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0019019744</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1427,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>mc: 51</t>
+          <t>cs: 5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1442,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ff: 44</t>
+          <t>hz: 20</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1457,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>zn: 4</t>
+          <t>kk: 20</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -1474,12 +1472,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>rv: 80</t>
+          <t>wh: 23</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -1489,12 +1487,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ad: 1042</t>
+          <t>lw: 16</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.0053132904</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1502,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>xx: 38</t>
+          <t>gz: 1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -1519,12 +1517,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sa: 1201</t>
+          <t>xt: 70</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.0061240516</t>
+          <t>0.0003569389</t>
         </is>
       </c>
     </row>
@@ -1534,12 +1532,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>xi: 102</t>
+          <t>ne: 1359</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.0005201110</t>
+          <t>0.0069297136</t>
         </is>
       </c>
     </row>
@@ -1549,12 +1547,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>au: 381</t>
+          <t>um: 154</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.0019427674</t>
+          <t>0.0007852656</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1562,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ru: 252</t>
+          <t>xx: 38</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.0012849800</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1577,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>vy: 121</t>
+          <t>qo: 2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1594,12 +1592,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>qu: 206</t>
+          <t>no: 496</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.0010504202</t>
+          <t>0.0025291670</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1607,13 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rt: 208</t>
+          <t>b
+: 114</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.0010606184</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1623,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>mf: 1</t>
+          <t>gi: 190</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1638,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>rg: 76</t>
+          <t>wm: 2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1654,12 +1653,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ln: 14</t>
+          <t>eo: 269</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -1669,12 +1668,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>aa: 556</t>
+          <t>ti: 532</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.0028351146</t>
+          <t>0.0027127356</t>
         </is>
       </c>
     </row>
@@ -1684,12 +1683,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jh: 45</t>
+          <t>nc: 213</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1698,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>lj: 6</t>
+          <t>ud: 136</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0006934813</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1713,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>cr: 76</t>
+          <t>dw: 23</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1728,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>fz: 2</t>
+          <t>zu: 73</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -1744,12 +1743,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bt: 2</t>
+          <t>hl: 185</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1758,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ua: 163</t>
+          <t>gb: 3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -1774,12 +1773,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>yi: 192</t>
+          <t>ko: 344</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.0009790324</t>
+          <t>0.0017540997</t>
         </is>
       </c>
     </row>
@@ -1789,12 +1788,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>yy: 23</t>
+          <t>ow: 114</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -1804,13 +1803,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>h
-: 2409</t>
+          <t>sv: 14</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.0122837970</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -1820,12 +1818,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>dw: 23</t>
+          <t>zi: 364</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0018560822</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1833,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>sq: 1</t>
+          <t>fz: 2</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1850,12 +1848,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>eu: 69</t>
+          <t>en: 2675</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0136401648</t>
         </is>
       </c>
     </row>
@@ -1865,12 +1863,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>gf: 1</t>
+          <t>ss: 461</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0023506976</t>
         </is>
       </c>
     </row>
@@ -1880,12 +1878,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>wz: 1</t>
+          <t>hf: 2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -1895,12 +1893,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>zi: 364</t>
+          <t>an: 5438</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.0018560822</t>
+          <t>0.0277290528</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1908,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>gd: 19</t>
+          <t>rz: 23</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1923,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>rx: 3</t>
+          <t>mu: 139</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0007087787</t>
         </is>
       </c>
     </row>
@@ -1940,12 +1938,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>hf: 2</t>
+          <t>br: 842</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0042934650</t>
         </is>
       </c>
     </row>
@@ -1955,12 +1953,13 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>pl: 16</t>
+          <t>k
+: 363</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0018509831</t>
         </is>
       </c>
     </row>
@@ -1970,12 +1969,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>vv: 7</t>
+          <t>hy: 213</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0010861141</t>
         </is>
       </c>
     </row>
@@ -1985,12 +1984,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>zx: 1</t>
+          <t>zk: 2</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2000,12 +1999,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>er: 1958</t>
+          <t>iq: 52</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.0099840907</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -2015,12 +2014,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>li: 2480</t>
+          <t>cj: 3</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.0126458350</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2030,12 +2029,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>mi: 1256</t>
+          <t>yi: 192</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.0064045035</t>
+          <t>0.0009790324</t>
         </is>
       </c>
     </row>
@@ -2045,12 +2044,13 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>hu: 166</t>
+          <t>t
+: 483</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.0008464551</t>
+          <t>0.0024628784</t>
         </is>
       </c>
     </row>
@@ -2060,12 +2060,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>uf: 19</t>
+          <t>ya: 2143</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0109274292</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>iq: 52</t>
+          <t>sd: 9</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>iw: 8</t>
+          <t>pc: 1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>xm: 1</t>
+          <t>ol: 619</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0031563596</t>
         </is>
       </c>
     </row>
@@ -2120,12 +2120,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>gs: 30</t>
+          <t>id: 440</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>hb: 8</t>
+          <t>le: 2921</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0148945501</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>mj: 7</t>
+          <t>wb: 1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2165,12 +2165,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>wt: 8</t>
+          <t>ae: 692</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>zl: 123</t>
+          <t>pb: 2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2195,12 +2195,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ht: 71</t>
+          <t>rf: 9</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>af: 134</t>
+          <t>pj: 1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2225,12 +2225,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>le: 2921</t>
+          <t>qe: 1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.0148945501</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2240,12 +2240,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>qa: 13</t>
+          <t>sn: 24</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -2255,12 +2255,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>rj: 25</t>
+          <t>ww: 2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2270,12 +2270,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>uc: 103</t>
+          <t>cl: 116</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0005914987</t>
         </is>
       </c>
     </row>
@@ -2285,12 +2285,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>wo: 36</t>
+          <t>yw: 4</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2300,12 +2300,13 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>gr: 201</t>
+          <t>e
+: 3983</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.0010249245</t>
+          <t>0.0203098230</t>
         </is>
       </c>
     </row>
@@ -2315,12 +2316,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>of: 34</t>
+          <t>ue: 169</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0008617525</t>
         </is>
       </c>
     </row>
@@ -2330,12 +2331,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>sl: 279</t>
+          <t>hu: 166</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.0014226564</t>
+          <t>0.0008464551</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2346,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>hy: 213</t>
+          <t>pl: 16</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -2360,12 +2361,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>bb: 38</t>
+          <t>wk: 6</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -2375,12 +2376,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>je: 440</t>
+          <t>mr: 97</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -2390,12 +2391,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>dr: 424</t>
+          <t>jk: 2</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.0021620299</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2406,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ef: 82</t>
+          <t>sk: 82</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2420,12 +2421,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>lz: 10</t>
+          <t>or: 1059</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0053999755</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2436,13 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>dj: 9</t>
+          <t>x
+: 163</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -2450,12 +2452,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>lc: 25</t>
+          <t>ki: 509</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2467,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>md: 24</t>
+          <t>yf: 12</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -2480,13 +2482,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>t
-: 483</t>
+          <t>mm: 168</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.0024628784</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -2496,12 +2497,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>cl: 116</t>
+          <t>lt: 77</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.0005914987</t>
+          <t>0.0003926328</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2512,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>pf: 1</t>
+          <t>vo: 153</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -2526,12 +2527,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>fi: 160</t>
+          <t>sf: 2</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2542,13 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ei: 818</t>
+          <t>j
+: 71</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -2556,12 +2558,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>uo: 10</t>
+          <t>jd: 4</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -2571,13 +2573,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>d
-: 516</t>
+          <t>va: 642</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0032736396</t>
         </is>
       </c>
     </row>
@@ -2587,12 +2588,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>he: 674</t>
+          <t>lq: 3</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -2602,12 +2603,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>om: 261</t>
+          <t>pr: 151</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.0013308722</t>
+          <t>0.0007699682</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2618,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>jj: 2</t>
+          <t>fs: 6</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -2632,12 +2633,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>wl: 13</t>
+          <t>xy: 30</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2648,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>bc: 1</t>
+          <t>ch: 664</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0033858203</t>
         </is>
       </c>
     </row>
@@ -2662,12 +2663,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>as: 1118</t>
+          <t>ge: 334</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.0057008240</t>
+          <t>0.0017031084</t>
         </is>
       </c>
     </row>
@@ -2677,13 +2678,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>r
-: 1377</t>
+          <t>uv: 37</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.0070214979</t>
+          <t>0.0001886677</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2693,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>nb: 8</t>
+          <t>yt: 104</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>xc: 4</t>
+          <t>sz: 10</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>gt: 31</t>
+          <t>ib: 110</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -2738,12 +2738,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>yc: 115</t>
+          <t>ye: 301</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ow: 114</t>
+          <t>nx: 6</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -2768,12 +2768,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>tc: 17</t>
+          <t>eh: 152</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0007750673</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ul: 301</t>
+          <t>yn: 1826</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0093110060</t>
         </is>
       </c>
     </row>
@@ -2798,12 +2798,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>iy: 779</t>
+          <t>hn: 138</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.0039722200</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -2813,12 +2813,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>mn: 20</t>
+          <t>tl: 134</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -2828,12 +2828,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>hg: 2</t>
+          <t>xe: 36</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2843,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>jw: 6</t>
+          <t>sy: 215</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0010963123</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ss: 461</t>
+          <t>jv: 5</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.0023506976</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -2873,13 +2873,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>x
-: 163</t>
+          <t>nl: 195</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.0008311577</t>
+          <t>0.0009943298</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2888,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>jd: 4</t>
+          <t>ln: 14</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -2904,12 +2903,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>de: 1283</t>
+          <t>hk: 29</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.0065421800</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2918,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>tn: 22</t>
+          <t>cy: 104</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0005303092</t>
         </is>
       </c>
     </row>
@@ -2934,12 +2933,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>tb: 1</t>
+          <t>up: 16</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2948,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ux: 34</t>
+          <t>wz: 1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -2964,12 +2963,13 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>jp: 1</t>
+          <t>n
+: 6763</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0344853961</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>if: 101</t>
+          <t>oh: 171</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.0005150118</t>
+          <t>0.0008719507</t>
         </is>
       </c>
     </row>
@@ -2994,12 +2994,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>bn: 4</t>
+          <t>yd: 272</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0013869626</t>
         </is>
       </c>
     </row>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>sk: 82</t>
+          <t>lu: 324</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0016521172</t>
         </is>
       </c>
     </row>
@@ -3024,12 +3024,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>kr: 109</t>
+          <t>rv: 80</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0004079302</t>
         </is>
       </c>
     </row>
@@ -3039,12 +3039,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>rr: 425</t>
+          <t>yg: 30</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.0021671290</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>jv: 5</t>
+          <t>ax: 182</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0009280411</t>
         </is>
       </c>
     </row>
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>sp: 51</t>
+          <t>dl: 60</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -3084,12 +3084,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>tx: 2</t>
+          <t>mc: 51</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -3099,12 +3099,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>bl: 103</t>
+          <t>zg: 1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3114,12 +3114,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>fy: 14</t>
+          <t>ok: 68</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0003467406</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>mk: 1</t>
+          <t>li: 2480</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0126458350</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>qs: 2</t>
+          <t>lb: 52</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002651546</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>en: 2675</t>
+          <t>lz: 10</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.0136401648</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>dm: 30</t>
+          <t>kz: 2</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3189,12 +3189,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ne: 1359</t>
+          <t>kj: 2</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.0069297136</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3204,12 +3204,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ai: 1650</t>
+          <t>il: 1345</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.0084135596</t>
+          <t>0.0068583259</t>
         </is>
       </c>
     </row>
@@ -3219,12 +3219,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>hn: 138</t>
+          <t>hg: 2</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3234,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>es: 861</t>
+          <t>tr: 352</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.0043903484</t>
+          <t>0.0017948927</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,13 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>uz: 45</t>
+          <t>w
+: 51</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -3264,12 +3265,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>pn: 1</t>
+          <t>ar: 3264</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0166435506</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3280,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>fh: 1</t>
+          <t>go: 83</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3295,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>nx: 6</t>
+          <t>ab: 541</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -3309,12 +3310,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>rw: 21</t>
+          <t>ke: 895</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0045637187</t>
         </is>
       </c>
     </row>
@@ -3324,12 +3325,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ud: 136</t>
+          <t>hb: 8</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.0006934813</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3340,13 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>oq: 3</t>
+          <t>p
+: 33</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001682712</t>
         </is>
       </c>
     </row>
@@ -3354,13 +3356,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>b
-: 114</t>
+          <t>yo: 271</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0013818634</t>
         </is>
       </c>
     </row>
@@ -3370,12 +3371,13 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ae: 692</t>
+          <t>u
+: 155</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0007903647</t>
         </is>
       </c>
     </row>
@@ -3385,12 +3387,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>yg: 30</t>
+          <t>ac: 470</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0023965897</t>
         </is>
       </c>
     </row>
@@ -3400,12 +3402,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>lr: 18</t>
+          <t>dn: 31</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3417,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ls: 94</t>
+          <t>ql: 1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.0004793179</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3430,12 +3432,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>wu: 25</t>
+          <t>wl: 13</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3447,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>df: 5</t>
+          <t>ps: 16</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3462,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>pc: 1</t>
+          <t>xb: 1</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3475,12 +3477,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>re: 1697</t>
+          <t>zs: 4</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.0086532186</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -3490,12 +3492,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>hr: 204</t>
+          <t>kd: 2</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3505,12 +3507,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>xw: 3</t>
+          <t>hi: 729</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0037172636</t>
         </is>
       </c>
     </row>
@@ -3520,12 +3522,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>xe: 36</t>
+          <t>cc: 42</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.0001835686</t>
+          <t>0.0002141633</t>
         </is>
       </c>
     </row>
@@ -3535,13 +3537,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>j
-: 71</t>
+          <t>tg: 2</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.0003620380</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3551,12 +3552,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>cc: 42</t>
+          <t>jw: 6</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.0002141633</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -3566,12 +3567,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>gv: 1</t>
+          <t>ig: 428</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0021824264</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3582,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>dt: 4</t>
+          <t>ny: 465</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0023710941</t>
         </is>
       </c>
     </row>
@@ -3596,12 +3597,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>qo: 2</t>
+          <t>ia: 2445</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0124673656</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3612,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>aw: 161</t>
+          <t>rp: 14</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.0008209595</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -3626,12 +3627,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>op: 95</t>
+          <t>at: 687</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0035031003</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3642,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ej: 55</t>
+          <t>rt: 208</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0010606184</t>
         </is>
       </c>
     </row>
@@ -3656,12 +3657,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>sm: 90</t>
+          <t>et: 580</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0029574937</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3672,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>jb: 1</t>
+          <t>ho: 287</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3687,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>km: 9</t>
+          <t>sl: 279</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0014226564</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3702,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>co: 380</t>
+          <t>xa: 103</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.0019376683</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -3716,12 +3717,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>wh: 23</t>
+          <t>cq: 11</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -3731,12 +3732,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>aq: 60</t>
+          <t>bj: 1</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3747,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>im: 427</t>
+          <t>rx: 3</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.0021773272</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3762,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>is: 1316</t>
+          <t>aw: 161</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.0067104512</t>
+          <t>0.0008209595</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3777,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>nu: 96</t>
+          <t>mp: 38</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.0004895162</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3792,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>bj: 1</t>
+          <t>aj: 175</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008923472</t>
         </is>
       </c>
     </row>
@@ -3806,12 +3807,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ob: 140</t>
+          <t>ji: 119</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0006067961</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3822,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>hd: 24</t>
+          <t>ad: 1042</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0053132904</t>
         </is>
       </c>
     </row>
@@ -3836,12 +3837,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>cg: 2</t>
+          <t>gm: 6</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3852,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>yr: 291</t>
+          <t>di: 674</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.0014838460</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -3866,12 +3867,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>sd: 9</t>
+          <t>oe: 132</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3882,13 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>vr: 48</t>
+          <t>g
+: 108</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.0002447581</t>
+          <t>0.0005507057</t>
         </is>
       </c>
     </row>
@@ -3896,12 +3898,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>nr: 44</t>
+          <t>im: 427</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0021773272</t>
         </is>
       </c>
     </row>
@@ -3911,12 +3913,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>go: 83</t>
+          <t>dz: 1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3928,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ps: 16</t>
+          <t>fe: 123</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3943,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>bo: 105</t>
+          <t>bt: 2</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -3956,12 +3958,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ag: 168</t>
+          <t>ul: 301</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0015348372</t>
         </is>
       </c>
     </row>
@@ -3971,12 +3973,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>lv: 72</t>
+          <t>wg: 1</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.0003671371</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3988,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>xb: 1</t>
+          <t>fl: 20</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -4001,12 +4003,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>xu: 5</t>
+          <t>bu: 45</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -4016,13 +4018,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>s
-: 1169</t>
+          <t>ca: 815</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.0059608795</t>
+          <t>0.0041557885</t>
         </is>
       </c>
     </row>
@@ -4032,13 +4033,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>q
-: 28</t>
+          <t>my: 287</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0014634495</t>
         </is>
       </c>
     </row>
@@ -4048,12 +4048,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>an: 5438</t>
+          <t>pe: 197</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.0277290528</t>
+          <t>0.0010045280</t>
         </is>
       </c>
     </row>
@@ -4063,12 +4063,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>gn: 27</t>
+          <t>rq: 16</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -4078,12 +4078,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>kc: 2</t>
+          <t>ed: 384</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0019580648</t>
         </is>
       </c>
     </row>
@@ -4093,12 +4093,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>na: 2977</t>
+          <t>ml: 5</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.0151801012</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -4108,12 +4108,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>fw: 4</t>
+          <t>dc: 3</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4123,12 +4123,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>sv: 14</t>
+          <t>tj: 3</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -4138,12 +4138,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ta: 1027</t>
+          <t>gv: 1</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.0052368035</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4153,12 +4153,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>uu: 3</t>
+          <t>ct: 35</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -4168,12 +4168,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ba: 321</t>
+          <t>kh: 307</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.0016368198</t>
+          <t>0.0015654320</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>be: 655</t>
+          <t>og: 44</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.0033399282</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>qm: 2</t>
+          <t>za: 860</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0043852492</t>
         </is>
       </c>
     </row>
@@ -4213,12 +4213,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>nf: 11</t>
+          <t>ih: 95</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -4228,12 +4228,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>cp: 1</t>
+          <t>iy: 779</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0039722200</t>
         </is>
       </c>
     </row>
@@ -4243,12 +4243,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ma: 2590</t>
+          <t>jo: 479</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.0132067390</t>
+          <t>0.0024424818</t>
         </is>
       </c>
     </row>
@@ -4258,12 +4258,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>nj: 44</t>
+          <t>ov: 176</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0008974464</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>hj: 9</t>
+          <t>es: 861</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0043903484</t>
         </is>
       </c>
     </row>
@@ -4288,12 +4288,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>jl: 9</t>
+          <t>mj: 7</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -4303,12 +4303,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>oc: 114</t>
+          <t>ox: 45</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -4318,12 +4318,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>yd: 272</t>
+          <t>ru: 252</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.0013869626</t>
+          <t>0.0012849800</t>
         </is>
       </c>
     </row>
@@ -4333,12 +4333,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ll: 1345</t>
+          <t>ec: 153</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0007801664</t>
         </is>
       </c>
     </row>
@@ -4348,12 +4348,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>os: 504</t>
+          <t>je: 440</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.0025699600</t>
+          <t>0.0022436159</t>
         </is>
       </c>
     </row>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ez: 181</t>
+          <t>nm: 19</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.0009229420</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -4378,12 +4378,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>cu: 35</t>
+          <t>dh: 118</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -4393,12 +4393,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>cq: 11</t>
+          <t>ja: 1473</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0075110141</t>
         </is>
       </c>
     </row>
@@ -4408,12 +4408,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>oo: 115</t>
+          <t>ub: 103</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.0005863996</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>bs: 8</t>
+          <t>ap: 82</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -4438,12 +4438,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>oh: 171</t>
+          <t>uj: 14</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.0008719507</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>iu: 109</t>
+          <t>lj: 6</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.0005558048</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>hl: 185</t>
+          <t>oa: 149</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -4483,12 +4483,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>zj: 2</t>
+          <t>gy: 31</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -4498,12 +4498,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>dv: 17</t>
+          <t>ku: 50</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -4513,12 +4513,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>lk: 24</t>
+          <t>vr: 48</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0002447581</t>
         </is>
       </c>
     </row>
@@ -4528,12 +4528,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ly: 1588</t>
+          <t>nb: 8</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.0080974137</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -4543,12 +4543,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>sj: 2</t>
+          <t>ff: 44</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -4558,12 +4558,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>po: 59</t>
+          <t>hj: 9</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.0003008485</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -4573,12 +4573,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>fk: 2</t>
+          <t>ei: 818</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -4588,12 +4588,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>fr: 114</t>
+          <t>pi: 61</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.0005813005</t>
+          <t>0.0003110467</t>
         </is>
       </c>
     </row>
@@ -4603,12 +4603,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ng: 273</t>
+          <t>ph: 204</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.0013920617</t>
+          <t>0.0010402219</t>
         </is>
       </c>
     </row>
@@ -4618,12 +4618,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>hm: 117</t>
+          <t>rh: 121</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.0005965979</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -4633,12 +4633,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>xz: 19</t>
+          <t>jj: 2</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4648,12 +4648,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>pi: 61</t>
+          <t>dd: 149</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.0003110467</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>uj: 14</t>
+          <t>oo: 115</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0005863996</t>
         </is>
       </c>
     </row>
@@ -4678,12 +4678,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>zy: 147</t>
+          <t>mk: 1</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.0007495717</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -4693,12 +4693,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ed: 384</t>
+          <t>ce: 551</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.0019580648</t>
+          <t>0.0028096190</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>zz: 45</t>
+          <t>ma: 2590</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0132067390</t>
         </is>
       </c>
     </row>
@@ -4723,12 +4723,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>yv: 106</t>
+          <t>cr: 76</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.0005405075</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -4738,12 +4738,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>tw: 11</t>
+          <t>zh: 43</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0002192625</t>
         </is>
       </c>
     </row>
@@ -4753,12 +4753,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>eh: 152</t>
+          <t>cg: 2</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.0007750673</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -4768,12 +4768,13 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>la: 2623</t>
+          <t>y
+: 2007</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.0133750102</t>
+          <t>0.0102339479</t>
         </is>
       </c>
     </row>
@@ -4783,12 +4784,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>id: 440</t>
+          <t>ai: 1650</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.0022436159</t>
+          <t>0.0084135596</t>
         </is>
       </c>
     </row>
@@ -4798,12 +4799,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>wb: 1</t>
+          <t>tc: 17</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4814,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>vn: 8</t>
+          <t>ux: 34</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -4828,13 +4829,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>n
-: 6763</t>
+          <t>el: 3248</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.0344853961</t>
+          <t>0.0165619646</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>cd: 1</t>
+          <t>sr: 55</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -4859,12 +4859,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>wr: 22</t>
+          <t>sh: 1285</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0065523782</t>
         </is>
       </c>
     </row>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>gg: 25</t>
+          <t>bh: 41</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -4889,12 +4889,13 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>mh: 5</t>
+          <t>o
+: 855</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0043597536</t>
         </is>
       </c>
     </row>
@@ -4904,12 +4905,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>zb: 4</t>
+          <t>ic: 509</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0025954557</t>
         </is>
       </c>
     </row>
@@ -4919,12 +4920,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ok: 68</t>
+          <t>rg: 76</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.0003467406</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4935,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ww: 2</t>
+          <t>zp: 2</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -4949,12 +4950,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>js: 7</t>
+          <t>bl: 103</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -4964,12 +4965,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>sh: 1285</t>
+          <t>bs: 8</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.0065523782</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -4979,12 +4980,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>uk: 93</t>
+          <t>ej: 55</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.0004742188</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -4994,12 +4995,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>yo: 271</t>
+          <t>uk: 93</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0004742188</t>
         </is>
       </c>
     </row>
@@ -5009,12 +5010,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>uh: 58</t>
+          <t>pk: 1</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5024,12 +5025,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ft: 18</t>
+          <t>zt: 4</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.0000917843</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5039,12 +5040,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>it: 541</t>
+          <t>cx: 3</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5054,12 +5055,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>vo: 153</t>
+          <t>hm: 117</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.0007801664</t>
+          <t>0.0005965979</t>
         </is>
       </c>
     </row>
@@ -5069,12 +5070,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>pt: 17</t>
+          <t>hh: 1</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.0000866852</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5084,12 +5085,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>wn: 58</t>
+          <t>ey: 1070</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0054560659</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5100,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ky: 379</t>
+          <t>su: 185</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.0019325691</t>
+          <t>0.0009433385</t>
         </is>
       </c>
     </row>
@@ -5114,13 +5115,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>m
-: 516</t>
+          <t>ou: 275</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.0026311495</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -5130,12 +5130,13 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>av: 834</t>
+          <t>c
+: 97</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.0042526719</t>
+          <t>0.0004946153</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5146,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>vk: 3</t>
+          <t>zw: 3</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5160,12 +5161,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ov: 176</t>
+          <t>lh: 19</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.0008974464</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5176,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ki: 509</t>
+          <t>xl: 39</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -5190,12 +5191,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>zd: 2</t>
+          <t>jl: 9</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -5205,12 +5206,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>am: 1634</t>
+          <t>io: 588</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.0083319736</t>
+          <t>0.0029982867</t>
         </is>
       </c>
     </row>
@@ -5220,12 +5221,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ui: 121</t>
+          <t>fw: 4</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5235,13 +5236,13 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>w
-: 51</t>
+          <t>z
+: 160</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.0002600555</t>
+          <t>0.0008158603</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5252,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>nc: 213</t>
+          <t>db: 1</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.0010861141</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5266,13 +5267,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>y
-: 2007</t>
+          <t>qm: 2</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.0102339479</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>hp: 1</t>
+          <t>ng: 273</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0013920617</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5297,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>di: 674</t>
+          <t>yv: 106</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.0034368116</t>
+          <t>0.0005405075</t>
         </is>
       </c>
     </row>
@@ -5312,13 +5312,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>a
-: 6640</t>
+          <t>nv: 55</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.0338582035</t>
+          <t>0.0002804520</t>
         </is>
       </c>
     </row>
@@ -5328,12 +5327,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ws: 20</t>
+          <t>od: 190</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -5343,12 +5342,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ch: 664</t>
+          <t>gn: 27</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.0033858203</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -5358,12 +5357,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>gm: 6</t>
+          <t>nr: 44</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0002243616</t>
         </is>
       </c>
     </row>
@@ -5373,12 +5372,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>se: 884</t>
+          <t>sp: 51</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.0045076283</t>
+          <t>0.0002600555</t>
         </is>
       </c>
     </row>
@@ -5388,12 +5387,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ew: 50</t>
+          <t>jt: 2</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5403,12 +5402,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>xo: 41</t>
+          <t>xi: 102</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.0002090642</t>
+          <t>0.0005201110</t>
         </is>
       </c>
     </row>
@@ -5418,12 +5417,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ku: 50</t>
+          <t>of: 34</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.0002549564</t>
+          <t>0.0001733703</t>
         </is>
       </c>
     </row>
@@ -5433,12 +5432,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>nq: 2</t>
+          <t>sa: 1201</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0061240516</t>
         </is>
       </c>
     </row>
@@ -5448,13 +5447,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>e
-: 3983</t>
+          <t>st: 765</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.0203098230</t>
+          <t>0.0039008322</t>
         </is>
       </c>
     </row>
@@ -5464,12 +5462,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>rp: 14</t>
+          <t>hp: 1</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5479,12 +5477,13 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>dk: 3</t>
+          <t>d
+: 516</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -5494,12 +5493,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>hk: 29</t>
+          <t>zl: 123</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0006271926</t>
         </is>
       </c>
     </row>
@@ -5509,12 +5508,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>uw: 86</t>
+          <t>me: 818</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0041710859</t>
         </is>
       </c>
     </row>
@@ -5524,12 +5523,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>mm: 168</t>
+          <t>rm: 162</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.0008566533</t>
+          <t>0.0008260586</t>
         </is>
       </c>
     </row>
@@ -5539,12 +5538,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>sz: 10</t>
+          <t>mt: 4</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5553,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ci: 271</t>
+          <t>ra: 2356</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.0013818634</t>
+          <t>0.0120135433</t>
         </is>
       </c>
     </row>
@@ -5569,12 +5568,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ia: 2445</t>
+          <t>md: 24</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.0124673656</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -5584,12 +5583,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>lu: 324</t>
+          <t>zo: 110</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.0016521172</t>
+          <t>0.0005609040</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5598,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>uv: 37</t>
+          <t>mz: 11</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.0001886677</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -5614,12 +5613,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>hv: 39</t>
+          <t>gf: 1</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5628,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>lp: 15</t>
+          <t>zv: 2</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5644,12 +5643,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>xf: 3</t>
+          <t>gs: 30</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -5659,12 +5658,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>hh: 1</t>
+          <t>lp: 15</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -5674,12 +5673,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>qe: 1</t>
+          <t>oc: 114</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -5689,12 +5688,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>dq: 1</t>
+          <t>yy: 23</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -5704,12 +5703,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>eb: 121</t>
+          <t>qw: 3</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.0006169944</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5718,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>mr: 97</t>
+          <t>am: 1634</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.0004946153</t>
+          <t>0.0083319736</t>
         </is>
       </c>
     </row>
@@ -5734,12 +5733,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>gh: 360</t>
+          <t>mi: 1256</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.0018356857</t>
+          <t>0.0064045035</t>
         </is>
       </c>
     </row>
@@ -5749,12 +5748,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>zh: 43</t>
+          <t>mh: 5</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.0002192625</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -5764,12 +5763,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>zv: 2</t>
+          <t>aa: 556</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0028351146</t>
         </is>
       </c>
     </row>
@@ -5779,12 +5778,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ub: 103</t>
+          <t>sg: 2</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5794,12 +5793,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>wk: 6</t>
+          <t>dj: 9</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -5809,12 +5808,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>rf: 9</t>
+          <t>zj: 2</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.0000458921</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -5824,12 +5823,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>cj: 3</t>
+          <t>jc: 4</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5838,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>yp: 15</t>
+          <t>tz: 105</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -5854,12 +5853,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>un: 275</t>
+          <t>mf: 1</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5869,12 +5868,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>yq: 6</t>
+          <t>re: 1697</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0086532186</t>
         </is>
       </c>
     </row>
@@ -5884,12 +5883,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>nl: 195</t>
+          <t>eu: 69</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.0009943298</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5898,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>ao: 63</t>
+          <t>ek: 178</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.0003212450</t>
+          <t>0.0009076446</t>
         </is>
       </c>
     </row>
@@ -5914,12 +5913,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>mb: 112</t>
+          <t>ht: 71</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.0005711022</t>
+          <t>0.0003620380</t>
         </is>
       </c>
     </row>
@@ -5929,12 +5928,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>np: 5</t>
+          <t>ev: 463</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0023608958</t>
         </is>
       </c>
     </row>
@@ -5944,12 +5943,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>wd: 8</t>
+          <t>ni: 1725</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.0000407930</t>
+          <t>0.0087959941</t>
         </is>
       </c>
     </row>
@@ -5959,12 +5958,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>zw: 3</t>
+          <t>vb: 1</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -5974,12 +5973,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>vb: 1</t>
+          <t>ip: 53</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0002702537</t>
         </is>
       </c>
     </row>
@@ -5989,12 +5988,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>vl: 14</t>
+          <t>he: 674</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0034368116</t>
         </is>
       </c>
     </row>
@@ -6004,12 +6003,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>ug: 47</t>
+          <t>ve: 568</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.0002396590</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -6019,12 +6018,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>rd: 187</t>
+          <t>ta: 1027</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.0009535368</t>
+          <t>0.0052368035</t>
         </is>
       </c>
     </row>
@@ -6034,12 +6033,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>kb: 2</t>
+          <t>gu: 85</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0004334258</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6048,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>te: 716</t>
+          <t>yb: 27</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.0036509750</t>
+          <t>0.0001376764</t>
         </is>
       </c>
     </row>
@@ -6064,12 +6063,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>so: 531</t>
+          <t>tn: 22</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.0027076365</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -6079,12 +6078,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>xy: 30</t>
+          <t>ut: 82</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.0001529738</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -6094,12 +6093,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>yk: 86</t>
+          <t>na: 2977</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.0004385249</t>
+          <t>0.0151801012</t>
         </is>
       </c>
     </row>
@@ -6109,12 +6108,13 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>zr: 32</t>
+          <t>r
+: 1377</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0070214979</t>
         </is>
       </c>
     </row>
@@ -6124,12 +6124,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>si: 684</t>
+          <t>dg: 25</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.0034878029</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -6139,12 +6139,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>ex: 132</t>
+          <t>tf: 2</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6154,12 +6154,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>oj: 16</t>
+          <t>so: 531</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0027076365</t>
         </is>
       </c>
     </row>
@@ -6169,12 +6169,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>em: 769</t>
+          <t>lv: 72</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.0039212287</t>
+          <t>0.0003671371</t>
         </is>
       </c>
     </row>
@@ -6184,12 +6184,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>yu: 141</t>
+          <t>zz: 45</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.0007189769</t>
+          <t>0.0002294607</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6199,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>yb: 27</t>
+          <t>ds: 29</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.0001376764</t>
+          <t>0.0001478747</t>
         </is>
       </c>
     </row>
@@ -6214,12 +6214,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>rz: 23</t>
+          <t>af: 134</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0006832830</t>
         </is>
       </c>
     </row>
@@ -6229,12 +6229,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>fs: 6</t>
+          <t>sc: 60</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -6244,12 +6244,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ev: 463</t>
+          <t>iz: 277</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.0023608958</t>
+          <t>0.0014124582</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>wm: 2</t>
+          <t>fo: 60</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -6274,12 +6274,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>zs: 4</t>
+          <t>vv: 7</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000356939</t>
         </is>
       </c>
     </row>
@@ -6289,12 +6289,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>ge: 334</t>
+          <t>vk: 3</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.0017031084</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -6304,12 +6304,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>gz: 1</t>
+          <t>py: 12</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000611895</t>
         </is>
       </c>
     </row>
@@ -6319,12 +6319,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ry: 773</t>
+          <t>ex: 132</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.0039416252</t>
+          <t>0.0006730848</t>
         </is>
       </c>
     </row>
@@ -6334,12 +6334,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>wi: 148</t>
+          <t>ba: 321</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0016368198</t>
         </is>
       </c>
     </row>
@@ -6349,12 +6349,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>nz: 145</t>
+          <t>mo: 452</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.0007393734</t>
+          <t>0.0023048054</t>
         </is>
       </c>
     </row>
@@ -6364,12 +6364,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>ro: 869</t>
+          <t>lg: 6</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.0044311414</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -6379,12 +6379,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>ek: 178</t>
+          <t>ag: 168</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.0009076446</t>
+          <t>0.0008566533</t>
         </is>
       </c>
     </row>
@@ -6394,12 +6394,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>cs: 5</t>
+          <t>gt: 31</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0001580729</t>
         </is>
       </c>
     </row>
@@ -6409,12 +6409,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>pk: 1</t>
+          <t>lo: 692</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0035285959</t>
         </is>
       </c>
     </row>
@@ -6424,12 +6424,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>fe: 123</t>
+          <t>ew: 50</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.0006271926</t>
+          <t>0.0002549564</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6439,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>um: 154</t>
+          <t>hd: 24</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.0007852656</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>jt: 2</t>
+          <t>hc: 2</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>bu: 45</t>
+          <t>hw: 10</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -6484,12 +6484,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>bi: 217</t>
+          <t>jm: 5</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.0011065106</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -6499,12 +6499,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>sy: 215</t>
+          <t>gg: 25</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.0010963123</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -6514,12 +6514,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>tl: 134</t>
+          <t>aq: 60</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.0006832830</t>
+          <t>0.0003059476</t>
         </is>
       </c>
     </row>
@@ -6529,12 +6529,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>dg: 25</t>
+          <t>ee: 1271</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.0001274782</t>
+          <t>0.0064809905</t>
         </is>
       </c>
     </row>
@@ -6544,12 +6544,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>pp: 39</t>
+          <t>tm: 4</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -6559,12 +6559,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>zp: 2</t>
+          <t>ty: 341</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0017388023</t>
         </is>
       </c>
     </row>
@@ -6574,12 +6574,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>tf: 2</t>
+          <t>sm: 90</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0004589214</t>
         </is>
       </c>
     </row>
@@ -6589,12 +6589,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>od: 190</t>
+          <t>yh: 22</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -6604,12 +6604,13 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>us: 474</t>
+          <t>l
+: 1314</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.0024169862</t>
+          <t>0.0067002529</t>
         </is>
       </c>
     </row>
@@ -6619,12 +6620,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>zc: 2</t>
+          <t>ak: 568</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0028963042</t>
         </is>
       </c>
     </row>
@@ -6634,12 +6635,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>sg: 2</t>
+          <t>qr: 1</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6649,12 +6650,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>kf: 1</t>
+          <t>vn: 8</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -6664,12 +6665,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>ep: 83</t>
+          <t>kn: 26</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6680,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ds: 29</t>
+          <t>uy: 13</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.0001478747</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -6694,12 +6695,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>oy: 103</t>
+          <t>is: 1316</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0067104512</t>
         </is>
       </c>
     </row>
@@ -6709,12 +6710,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>xl: 39</t>
+          <t>ri: 3033</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.0001988660</t>
+          <t>0.0154656523</t>
         </is>
       </c>
     </row>
@@ -6724,12 +6725,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>kh: 307</t>
+          <t>vl: 14</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.0015654320</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -6739,12 +6740,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>aj: 175</t>
+          <t>th: 647</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.0008923472</t>
+          <t>0.0032991352</t>
         </is>
       </c>
     </row>
@@ -6754,12 +6755,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ar: 3264</t>
+          <t>hq: 1</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.0166435506</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -6769,12 +6770,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>xt: 70</t>
+          <t>xw: 3</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.0003569389</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -6784,12 +6785,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ya: 2143</t>
+          <t>nz: 145</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.0109274292</t>
+          <t>0.0007393734</t>
         </is>
       </c>
     </row>
@@ -6799,12 +6800,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ap: 82</t>
+          <t>lc: 25</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.0004181284</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -6814,12 +6815,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>rk: 90</t>
+          <t>uf: 19</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.0004589214</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -6829,12 +6830,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>nn: 1906</t>
+          <t>ij: 76</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.0097189361</t>
+          <t>0.0003875337</t>
         </is>
       </c>
     </row>
@@ -6844,12 +6845,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ys: 401</t>
+          <t>un: 275</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.0020447499</t>
+          <t>0.0014022599</t>
         </is>
       </c>
     </row>
@@ -6859,12 +6860,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>lh: 19</t>
+          <t>qu: 206</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0010504202</t>
         </is>
       </c>
     </row>
@@ -6874,12 +6875,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>kl: 139</t>
+          <t>dm: 30</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0001529738</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6890,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>rl: 413</t>
+          <t>ii: 82</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.0021059395</t>
+          <t>0.0004181284</t>
         </is>
       </c>
     </row>
@@ -6904,12 +6905,13 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>yz: 78</t>
+          <t>s
+: 1169</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.0003977319</t>
+          <t>0.0059608795</t>
         </is>
       </c>
     </row>
@@ -6919,12 +6921,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>az: 435</t>
+          <t>uq: 10</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.0022181203</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -6934,12 +6936,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>ni: 1725</t>
+          <t>zd: 2</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.0087959941</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -6949,12 +6951,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>dn: 31</t>
+          <t>dy: 317</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0016164233</t>
         </is>
       </c>
     </row>
@@ -6964,12 +6966,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>do: 378</t>
+          <t>gl: 32</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.0019274700</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -6979,12 +6981,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>jy: 10</t>
+          <t>uc: 103</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0005252101</t>
         </is>
       </c>
     </row>
@@ -6994,12 +6996,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>rc: 99</t>
+          <t>ep: 83</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.0005048136</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -7009,12 +7011,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>by: 83</t>
+          <t>op: 95</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.0004232275</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -7024,12 +7026,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>rs: 190</t>
+          <t>on: 2411</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0122939953</t>
         </is>
       </c>
     </row>
@@ -7039,12 +7041,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>al: 2528</t>
+          <t>ah: 2332</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.0128905931</t>
+          <t>0.0118911642</t>
         </is>
       </c>
     </row>
@@ -7054,12 +7056,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>og: 44</t>
+          <t>gh: 360</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.0002243616</t>
+          <t>0.0018356857</t>
         </is>
       </c>
     </row>
@@ -7069,12 +7071,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ks: 95</t>
+          <t>xf: 3</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -7084,12 +7086,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>fl: 20</t>
+          <t>xu: 5</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.0001019825</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7101,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ox: 45</t>
+          <t>rc: 99</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.0002294607</t>
+          <t>0.0005048136</t>
         </is>
       </c>
     </row>
@@ -7114,12 +7116,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>at: 687</t>
+          <t>qa: 13</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.0035031003</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -7129,12 +7131,13 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>il: 1345</t>
+          <t>m
+: 516</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.0068583259</t>
+          <t>0.0026311495</t>
         </is>
       </c>
     </row>
@@ -7144,12 +7147,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>xs: 31</t>
+          <t>fy: 14</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -7159,12 +7162,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>gl: 32</t>
+          <t>te: 716</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.0001631721</t>
+          <t>0.0036509750</t>
         </is>
       </c>
     </row>
@@ -7174,12 +7177,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>ot: 118</t>
+          <t>sq: 1</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.0006016970</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7189,12 +7192,13 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>jm: 5</t>
+          <t>v
+: 88</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.0000254956</t>
+          <t>0.0004487232</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7208,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>kd: 2</t>
+          <t>kc: 2</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -7219,12 +7223,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>ph: 204</t>
+          <t>rr: 425</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.0010402219</t>
+          <t>0.0021671290</t>
         </is>
       </c>
     </row>
@@ -7234,12 +7238,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>gi: 190</t>
+          <t>if: 101</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.0009688341</t>
+          <t>0.0005150118</t>
         </is>
       </c>
     </row>
@@ -7264,12 +7268,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>fo: 60</t>
+          <t>lk: 24</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -7279,12 +7283,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>uy: 13</t>
+          <t>dt: 4</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7294,12 +7298,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>jn: 2</t>
+          <t>fn: 4</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7313,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>kw: 34</t>
+          <t>rl: 413</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.0001733703</t>
+          <t>0.0021059395</t>
         </is>
       </c>
     </row>
@@ -7324,12 +7328,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ig: 428</t>
+          <t>si: 684</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.0021824264</t>
+          <t>0.0034878029</t>
         </is>
       </c>
     </row>
@@ -7339,12 +7343,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>ko: 344</t>
+          <t>ks: 95</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.0017540997</t>
+          <t>0.0004844171</t>
         </is>
       </c>
     </row>
@@ -7354,12 +7358,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>za: 860</t>
+          <t>ts: 35</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.0043852492</t>
+          <t>0.0001784694</t>
         </is>
       </c>
     </row>
@@ -7369,12 +7373,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ih: 95</t>
+          <t>wa: 280</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.0004844171</t>
+          <t>0.0014277556</t>
         </is>
       </c>
     </row>
@@ -7384,12 +7388,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>oz: 54</t>
+          <t>xo: 41</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.0002753529</t>
+          <t>0.0002090642</t>
         </is>
       </c>
     </row>
@@ -7399,12 +7403,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ac: 470</t>
+          <t>sw: 24</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.0023965897</t>
+          <t>0.0001223790</t>
         </is>
       </c>
     </row>
@@ -7414,12 +7418,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>ur: 414</t>
+          <t>yr: 291</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.0021110386</t>
+          <t>0.0014838460</t>
         </is>
       </c>
     </row>
@@ -7429,12 +7433,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>iz: 277</t>
+          <t>ir: 849</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.0014124582</t>
+          <t>0.0043291588</t>
         </is>
       </c>
     </row>
@@ -7444,12 +7448,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>fn: 4</t>
+          <t>os: 504</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0025699600</t>
         </is>
       </c>
     </row>
@@ -7459,12 +7463,13 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>ty: 341</t>
+          <t>a
+: 6640</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.0017388023</t>
+          <t>0.0338582035</t>
         </is>
       </c>
     </row>
@@ -7474,12 +7479,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>hc: 2</t>
+          <t>xh: 1</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7494,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>lg: 6</t>
+          <t>la: 2623</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.0000305948</t>
+          <t>0.0133750102</t>
         </is>
       </c>
     </row>
@@ -7504,12 +7509,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>tj: 3</t>
+          <t>nh: 26</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7524,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>py: 12</t>
+          <t>pu: 4</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7534,12 +7539,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>fa: 242</t>
+          <t>kv: 2</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.0012339887</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7549,12 +7554,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>eo: 269</t>
+          <t>ka: 1731</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0088265889</t>
         </is>
       </c>
     </row>
@@ -7564,12 +7569,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>sw: 24</t>
+          <t>sb: 21</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0001070817</t>
         </is>
       </c>
     </row>
@@ -7579,12 +7584,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>pr: 151</t>
+          <t>se: 884</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.0007699682</t>
+          <t>0.0045076283</t>
         </is>
       </c>
     </row>
@@ -7594,12 +7599,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>rn: 140</t>
+          <t>al: 2528</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.0007138778</t>
+          <t>0.0128905931</t>
         </is>
       </c>
     </row>
@@ -7609,12 +7614,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>lq: 3</t>
+          <t>nt: 443</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0022589133</t>
         </is>
       </c>
     </row>
@@ -7624,12 +7629,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>zo: 110</t>
+          <t>tu: 78</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0003977319</t>
         </is>
       </c>
     </row>
@@ -7639,12 +7644,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>du: 92</t>
+          <t>dr: 424</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.0004691197</t>
+          <t>0.0021620299</t>
         </is>
       </c>
     </row>
@@ -7654,12 +7659,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ts: 35</t>
+          <t>er: 1958</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0099840907</t>
         </is>
       </c>
     </row>
@@ -7669,12 +7674,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ms: 35</t>
+          <t>mb: 112</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.0001784694</t>
+          <t>0.0005711022</t>
         </is>
       </c>
     </row>
@@ -7684,12 +7689,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>zg: 1</t>
+          <t>fr: 114</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0005813005</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7704,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>pe: 197</t>
+          <t>nu: 96</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.0010045280</t>
+          <t>0.0004895162</t>
         </is>
       </c>
     </row>
@@ -7714,13 +7719,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>o
-: 855</t>
+          <t>wy: 73</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.0043597536</t>
+          <t>0.0003722363</t>
         </is>
       </c>
     </row>
@@ -7730,12 +7734,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>dz: 1</t>
+          <t>ua: 163</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0008311577</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7749,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>pj: 1</t>
+          <t>xn: 1</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -7760,12 +7764,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>pm: 1</t>
+          <t>yx: 28</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -7775,12 +7779,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>zt: 4</t>
+          <t>de: 1283</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0065421800</t>
         </is>
       </c>
     </row>
@@ -7790,12 +7794,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>tz: 105</t>
+          <t>qs: 2</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.0005354083</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7805,12 +7809,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>th: 647</t>
+          <t>gw: 26</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.0032991352</t>
+          <t>0.0001325773</t>
         </is>
       </c>
     </row>
@@ -7820,12 +7824,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>nm: 19</t>
+          <t>ha: 2244</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.0000968834</t>
+          <t>0.0114424411</t>
         </is>
       </c>
     </row>
@@ -7835,12 +7839,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>lf: 22</t>
+          <t>ns: 278</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0014175573</t>
         </is>
       </c>
     </row>
@@ -7850,12 +7854,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>bd: 65</t>
+          <t>wu: 25</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.0003314433</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -7865,12 +7869,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>zu: 73</t>
+          <t>ws: 20</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -7880,12 +7884,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>yj: 23</t>
+          <t>av: 834</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.0001172799</t>
+          <t>0.0042526719</t>
         </is>
       </c>
     </row>
@@ -7895,12 +7899,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>ze: 373</t>
+          <t>mn: 20</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.0019019744</t>
+          <t>0.0001019825</t>
         </is>
       </c>
     </row>
@@ -7910,12 +7914,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>eq: 14</t>
+          <t>yp: 15</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.0000713878</t>
+          <t>0.0000764869</t>
         </is>
       </c>
     </row>
@@ -7925,12 +7929,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>ea: 679</t>
+          <t>zb: 4</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.0034623073</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -7940,12 +7944,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>ue: 169</t>
+          <t>zc: 2</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.0008617525</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -7955,12 +7959,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>nv: 55</t>
+          <t>uh: 58</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.0002804520</t>
+          <t>0.0002957494</t>
         </is>
       </c>
     </row>
@@ -7970,12 +7974,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>nd: 704</t>
+          <t>xm: 1</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.0035897854</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -7985,12 +7989,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>yl: 1104</t>
+          <t>ly: 1588</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.0056294362</t>
+          <t>0.0080974137</t>
         </is>
       </c>
     </row>
@@ -8000,12 +8004,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>wa: 280</t>
+          <t>ck: 316</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.0014277556</t>
+          <t>0.0016113241</t>
         </is>
       </c>
     </row>
@@ -8015,12 +8019,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>vu: 7</t>
+          <t>nd: 704</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.0000356939</t>
+          <t>0.0035897854</t>
         </is>
       </c>
     </row>
@@ -8030,12 +8034,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>iv: 269</t>
+          <t>yu: 141</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.0013716652</t>
+          <t>0.0007189769</t>
         </is>
       </c>
     </row>
@@ -8045,12 +8049,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ib: 110</t>
+          <t>yk: 86</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.0005609040</t>
+          <t>0.0004385249</t>
         </is>
       </c>
     </row>
@@ -8060,12 +8064,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>rq: 16</t>
+          <t>ik: 445</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0022691115</t>
         </is>
       </c>
     </row>
@@ -8075,12 +8079,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>ic: 509</t>
+          <t>iv: 269</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.0025954557</t>
+          <t>0.0013716652</t>
         </is>
       </c>
     </row>
@@ -8090,12 +8094,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>wf: 2</t>
+          <t>dk: 3</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8105,12 +8109,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>ou: 275</t>
+          <t>fu: 10</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.0014022599</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -8120,12 +8124,13 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>on: 2411</t>
+          <t>h
+: 2409</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.0122939953</t>
+          <t>0.0122837970</t>
         </is>
       </c>
     </row>
@@ -8135,12 +8140,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ah: 2332</t>
+          <t>pn: 1</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.0118911642</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8150,12 +8155,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>nh: 26</t>
+          <t>kf: 1</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.0001325773</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8165,12 +8170,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>pb: 2</t>
+          <t>yq: 6</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0000305948</t>
         </is>
       </c>
     </row>
@@ -8180,12 +8185,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>wy: 73</t>
+          <t>ga: 330</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.0003722363</t>
+          <t>0.0016827119</t>
         </is>
       </c>
     </row>
@@ -8195,12 +8200,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>tv: 15</t>
+          <t>xz: 19</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.0000764869</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -8210,12 +8215,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>dd: 149</t>
+          <t>ro: 869</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.0007597699</t>
+          <t>0.0044311414</t>
         </is>
       </c>
     </row>
@@ -8225,12 +8230,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>qr: 1</t>
+          <t>wi: 148</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -8240,13 +8245,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>z
-: 160</t>
+          <t>fg: 1</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.0008158603</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8256,12 +8260,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>ql: 1</t>
+          <t>zr: 32</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0001631721</t>
         </is>
       </c>
     </row>
@@ -8271,12 +8275,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ij: 76</t>
+          <t>kt: 17</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.0003875337</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8290,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>ce: 551</t>
+          <t>da: 1303</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.0028096190</t>
+          <t>0.0066441625</t>
         </is>
       </c>
     </row>
@@ -8301,12 +8305,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ha: 2244</t>
+          <t>as: 1118</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.0114424411</t>
+          <t>0.0057008240</t>
         </is>
       </c>
     </row>
@@ -8331,13 +8335,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>v
-: 88</t>
+          <t>eq: 14</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.0004487232</t>
+          <t>0.0000713878</t>
         </is>
       </c>
     </row>
@@ -8347,12 +8350,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>nt: 443</t>
+          <t>bb: 38</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.0022589133</t>
+          <t>0.0001937668</t>
         </is>
       </c>
     </row>
@@ -8362,12 +8365,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>pu: 4</t>
+          <t>oz: 54</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0002753529</t>
         </is>
       </c>
     </row>
@@ -8377,12 +8380,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>su: 185</t>
+          <t>we: 149</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.0009433385</t>
+          <t>0.0007597699</t>
         </is>
       </c>
     </row>
@@ -8392,12 +8395,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>ld: 138</t>
+          <t>jp: 1</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.0007036795</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8407,12 +8410,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>gb: 3</t>
+          <t>eg: 125</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0006373909</t>
         </is>
       </c>
     </row>
@@ -8422,12 +8425,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>db: 1</t>
+          <t>iw: 8</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -8437,12 +8440,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>hs: 31</t>
+          <t>bo: 105</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0005354083</t>
         </is>
       </c>
     </row>
@@ -8452,12 +8455,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>tg: 2</t>
+          <t>tt: 374</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0019070735</t>
         </is>
       </c>
     </row>
@@ -8467,12 +8470,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>ey: 1070</t>
+          <t>ld: 138</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.0054560659</t>
+          <t>0.0007036795</t>
         </is>
       </c>
     </row>
@@ -8482,12 +8485,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>kz: 2</t>
+          <t>ym: 148</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0007546708</t>
         </is>
       </c>
     </row>
@@ -8497,12 +8500,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>zk: 2</t>
+          <t>ot: 118</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0006016970</t>
         </is>
       </c>
     </row>
@@ -8512,12 +8515,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>mz: 11</t>
+          <t>eb: 121</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0006169944</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8530,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>gu: 85</t>
+          <t>pt: 17</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.0004334258</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -8542,12 +8545,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>lw: 16</t>
+          <t>gd: 19</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000968834</t>
         </is>
       </c>
     </row>
@@ -8557,12 +8560,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>dl: 60</t>
+          <t>uu: 3</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0000152974</t>
         </is>
       </c>
     </row>
@@ -8572,12 +8575,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>wg: 1</t>
+          <t>it: 541</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0027586277</t>
         </is>
       </c>
     </row>
@@ -8587,12 +8590,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>ck: 316</t>
+          <t>ix: 89</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.0016113241</t>
+          <t>0.0004538223</t>
         </is>
       </c>
     </row>
@@ -8602,12 +8605,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>ca: 815</t>
+          <t>km: 9</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.0041557885</t>
+          <t>0.0000458921</t>
         </is>
       </c>
     </row>
@@ -8617,12 +8620,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>nk: 58</t>
+          <t>rj: 25</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.0002957494</t>
+          <t>0.0001274782</t>
         </is>
       </c>
     </row>
@@ -8632,12 +8635,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>up: 16</t>
+          <t>pm: 1</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.0000815860</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8647,13 +8650,12 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>u
-: 155</t>
+          <t>ju: 202</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.0007903647</t>
+          <t>0.0010300237</t>
         </is>
       </c>
     </row>
@@ -8663,12 +8665,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>cy: 104</t>
+          <t>wt: 8</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0000407930</t>
         </is>
       </c>
     </row>
@@ -8678,12 +8680,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>ie: 1653</t>
+          <t>du: 92</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.0084288570</t>
+          <t>0.0004691197</t>
         </is>
       </c>
     </row>
@@ -8693,13 +8695,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>f
-: 80</t>
+          <t>wr: 22</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.0004079302</t>
+          <t>0.0001121808</t>
         </is>
       </c>
     </row>
@@ -8709,12 +8710,12 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>mp: 38</t>
+          <t>vh: 1</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.0001937668</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8724,12 +8725,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ka: 1731</t>
+          <t>np: 5</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.0088265889</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -8739,12 +8740,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>xn: 1</t>
+          <t>do: 378</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0019274700</t>
         </is>
       </c>
     </row>
@@ -8754,12 +8755,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>ix: 89</t>
+          <t>nf: 11</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.0004538223</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -8769,12 +8770,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>sc: 60</t>
+          <t>zn: 4</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.0003059476</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8784,12 +8785,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>sb: 21</t>
+          <t>oj: 16</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.0001070817</t>
+          <t>0.0000815860</t>
         </is>
       </c>
     </row>
@@ -8799,12 +8800,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>dc: 3</t>
+          <t>fa: 242</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0012339887</t>
         </is>
       </c>
     </row>
@@ -8814,12 +8815,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>ti: 532</t>
+          <t>cz: 4</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.0027127356</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8829,12 +8830,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>yt: 104</t>
+          <t>df: 5</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.0005303092</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -8844,12 +8845,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>ab: 541</t>
+          <t>xc: 4</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.0027586277</t>
+          <t>0.0000203965</t>
         </is>
       </c>
     </row>
@@ -8859,12 +8860,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>yh: 22</t>
+          <t>uo: 10</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.0001121808</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -8874,12 +8875,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>ri: 3033</t>
+          <t>dv: 17</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.0154656523</t>
+          <t>0.0000866852</t>
         </is>
       </c>
     </row>
@@ -8889,12 +8890,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>oe: 132</t>
+          <t>pp: 39</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.0006730848</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -8904,13 +8905,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>g
-: 108</t>
+          <t>jr: 11</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.0005507057</t>
+          <t>0.0000560904</t>
         </is>
       </c>
     </row>
@@ -8920,12 +8920,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>my: 287</t>
+          <t>tx: 2</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.0014634495</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -8935,12 +8935,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>dy: 317</t>
+          <t>zx: 1</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.0016164233</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -8950,12 +8950,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>hw: 10</t>
+          <t>by: 83</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.0000509913</t>
+          <t>0.0004232275</t>
         </is>
       </c>
     </row>
@@ -8965,12 +8965,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>ga: 330</t>
+          <t>wo: 36</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.0016827119</t>
+          <t>0.0001835686</t>
         </is>
       </c>
     </row>
@@ -8980,12 +8980,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>qi: 13</t>
+          <t>jy: 10</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.0000662887</t>
+          <t>0.0000509913</t>
         </is>
       </c>
     </row>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>jc: 4</t>
+          <t>bn: 4</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -9010,12 +9010,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>mt: 4</t>
+          <t>jb: 1</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9025,12 +9025,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>gj: 3</t>
+          <t>bi: 217</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0011065106</t>
         </is>
       </c>
     </row>
@@ -9040,12 +9040,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>me: 818</t>
+          <t>rs: 190</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.0041710859</t>
+          <t>0.0009688341</t>
         </is>
       </c>
     </row>
@@ -9055,12 +9055,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>ji: 119</t>
+          <t>co: 380</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.0006067961</t>
+          <t>0.0019376683</t>
         </is>
       </c>
     </row>
@@ -9070,12 +9070,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>vh: 1</t>
+          <t>ob: 140</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0007138778</t>
         </is>
       </c>
     </row>
@@ -9085,12 +9085,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>tm: 4</t>
+          <t>qi: 13</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.0000203965</t>
+          <t>0.0000662887</t>
         </is>
       </c>
     </row>
@@ -9100,12 +9100,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>ve: 568</t>
+          <t>yj: 23</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.0028963042</t>
+          <t>0.0001172799</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>mu: 139</t>
+          <t>us: 474</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.0007087787</t>
+          <t>0.0024169862</t>
         </is>
       </c>
     </row>
@@ -9130,12 +9130,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>cx: 3</t>
+          <t>ft: 18</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -9145,13 +9145,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>i
-: 2489</t>
+          <t>hv: 39</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.0126917272</t>
+          <t>0.0001988660</t>
         </is>
       </c>
     </row>
@@ -9161,12 +9160,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>el: 3248</t>
+          <t>xd: 5</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.0165619646</t>
+          <t>0.0000254956</t>
         </is>
       </c>
     </row>
@@ -9176,12 +9175,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>lo: 692</t>
+          <t>bc: 1</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.0035285959</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9190,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>xa: 103</t>
+          <t>lr: 18</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.0005252101</t>
+          <t>0.0000917843</t>
         </is>
       </c>
     </row>
@@ -9206,12 +9205,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>jr: 11</t>
+          <t>nn: 1906</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0097189361</t>
         </is>
       </c>
     </row>
@@ -9221,12 +9220,12 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>ye: 301</t>
+          <t>oi: 69</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.0015348372</t>
+          <t>0.0003518398</t>
         </is>
       </c>
     </row>
@@ -9236,12 +9235,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>ee: 1271</t>
+          <t>in: 2126</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.0064809905</t>
+          <t>0.0108407441</t>
         </is>
       </c>
     </row>
@@ -9251,12 +9250,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>ol: 619</t>
+          <t>vd: 1</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.0031563596</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9266,13 +9265,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>k
-: 363</t>
+          <t>pf: 1</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.0018509831</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9282,12 +9280,13 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>sn: 24</t>
+          <t>q
+: 28</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.0001223790</t>
+          <t>0.0001427756</t>
         </is>
       </c>
     </row>
@@ -9297,12 +9296,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>yx: 28</t>
+          <t>ie: 1653</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.0001427756</t>
+          <t>0.0084288570</t>
         </is>
       </c>
     </row>
@@ -9312,12 +9311,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>gy: 31</t>
+          <t>cd: 1</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.0001580729</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9326,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>kj: 2</t>
+          <t>sj: 2</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -9342,12 +9341,13 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>kv: 2</t>
+          <t>i
+: 2489</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.0000101983</t>
+          <t>0.0126917272</t>
         </is>
       </c>
     </row>
@@ -9357,12 +9357,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>lb: 52</t>
+          <t>ky: 379</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.0002651546</t>
+          <t>0.0019325691</t>
         </is>
       </c>
     </row>
@@ -9372,12 +9372,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>yf: 12</t>
+          <t>fk: 2</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.0000611895</t>
+          <t>0.0000101983</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9387,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>ym: 148</t>
+          <t>be: 655</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.0007546708</t>
+          <t>0.0033399282</t>
         </is>
       </c>
     </row>
@@ -9402,12 +9402,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>nw: 11</t>
+          <t>pa: 209</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.0000560904</t>
+          <t>0.0010657175</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>ay: 2050</t>
+          <t>om: 261</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.0104532104</t>
+          <t>0.0013308722</t>
         </is>
       </c>
     </row>
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>oi: 69</t>
+          <t>fh: 1</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.0003518398</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9447,12 +9447,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>eg: 125</t>
+          <t>tb: 1</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.0006373909</t>
+          <t>0.0000050991</t>
         </is>
       </c>
     </row>
@@ -9462,12 +9462,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>xh: 1</t>
+          <t>yl: 1104</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.0000050991</t>
+          <t>0.0056294362</t>
         </is>
       </c>
     </row>
@@ -9477,12 +9477,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>mv: 3</t>
+          <t>ez: 181</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.0000152974</t>
+          <t>0.0009229420</t>
         </is>
       </c>
     </row>
